--- a/Carto Icons/POI/PDS_Category_Assignment.xlsx
+++ b/Carto Icons/POI/PDS_Category_Assignment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lembke/Desktop/HERE/OneDrive/HERE Global B.V/LUI - Documents/03 Design/LUI Icons/05_Carto Icons/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lembke/Desktop/HERE/GIT/icons-by-here-technologies/Carto Icons/POI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7630598F-EA90-1E40-B934-AA64C1BFE18E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{646461C3-789A-9746-A063-EA02B6E6A4F1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA93A1CC-B8CF-ED45-94D1-7E79B963AF98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{C64EB798-04F6-AE43-9DCC-0EA02E11247A}"/>
   </bookViews>
@@ -2740,9 +2740,6 @@
     <t>400-4100-0340_aerial-tramway.svg</t>
   </si>
   <si>
-    <t>400-4100-0339_inclined-rail.svg</t>
-  </si>
-  <si>
     <t>400-4300-0000_rest-area.svg</t>
   </si>
   <si>
@@ -3005,6 +3002,9 @@
   </si>
   <si>
     <t>000-0000-0000_generic.svg</t>
+  </si>
+  <si>
+    <t>400-4100-0342_inclined-rail.svg</t>
   </si>
 </sst>
 </file>
@@ -3453,6 +3453,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3469,12 +3475,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12336,8 +12336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693BBA9B-95F3-BD4A-928B-DD81DFE8C409}">
   <dimension ref="A1:I422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C57" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="C86" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="50" customHeight="1" outlineLevelCol="1"/>
@@ -12394,10 +12394,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="50" customHeight="1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="40" t="s">
         <v>828</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="40" t="s">
         <v>837</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -12415,8 +12415,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="50" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
@@ -12432,8 +12432,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="50" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
@@ -12449,8 +12449,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="50" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -12466,8 +12466,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="50" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
@@ -12483,8 +12483,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="50" customHeight="1">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
@@ -12500,8 +12500,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50" customHeight="1">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
@@ -12517,8 +12517,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="50" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
@@ -12534,8 +12534,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="50" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
@@ -12551,8 +12551,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="50" customHeight="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40" t="s">
         <v>838</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -12570,8 +12570,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="50" customHeight="1">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
@@ -12587,8 +12587,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="50" customHeight="1">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="8" t="s">
         <v>25</v>
       </c>
@@ -12604,8 +12604,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="50" customHeight="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
@@ -12630,10 +12630,10 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" ht="50" customHeight="1">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="39" t="s">
         <v>835</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="39" t="s">
         <v>840</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -12651,8 +12651,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="50" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="8" t="s">
         <v>31</v>
       </c>
@@ -12668,8 +12668,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="50" customHeight="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="8" t="s">
         <v>33</v>
       </c>
@@ -12685,8 +12685,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="50" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="8" t="s">
         <v>35</v>
       </c>
@@ -12702,8 +12702,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="50" customHeight="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="8" t="s">
         <v>37</v>
       </c>
@@ -12719,8 +12719,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="50" customHeight="1">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="8" t="s">
         <v>39</v>
       </c>
@@ -12736,8 +12736,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="50" customHeight="1">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="8" t="s">
         <v>41</v>
       </c>
@@ -12753,8 +12753,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="50" customHeight="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="8" t="s">
         <v>43</v>
       </c>
@@ -12770,8 +12770,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="50" customHeight="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="8" t="s">
         <v>45</v>
       </c>
@@ -12787,8 +12787,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="50" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="15" t="s">
         <v>47</v>
       </c>
@@ -12796,15 +12796,15 @@
         <v>48</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="50" customHeight="1">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="8" t="s">
         <v>49</v>
       </c>
@@ -12820,8 +12820,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="50" customHeight="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="8" t="s">
         <v>51</v>
       </c>
@@ -12837,7 +12837,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="50" customHeight="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="16" t="s">
         <v>841</v>
       </c>
@@ -12856,8 +12856,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="50" customHeight="1">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45" t="s">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39" t="s">
         <v>842</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -12875,8 +12875,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="50" customHeight="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="8" t="s">
         <v>57</v>
       </c>
@@ -12892,8 +12892,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="50" customHeight="1">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39" t="s">
         <v>843</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -12911,8 +12911,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="50" customHeight="1">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="8" t="s">
         <v>61</v>
       </c>
@@ -12928,8 +12928,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="50" customHeight="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="8" t="s">
         <v>63</v>
       </c>
@@ -12953,10 +12953,10 @@
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="50" customHeight="1">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="39" t="s">
         <v>839</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="39" t="s">
         <v>856</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -12974,8 +12974,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="50" customHeight="1">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="8" t="s">
         <v>67</v>
       </c>
@@ -12991,8 +12991,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="50" customHeight="1">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="8" t="s">
         <v>69</v>
       </c>
@@ -13008,8 +13008,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="50" customHeight="1">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="8" t="s">
         <v>71</v>
       </c>
@@ -13025,8 +13025,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="50" customHeight="1">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="8" t="s">
         <v>73</v>
       </c>
@@ -13040,8 +13040,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="50" customHeight="1">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="8" t="s">
         <v>75</v>
       </c>
@@ -13055,8 +13055,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="50" customHeight="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="8" t="s">
         <v>77</v>
       </c>
@@ -13070,8 +13070,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="50" customHeight="1">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="8" t="s">
         <v>79</v>
       </c>
@@ -13087,8 +13087,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="50" customHeight="1">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45" t="s">
+      <c r="A44" s="39"/>
+      <c r="B44" s="39" t="s">
         <v>857</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -13106,8 +13106,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="50" customHeight="1">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="8" t="s">
         <v>83</v>
       </c>
@@ -13123,8 +13123,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="50" customHeight="1">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="8" t="s">
         <v>85</v>
       </c>
@@ -13140,8 +13140,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="50" customHeight="1">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="8" t="s">
         <v>87</v>
       </c>
@@ -13157,8 +13157,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="50" customHeight="1">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="8" t="s">
         <v>89</v>
       </c>
@@ -13174,8 +13174,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="50" customHeight="1">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45" t="s">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39" t="s">
         <v>858</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -13193,8 +13193,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="50" customHeight="1">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="8" t="s">
         <v>93</v>
       </c>
@@ -13210,8 +13210,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="50" customHeight="1">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="8" t="s">
         <v>95</v>
       </c>
@@ -13227,8 +13227,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="50" customHeight="1">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="8" t="s">
         <v>97</v>
       </c>
@@ -13244,8 +13244,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="50" customHeight="1">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
       <c r="C53" s="8" t="s">
         <v>99</v>
       </c>
@@ -13261,8 +13261,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="50" customHeight="1">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
       <c r="C54" s="8" t="s">
         <v>101</v>
       </c>
@@ -13278,8 +13278,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="50" customHeight="1">
-      <c r="A55" s="45"/>
-      <c r="B55" s="45"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="8" t="s">
         <v>103</v>
       </c>
@@ -13295,8 +13295,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="50" customHeight="1">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="8" t="s">
         <v>105</v>
       </c>
@@ -13320,10 +13320,10 @@
       <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:7" ht="50" customHeight="1">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="41" t="s">
         <v>859</v>
       </c>
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="41" t="s">
         <v>860</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -13339,8 +13339,8 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="50" customHeight="1">
-      <c r="A59" s="40"/>
-      <c r="B59" s="40"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="8" t="s">
         <v>109</v>
       </c>
@@ -13354,8 +13354,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="50" customHeight="1">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="8" t="s">
         <v>111</v>
       </c>
@@ -13369,8 +13369,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="50" customHeight="1">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="8" t="s">
         <v>113</v>
       </c>
@@ -13386,8 +13386,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="50" customHeight="1">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="8" t="s">
         <v>115</v>
       </c>
@@ -13401,8 +13401,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="50" customHeight="1">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
       <c r="C63" s="8" t="s">
         <v>117</v>
       </c>
@@ -13416,8 +13416,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="50" customHeight="1">
-      <c r="A64" s="40"/>
-      <c r="B64" s="41"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="8" t="s">
         <v>119</v>
       </c>
@@ -13431,8 +13431,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="50" customHeight="1">
-      <c r="A65" s="40"/>
-      <c r="B65" s="39" t="s">
+      <c r="A65" s="42"/>
+      <c r="B65" s="41" t="s">
         <v>861</v>
       </c>
       <c r="C65" s="8" t="s">
@@ -13442,7 +13442,7 @@
         <v>122</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="22" t="s">
@@ -13450,8 +13450,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="50" customHeight="1">
-      <c r="A66" s="40"/>
-      <c r="B66" s="40"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
       <c r="C66" s="8" t="s">
         <v>123</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>124</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="22" t="s">
@@ -13467,8 +13467,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="50" customHeight="1">
-      <c r="A67" s="40"/>
-      <c r="B67" s="41"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="43"/>
       <c r="C67" s="8" t="s">
         <v>125</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>126</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="22" t="s">
@@ -13484,7 +13484,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="50" customHeight="1">
-      <c r="A68" s="40"/>
+      <c r="A68" s="42"/>
       <c r="B68" s="16" t="s">
         <v>862</v>
       </c>
@@ -13501,7 +13501,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="50" customHeight="1">
-      <c r="A69" s="40"/>
+      <c r="A69" s="42"/>
       <c r="B69" s="16" t="s">
         <v>863</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>130</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="22" t="s">
@@ -13520,7 +13520,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="50" customHeight="1">
-      <c r="A70" s="41"/>
+      <c r="A70" s="43"/>
       <c r="B70" s="16" t="s">
         <v>864</v>
       </c>
@@ -13531,7 +13531,7 @@
         <v>132</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="22" t="s">
@@ -13547,10 +13547,10 @@
       <c r="F71" s="10"/>
     </row>
     <row r="72" spans="1:7" ht="50" customHeight="1">
-      <c r="A72" s="39" t="s">
+      <c r="A72" s="41" t="s">
         <v>872</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="41" t="s">
         <v>874</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -13568,8 +13568,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="50" customHeight="1">
-      <c r="A73" s="40"/>
-      <c r="B73" s="40"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="42"/>
       <c r="C73" s="8" t="s">
         <v>135</v>
       </c>
@@ -13585,8 +13585,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="50" customHeight="1">
-      <c r="A74" s="40"/>
-      <c r="B74" s="41"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="43"/>
       <c r="C74" s="8" t="s">
         <v>137</v>
       </c>
@@ -13602,8 +13602,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="50" customHeight="1">
-      <c r="A75" s="40"/>
-      <c r="B75" s="39" t="s">
+      <c r="A75" s="42"/>
+      <c r="B75" s="41" t="s">
         <v>873</v>
       </c>
       <c r="C75" s="8" t="s">
@@ -13621,8 +13621,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="50" customHeight="1">
-      <c r="A76" s="40"/>
-      <c r="B76" s="40"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="8" t="s">
         <v>141</v>
       </c>
@@ -13638,8 +13638,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="50" customHeight="1">
-      <c r="A77" s="40"/>
-      <c r="B77" s="40"/>
+      <c r="A77" s="42"/>
+      <c r="B77" s="42"/>
       <c r="C77" s="8" t="s">
         <v>143</v>
       </c>
@@ -13655,8 +13655,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="50" customHeight="1">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="8" t="s">
         <v>145</v>
       </c>
@@ -13672,8 +13672,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="50" customHeight="1">
-      <c r="A79" s="40"/>
-      <c r="B79" s="40"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="8" t="s">
         <v>147</v>
       </c>
@@ -13689,8 +13689,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="50" customHeight="1">
-      <c r="A80" s="40"/>
-      <c r="B80" s="40"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="8" t="s">
         <v>149</v>
       </c>
@@ -13704,8 +13704,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="50" customHeight="1">
-      <c r="A81" s="40"/>
-      <c r="B81" s="40"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="8" t="s">
         <v>151</v>
       </c>
@@ -13719,8 +13719,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="50" customHeight="1">
-      <c r="A82" s="40"/>
-      <c r="B82" s="40"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="8" t="s">
         <v>153</v>
       </c>
@@ -13736,8 +13736,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="50" customHeight="1">
-      <c r="A83" s="40"/>
-      <c r="B83" s="40"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="8" t="s">
         <v>155</v>
       </c>
@@ -13751,8 +13751,8 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="50" customHeight="1">
-      <c r="A84" s="40"/>
-      <c r="B84" s="40"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="42"/>
       <c r="C84" s="8" t="s">
         <v>157</v>
       </c>
@@ -13768,8 +13768,8 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="50" customHeight="1">
-      <c r="A85" s="40"/>
-      <c r="B85" s="40"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="42"/>
       <c r="C85" s="8" t="s">
         <v>159</v>
       </c>
@@ -13785,8 +13785,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="50" customHeight="1">
-      <c r="A86" s="40"/>
-      <c r="B86" s="40"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="8" t="s">
         <v>161</v>
       </c>
@@ -13802,8 +13802,8 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="50" customHeight="1">
-      <c r="A87" s="40"/>
-      <c r="B87" s="40"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="42"/>
       <c r="C87" s="8" t="s">
         <v>163</v>
       </c>
@@ -13822,8 +13822,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="50" customHeight="1">
-      <c r="A88" s="40"/>
-      <c r="B88" s="40"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="42"/>
       <c r="C88" s="8" t="s">
         <v>165</v>
       </c>
@@ -13837,8 +13837,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="50" customHeight="1">
-      <c r="A89" s="40"/>
-      <c r="B89" s="40"/>
+      <c r="A89" s="42"/>
+      <c r="B89" s="42"/>
       <c r="C89" s="8" t="s">
         <v>167</v>
       </c>
@@ -13854,8 +13854,8 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="50" customHeight="1">
-      <c r="A90" s="40"/>
-      <c r="B90" s="40"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="42"/>
       <c r="C90" s="8" t="s">
         <v>169</v>
       </c>
@@ -13871,8 +13871,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="50" customHeight="1">
-      <c r="A91" s="40"/>
-      <c r="B91" s="40"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="42"/>
       <c r="C91" s="8" t="s">
         <v>171</v>
       </c>
@@ -13886,8 +13886,8 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="50" customHeight="1">
-      <c r="A92" s="40"/>
-      <c r="B92" s="40"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="42"/>
       <c r="C92" s="8" t="s">
         <v>173</v>
       </c>
@@ -13903,8 +13903,8 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="50" customHeight="1">
-      <c r="A93" s="40"/>
-      <c r="B93" s="40"/>
+      <c r="A93" s="42"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="8" t="s">
         <v>175</v>
       </c>
@@ -13920,8 +13920,8 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="50" customHeight="1">
-      <c r="A94" s="40"/>
-      <c r="B94" s="40"/>
+      <c r="A94" s="42"/>
+      <c r="B94" s="42"/>
       <c r="C94" s="8" t="s">
         <v>177</v>
       </c>
@@ -13935,8 +13935,8 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="50" customHeight="1">
-      <c r="A95" s="40"/>
-      <c r="B95" s="40"/>
+      <c r="A95" s="42"/>
+      <c r="B95" s="42"/>
       <c r="C95" s="8" t="s">
         <v>179</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>180</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>898</v>
+        <v>986</v>
       </c>
       <c r="F95" s="10"/>
       <c r="G95" s="26" t="s">
@@ -13952,8 +13952,8 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="50" customHeight="1">
-      <c r="A96" s="40"/>
-      <c r="B96" s="40"/>
+      <c r="A96" s="42"/>
+      <c r="B96" s="42"/>
       <c r="C96" s="8" t="s">
         <v>181</v>
       </c>
@@ -13967,8 +13967,8 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="50" customHeight="1">
-      <c r="A97" s="40"/>
-      <c r="B97" s="41"/>
+      <c r="A97" s="42"/>
+      <c r="B97" s="43"/>
       <c r="C97" s="8" t="s">
         <v>183</v>
       </c>
@@ -13982,8 +13982,8 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="50" customHeight="1">
-      <c r="A98" s="40"/>
-      <c r="B98" s="39" t="s">
+      <c r="A98" s="42"/>
+      <c r="B98" s="41" t="s">
         <v>875</v>
       </c>
       <c r="C98" s="8" t="s">
@@ -13999,8 +13999,8 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="50" customHeight="1">
-      <c r="A99" s="40"/>
-      <c r="B99" s="40"/>
+      <c r="A99" s="42"/>
+      <c r="B99" s="42"/>
       <c r="C99" s="8" t="s">
         <v>187</v>
       </c>
@@ -14014,8 +14014,8 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="50" customHeight="1">
-      <c r="A100" s="40"/>
-      <c r="B100" s="40"/>
+      <c r="A100" s="42"/>
+      <c r="B100" s="42"/>
       <c r="C100" s="8" t="s">
         <v>189</v>
       </c>
@@ -14029,8 +14029,8 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="50" customHeight="1">
-      <c r="A101" s="40"/>
-      <c r="B101" s="40"/>
+      <c r="A101" s="42"/>
+      <c r="B101" s="42"/>
       <c r="C101" s="8" t="s">
         <v>191</v>
       </c>
@@ -14044,8 +14044,8 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="50" customHeight="1">
-      <c r="A102" s="40"/>
-      <c r="B102" s="40"/>
+      <c r="A102" s="42"/>
+      <c r="B102" s="42"/>
       <c r="C102" s="8" t="s">
         <v>193</v>
       </c>
@@ -14059,8 +14059,8 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="50" customHeight="1">
-      <c r="A103" s="40"/>
-      <c r="B103" s="40"/>
+      <c r="A103" s="42"/>
+      <c r="B103" s="42"/>
       <c r="C103" s="8" t="s">
         <v>195</v>
       </c>
@@ -14074,8 +14074,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="50" customHeight="1">
-      <c r="A104" s="40"/>
-      <c r="B104" s="40"/>
+      <c r="A104" s="42"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="8" t="s">
         <v>197</v>
       </c>
@@ -14089,8 +14089,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="50" customHeight="1">
-      <c r="A105" s="40"/>
-      <c r="B105" s="40"/>
+      <c r="A105" s="42"/>
+      <c r="B105" s="42"/>
       <c r="C105" s="8" t="s">
         <v>199</v>
       </c>
@@ -14104,8 +14104,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="50" customHeight="1">
-      <c r="A106" s="40"/>
-      <c r="B106" s="40"/>
+      <c r="A106" s="42"/>
+      <c r="B106" s="42"/>
       <c r="C106" s="8" t="s">
         <v>201</v>
       </c>
@@ -14119,8 +14119,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="50" customHeight="1">
-      <c r="A107" s="40"/>
-      <c r="B107" s="41"/>
+      <c r="A107" s="42"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="8" t="s">
         <v>203</v>
       </c>
@@ -14134,8 +14134,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="50" customHeight="1">
-      <c r="A108" s="40"/>
-      <c r="B108" s="39" t="s">
+      <c r="A108" s="42"/>
+      <c r="B108" s="41" t="s">
         <v>876</v>
       </c>
       <c r="C108" s="8" t="s">
@@ -14145,7 +14145,7 @@
         <v>206</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="25" t="s">
@@ -14153,8 +14153,8 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="50" customHeight="1">
-      <c r="A109" s="40"/>
-      <c r="B109" s="40"/>
+      <c r="A109" s="42"/>
+      <c r="B109" s="42"/>
       <c r="C109" s="8" t="s">
         <v>207</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>208</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F109" s="10"/>
       <c r="G109" s="25" t="s">
@@ -14170,8 +14170,8 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="50" customHeight="1">
-      <c r="A110" s="40"/>
-      <c r="B110" s="40"/>
+      <c r="A110" s="42"/>
+      <c r="B110" s="42"/>
       <c r="C110" s="8" t="s">
         <v>209</v>
       </c>
@@ -14179,7 +14179,7 @@
         <v>210</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F110" s="10"/>
       <c r="G110" s="25" t="s">
@@ -14187,8 +14187,8 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="50" customHeight="1">
-      <c r="A111" s="40"/>
-      <c r="B111" s="40"/>
+      <c r="A111" s="42"/>
+      <c r="B111" s="42"/>
       <c r="C111" s="8" t="s">
         <v>211</v>
       </c>
@@ -14196,7 +14196,7 @@
         <v>212</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="25" t="s">
@@ -14204,8 +14204,8 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="50" customHeight="1">
-      <c r="A112" s="40"/>
-      <c r="B112" s="40"/>
+      <c r="A112" s="42"/>
+      <c r="B112" s="42"/>
       <c r="C112" s="8" t="s">
         <v>213</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>214</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F112" s="10"/>
       <c r="G112" s="25" t="s">
@@ -14221,8 +14221,8 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="50" customHeight="1">
-      <c r="A113" s="41"/>
-      <c r="B113" s="41"/>
+      <c r="A113" s="43"/>
+      <c r="B113" s="43"/>
       <c r="C113" s="8" t="s">
         <v>215</v>
       </c>
@@ -14230,7 +14230,7 @@
         <v>216</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F113" s="10"/>
       <c r="G113" s="25" t="s">
@@ -14245,10 +14245,10 @@
       <c r="F114" s="10"/>
     </row>
     <row r="115" spans="1:7" ht="50" customHeight="1">
-      <c r="A115" s="39" t="s">
+      <c r="A115" s="41" t="s">
         <v>878</v>
       </c>
-      <c r="B115" s="39" t="s">
+      <c r="B115" s="41" t="s">
         <v>879</v>
       </c>
       <c r="C115" s="8" t="s">
@@ -14266,8 +14266,8 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="50" customHeight="1">
-      <c r="A116" s="40"/>
-      <c r="B116" s="40"/>
+      <c r="A116" s="42"/>
+      <c r="B116" s="42"/>
       <c r="C116" s="8" t="s">
         <v>219</v>
       </c>
@@ -14283,8 +14283,8 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="50" customHeight="1">
-      <c r="A117" s="40"/>
-      <c r="B117" s="41"/>
+      <c r="A117" s="42"/>
+      <c r="B117" s="43"/>
       <c r="C117" s="8" t="s">
         <v>221</v>
       </c>
@@ -14300,8 +14300,8 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="50" customHeight="1">
-      <c r="A118" s="40"/>
-      <c r="B118" s="39" t="s">
+      <c r="A118" s="42"/>
+      <c r="B118" s="41" t="s">
         <v>880</v>
       </c>
       <c r="C118" s="8" t="s">
@@ -14319,8 +14319,8 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="50" customHeight="1">
-      <c r="A119" s="40"/>
-      <c r="B119" s="40"/>
+      <c r="A119" s="42"/>
+      <c r="B119" s="42"/>
       <c r="C119" s="8" t="s">
         <v>225</v>
       </c>
@@ -14336,8 +14336,8 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="50" customHeight="1">
-      <c r="A120" s="40"/>
-      <c r="B120" s="40"/>
+      <c r="A120" s="42"/>
+      <c r="B120" s="42"/>
       <c r="C120" s="8" t="s">
         <v>227</v>
       </c>
@@ -14353,8 +14353,8 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="50" customHeight="1">
-      <c r="A121" s="40"/>
-      <c r="B121" s="40"/>
+      <c r="A121" s="42"/>
+      <c r="B121" s="42"/>
       <c r="C121" s="8" t="s">
         <v>229</v>
       </c>
@@ -14370,8 +14370,8 @@
       </c>
     </row>
     <row r="122" spans="1:7" ht="50" customHeight="1">
-      <c r="A122" s="40"/>
-      <c r="B122" s="40"/>
+      <c r="A122" s="42"/>
+      <c r="B122" s="42"/>
       <c r="C122" s="8" t="s">
         <v>231</v>
       </c>
@@ -14387,8 +14387,8 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="50" customHeight="1">
-      <c r="A123" s="40"/>
-      <c r="B123" s="40"/>
+      <c r="A123" s="42"/>
+      <c r="B123" s="42"/>
       <c r="C123" s="8" t="s">
         <v>233</v>
       </c>
@@ -14404,8 +14404,8 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="50" customHeight="1">
-      <c r="A124" s="40"/>
-      <c r="B124" s="40"/>
+      <c r="A124" s="42"/>
+      <c r="B124" s="42"/>
       <c r="C124" s="8" t="s">
         <v>235</v>
       </c>
@@ -14429,11 +14429,11 @@
       <c r="F125" s="10"/>
     </row>
     <row r="126" spans="1:7" ht="50" customHeight="1">
-      <c r="A126" s="40" t="s">
+      <c r="A126" s="42" t="s">
+        <v>901</v>
+      </c>
+      <c r="B126" s="42" t="s">
         <v>902</v>
-      </c>
-      <c r="B126" s="40" t="s">
-        <v>903</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>237</v>
@@ -14442,16 +14442,16 @@
         <v>238</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F126" s="10"/>
       <c r="G126" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="50" customHeight="1">
-      <c r="A127" s="40"/>
-      <c r="B127" s="40"/>
+      <c r="A127" s="42"/>
+      <c r="B127" s="42"/>
       <c r="C127" s="8" t="s">
         <v>239</v>
       </c>
@@ -14459,16 +14459,16 @@
         <v>240</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F127" s="10"/>
       <c r="G127" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="50" customHeight="1">
-      <c r="A128" s="40"/>
-      <c r="B128" s="40"/>
+      <c r="A128" s="42"/>
+      <c r="B128" s="42"/>
       <c r="C128" s="8" t="s">
         <v>241</v>
       </c>
@@ -14478,12 +14478,12 @@
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
       <c r="G128" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="50" customHeight="1">
-      <c r="A129" s="40"/>
-      <c r="B129" s="40"/>
+      <c r="A129" s="42"/>
+      <c r="B129" s="42"/>
       <c r="C129" s="8" t="s">
         <v>243</v>
       </c>
@@ -14491,16 +14491,16 @@
         <v>244</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F129" s="10"/>
       <c r="G129" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="50" customHeight="1">
-      <c r="A130" s="40"/>
-      <c r="B130" s="40"/>
+      <c r="A130" s="42"/>
+      <c r="B130" s="42"/>
       <c r="C130" s="8" t="s">
         <v>245</v>
       </c>
@@ -14508,16 +14508,16 @@
         <v>246</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F130" s="10"/>
       <c r="G130" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="50" customHeight="1">
-      <c r="A131" s="40"/>
-      <c r="B131" s="40"/>
+      <c r="A131" s="42"/>
+      <c r="B131" s="42"/>
       <c r="C131" s="8" t="s">
         <v>247</v>
       </c>
@@ -14527,12 +14527,12 @@
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
       <c r="G131" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="50" customHeight="1">
-      <c r="A132" s="40"/>
-      <c r="B132" s="40"/>
+      <c r="A132" s="42"/>
+      <c r="B132" s="42"/>
       <c r="C132" s="8" t="s">
         <v>249</v>
       </c>
@@ -14542,12 +14542,12 @@
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
       <c r="G132" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="50" customHeight="1">
-      <c r="A133" s="40"/>
-      <c r="B133" s="40"/>
+      <c r="A133" s="42"/>
+      <c r="B133" s="42"/>
       <c r="C133" s="8" t="s">
         <v>251</v>
       </c>
@@ -14555,16 +14555,16 @@
         <v>252</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F133" s="10"/>
       <c r="G133" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="50" customHeight="1">
-      <c r="A134" s="40"/>
-      <c r="B134" s="40"/>
+      <c r="A134" s="42"/>
+      <c r="B134" s="42"/>
       <c r="C134" s="8" t="s">
         <v>253</v>
       </c>
@@ -14574,12 +14574,12 @@
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
       <c r="G134" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="50" customHeight="1">
-      <c r="A135" s="40"/>
-      <c r="B135" s="40"/>
+      <c r="A135" s="42"/>
+      <c r="B135" s="42"/>
       <c r="C135" s="8" t="s">
         <v>255</v>
       </c>
@@ -14589,12 +14589,12 @@
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
       <c r="G135" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="50" customHeight="1">
-      <c r="A136" s="40"/>
-      <c r="B136" s="40"/>
+      <c r="A136" s="42"/>
+      <c r="B136" s="42"/>
       <c r="C136" s="8" t="s">
         <v>257</v>
       </c>
@@ -14604,12 +14604,12 @@
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
       <c r="G136" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="50" customHeight="1">
-      <c r="A137" s="40"/>
-      <c r="B137" s="40"/>
+      <c r="A137" s="42"/>
+      <c r="B137" s="42"/>
       <c r="C137" s="8" t="s">
         <v>259</v>
       </c>
@@ -14621,12 +14621,12 @@
       </c>
       <c r="F137" s="10"/>
       <c r="G137" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="50" customHeight="1">
-      <c r="A138" s="40"/>
-      <c r="B138" s="40"/>
+      <c r="A138" s="42"/>
+      <c r="B138" s="42"/>
       <c r="C138" s="8" t="s">
         <v>261</v>
       </c>
@@ -14636,12 +14636,12 @@
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
       <c r="G138" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="50" customHeight="1">
-      <c r="A139" s="40"/>
-      <c r="B139" s="40"/>
+      <c r="A139" s="42"/>
+      <c r="B139" s="42"/>
       <c r="C139" s="8" t="s">
         <v>263</v>
       </c>
@@ -14651,12 +14651,12 @@
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
       <c r="G139" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="50" customHeight="1">
-      <c r="A140" s="40"/>
-      <c r="B140" s="41"/>
+      <c r="A140" s="42"/>
+      <c r="B140" s="43"/>
       <c r="C140" s="8" t="s">
         <v>265</v>
       </c>
@@ -14666,13 +14666,13 @@
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
       <c r="G140" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="50" customHeight="1">
-      <c r="A141" s="40"/>
-      <c r="B141" s="39" t="s">
-        <v>904</v>
+      <c r="A141" s="42"/>
+      <c r="B141" s="41" t="s">
+        <v>903</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>267</v>
@@ -14681,16 +14681,16 @@
         <v>268</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F141" s="10"/>
       <c r="G141" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="50" customHeight="1">
-      <c r="A142" s="40"/>
-      <c r="B142" s="40"/>
+      <c r="A142" s="42"/>
+      <c r="B142" s="42"/>
       <c r="C142" s="8" t="s">
         <v>269</v>
       </c>
@@ -14698,16 +14698,16 @@
         <v>270</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F142" s="10"/>
       <c r="G142" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="50" customHeight="1">
-      <c r="A143" s="40"/>
-      <c r="B143" s="40"/>
+      <c r="A143" s="42"/>
+      <c r="B143" s="42"/>
       <c r="C143" s="8" t="s">
         <v>271</v>
       </c>
@@ -14715,16 +14715,16 @@
         <v>272</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="50" customHeight="1">
-      <c r="A144" s="40"/>
-      <c r="B144" s="40"/>
+      <c r="A144" s="42"/>
+      <c r="B144" s="42"/>
       <c r="C144" s="8" t="s">
         <v>273</v>
       </c>
@@ -14734,12 +14734,12 @@
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
       <c r="G144" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="50" customHeight="1">
-      <c r="A145" s="40"/>
-      <c r="B145" s="40"/>
+      <c r="A145" s="42"/>
+      <c r="B145" s="42"/>
       <c r="C145" s="8" t="s">
         <v>275</v>
       </c>
@@ -14749,12 +14749,12 @@
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
       <c r="G145" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="50" customHeight="1">
-      <c r="A146" s="40"/>
-      <c r="B146" s="40"/>
+      <c r="A146" s="42"/>
+      <c r="B146" s="42"/>
       <c r="C146" s="8" t="s">
         <v>277</v>
       </c>
@@ -14764,12 +14764,12 @@
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
       <c r="G146" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="50" customHeight="1">
-      <c r="A147" s="40"/>
-      <c r="B147" s="40"/>
+      <c r="A147" s="42"/>
+      <c r="B147" s="42"/>
       <c r="C147" s="8" t="s">
         <v>279</v>
       </c>
@@ -14777,16 +14777,16 @@
         <v>280</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F147" s="10"/>
       <c r="G147" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="50" customHeight="1">
-      <c r="A148" s="40"/>
-      <c r="B148" s="40"/>
+      <c r="A148" s="42"/>
+      <c r="B148" s="42"/>
       <c r="C148" s="8" t="s">
         <v>281</v>
       </c>
@@ -14794,16 +14794,16 @@
         <v>282</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F148" s="10"/>
       <c r="G148" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="50" customHeight="1">
-      <c r="A149" s="41"/>
-      <c r="B149" s="41"/>
+      <c r="A149" s="43"/>
+      <c r="B149" s="43"/>
       <c r="C149" s="8" t="s">
         <v>283</v>
       </c>
@@ -14812,7 +14812,7 @@
       </c>
       <c r="E149" s="10"/>
       <c r="G149" s="28" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="50" customHeight="1">
@@ -14822,11 +14822,11 @@
       <c r="F150" s="10"/>
     </row>
     <row r="151" spans="1:7" ht="50" customHeight="1">
-      <c r="A151" s="39" t="s">
-        <v>905</v>
+      <c r="A151" s="41" t="s">
+        <v>904</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>285</v>
@@ -14835,14 +14835,14 @@
         <v>286</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F151" s="10"/>
     </row>
     <row r="152" spans="1:7" ht="50" customHeight="1">
-      <c r="A152" s="40"/>
+      <c r="A152" s="42"/>
       <c r="B152" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>287</v>
@@ -14851,17 +14851,17 @@
         <v>288</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F152" s="10"/>
       <c r="G152" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="50" customHeight="1">
-      <c r="A153" s="40"/>
+      <c r="A153" s="42"/>
       <c r="B153" s="16" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>289</v>
@@ -14870,17 +14870,17 @@
         <v>290</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F153" s="10"/>
       <c r="G153" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="50" customHeight="1">
-      <c r="A154" s="40"/>
-      <c r="B154" s="42" t="s">
-        <v>923</v>
+      <c r="A154" s="42"/>
+      <c r="B154" s="44" t="s">
+        <v>922</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>291</v>
@@ -14891,12 +14891,12 @@
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
       <c r="G154" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="50" customHeight="1">
-      <c r="A155" s="40"/>
-      <c r="B155" s="43"/>
+      <c r="A155" s="42"/>
+      <c r="B155" s="45"/>
       <c r="C155" s="8" t="s">
         <v>293</v>
       </c>
@@ -14904,16 +14904,16 @@
         <v>294</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F155" s="10"/>
       <c r="G155" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="50" customHeight="1">
-      <c r="A156" s="40"/>
-      <c r="B156" s="43"/>
+      <c r="A156" s="42"/>
+      <c r="B156" s="45"/>
       <c r="C156" s="8" t="s">
         <v>295</v>
       </c>
@@ -14923,12 +14923,12 @@
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
       <c r="G156" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="50" customHeight="1">
-      <c r="A157" s="40"/>
-      <c r="B157" s="43"/>
+      <c r="A157" s="42"/>
+      <c r="B157" s="45"/>
       <c r="C157" s="8" t="s">
         <v>297</v>
       </c>
@@ -14938,12 +14938,12 @@
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
       <c r="G157" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="50" customHeight="1">
-      <c r="A158" s="40"/>
-      <c r="B158" s="43"/>
+      <c r="A158" s="42"/>
+      <c r="B158" s="45"/>
       <c r="C158" s="8" t="s">
         <v>299</v>
       </c>
@@ -14953,12 +14953,12 @@
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
       <c r="G158" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="50" customHeight="1">
-      <c r="A159" s="40"/>
-      <c r="B159" s="43"/>
+      <c r="A159" s="42"/>
+      <c r="B159" s="45"/>
       <c r="C159" s="8" t="s">
         <v>301</v>
       </c>
@@ -14968,12 +14968,12 @@
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
       <c r="G159" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="50" customHeight="1">
-      <c r="A160" s="40"/>
-      <c r="B160" s="43"/>
+      <c r="A160" s="42"/>
+      <c r="B160" s="45"/>
       <c r="C160" s="8" t="s">
         <v>303</v>
       </c>
@@ -14983,12 +14983,12 @@
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="50" customHeight="1">
-      <c r="A161" s="40"/>
-      <c r="B161" s="44"/>
+      <c r="A161" s="42"/>
+      <c r="B161" s="46"/>
       <c r="C161" s="8" t="s">
         <v>305</v>
       </c>
@@ -14996,17 +14996,17 @@
         <v>306</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F161" s="10"/>
       <c r="G161" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="50" customHeight="1">
-      <c r="A162" s="40"/>
-      <c r="B162" s="39" t="s">
-        <v>924</v>
+      <c r="A162" s="42"/>
+      <c r="B162" s="41" t="s">
+        <v>923</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>307</v>
@@ -15015,16 +15015,16 @@
         <v>308</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F162" s="10"/>
       <c r="G162" s="35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="50" customHeight="1">
-      <c r="A163" s="40"/>
-      <c r="B163" s="40"/>
+      <c r="A163" s="42"/>
+      <c r="B163" s="42"/>
       <c r="C163" s="8" t="s">
         <v>309</v>
       </c>
@@ -15032,16 +15032,16 @@
         <v>310</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F163" s="10"/>
       <c r="G163" s="35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="50" customHeight="1">
-      <c r="A164" s="40"/>
-      <c r="B164" s="41"/>
+      <c r="A164" s="42"/>
+      <c r="B164" s="43"/>
       <c r="C164" s="8" t="s">
         <v>311</v>
       </c>
@@ -15049,17 +15049,17 @@
         <v>312</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F164" s="10"/>
       <c r="G164" s="35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="50" customHeight="1">
-      <c r="A165" s="40"/>
-      <c r="B165" s="39" t="s">
-        <v>925</v>
+      <c r="A165" s="42"/>
+      <c r="B165" s="41" t="s">
+        <v>924</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>313</v>
@@ -15070,12 +15070,12 @@
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
       <c r="G165" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="50" customHeight="1">
-      <c r="A166" s="40"/>
-      <c r="B166" s="40"/>
+      <c r="A166" s="42"/>
+      <c r="B166" s="42"/>
       <c r="C166" s="8" t="s">
         <v>315</v>
       </c>
@@ -15085,12 +15085,12 @@
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
       <c r="G166" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="50" customHeight="1">
-      <c r="A167" s="40"/>
-      <c r="B167" s="40"/>
+      <c r="A167" s="42"/>
+      <c r="B167" s="42"/>
       <c r="C167" s="8" t="s">
         <v>317</v>
       </c>
@@ -15100,12 +15100,12 @@
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
       <c r="G167" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="50" customHeight="1">
-      <c r="A168" s="40"/>
-      <c r="B168" s="40"/>
+      <c r="A168" s="42"/>
+      <c r="B168" s="42"/>
       <c r="C168" s="8" t="s">
         <v>319</v>
       </c>
@@ -15115,12 +15115,12 @@
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
       <c r="G168" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="50" customHeight="1">
-      <c r="A169" s="40"/>
-      <c r="B169" s="41"/>
+      <c r="A169" s="42"/>
+      <c r="B169" s="43"/>
       <c r="C169" s="15" t="s">
         <v>321</v>
       </c>
@@ -15128,13 +15128,13 @@
         <v>322</v>
       </c>
       <c r="G169" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="50" customHeight="1">
-      <c r="A170" s="40"/>
-      <c r="B170" s="39" t="s">
-        <v>926</v>
+      <c r="A170" s="42"/>
+      <c r="B170" s="41" t="s">
+        <v>925</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>323</v>
@@ -15145,12 +15145,12 @@
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
       <c r="G170" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="50" customHeight="1">
-      <c r="A171" s="40"/>
-      <c r="B171" s="40"/>
+      <c r="A171" s="42"/>
+      <c r="B171" s="42"/>
       <c r="C171" s="8" t="s">
         <v>325</v>
       </c>
@@ -15160,12 +15160,12 @@
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
       <c r="G171" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="50" customHeight="1">
-      <c r="A172" s="40"/>
-      <c r="B172" s="40"/>
+      <c r="A172" s="42"/>
+      <c r="B172" s="42"/>
       <c r="C172" s="8" t="s">
         <v>327</v>
       </c>
@@ -15175,12 +15175,12 @@
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
       <c r="G172" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="50" customHeight="1">
-      <c r="A173" s="40"/>
-      <c r="B173" s="40"/>
+      <c r="A173" s="42"/>
+      <c r="B173" s="42"/>
       <c r="C173" s="8" t="s">
         <v>329</v>
       </c>
@@ -15190,12 +15190,12 @@
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
       <c r="G173" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="50" customHeight="1">
-      <c r="A174" s="40"/>
-      <c r="B174" s="40"/>
+      <c r="A174" s="42"/>
+      <c r="B174" s="42"/>
       <c r="C174" s="8" t="s">
         <v>331</v>
       </c>
@@ -15205,12 +15205,12 @@
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
       <c r="G174" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="50" customHeight="1">
-      <c r="A175" s="40"/>
-      <c r="B175" s="40"/>
+      <c r="A175" s="42"/>
+      <c r="B175" s="42"/>
       <c r="C175" s="8" t="s">
         <v>333</v>
       </c>
@@ -15220,12 +15220,12 @@
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
       <c r="G175" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="50" customHeight="1">
-      <c r="A176" s="40"/>
-      <c r="B176" s="40"/>
+      <c r="A176" s="42"/>
+      <c r="B176" s="42"/>
       <c r="C176" s="8" t="s">
         <v>335</v>
       </c>
@@ -15235,12 +15235,12 @@
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
       <c r="G176" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="50" customHeight="1">
-      <c r="A177" s="40"/>
-      <c r="B177" s="40"/>
+      <c r="A177" s="42"/>
+      <c r="B177" s="42"/>
       <c r="C177" s="8" t="s">
         <v>337</v>
       </c>
@@ -15250,12 +15250,12 @@
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
       <c r="G177" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="50" customHeight="1">
-      <c r="A178" s="40"/>
-      <c r="B178" s="40"/>
+      <c r="A178" s="42"/>
+      <c r="B178" s="42"/>
       <c r="C178" s="8" t="s">
         <v>339</v>
       </c>
@@ -15265,12 +15265,12 @@
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
       <c r="G178" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="50" customHeight="1">
-      <c r="A179" s="40"/>
-      <c r="B179" s="40"/>
+      <c r="A179" s="42"/>
+      <c r="B179" s="42"/>
       <c r="C179" s="8" t="s">
         <v>341</v>
       </c>
@@ -15280,12 +15280,12 @@
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
       <c r="G179" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="50" customHeight="1">
-      <c r="A180" s="40"/>
-      <c r="B180" s="41"/>
+      <c r="A180" s="42"/>
+      <c r="B180" s="43"/>
       <c r="C180" s="8" t="s">
         <v>343</v>
       </c>
@@ -15295,13 +15295,13 @@
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
       <c r="G180" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="50" customHeight="1">
-      <c r="A181" s="40"/>
-      <c r="B181" s="39" t="s">
-        <v>927</v>
+      <c r="A181" s="42"/>
+      <c r="B181" s="41" t="s">
+        <v>926</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>345</v>
@@ -15310,16 +15310,16 @@
         <v>346</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F181" s="10"/>
       <c r="G181" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="50" customHeight="1">
-      <c r="A182" s="40"/>
-      <c r="B182" s="41"/>
+      <c r="A182" s="42"/>
+      <c r="B182" s="43"/>
       <c r="C182" s="8" t="s">
         <v>347</v>
       </c>
@@ -15327,17 +15327,17 @@
         <v>348</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F182" s="10"/>
       <c r="G182" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="50" customHeight="1">
-      <c r="A183" s="40"/>
-      <c r="B183" s="39" t="s">
-        <v>928</v>
+      <c r="A183" s="42"/>
+      <c r="B183" s="41" t="s">
+        <v>927</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>349</v>
@@ -15348,12 +15348,12 @@
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
       <c r="G183" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="50" customHeight="1">
-      <c r="A184" s="40"/>
-      <c r="B184" s="40"/>
+      <c r="A184" s="42"/>
+      <c r="B184" s="42"/>
       <c r="C184" s="8" t="s">
         <v>351</v>
       </c>
@@ -15363,12 +15363,12 @@
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
       <c r="G184" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="50" customHeight="1">
-      <c r="A185" s="40"/>
-      <c r="B185" s="40"/>
+      <c r="A185" s="42"/>
+      <c r="B185" s="42"/>
       <c r="C185" s="8" t="s">
         <v>353</v>
       </c>
@@ -15378,12 +15378,12 @@
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
       <c r="G185" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="50" customHeight="1">
-      <c r="A186" s="40"/>
-      <c r="B186" s="40"/>
+      <c r="A186" s="42"/>
+      <c r="B186" s="42"/>
       <c r="C186" s="8" t="s">
         <v>355</v>
       </c>
@@ -15393,12 +15393,12 @@
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
       <c r="G186" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="50" customHeight="1">
-      <c r="A187" s="40"/>
-      <c r="B187" s="40"/>
+      <c r="A187" s="42"/>
+      <c r="B187" s="42"/>
       <c r="C187" s="8" t="s">
         <v>357</v>
       </c>
@@ -15408,12 +15408,12 @@
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
       <c r="G187" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="50" customHeight="1">
-      <c r="A188" s="40"/>
-      <c r="B188" s="41"/>
+      <c r="A188" s="42"/>
+      <c r="B188" s="43"/>
       <c r="C188" s="8" t="s">
         <v>359</v>
       </c>
@@ -15423,13 +15423,13 @@
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
       <c r="G188" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="50" customHeight="1">
-      <c r="A189" s="40"/>
-      <c r="B189" s="39" t="s">
-        <v>929</v>
+      <c r="A189" s="42"/>
+      <c r="B189" s="41" t="s">
+        <v>928</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>361</v>
@@ -15438,16 +15438,16 @@
         <v>362</v>
       </c>
       <c r="E189" s="37" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F189" s="38"/>
       <c r="G189" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="50" customHeight="1">
-      <c r="A190" s="40"/>
-      <c r="B190" s="40"/>
+      <c r="A190" s="42"/>
+      <c r="B190" s="42"/>
       <c r="C190" s="8" t="s">
         <v>363</v>
       </c>
@@ -15457,12 +15457,12 @@
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
       <c r="G190" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="50" customHeight="1">
-      <c r="A191" s="40"/>
-      <c r="B191" s="40"/>
+      <c r="A191" s="42"/>
+      <c r="B191" s="42"/>
       <c r="C191" s="8" t="s">
         <v>365</v>
       </c>
@@ -15470,16 +15470,16 @@
         <v>366</v>
       </c>
       <c r="E191" s="37" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F191" s="38"/>
       <c r="G191" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="50" customHeight="1">
-      <c r="A192" s="40"/>
-      <c r="B192" s="40"/>
+      <c r="A192" s="42"/>
+      <c r="B192" s="42"/>
       <c r="C192" s="8" t="s">
         <v>367</v>
       </c>
@@ -15487,16 +15487,16 @@
         <v>368</v>
       </c>
       <c r="E192" s="37" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F192" s="38"/>
       <c r="G192" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="50" customHeight="1">
-      <c r="A193" s="40"/>
-      <c r="B193" s="40"/>
+      <c r="A193" s="42"/>
+      <c r="B193" s="42"/>
       <c r="C193" s="8" t="s">
         <v>369</v>
       </c>
@@ -15506,12 +15506,12 @@
       <c r="E193" s="10"/>
       <c r="F193" s="10"/>
       <c r="G193" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="50" customHeight="1">
-      <c r="A194" s="40"/>
-      <c r="B194" s="40"/>
+      <c r="A194" s="42"/>
+      <c r="B194" s="42"/>
       <c r="C194" s="8" t="s">
         <v>371</v>
       </c>
@@ -15519,16 +15519,16 @@
         <v>372</v>
       </c>
       <c r="E194" s="37" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F194" s="38"/>
       <c r="G194" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="50" customHeight="1">
-      <c r="A195" s="40"/>
-      <c r="B195" s="40"/>
+      <c r="A195" s="42"/>
+      <c r="B195" s="42"/>
       <c r="C195" s="8" t="s">
         <v>373</v>
       </c>
@@ -15536,16 +15536,16 @@
         <v>374</v>
       </c>
       <c r="E195" s="37" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F195" s="38"/>
       <c r="G195" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="50" customHeight="1">
-      <c r="A196" s="40"/>
-      <c r="B196" s="40"/>
+      <c r="A196" s="42"/>
+      <c r="B196" s="42"/>
       <c r="C196" s="8" t="s">
         <v>375</v>
       </c>
@@ -15553,16 +15553,16 @@
         <v>376</v>
       </c>
       <c r="E196" s="37" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F196" s="38"/>
       <c r="G196" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="50" customHeight="1">
-      <c r="A197" s="40"/>
-      <c r="B197" s="40"/>
+      <c r="A197" s="42"/>
+      <c r="B197" s="42"/>
       <c r="C197" s="8" t="s">
         <v>377</v>
       </c>
@@ -15572,12 +15572,12 @@
       <c r="E197" s="10"/>
       <c r="F197" s="10"/>
       <c r="G197" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="50" customHeight="1">
-      <c r="A198" s="40"/>
-      <c r="B198" s="40"/>
+      <c r="A198" s="42"/>
+      <c r="B198" s="42"/>
       <c r="C198" s="8" t="s">
         <v>379</v>
       </c>
@@ -15585,16 +15585,16 @@
         <v>380</v>
       </c>
       <c r="E198" s="37" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F198" s="38"/>
       <c r="G198" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="50" customHeight="1">
-      <c r="A199" s="40"/>
-      <c r="B199" s="40"/>
+      <c r="A199" s="42"/>
+      <c r="B199" s="42"/>
       <c r="C199" s="8" t="s">
         <v>381</v>
       </c>
@@ -15604,12 +15604,12 @@
       <c r="E199" s="10"/>
       <c r="F199" s="10"/>
       <c r="G199" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="50" customHeight="1">
-      <c r="A200" s="40"/>
-      <c r="B200" s="40"/>
+      <c r="A200" s="42"/>
+      <c r="B200" s="42"/>
       <c r="C200" s="8" t="s">
         <v>383</v>
       </c>
@@ -15619,12 +15619,12 @@
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
       <c r="G200" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="50" customHeight="1">
-      <c r="A201" s="40"/>
-      <c r="B201" s="40"/>
+      <c r="A201" s="42"/>
+      <c r="B201" s="42"/>
       <c r="C201" s="8" t="s">
         <v>385</v>
       </c>
@@ -15634,12 +15634,12 @@
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
       <c r="G201" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="50" customHeight="1">
-      <c r="A202" s="40"/>
-      <c r="B202" s="40"/>
+      <c r="A202" s="42"/>
+      <c r="B202" s="42"/>
       <c r="C202" s="8" t="s">
         <v>387</v>
       </c>
@@ -15649,12 +15649,12 @@
       <c r="E202" s="10"/>
       <c r="F202" s="10"/>
       <c r="G202" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="50" customHeight="1">
-      <c r="A203" s="40"/>
-      <c r="B203" s="40"/>
+      <c r="A203" s="42"/>
+      <c r="B203" s="42"/>
       <c r="C203" s="8" t="s">
         <v>389</v>
       </c>
@@ -15662,16 +15662,16 @@
         <v>390</v>
       </c>
       <c r="E203" s="37" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F203" s="38"/>
       <c r="G203" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="50" customHeight="1">
-      <c r="A204" s="40"/>
-      <c r="B204" s="40"/>
+      <c r="A204" s="42"/>
+      <c r="B204" s="42"/>
       <c r="C204" s="8" t="s">
         <v>391</v>
       </c>
@@ -15681,12 +15681,12 @@
       <c r="E204" s="10"/>
       <c r="F204" s="10"/>
       <c r="G204" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="50" customHeight="1">
-      <c r="A205" s="40"/>
-      <c r="B205" s="40"/>
+      <c r="A205" s="42"/>
+      <c r="B205" s="42"/>
       <c r="C205" s="8" t="s">
         <v>393</v>
       </c>
@@ -15694,16 +15694,16 @@
         <v>394</v>
       </c>
       <c r="E205" s="37" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F205" s="38"/>
       <c r="G205" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="50" customHeight="1">
-      <c r="A206" s="40"/>
-      <c r="B206" s="40"/>
+      <c r="A206" s="42"/>
+      <c r="B206" s="42"/>
       <c r="C206" s="8" t="s">
         <v>395</v>
       </c>
@@ -15713,12 +15713,12 @@
       <c r="E206" s="10"/>
       <c r="F206" s="10"/>
       <c r="G206" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="50" customHeight="1">
-      <c r="A207" s="40"/>
-      <c r="B207" s="40"/>
+      <c r="A207" s="42"/>
+      <c r="B207" s="42"/>
       <c r="C207" s="8" t="s">
         <v>397</v>
       </c>
@@ -15728,12 +15728,12 @@
       <c r="E207" s="10"/>
       <c r="F207" s="10"/>
       <c r="G207" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="50" customHeight="1">
-      <c r="A208" s="40"/>
-      <c r="B208" s="40"/>
+      <c r="A208" s="42"/>
+      <c r="B208" s="42"/>
       <c r="C208" s="8" t="s">
         <v>399</v>
       </c>
@@ -15743,12 +15743,12 @@
       <c r="E208" s="10"/>
       <c r="F208" s="10"/>
       <c r="G208" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="50" customHeight="1">
-      <c r="A209" s="40"/>
-      <c r="B209" s="40"/>
+      <c r="A209" s="42"/>
+      <c r="B209" s="42"/>
       <c r="C209" s="8" t="s">
         <v>401</v>
       </c>
@@ -15758,12 +15758,12 @@
       <c r="E209" s="10"/>
       <c r="F209" s="10"/>
       <c r="G209" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="50" customHeight="1">
-      <c r="A210" s="40"/>
-      <c r="B210" s="40"/>
+      <c r="A210" s="42"/>
+      <c r="B210" s="42"/>
       <c r="C210" s="8" t="s">
         <v>403</v>
       </c>
@@ -15773,12 +15773,12 @@
       <c r="E210" s="10"/>
       <c r="F210" s="10"/>
       <c r="G210" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="50" customHeight="1">
-      <c r="A211" s="40"/>
-      <c r="B211" s="40"/>
+      <c r="A211" s="42"/>
+      <c r="B211" s="42"/>
       <c r="C211" s="8" t="s">
         <v>405</v>
       </c>
@@ -15788,12 +15788,12 @@
       <c r="E211" s="10"/>
       <c r="F211" s="10"/>
       <c r="G211" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="50" customHeight="1">
-      <c r="A212" s="40"/>
-      <c r="B212" s="40"/>
+      <c r="A212" s="42"/>
+      <c r="B212" s="42"/>
       <c r="C212" s="8" t="s">
         <v>407</v>
       </c>
@@ -15803,12 +15803,12 @@
       <c r="E212" s="10"/>
       <c r="F212" s="10"/>
       <c r="G212" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="50" customHeight="1">
-      <c r="A213" s="40"/>
-      <c r="B213" s="40"/>
+      <c r="A213" s="42"/>
+      <c r="B213" s="42"/>
       <c r="C213" s="8" t="s">
         <v>409</v>
       </c>
@@ -15818,12 +15818,12 @@
       <c r="E213" s="10"/>
       <c r="F213" s="10"/>
       <c r="G213" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="50" customHeight="1">
-      <c r="A214" s="40"/>
-      <c r="B214" s="40"/>
+      <c r="A214" s="42"/>
+      <c r="B214" s="42"/>
       <c r="C214" s="8" t="s">
         <v>411</v>
       </c>
@@ -15833,12 +15833,12 @@
       <c r="E214" s="10"/>
       <c r="F214" s="10"/>
       <c r="G214" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="50" customHeight="1">
-      <c r="A215" s="40"/>
-      <c r="B215" s="40"/>
+      <c r="A215" s="42"/>
+      <c r="B215" s="42"/>
       <c r="C215" s="8" t="s">
         <v>413</v>
       </c>
@@ -15848,12 +15848,12 @@
       <c r="E215" s="10"/>
       <c r="F215" s="10"/>
       <c r="G215" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="50" customHeight="1">
-      <c r="A216" s="40"/>
-      <c r="B216" s="40"/>
+      <c r="A216" s="42"/>
+      <c r="B216" s="42"/>
       <c r="C216" s="8" t="s">
         <v>415</v>
       </c>
@@ -15863,12 +15863,12 @@
       <c r="E216" s="10"/>
       <c r="F216" s="10"/>
       <c r="G216" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="50" customHeight="1">
-      <c r="A217" s="40"/>
-      <c r="B217" s="40"/>
+      <c r="A217" s="42"/>
+      <c r="B217" s="42"/>
       <c r="C217" s="8" t="s">
         <v>417</v>
       </c>
@@ -15878,12 +15878,12 @@
       <c r="E217" s="10"/>
       <c r="F217" s="10"/>
       <c r="G217" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="50" customHeight="1">
-      <c r="A218" s="40"/>
-      <c r="B218" s="40"/>
+      <c r="A218" s="42"/>
+      <c r="B218" s="42"/>
       <c r="C218" s="8" t="s">
         <v>419</v>
       </c>
@@ -15893,12 +15893,12 @@
       <c r="E218" s="10"/>
       <c r="F218" s="10"/>
       <c r="G218" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="50" customHeight="1">
-      <c r="A219" s="40"/>
-      <c r="B219" s="40"/>
+      <c r="A219" s="42"/>
+      <c r="B219" s="42"/>
       <c r="C219" s="8" t="s">
         <v>421</v>
       </c>
@@ -15908,12 +15908,12 @@
       <c r="E219" s="10"/>
       <c r="F219" s="10"/>
       <c r="G219" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="50" customHeight="1">
-      <c r="A220" s="40"/>
-      <c r="B220" s="40"/>
+      <c r="A220" s="42"/>
+      <c r="B220" s="42"/>
       <c r="C220" s="8" t="s">
         <v>423</v>
       </c>
@@ -15923,12 +15923,12 @@
       <c r="E220" s="10"/>
       <c r="F220" s="10"/>
       <c r="G220" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="50" customHeight="1">
-      <c r="A221" s="40"/>
-      <c r="B221" s="40"/>
+      <c r="A221" s="42"/>
+      <c r="B221" s="42"/>
       <c r="C221" s="8" t="s">
         <v>425</v>
       </c>
@@ -15938,12 +15938,12 @@
       <c r="E221" s="10"/>
       <c r="F221" s="10"/>
       <c r="G221" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="50" customHeight="1">
-      <c r="A222" s="40"/>
-      <c r="B222" s="40"/>
+      <c r="A222" s="42"/>
+      <c r="B222" s="42"/>
       <c r="C222" s="8" t="s">
         <v>427</v>
       </c>
@@ -15953,12 +15953,12 @@
       <c r="E222" s="10"/>
       <c r="F222" s="10"/>
       <c r="G222" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="50" customHeight="1">
-      <c r="A223" s="40"/>
-      <c r="B223" s="41"/>
+      <c r="A223" s="42"/>
+      <c r="B223" s="43"/>
       <c r="C223" s="8" t="s">
         <v>429</v>
       </c>
@@ -15968,13 +15968,13 @@
       <c r="E223" s="10"/>
       <c r="F223" s="10"/>
       <c r="G223" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="50" customHeight="1">
-      <c r="A224" s="40"/>
-      <c r="B224" s="39" t="s">
-        <v>930</v>
+      <c r="A224" s="42"/>
+      <c r="B224" s="41" t="s">
+        <v>929</v>
       </c>
       <c r="C224" s="15" t="s">
         <v>431</v>
@@ -15983,12 +15983,12 @@
         <v>432</v>
       </c>
       <c r="G224" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="50" customHeight="1">
-      <c r="A225" s="40"/>
-      <c r="B225" s="40"/>
+      <c r="A225" s="42"/>
+      <c r="B225" s="42"/>
       <c r="C225" s="15" t="s">
         <v>433</v>
       </c>
@@ -15999,12 +15999,12 @@
         <v>825</v>
       </c>
       <c r="G225" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="50" customHeight="1">
-      <c r="A226" s="40"/>
-      <c r="B226" s="40"/>
+      <c r="A226" s="42"/>
+      <c r="B226" s="42"/>
       <c r="C226" s="15" t="s">
         <v>435</v>
       </c>
@@ -16012,12 +16012,12 @@
         <v>436</v>
       </c>
       <c r="G226" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="50" customHeight="1">
-      <c r="A227" s="41"/>
-      <c r="B227" s="41"/>
+      <c r="A227" s="43"/>
+      <c r="B227" s="43"/>
       <c r="C227" s="15" t="s">
         <v>437</v>
       </c>
@@ -16025,15 +16025,15 @@
         <v>438</v>
       </c>
       <c r="G227" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="50" customHeight="1">
-      <c r="A229" s="39" t="s">
-        <v>911</v>
+      <c r="A229" s="41" t="s">
+        <v>910</v>
       </c>
       <c r="B229" s="16" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>439</v>
@@ -16042,17 +16042,17 @@
         <v>440</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F229" s="10"/>
       <c r="G229" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="50" customHeight="1">
-      <c r="A230" s="40"/>
+      <c r="A230" s="42"/>
       <c r="B230" s="16" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>441</v>
@@ -16061,17 +16061,17 @@
         <v>442</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F230" s="10"/>
       <c r="G230" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="50" customHeight="1">
-      <c r="A231" s="40"/>
-      <c r="B231" s="39" t="s">
-        <v>948</v>
+      <c r="A231" s="42"/>
+      <c r="B231" s="41" t="s">
+        <v>947</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>443</v>
@@ -16080,16 +16080,16 @@
         <v>444</v>
       </c>
       <c r="E231" s="10" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F231" s="10"/>
       <c r="G231" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="50" customHeight="1">
-      <c r="A232" s="40"/>
-      <c r="B232" s="41"/>
+      <c r="A232" s="42"/>
+      <c r="B232" s="43"/>
       <c r="C232" s="8" t="s">
         <v>445</v>
       </c>
@@ -16097,17 +16097,17 @@
         <v>446</v>
       </c>
       <c r="E232" s="10" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F232" s="10"/>
       <c r="G232" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="50" customHeight="1">
-      <c r="A233" s="40"/>
-      <c r="B233" s="39" t="s">
-        <v>949</v>
+      <c r="A233" s="42"/>
+      <c r="B233" s="41" t="s">
+        <v>948</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>447</v>
@@ -16118,12 +16118,12 @@
       <c r="E233" s="10"/>
       <c r="F233" s="10"/>
       <c r="G233" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="50" customHeight="1">
-      <c r="A234" s="40"/>
-      <c r="B234" s="41"/>
+      <c r="A234" s="42"/>
+      <c r="B234" s="43"/>
       <c r="C234" s="8" t="s">
         <v>449</v>
       </c>
@@ -16133,13 +16133,13 @@
       <c r="E234" s="10"/>
       <c r="F234" s="10"/>
       <c r="G234" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="50" customHeight="1">
-      <c r="A235" s="40"/>
-      <c r="B235" s="39" t="s">
-        <v>950</v>
+      <c r="A235" s="42"/>
+      <c r="B235" s="41" t="s">
+        <v>949</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>451</v>
@@ -16150,12 +16150,12 @@
       <c r="E235" s="10"/>
       <c r="F235" s="10"/>
       <c r="G235" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="50" customHeight="1">
-      <c r="A236" s="40"/>
-      <c r="B236" s="40"/>
+      <c r="A236" s="42"/>
+      <c r="B236" s="42"/>
       <c r="C236" s="8" t="s">
         <v>453</v>
       </c>
@@ -16165,12 +16165,12 @@
       <c r="E236" s="10"/>
       <c r="F236" s="10"/>
       <c r="G236" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="50" customHeight="1">
-      <c r="A237" s="40"/>
-      <c r="B237" s="40"/>
+      <c r="A237" s="42"/>
+      <c r="B237" s="42"/>
       <c r="C237" s="8" t="s">
         <v>455</v>
       </c>
@@ -16180,12 +16180,12 @@
       <c r="E237" s="10"/>
       <c r="F237" s="10"/>
       <c r="G237" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="50" customHeight="1">
-      <c r="A238" s="40"/>
-      <c r="B238" s="40"/>
+      <c r="A238" s="42"/>
+      <c r="B238" s="42"/>
       <c r="C238" s="8" t="s">
         <v>457</v>
       </c>
@@ -16195,12 +16195,12 @@
       <c r="E238" s="10"/>
       <c r="F238" s="10"/>
       <c r="G238" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="50" customHeight="1">
-      <c r="A239" s="40"/>
-      <c r="B239" s="40"/>
+      <c r="A239" s="42"/>
+      <c r="B239" s="42"/>
       <c r="C239" s="8" t="s">
         <v>459</v>
       </c>
@@ -16210,12 +16210,12 @@
       <c r="E239" s="10"/>
       <c r="F239" s="10"/>
       <c r="G239" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="50" customHeight="1">
-      <c r="A240" s="40"/>
-      <c r="B240" s="40"/>
+      <c r="A240" s="42"/>
+      <c r="B240" s="42"/>
       <c r="C240" s="8" t="s">
         <v>461</v>
       </c>
@@ -16225,12 +16225,12 @@
       <c r="E240" s="10"/>
       <c r="F240" s="10"/>
       <c r="G240" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="50" customHeight="1">
-      <c r="A241" s="40"/>
-      <c r="B241" s="40"/>
+      <c r="A241" s="42"/>
+      <c r="B241" s="42"/>
       <c r="C241" s="8" t="s">
         <v>463</v>
       </c>
@@ -16240,12 +16240,12 @@
       <c r="E241" s="10"/>
       <c r="F241" s="10"/>
       <c r="G241" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="50" customHeight="1">
-      <c r="A242" s="40"/>
-      <c r="B242" s="40"/>
+      <c r="A242" s="42"/>
+      <c r="B242" s="42"/>
       <c r="C242" s="8" t="s">
         <v>465</v>
       </c>
@@ -16255,12 +16255,12 @@
       <c r="E242" s="10"/>
       <c r="F242" s="10"/>
       <c r="G242" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="50" customHeight="1">
-      <c r="A243" s="40"/>
-      <c r="B243" s="40"/>
+      <c r="A243" s="42"/>
+      <c r="B243" s="42"/>
       <c r="C243" s="8" t="s">
         <v>467</v>
       </c>
@@ -16270,12 +16270,12 @@
       <c r="E243" s="10"/>
       <c r="F243" s="10"/>
       <c r="G243" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="50" customHeight="1">
-      <c r="A244" s="40"/>
-      <c r="B244" s="40"/>
+      <c r="A244" s="42"/>
+      <c r="B244" s="42"/>
       <c r="C244" s="8" t="s">
         <v>469</v>
       </c>
@@ -16285,12 +16285,12 @@
       <c r="E244" s="10"/>
       <c r="F244" s="10"/>
       <c r="G244" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="50" customHeight="1">
-      <c r="A245" s="40"/>
-      <c r="B245" s="40"/>
+      <c r="A245" s="42"/>
+      <c r="B245" s="42"/>
       <c r="C245" s="8" t="s">
         <v>471</v>
       </c>
@@ -16300,12 +16300,12 @@
       <c r="E245" s="10"/>
       <c r="F245" s="10"/>
       <c r="G245" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="50" customHeight="1">
-      <c r="A246" s="40"/>
-      <c r="B246" s="40"/>
+      <c r="A246" s="42"/>
+      <c r="B246" s="42"/>
       <c r="C246" s="8" t="s">
         <v>473</v>
       </c>
@@ -16315,12 +16315,12 @@
       <c r="E246" s="10"/>
       <c r="F246" s="10"/>
       <c r="G246" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="50" customHeight="1">
-      <c r="A247" s="40"/>
-      <c r="B247" s="40"/>
+      <c r="A247" s="42"/>
+      <c r="B247" s="42"/>
       <c r="C247" s="8" t="s">
         <v>475</v>
       </c>
@@ -16330,12 +16330,12 @@
       <c r="E247" s="10"/>
       <c r="F247" s="10"/>
       <c r="G247" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="50" customHeight="1">
-      <c r="A248" s="40"/>
-      <c r="B248" s="40"/>
+      <c r="A248" s="42"/>
+      <c r="B248" s="42"/>
       <c r="C248" s="8" t="s">
         <v>477</v>
       </c>
@@ -16345,12 +16345,12 @@
       <c r="E248" s="10"/>
       <c r="F248" s="10"/>
       <c r="G248" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="50" customHeight="1">
-      <c r="A249" s="40"/>
-      <c r="B249" s="40"/>
+      <c r="A249" s="42"/>
+      <c r="B249" s="42"/>
       <c r="C249" s="8" t="s">
         <v>479</v>
       </c>
@@ -16360,12 +16360,12 @@
       <c r="E249" s="10"/>
       <c r="F249" s="10"/>
       <c r="G249" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="50" customHeight="1">
-      <c r="A250" s="40"/>
-      <c r="B250" s="40"/>
+      <c r="A250" s="42"/>
+      <c r="B250" s="42"/>
       <c r="C250" s="8" t="s">
         <v>481</v>
       </c>
@@ -16375,12 +16375,12 @@
       <c r="E250" s="10"/>
       <c r="F250" s="10"/>
       <c r="G250" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="50" customHeight="1">
-      <c r="A251" s="40"/>
-      <c r="B251" s="40"/>
+      <c r="A251" s="42"/>
+      <c r="B251" s="42"/>
       <c r="C251" s="8" t="s">
         <v>483</v>
       </c>
@@ -16390,12 +16390,12 @@
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
       <c r="G251" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="50" customHeight="1">
-      <c r="A252" s="40"/>
-      <c r="B252" s="40"/>
+      <c r="A252" s="42"/>
+      <c r="B252" s="42"/>
       <c r="C252" s="8" t="s">
         <v>485</v>
       </c>
@@ -16405,12 +16405,12 @@
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
       <c r="G252" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="50" customHeight="1">
-      <c r="A253" s="40"/>
-      <c r="B253" s="40"/>
+      <c r="A253" s="42"/>
+      <c r="B253" s="42"/>
       <c r="C253" s="8" t="s">
         <v>487</v>
       </c>
@@ -16420,12 +16420,12 @@
       <c r="E253" s="10"/>
       <c r="F253" s="10"/>
       <c r="G253" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="50" customHeight="1">
-      <c r="A254" s="40"/>
-      <c r="B254" s="40"/>
+      <c r="A254" s="42"/>
+      <c r="B254" s="42"/>
       <c r="C254" s="8" t="s">
         <v>489</v>
       </c>
@@ -16435,12 +16435,12 @@
       <c r="E254" s="10"/>
       <c r="F254" s="10"/>
       <c r="G254" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="50" customHeight="1">
-      <c r="A255" s="40"/>
-      <c r="B255" s="40"/>
+      <c r="A255" s="42"/>
+      <c r="B255" s="42"/>
       <c r="C255" s="8" t="s">
         <v>491</v>
       </c>
@@ -16450,12 +16450,12 @@
       <c r="E255" s="10"/>
       <c r="F255" s="10"/>
       <c r="G255" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="50" customHeight="1">
-      <c r="A256" s="40"/>
-      <c r="B256" s="40"/>
+      <c r="A256" s="42"/>
+      <c r="B256" s="42"/>
       <c r="C256" s="8" t="s">
         <v>493</v>
       </c>
@@ -16465,12 +16465,12 @@
       <c r="E256" s="10"/>
       <c r="F256" s="10"/>
       <c r="G256" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="50" customHeight="1">
-      <c r="A257" s="40"/>
-      <c r="B257" s="40"/>
+      <c r="A257" s="42"/>
+      <c r="B257" s="42"/>
       <c r="C257" s="8" t="s">
         <v>495</v>
       </c>
@@ -16480,12 +16480,12 @@
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
       <c r="G257" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="50" customHeight="1">
-      <c r="A258" s="40"/>
-      <c r="B258" s="40"/>
+      <c r="A258" s="42"/>
+      <c r="B258" s="42"/>
       <c r="C258" s="8" t="s">
         <v>497</v>
       </c>
@@ -16495,12 +16495,12 @@
       <c r="E258" s="10"/>
       <c r="F258" s="10"/>
       <c r="G258" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="50" customHeight="1">
-      <c r="A259" s="40"/>
-      <c r="B259" s="40"/>
+      <c r="A259" s="42"/>
+      <c r="B259" s="42"/>
       <c r="C259" s="8" t="s">
         <v>499</v>
       </c>
@@ -16510,12 +16510,12 @@
       <c r="E259" s="10"/>
       <c r="F259" s="10"/>
       <c r="G259" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="50" customHeight="1">
-      <c r="A260" s="40"/>
-      <c r="B260" s="40"/>
+      <c r="A260" s="42"/>
+      <c r="B260" s="42"/>
       <c r="C260" s="8" t="s">
         <v>501</v>
       </c>
@@ -16525,12 +16525,12 @@
       <c r="E260" s="10"/>
       <c r="F260" s="10"/>
       <c r="G260" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="50" customHeight="1">
-      <c r="A261" s="40"/>
-      <c r="B261" s="40"/>
+      <c r="A261" s="42"/>
+      <c r="B261" s="42"/>
       <c r="C261" s="8" t="s">
         <v>503</v>
       </c>
@@ -16540,12 +16540,12 @@
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
       <c r="G261" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="50" customHeight="1">
-      <c r="A262" s="40"/>
-      <c r="B262" s="40"/>
+      <c r="A262" s="42"/>
+      <c r="B262" s="42"/>
       <c r="C262" s="8" t="s">
         <v>505</v>
       </c>
@@ -16555,12 +16555,12 @@
       <c r="E262" s="10"/>
       <c r="F262" s="10"/>
       <c r="G262" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="50" customHeight="1">
-      <c r="A263" s="40"/>
-      <c r="B263" s="40"/>
+      <c r="A263" s="42"/>
+      <c r="B263" s="42"/>
       <c r="C263" s="8" t="s">
         <v>507</v>
       </c>
@@ -16570,12 +16570,12 @@
       <c r="E263" s="10"/>
       <c r="F263" s="10"/>
       <c r="G263" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="50" customHeight="1">
-      <c r="A264" s="40"/>
-      <c r="B264" s="40"/>
+      <c r="A264" s="42"/>
+      <c r="B264" s="42"/>
       <c r="C264" s="8" t="s">
         <v>509</v>
       </c>
@@ -16585,12 +16585,12 @@
       <c r="E264" s="10"/>
       <c r="F264" s="10"/>
       <c r="G264" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="50" customHeight="1">
-      <c r="A265" s="40"/>
-      <c r="B265" s="40"/>
+      <c r="A265" s="42"/>
+      <c r="B265" s="42"/>
       <c r="C265" s="8" t="s">
         <v>511</v>
       </c>
@@ -16600,12 +16600,12 @@
       <c r="E265" s="10"/>
       <c r="F265" s="10"/>
       <c r="G265" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="50" customHeight="1">
-      <c r="A266" s="40"/>
-      <c r="B266" s="40"/>
+      <c r="A266" s="42"/>
+      <c r="B266" s="42"/>
       <c r="C266" s="8" t="s">
         <v>513</v>
       </c>
@@ -16615,12 +16615,12 @@
       <c r="E266" s="10"/>
       <c r="F266" s="10"/>
       <c r="G266" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="50" customHeight="1">
-      <c r="A267" s="40"/>
-      <c r="B267" s="40"/>
+      <c r="A267" s="42"/>
+      <c r="B267" s="42"/>
       <c r="C267" s="8" t="s">
         <v>515</v>
       </c>
@@ -16630,12 +16630,12 @@
       <c r="E267" s="10"/>
       <c r="F267" s="10"/>
       <c r="G267" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="50" customHeight="1">
-      <c r="A268" s="40"/>
-      <c r="B268" s="40"/>
+      <c r="A268" s="42"/>
+      <c r="B268" s="42"/>
       <c r="C268" s="8" t="s">
         <v>517</v>
       </c>
@@ -16645,12 +16645,12 @@
       <c r="E268" s="10"/>
       <c r="F268" s="10"/>
       <c r="G268" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="50" customHeight="1">
-      <c r="A269" s="40"/>
-      <c r="B269" s="41"/>
+      <c r="A269" s="42"/>
+      <c r="B269" s="43"/>
       <c r="C269" s="8" t="s">
         <v>519</v>
       </c>
@@ -16660,13 +16660,13 @@
       <c r="E269" s="10"/>
       <c r="F269" s="10"/>
       <c r="G269" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="50" customHeight="1">
-      <c r="A270" s="40"/>
+      <c r="A270" s="42"/>
       <c r="B270" s="16" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C270" s="8" t="s">
         <v>521</v>
@@ -16677,13 +16677,13 @@
       <c r="E270" s="10"/>
       <c r="F270" s="10"/>
       <c r="G270" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="50" customHeight="1">
-      <c r="A271" s="40"/>
-      <c r="B271" s="39" t="s">
-        <v>952</v>
+      <c r="A271" s="42"/>
+      <c r="B271" s="41" t="s">
+        <v>951</v>
       </c>
       <c r="C271" s="8" t="s">
         <v>523</v>
@@ -16692,16 +16692,16 @@
         <v>524</v>
       </c>
       <c r="E271" s="10" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F271" s="10"/>
       <c r="G271" s="35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="50" customHeight="1">
-      <c r="A272" s="40"/>
-      <c r="B272" s="40"/>
+      <c r="A272" s="42"/>
+      <c r="B272" s="42"/>
       <c r="C272" s="8" t="s">
         <v>525</v>
       </c>
@@ -16711,12 +16711,12 @@
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
       <c r="G272" s="35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="50" customHeight="1">
-      <c r="A273" s="40"/>
-      <c r="B273" s="40"/>
+      <c r="A273" s="42"/>
+      <c r="B273" s="42"/>
       <c r="C273" s="8" t="s">
         <v>527</v>
       </c>
@@ -16726,12 +16726,12 @@
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
       <c r="G273" s="35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="50" customHeight="1">
-      <c r="A274" s="40"/>
-      <c r="B274" s="41"/>
+      <c r="A274" s="42"/>
+      <c r="B274" s="43"/>
       <c r="C274" s="8" t="s">
         <v>529</v>
       </c>
@@ -16741,13 +16741,13 @@
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
       <c r="G274" s="35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="50" customHeight="1">
-      <c r="A275" s="40"/>
-      <c r="B275" s="39" t="s">
-        <v>953</v>
+      <c r="A275" s="42"/>
+      <c r="B275" s="41" t="s">
+        <v>952</v>
       </c>
       <c r="C275" s="8" t="s">
         <v>531</v>
@@ -16758,12 +16758,12 @@
       <c r="E275" s="10"/>
       <c r="F275" s="10"/>
       <c r="G275" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="50" customHeight="1">
-      <c r="A276" s="40"/>
-      <c r="B276" s="40"/>
+      <c r="A276" s="42"/>
+      <c r="B276" s="42"/>
       <c r="C276" s="8" t="s">
         <v>533</v>
       </c>
@@ -16773,12 +16773,12 @@
       <c r="E276" s="10"/>
       <c r="F276" s="10"/>
       <c r="G276" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="50" customHeight="1">
-      <c r="A277" s="40"/>
-      <c r="B277" s="40"/>
+      <c r="A277" s="42"/>
+      <c r="B277" s="42"/>
       <c r="C277" s="8" t="s">
         <v>535</v>
       </c>
@@ -16786,16 +16786,16 @@
         <v>536</v>
       </c>
       <c r="E277" s="10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F277" s="10"/>
       <c r="G277" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="50" customHeight="1">
-      <c r="A278" s="40"/>
-      <c r="B278" s="40"/>
+      <c r="A278" s="42"/>
+      <c r="B278" s="42"/>
       <c r="C278" s="8" t="s">
         <v>537</v>
       </c>
@@ -16805,12 +16805,12 @@
       <c r="E278" s="10"/>
       <c r="F278" s="10"/>
       <c r="G278" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="50" customHeight="1">
-      <c r="A279" s="40"/>
-      <c r="B279" s="40"/>
+      <c r="A279" s="42"/>
+      <c r="B279" s="42"/>
       <c r="C279" s="8" t="s">
         <v>539</v>
       </c>
@@ -16820,12 +16820,12 @@
       <c r="E279" s="10"/>
       <c r="F279" s="10"/>
       <c r="G279" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="50" customHeight="1">
-      <c r="A280" s="40"/>
-      <c r="B280" s="40"/>
+      <c r="A280" s="42"/>
+      <c r="B280" s="42"/>
       <c r="C280" s="8" t="s">
         <v>541</v>
       </c>
@@ -16833,16 +16833,16 @@
         <v>542</v>
       </c>
       <c r="E280" s="10" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F280" s="10"/>
       <c r="G280" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="50" customHeight="1">
-      <c r="A281" s="40"/>
-      <c r="B281" s="40"/>
+      <c r="A281" s="42"/>
+      <c r="B281" s="42"/>
       <c r="C281" s="8" t="s">
         <v>543</v>
       </c>
@@ -16852,12 +16852,12 @@
       <c r="E281" s="10"/>
       <c r="F281" s="10"/>
       <c r="G281" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="50" customHeight="1">
-      <c r="A282" s="40"/>
-      <c r="B282" s="40"/>
+      <c r="A282" s="42"/>
+      <c r="B282" s="42"/>
       <c r="C282" s="8" t="s">
         <v>545</v>
       </c>
@@ -16867,12 +16867,12 @@
       <c r="E282" s="10"/>
       <c r="F282" s="10"/>
       <c r="G282" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="50" customHeight="1">
-      <c r="A283" s="40"/>
-      <c r="B283" s="40"/>
+      <c r="A283" s="42"/>
+      <c r="B283" s="42"/>
       <c r="C283" s="8" t="s">
         <v>547</v>
       </c>
@@ -16882,12 +16882,12 @@
       <c r="E283" s="10"/>
       <c r="F283" s="10"/>
       <c r="G283" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="50" customHeight="1">
-      <c r="A284" s="40"/>
-      <c r="B284" s="40"/>
+      <c r="A284" s="42"/>
+      <c r="B284" s="42"/>
       <c r="C284" s="8" t="s">
         <v>549</v>
       </c>
@@ -16897,12 +16897,12 @@
       <c r="E284" s="10"/>
       <c r="F284" s="10"/>
       <c r="G284" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="50" customHeight="1">
-      <c r="A285" s="40"/>
-      <c r="B285" s="40"/>
+      <c r="A285" s="42"/>
+      <c r="B285" s="42"/>
       <c r="C285" s="8" t="s">
         <v>551</v>
       </c>
@@ -16912,12 +16912,12 @@
       <c r="E285" s="10"/>
       <c r="F285" s="10"/>
       <c r="G285" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="50" customHeight="1">
-      <c r="A286" s="40"/>
-      <c r="B286" s="40"/>
+      <c r="A286" s="42"/>
+      <c r="B286" s="42"/>
       <c r="C286" s="8" t="s">
         <v>553</v>
       </c>
@@ -16927,12 +16927,12 @@
       <c r="E286" s="10"/>
       <c r="F286" s="10"/>
       <c r="G286" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="50" customHeight="1">
-      <c r="A287" s="40"/>
-      <c r="B287" s="40"/>
+      <c r="A287" s="42"/>
+      <c r="B287" s="42"/>
       <c r="C287" s="8" t="s">
         <v>555</v>
       </c>
@@ -16942,12 +16942,12 @@
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
       <c r="G287" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="50" customHeight="1">
-      <c r="A288" s="40"/>
-      <c r="B288" s="40"/>
+      <c r="A288" s="42"/>
+      <c r="B288" s="42"/>
       <c r="C288" s="8" t="s">
         <v>557</v>
       </c>
@@ -16957,12 +16957,12 @@
       <c r="E288" s="10"/>
       <c r="F288" s="10"/>
       <c r="G288" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="50" customHeight="1">
-      <c r="A289" s="40"/>
-      <c r="B289" s="40"/>
+      <c r="A289" s="42"/>
+      <c r="B289" s="42"/>
       <c r="C289" s="8" t="s">
         <v>559</v>
       </c>
@@ -16972,12 +16972,12 @@
       <c r="E289" s="10"/>
       <c r="F289" s="10"/>
       <c r="G289" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="50" customHeight="1">
-      <c r="A290" s="40"/>
-      <c r="B290" s="40"/>
+      <c r="A290" s="42"/>
+      <c r="B290" s="42"/>
       <c r="C290" s="8" t="s">
         <v>561</v>
       </c>
@@ -16987,12 +16987,12 @@
       <c r="E290" s="10"/>
       <c r="F290" s="10"/>
       <c r="G290" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="50" customHeight="1">
-      <c r="A291" s="40"/>
-      <c r="B291" s="40"/>
+      <c r="A291" s="42"/>
+      <c r="B291" s="42"/>
       <c r="C291" s="8" t="s">
         <v>563</v>
       </c>
@@ -17002,12 +17002,12 @@
       <c r="E291" s="10"/>
       <c r="F291" s="10"/>
       <c r="G291" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="50" customHeight="1">
-      <c r="A292" s="40"/>
-      <c r="B292" s="40"/>
+      <c r="A292" s="42"/>
+      <c r="B292" s="42"/>
       <c r="C292" s="8" t="s">
         <v>565</v>
       </c>
@@ -17017,12 +17017,12 @@
       <c r="E292" s="10"/>
       <c r="F292" s="10"/>
       <c r="G292" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="50" customHeight="1">
-      <c r="A293" s="40"/>
-      <c r="B293" s="40"/>
+      <c r="A293" s="42"/>
+      <c r="B293" s="42"/>
       <c r="C293" s="8" t="s">
         <v>567</v>
       </c>
@@ -17032,12 +17032,12 @@
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
       <c r="G293" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="50" customHeight="1">
-      <c r="A294" s="40"/>
-      <c r="B294" s="40"/>
+      <c r="A294" s="42"/>
+      <c r="B294" s="42"/>
       <c r="C294" s="8" t="s">
         <v>569</v>
       </c>
@@ -17047,12 +17047,12 @@
       <c r="E294" s="10"/>
       <c r="F294" s="10"/>
       <c r="G294" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="50" customHeight="1">
-      <c r="A295" s="40"/>
-      <c r="B295" s="40"/>
+      <c r="A295" s="42"/>
+      <c r="B295" s="42"/>
       <c r="C295" s="8" t="s">
         <v>571</v>
       </c>
@@ -17062,12 +17062,12 @@
       <c r="E295" s="10"/>
       <c r="F295" s="10"/>
       <c r="G295" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="50" customHeight="1">
-      <c r="A296" s="40"/>
-      <c r="B296" s="40"/>
+      <c r="A296" s="42"/>
+      <c r="B296" s="42"/>
       <c r="C296" s="8" t="s">
         <v>573</v>
       </c>
@@ -17077,12 +17077,12 @@
       <c r="E296" s="10"/>
       <c r="F296" s="10"/>
       <c r="G296" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="50" customHeight="1">
-      <c r="A297" s="40"/>
-      <c r="B297" s="40"/>
+      <c r="A297" s="42"/>
+      <c r="B297" s="42"/>
       <c r="C297" s="8" t="s">
         <v>575</v>
       </c>
@@ -17092,12 +17092,12 @@
       <c r="E297" s="10"/>
       <c r="F297" s="10"/>
       <c r="G297" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="50" customHeight="1">
-      <c r="A298" s="40"/>
-      <c r="B298" s="40"/>
+      <c r="A298" s="42"/>
+      <c r="B298" s="42"/>
       <c r="C298" s="8" t="s">
         <v>577</v>
       </c>
@@ -17107,12 +17107,12 @@
       <c r="E298" s="10"/>
       <c r="F298" s="10"/>
       <c r="G298" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="50" customHeight="1">
-      <c r="A299" s="40"/>
-      <c r="B299" s="40"/>
+      <c r="A299" s="42"/>
+      <c r="B299" s="42"/>
       <c r="C299" s="8" t="s">
         <v>579</v>
       </c>
@@ -17122,12 +17122,12 @@
       <c r="E299" s="10"/>
       <c r="F299" s="10"/>
       <c r="G299" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="50" customHeight="1">
-      <c r="A300" s="40"/>
-      <c r="B300" s="40"/>
+      <c r="A300" s="42"/>
+      <c r="B300" s="42"/>
       <c r="C300" s="8" t="s">
         <v>581</v>
       </c>
@@ -17137,12 +17137,12 @@
       <c r="E300" s="10"/>
       <c r="F300" s="10"/>
       <c r="G300" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="50" customHeight="1">
-      <c r="A301" s="40"/>
-      <c r="B301" s="40"/>
+      <c r="A301" s="42"/>
+      <c r="B301" s="42"/>
       <c r="C301" s="8" t="s">
         <v>583</v>
       </c>
@@ -17152,12 +17152,12 @@
       <c r="E301" s="10"/>
       <c r="F301" s="10"/>
       <c r="G301" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="50" customHeight="1">
-      <c r="A302" s="40"/>
-      <c r="B302" s="40"/>
+      <c r="A302" s="42"/>
+      <c r="B302" s="42"/>
       <c r="C302" s="8" t="s">
         <v>585</v>
       </c>
@@ -17167,12 +17167,12 @@
       <c r="E302" s="10"/>
       <c r="F302" s="10"/>
       <c r="G302" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="50" customHeight="1">
-      <c r="A303" s="40"/>
-      <c r="B303" s="40"/>
+      <c r="A303" s="42"/>
+      <c r="B303" s="42"/>
       <c r="C303" s="8" t="s">
         <v>587</v>
       </c>
@@ -17182,12 +17182,12 @@
       <c r="E303" s="10"/>
       <c r="F303" s="10"/>
       <c r="G303" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="50" customHeight="1">
-      <c r="A304" s="40"/>
-      <c r="B304" s="40"/>
+      <c r="A304" s="42"/>
+      <c r="B304" s="42"/>
       <c r="C304" s="8" t="s">
         <v>589</v>
       </c>
@@ -17197,12 +17197,12 @@
       <c r="E304" s="10"/>
       <c r="F304" s="10"/>
       <c r="G304" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="50" customHeight="1">
-      <c r="A305" s="40"/>
-      <c r="B305" s="40"/>
+      <c r="A305" s="42"/>
+      <c r="B305" s="42"/>
       <c r="C305" s="8" t="s">
         <v>591</v>
       </c>
@@ -17212,12 +17212,12 @@
       <c r="E305" s="10"/>
       <c r="F305" s="10"/>
       <c r="G305" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="50" customHeight="1">
-      <c r="A306" s="40"/>
-      <c r="B306" s="40"/>
+      <c r="A306" s="42"/>
+      <c r="B306" s="42"/>
       <c r="C306" s="8" t="s">
         <v>593</v>
       </c>
@@ -17227,12 +17227,12 @@
       <c r="E306" s="10"/>
       <c r="F306" s="10"/>
       <c r="G306" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="50" customHeight="1">
-      <c r="A307" s="40"/>
-      <c r="B307" s="41"/>
+      <c r="A307" s="42"/>
+      <c r="B307" s="43"/>
       <c r="C307" s="8" t="s">
         <v>595</v>
       </c>
@@ -17242,13 +17242,13 @@
       <c r="E307" s="10"/>
       <c r="F307" s="10"/>
       <c r="G307" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="50" customHeight="1">
-      <c r="A308" s="40"/>
+      <c r="A308" s="42"/>
       <c r="B308" s="16" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C308" s="8" t="s">
         <v>597</v>
@@ -17257,17 +17257,17 @@
         <v>598</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F308" s="10"/>
       <c r="G308" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="50" customHeight="1">
-      <c r="A309" s="40"/>
+      <c r="A309" s="42"/>
       <c r="B309" s="16" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C309" s="8" t="s">
         <v>599</v>
@@ -17276,17 +17276,17 @@
         <v>600</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F309" s="10"/>
       <c r="G309" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="50" customHeight="1">
-      <c r="A310" s="40"/>
-      <c r="B310" s="39" t="s">
-        <v>956</v>
+      <c r="A310" s="42"/>
+      <c r="B310" s="41" t="s">
+        <v>955</v>
       </c>
       <c r="C310" s="8" t="s">
         <v>601</v>
@@ -17295,7 +17295,7 @@
         <v>602</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F310" s="10"/>
       <c r="G310" s="26" t="s">
@@ -17303,8 +17303,8 @@
       </c>
     </row>
     <row r="311" spans="1:7" ht="50" customHeight="1">
-      <c r="A311" s="40"/>
-      <c r="B311" s="40"/>
+      <c r="A311" s="42"/>
+      <c r="B311" s="42"/>
       <c r="C311" s="8" t="s">
         <v>603</v>
       </c>
@@ -17312,7 +17312,7 @@
         <v>604</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F311" s="10"/>
       <c r="G311" s="26" t="s">
@@ -17320,8 +17320,8 @@
       </c>
     </row>
     <row r="312" spans="1:7" ht="50" customHeight="1">
-      <c r="A312" s="40"/>
-      <c r="B312" s="41"/>
+      <c r="A312" s="42"/>
+      <c r="B312" s="43"/>
       <c r="C312" s="8" t="s">
         <v>605</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>606</v>
       </c>
       <c r="E312" s="10" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F312" s="10"/>
       <c r="G312" s="26" t="s">
@@ -17337,9 +17337,9 @@
       </c>
     </row>
     <row r="313" spans="1:7" ht="50" customHeight="1">
-      <c r="A313" s="40"/>
-      <c r="B313" s="39" t="s">
-        <v>957</v>
+      <c r="A313" s="42"/>
+      <c r="B313" s="41" t="s">
+        <v>956</v>
       </c>
       <c r="C313" s="8" t="s">
         <v>607</v>
@@ -17348,16 +17348,16 @@
         <v>608</v>
       </c>
       <c r="E313" s="18" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F313" s="18"/>
       <c r="G313" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="50" customHeight="1">
-      <c r="A314" s="40"/>
-      <c r="B314" s="40"/>
+      <c r="A314" s="42"/>
+      <c r="B314" s="42"/>
       <c r="C314" s="8" t="s">
         <v>609</v>
       </c>
@@ -17365,16 +17365,16 @@
         <v>610</v>
       </c>
       <c r="E314" s="18" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F314" s="18"/>
       <c r="G314" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="50" customHeight="1">
-      <c r="A315" s="40"/>
-      <c r="B315" s="41"/>
+      <c r="A315" s="42"/>
+      <c r="B315" s="43"/>
       <c r="C315" s="8" t="s">
         <v>611</v>
       </c>
@@ -17384,13 +17384,13 @@
       <c r="E315" s="10"/>
       <c r="F315" s="10"/>
       <c r="G315" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="50" customHeight="1">
-      <c r="A316" s="40"/>
-      <c r="B316" s="39" t="s">
-        <v>958</v>
+      <c r="A316" s="42"/>
+      <c r="B316" s="41" t="s">
+        <v>957</v>
       </c>
       <c r="C316" s="8" t="s">
         <v>613</v>
@@ -17399,16 +17399,16 @@
         <v>614</v>
       </c>
       <c r="E316" s="10" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F316" s="10"/>
       <c r="G316" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="50" customHeight="1">
-      <c r="A317" s="40"/>
-      <c r="B317" s="40"/>
+      <c r="A317" s="42"/>
+      <c r="B317" s="42"/>
       <c r="C317" s="8" t="s">
         <v>615</v>
       </c>
@@ -17416,16 +17416,16 @@
         <v>616</v>
       </c>
       <c r="E317" s="10" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F317" s="10"/>
       <c r="G317" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="50" customHeight="1">
-      <c r="A318" s="40"/>
-      <c r="B318" s="40"/>
+      <c r="A318" s="42"/>
+      <c r="B318" s="42"/>
       <c r="C318" s="8" t="s">
         <v>617</v>
       </c>
@@ -17433,16 +17433,16 @@
         <v>618</v>
       </c>
       <c r="E318" s="10" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F318" s="10"/>
       <c r="G318" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="50" customHeight="1">
-      <c r="A319" s="40"/>
-      <c r="B319" s="40"/>
+      <c r="A319" s="42"/>
+      <c r="B319" s="42"/>
       <c r="C319" s="8" t="s">
         <v>619</v>
       </c>
@@ -17452,12 +17452,12 @@
       <c r="E319" s="10"/>
       <c r="F319" s="10"/>
       <c r="G319" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="50" customHeight="1">
-      <c r="A320" s="40"/>
-      <c r="B320" s="40"/>
+      <c r="A320" s="42"/>
+      <c r="B320" s="42"/>
       <c r="C320" s="8" t="s">
         <v>621</v>
       </c>
@@ -17467,12 +17467,12 @@
       <c r="E320" s="10"/>
       <c r="F320" s="10"/>
       <c r="G320" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="50" customHeight="1">
-      <c r="A321" s="40"/>
-      <c r="B321" s="40"/>
+      <c r="A321" s="42"/>
+      <c r="B321" s="42"/>
       <c r="C321" s="8" t="s">
         <v>623</v>
       </c>
@@ -17482,12 +17482,12 @@
       <c r="E321" s="10"/>
       <c r="F321" s="10"/>
       <c r="G321" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="50" customHeight="1">
-      <c r="A322" s="40"/>
-      <c r="B322" s="40"/>
+      <c r="A322" s="42"/>
+      <c r="B322" s="42"/>
       <c r="C322" s="8" t="s">
         <v>625</v>
       </c>
@@ -17497,12 +17497,12 @@
       <c r="E322" s="10"/>
       <c r="F322" s="10"/>
       <c r="G322" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="50" customHeight="1">
-      <c r="A323" s="40"/>
-      <c r="B323" s="40"/>
+      <c r="A323" s="42"/>
+      <c r="B323" s="42"/>
       <c r="C323" s="8" t="s">
         <v>627</v>
       </c>
@@ -17512,12 +17512,12 @@
       <c r="E323" s="10"/>
       <c r="F323" s="10"/>
       <c r="G323" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="50" customHeight="1">
-      <c r="A324" s="40"/>
-      <c r="B324" s="40"/>
+      <c r="A324" s="42"/>
+      <c r="B324" s="42"/>
       <c r="C324" s="8" t="s">
         <v>629</v>
       </c>
@@ -17527,12 +17527,12 @@
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
       <c r="G324" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="50" customHeight="1">
-      <c r="A325" s="40"/>
-      <c r="B325" s="41"/>
+      <c r="A325" s="42"/>
+      <c r="B325" s="43"/>
       <c r="C325" s="8" t="s">
         <v>631</v>
       </c>
@@ -17542,13 +17542,13 @@
       <c r="E325" s="10"/>
       <c r="F325" s="10"/>
       <c r="G325" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="50" customHeight="1">
-      <c r="A326" s="40"/>
+      <c r="A326" s="42"/>
       <c r="B326" s="16" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C326" s="8" t="s">
         <v>633</v>
@@ -17557,17 +17557,17 @@
         <v>634</v>
       </c>
       <c r="E326" s="10" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F326" s="10"/>
       <c r="G326" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="50" customHeight="1">
-      <c r="A327" s="40"/>
-      <c r="B327" s="39" t="s">
-        <v>960</v>
+      <c r="A327" s="42"/>
+      <c r="B327" s="41" t="s">
+        <v>959</v>
       </c>
       <c r="C327" s="8" t="s">
         <v>635</v>
@@ -17578,12 +17578,12 @@
       <c r="E327" s="18"/>
       <c r="F327" s="18"/>
       <c r="G327" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="50" customHeight="1">
-      <c r="A328" s="40"/>
-      <c r="B328" s="40"/>
+      <c r="A328" s="42"/>
+      <c r="B328" s="42"/>
       <c r="C328" s="8" t="s">
         <v>637</v>
       </c>
@@ -17593,12 +17593,12 @@
       <c r="E328" s="18"/>
       <c r="F328" s="18"/>
       <c r="G328" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="50" customHeight="1">
-      <c r="A329" s="40"/>
-      <c r="B329" s="40"/>
+      <c r="A329" s="42"/>
+      <c r="B329" s="42"/>
       <c r="C329" s="8" t="s">
         <v>639</v>
       </c>
@@ -17608,12 +17608,12 @@
       <c r="E329" s="18"/>
       <c r="F329" s="18"/>
       <c r="G329" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="50" customHeight="1">
-      <c r="A330" s="40"/>
-      <c r="B330" s="40"/>
+      <c r="A330" s="42"/>
+      <c r="B330" s="42"/>
       <c r="C330" s="8" t="s">
         <v>641</v>
       </c>
@@ -17623,12 +17623,12 @@
       <c r="E330" s="18"/>
       <c r="F330" s="18"/>
       <c r="G330" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="50" customHeight="1">
-      <c r="A331" s="41"/>
-      <c r="B331" s="41"/>
+      <c r="A331" s="43"/>
+      <c r="B331" s="43"/>
       <c r="C331" s="8" t="s">
         <v>643</v>
       </c>
@@ -17638,7 +17638,7 @@
       <c r="E331" s="18"/>
       <c r="F331" s="18"/>
       <c r="G331" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="50" customHeight="1">
@@ -17648,8 +17648,8 @@
       <c r="F332" s="18"/>
     </row>
     <row r="333" spans="1:7" ht="50" customHeight="1">
-      <c r="A333" s="39" t="s">
-        <v>912</v>
+      <c r="A333" s="41" t="s">
+        <v>911</v>
       </c>
       <c r="C333" s="8" t="s">
         <v>645</v>
@@ -17658,15 +17658,15 @@
         <v>646</v>
       </c>
       <c r="E333" s="10" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F333" s="10"/>
       <c r="G333" s="35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="50" customHeight="1">
-      <c r="A334" s="40"/>
+      <c r="A334" s="42"/>
       <c r="C334" s="8" t="s">
         <v>647</v>
       </c>
@@ -17676,11 +17676,11 @@
       <c r="E334" s="18"/>
       <c r="F334" s="18"/>
       <c r="G334" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="50" customHeight="1">
-      <c r="A335" s="40"/>
+      <c r="A335" s="42"/>
       <c r="C335" s="8" t="s">
         <v>649</v>
       </c>
@@ -17690,11 +17690,11 @@
       <c r="E335" s="10"/>
       <c r="F335" s="10"/>
       <c r="G335" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="50" customHeight="1">
-      <c r="A336" s="40"/>
+      <c r="A336" s="42"/>
       <c r="C336" s="8" t="s">
         <v>651</v>
       </c>
@@ -17704,11 +17704,11 @@
       <c r="E336" s="10"/>
       <c r="F336" s="10"/>
       <c r="G336" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="50" customHeight="1">
-      <c r="A337" s="40"/>
+      <c r="A337" s="42"/>
       <c r="C337" s="8" t="s">
         <v>653</v>
       </c>
@@ -17718,11 +17718,11 @@
       <c r="E337" s="10"/>
       <c r="F337" s="10"/>
       <c r="G337" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="50" customHeight="1">
-      <c r="A338" s="40"/>
+      <c r="A338" s="42"/>
       <c r="C338" s="8" t="s">
         <v>655</v>
       </c>
@@ -17732,11 +17732,11 @@
       <c r="E338" s="10"/>
       <c r="F338" s="10"/>
       <c r="G338" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="50" customHeight="1">
-      <c r="A339" s="40"/>
+      <c r="A339" s="42"/>
       <c r="C339" s="8" t="s">
         <v>657</v>
       </c>
@@ -17744,15 +17744,15 @@
         <v>658</v>
       </c>
       <c r="E339" s="10" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F339" s="10"/>
       <c r="G339" s="35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="50" customHeight="1">
-      <c r="A340" s="40"/>
+      <c r="A340" s="42"/>
       <c r="C340" s="8" t="s">
         <v>659</v>
       </c>
@@ -17762,11 +17762,11 @@
       <c r="E340" s="10"/>
       <c r="F340" s="10"/>
       <c r="G340" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="50" customHeight="1">
-      <c r="A341" s="40"/>
+      <c r="A341" s="42"/>
       <c r="C341" s="8" t="s">
         <v>661</v>
       </c>
@@ -17776,11 +17776,11 @@
       <c r="E341" s="10"/>
       <c r="F341" s="10"/>
       <c r="G341" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="50" customHeight="1">
-      <c r="A342" s="40"/>
+      <c r="A342" s="42"/>
       <c r="C342" s="8" t="s">
         <v>663</v>
       </c>
@@ -17788,15 +17788,15 @@
         <v>664</v>
       </c>
       <c r="E342" s="10" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F342" s="10"/>
       <c r="G342" s="35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="50" customHeight="1">
-      <c r="A343" s="40"/>
+      <c r="A343" s="42"/>
       <c r="C343" s="8" t="s">
         <v>665</v>
       </c>
@@ -17806,11 +17806,11 @@
       <c r="E343" s="10"/>
       <c r="F343" s="10"/>
       <c r="G343" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="50" customHeight="1">
-      <c r="A344" s="40"/>
+      <c r="A344" s="42"/>
       <c r="C344" s="8" t="s">
         <v>667</v>
       </c>
@@ -17820,11 +17820,11 @@
       <c r="E344" s="10"/>
       <c r="F344" s="10"/>
       <c r="G344" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="50" customHeight="1">
-      <c r="A345" s="40"/>
+      <c r="A345" s="42"/>
       <c r="C345" s="8" t="s">
         <v>669</v>
       </c>
@@ -17834,11 +17834,11 @@
       <c r="E345" s="10"/>
       <c r="F345" s="10"/>
       <c r="G345" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="50" customHeight="1">
-      <c r="A346" s="40"/>
+      <c r="A346" s="42"/>
       <c r="C346" s="8" t="s">
         <v>671</v>
       </c>
@@ -17846,15 +17846,15 @@
         <v>672</v>
       </c>
       <c r="E346" s="10" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F346" s="10"/>
       <c r="G346" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="50" customHeight="1">
-      <c r="A347" s="40"/>
+      <c r="A347" s="42"/>
       <c r="C347" s="8" t="s">
         <v>673</v>
       </c>
@@ -17862,15 +17862,15 @@
         <v>674</v>
       </c>
       <c r="E347" s="10" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F347" s="10"/>
       <c r="G347" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="50" customHeight="1">
-      <c r="A348" s="40"/>
+      <c r="A348" s="42"/>
       <c r="C348" s="8" t="s">
         <v>675</v>
       </c>
@@ -17880,11 +17880,11 @@
       <c r="E348" s="10"/>
       <c r="F348" s="10"/>
       <c r="G348" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="50" customHeight="1">
-      <c r="A349" s="40"/>
+      <c r="A349" s="42"/>
       <c r="C349" s="8" t="s">
         <v>677</v>
       </c>
@@ -17894,11 +17894,11 @@
       <c r="E349" s="10"/>
       <c r="F349" s="10"/>
       <c r="G349" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="50" customHeight="1">
-      <c r="A350" s="40"/>
+      <c r="A350" s="42"/>
       <c r="C350" s="8" t="s">
         <v>679</v>
       </c>
@@ -17906,15 +17906,15 @@
         <v>680</v>
       </c>
       <c r="E350" s="10" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F350" s="10"/>
       <c r="G350" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="50" customHeight="1">
-      <c r="A351" s="40"/>
+      <c r="A351" s="42"/>
       <c r="C351" s="8" t="s">
         <v>681</v>
       </c>
@@ -17924,11 +17924,11 @@
       <c r="E351" s="10"/>
       <c r="F351" s="10"/>
       <c r="G351" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="50" customHeight="1">
-      <c r="A352" s="40"/>
+      <c r="A352" s="42"/>
       <c r="C352" s="8" t="s">
         <v>683</v>
       </c>
@@ -17936,15 +17936,15 @@
         <v>684</v>
       </c>
       <c r="E352" s="10" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F352" s="10"/>
       <c r="G352" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="50" customHeight="1">
-      <c r="A353" s="40"/>
+      <c r="A353" s="42"/>
       <c r="C353" s="8" t="s">
         <v>685</v>
       </c>
@@ -17954,11 +17954,11 @@
       <c r="E353" s="10"/>
       <c r="F353" s="10"/>
       <c r="G353" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="50" customHeight="1">
-      <c r="A354" s="40"/>
+      <c r="A354" s="42"/>
       <c r="C354" s="8" t="s">
         <v>687</v>
       </c>
@@ -17966,15 +17966,15 @@
         <v>688</v>
       </c>
       <c r="E354" s="10" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F354" s="10"/>
       <c r="G354" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="50" customHeight="1">
-      <c r="A355" s="40"/>
+      <c r="A355" s="42"/>
       <c r="C355" s="8" t="s">
         <v>689</v>
       </c>
@@ -17982,15 +17982,15 @@
         <v>690</v>
       </c>
       <c r="E355" s="10" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F355" s="10"/>
       <c r="G355" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="50" customHeight="1">
-      <c r="A356" s="40"/>
+      <c r="A356" s="42"/>
       <c r="C356" s="8" t="s">
         <v>691</v>
       </c>
@@ -17998,15 +17998,15 @@
         <v>692</v>
       </c>
       <c r="E356" s="10" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F356" s="10"/>
       <c r="G356" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="50" customHeight="1">
-      <c r="A357" s="40"/>
+      <c r="A357" s="42"/>
       <c r="C357" s="8" t="s">
         <v>693</v>
       </c>
@@ -18014,15 +18014,15 @@
         <v>694</v>
       </c>
       <c r="E357" s="10" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F357" s="10"/>
       <c r="G357" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="50" customHeight="1">
-      <c r="A358" s="40"/>
+      <c r="A358" s="42"/>
       <c r="C358" s="8" t="s">
         <v>695</v>
       </c>
@@ -18032,11 +18032,11 @@
       <c r="E358" s="10"/>
       <c r="F358" s="10"/>
       <c r="G358" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="50" customHeight="1">
-      <c r="A359" s="40"/>
+      <c r="A359" s="42"/>
       <c r="C359" s="8" t="s">
         <v>697</v>
       </c>
@@ -18046,11 +18046,11 @@
       <c r="E359" s="10"/>
       <c r="F359" s="10"/>
       <c r="G359" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="50" customHeight="1">
-      <c r="A360" s="40"/>
+      <c r="A360" s="42"/>
       <c r="C360" s="8" t="s">
         <v>699</v>
       </c>
@@ -18060,11 +18060,11 @@
       <c r="E360" s="10"/>
       <c r="F360" s="10"/>
       <c r="G360" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="50" customHeight="1">
-      <c r="A361" s="40"/>
+      <c r="A361" s="42"/>
       <c r="C361" s="8" t="s">
         <v>701</v>
       </c>
@@ -18074,11 +18074,11 @@
       <c r="E361" s="10"/>
       <c r="F361" s="10"/>
       <c r="G361" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="50" customHeight="1">
-      <c r="A362" s="40"/>
+      <c r="A362" s="42"/>
       <c r="C362" s="8" t="s">
         <v>703</v>
       </c>
@@ -18088,11 +18088,11 @@
       <c r="E362" s="10"/>
       <c r="F362" s="10"/>
       <c r="G362" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="50" customHeight="1">
-      <c r="A363" s="40"/>
+      <c r="A363" s="42"/>
       <c r="C363" s="8" t="s">
         <v>705</v>
       </c>
@@ -18100,15 +18100,15 @@
         <v>706</v>
       </c>
       <c r="E363" s="10" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F363" s="10"/>
       <c r="G363" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="50" customHeight="1">
-      <c r="A364" s="40"/>
+      <c r="A364" s="42"/>
       <c r="C364" s="8" t="s">
         <v>707</v>
       </c>
@@ -18116,15 +18116,15 @@
         <v>708</v>
       </c>
       <c r="E364" s="10" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F364" s="10"/>
       <c r="G364" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="50" customHeight="1">
-      <c r="A365" s="40"/>
+      <c r="A365" s="42"/>
       <c r="C365" s="8" t="s">
         <v>709</v>
       </c>
@@ -18134,11 +18134,11 @@
       <c r="E365" s="10"/>
       <c r="F365" s="10"/>
       <c r="G365" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="50" customHeight="1">
-      <c r="A366" s="40"/>
+      <c r="A366" s="42"/>
       <c r="C366" s="8" t="s">
         <v>711</v>
       </c>
@@ -18146,15 +18146,15 @@
         <v>712</v>
       </c>
       <c r="E366" s="10" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F366" s="10"/>
       <c r="G366" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="50" customHeight="1">
-      <c r="A367" s="40"/>
+      <c r="A367" s="42"/>
       <c r="C367" s="8" t="s">
         <v>713</v>
       </c>
@@ -18162,15 +18162,15 @@
         <v>714</v>
       </c>
       <c r="E367" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F367" s="10"/>
       <c r="G367" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="50" customHeight="1">
-      <c r="A368" s="40"/>
+      <c r="A368" s="42"/>
       <c r="C368" s="8" t="s">
         <v>715</v>
       </c>
@@ -18178,15 +18178,15 @@
         <v>716</v>
       </c>
       <c r="E368" s="10" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F368" s="10"/>
       <c r="G368" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="50" customHeight="1">
-      <c r="A369" s="40"/>
+      <c r="A369" s="42"/>
       <c r="C369" s="8" t="s">
         <v>717</v>
       </c>
@@ -18194,15 +18194,15 @@
         <v>718</v>
       </c>
       <c r="E369" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F369" s="10"/>
       <c r="G369" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="50" customHeight="1">
-      <c r="A370" s="40"/>
+      <c r="A370" s="42"/>
       <c r="C370" s="8" t="s">
         <v>719</v>
       </c>
@@ -18210,15 +18210,15 @@
         <v>720</v>
       </c>
       <c r="E370" s="10" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F370" s="10"/>
       <c r="G370" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="371" spans="1:7" ht="50" customHeight="1">
-      <c r="A371" s="40"/>
+      <c r="A371" s="42"/>
       <c r="C371" s="8" t="s">
         <v>721</v>
       </c>
@@ -18226,15 +18226,15 @@
         <v>722</v>
       </c>
       <c r="E371" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F371" s="10"/>
       <c r="G371" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="50" customHeight="1">
-      <c r="A372" s="40"/>
+      <c r="A372" s="42"/>
       <c r="C372" s="8" t="s">
         <v>723</v>
       </c>
@@ -18242,15 +18242,15 @@
         <v>724</v>
       </c>
       <c r="E372" s="10" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F372" s="10"/>
       <c r="G372" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="50" customHeight="1">
-      <c r="A373" s="40"/>
+      <c r="A373" s="42"/>
       <c r="C373" s="8" t="s">
         <v>725</v>
       </c>
@@ -18258,15 +18258,15 @@
         <v>726</v>
       </c>
       <c r="E373" s="10" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F373" s="10"/>
       <c r="G373" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="50" customHeight="1">
-      <c r="A374" s="40"/>
+      <c r="A374" s="42"/>
       <c r="C374" s="8" t="s">
         <v>727</v>
       </c>
@@ -18274,15 +18274,15 @@
         <v>728</v>
       </c>
       <c r="E374" s="10" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F374" s="10"/>
       <c r="G374" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="50" customHeight="1">
-      <c r="A375" s="40"/>
+      <c r="A375" s="42"/>
       <c r="C375" s="8" t="s">
         <v>729</v>
       </c>
@@ -18290,15 +18290,15 @@
         <v>730</v>
       </c>
       <c r="E375" s="10" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F375" s="10"/>
       <c r="G375" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="50" customHeight="1">
-      <c r="A376" s="40"/>
+      <c r="A376" s="42"/>
       <c r="C376" s="8" t="s">
         <v>731</v>
       </c>
@@ -18308,11 +18308,11 @@
       <c r="E376" s="10"/>
       <c r="F376" s="10"/>
       <c r="G376" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="50" customHeight="1">
-      <c r="A377" s="40"/>
+      <c r="A377" s="42"/>
       <c r="C377" s="8" t="s">
         <v>733</v>
       </c>
@@ -18320,15 +18320,15 @@
         <v>734</v>
       </c>
       <c r="E377" s="10" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F377" s="10"/>
       <c r="G377" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="378" spans="1:7" ht="50" customHeight="1">
-      <c r="A378" s="40"/>
+      <c r="A378" s="42"/>
       <c r="C378" s="8" t="s">
         <v>735</v>
       </c>
@@ -18338,11 +18338,11 @@
       <c r="E378" s="10"/>
       <c r="F378" s="10"/>
       <c r="G378" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="50" customHeight="1">
-      <c r="A379" s="40"/>
+      <c r="A379" s="42"/>
       <c r="C379" s="8" t="s">
         <v>737</v>
       </c>
@@ -18352,11 +18352,11 @@
       <c r="E379" s="10"/>
       <c r="F379" s="10"/>
       <c r="G379" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="50" customHeight="1">
-      <c r="A380" s="40"/>
+      <c r="A380" s="42"/>
       <c r="C380" s="8" t="s">
         <v>739</v>
       </c>
@@ -18366,11 +18366,11 @@
       <c r="E380" s="10"/>
       <c r="F380" s="10"/>
       <c r="G380" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="50" customHeight="1">
-      <c r="A381" s="40"/>
+      <c r="A381" s="42"/>
       <c r="C381" s="8" t="s">
         <v>741</v>
       </c>
@@ -18380,11 +18380,11 @@
       <c r="E381" s="10"/>
       <c r="F381" s="10"/>
       <c r="G381" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="50" customHeight="1">
-      <c r="A382" s="40"/>
+      <c r="A382" s="42"/>
       <c r="C382" s="8" t="s">
         <v>743</v>
       </c>
@@ -18394,11 +18394,11 @@
       <c r="E382" s="10"/>
       <c r="F382" s="10"/>
       <c r="G382" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="50" customHeight="1">
-      <c r="A383" s="40"/>
+      <c r="A383" s="42"/>
       <c r="C383" s="8" t="s">
         <v>745</v>
       </c>
@@ -18408,11 +18408,11 @@
       <c r="E383" s="10"/>
       <c r="F383" s="10"/>
       <c r="G383" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="50" customHeight="1">
-      <c r="A384" s="40"/>
+      <c r="A384" s="42"/>
       <c r="C384" s="8" t="s">
         <v>747</v>
       </c>
@@ -18420,15 +18420,15 @@
         <v>748</v>
       </c>
       <c r="E384" s="10" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F384" s="10"/>
       <c r="G384" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="385" spans="1:7" ht="50" customHeight="1">
-      <c r="A385" s="40"/>
+      <c r="A385" s="42"/>
       <c r="C385" s="8" t="s">
         <v>749</v>
       </c>
@@ -18438,11 +18438,11 @@
       <c r="E385" s="10"/>
       <c r="F385" s="10"/>
       <c r="G385" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="50" customHeight="1">
-      <c r="A386" s="40"/>
+      <c r="A386" s="42"/>
       <c r="C386" s="8" t="s">
         <v>751</v>
       </c>
@@ -18450,15 +18450,15 @@
         <v>752</v>
       </c>
       <c r="E386" s="10" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F386" s="10"/>
       <c r="G386" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="50" customHeight="1">
-      <c r="A387" s="40"/>
+      <c r="A387" s="42"/>
       <c r="C387" s="8" t="s">
         <v>753</v>
       </c>
@@ -18468,11 +18468,11 @@
       <c r="E387" s="10"/>
       <c r="F387" s="10"/>
       <c r="G387" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="50" customHeight="1">
-      <c r="A388" s="40"/>
+      <c r="A388" s="42"/>
       <c r="C388" s="8" t="s">
         <v>755</v>
       </c>
@@ -18482,11 +18482,11 @@
       <c r="E388" s="10"/>
       <c r="F388" s="10"/>
       <c r="G388" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="50" customHeight="1">
-      <c r="A389" s="40"/>
+      <c r="A389" s="42"/>
       <c r="C389" s="8" t="s">
         <v>757</v>
       </c>
@@ -18496,11 +18496,11 @@
       <c r="E389" s="10"/>
       <c r="F389" s="10"/>
       <c r="G389" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="50" customHeight="1">
-      <c r="A390" s="40"/>
+      <c r="A390" s="42"/>
       <c r="C390" s="8" t="s">
         <v>759</v>
       </c>
@@ -18510,11 +18510,11 @@
       <c r="E390" s="10"/>
       <c r="F390" s="10"/>
       <c r="G390" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="50" customHeight="1">
-      <c r="A391" s="40"/>
+      <c r="A391" s="42"/>
       <c r="C391" s="8" t="s">
         <v>761</v>
       </c>
@@ -18524,11 +18524,11 @@
       <c r="E391" s="10"/>
       <c r="F391" s="10"/>
       <c r="G391" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="392" spans="1:7" ht="50" customHeight="1">
-      <c r="A392" s="40"/>
+      <c r="A392" s="42"/>
       <c r="C392" s="8" t="s">
         <v>763</v>
       </c>
@@ -18538,11 +18538,11 @@
       <c r="E392" s="10"/>
       <c r="F392" s="10"/>
       <c r="G392" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="393" spans="1:7" ht="50" customHeight="1">
-      <c r="A393" s="40"/>
+      <c r="A393" s="42"/>
       <c r="C393" s="8" t="s">
         <v>765</v>
       </c>
@@ -18552,11 +18552,11 @@
       <c r="E393" s="10"/>
       <c r="F393" s="10"/>
       <c r="G393" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="394" spans="1:7" ht="50" customHeight="1">
-      <c r="A394" s="40"/>
+      <c r="A394" s="42"/>
       <c r="C394" s="8" t="s">
         <v>767</v>
       </c>
@@ -18566,11 +18566,11 @@
       <c r="E394" s="10"/>
       <c r="F394" s="10"/>
       <c r="G394" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="395" spans="1:7" ht="50" customHeight="1">
-      <c r="A395" s="40"/>
+      <c r="A395" s="42"/>
       <c r="C395" s="8" t="s">
         <v>769</v>
       </c>
@@ -18578,15 +18578,15 @@
         <v>770</v>
       </c>
       <c r="E395" s="10" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F395" s="10"/>
       <c r="G395" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="396" spans="1:7" ht="50" customHeight="1">
-      <c r="A396" s="40"/>
+      <c r="A396" s="42"/>
       <c r="C396" s="8" t="s">
         <v>771</v>
       </c>
@@ -18596,11 +18596,11 @@
       <c r="E396" s="10"/>
       <c r="F396" s="10"/>
       <c r="G396" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="50" customHeight="1">
-      <c r="A397" s="40"/>
+      <c r="A397" s="42"/>
       <c r="C397" s="8" t="s">
         <v>773</v>
       </c>
@@ -18610,11 +18610,11 @@
       <c r="E397" s="10"/>
       <c r="F397" s="10"/>
       <c r="G397" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="50" customHeight="1">
-      <c r="A398" s="40"/>
+      <c r="A398" s="42"/>
       <c r="C398" s="8" t="s">
         <v>775</v>
       </c>
@@ -18624,11 +18624,11 @@
       <c r="E398" s="10"/>
       <c r="F398" s="10"/>
       <c r="G398" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="399" spans="1:7" ht="50" customHeight="1">
-      <c r="A399" s="40"/>
+      <c r="A399" s="42"/>
       <c r="C399" s="8" t="s">
         <v>777</v>
       </c>
@@ -18636,15 +18636,15 @@
         <v>778</v>
       </c>
       <c r="E399" s="10" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F399" s="10"/>
       <c r="G399" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="50" customHeight="1">
-      <c r="A400" s="40"/>
+      <c r="A400" s="42"/>
       <c r="C400" s="8" t="s">
         <v>779</v>
       </c>
@@ -18654,11 +18654,11 @@
       <c r="E400" s="10"/>
       <c r="F400" s="10"/>
       <c r="G400" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="401" spans="1:7" ht="50" customHeight="1">
-      <c r="A401" s="40"/>
+      <c r="A401" s="42"/>
       <c r="C401" s="8" t="s">
         <v>781</v>
       </c>
@@ -18666,15 +18666,15 @@
         <v>782</v>
       </c>
       <c r="E401" s="10" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F401" s="10"/>
       <c r="G401" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="50" customHeight="1">
-      <c r="A402" s="40"/>
+      <c r="A402" s="42"/>
       <c r="C402" s="8" t="s">
         <v>783</v>
       </c>
@@ -18684,11 +18684,11 @@
       <c r="E402" s="10"/>
       <c r="F402" s="10"/>
       <c r="G402" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="50" customHeight="1">
-      <c r="A403" s="41"/>
+      <c r="A403" s="43"/>
       <c r="C403" s="8" t="s">
         <v>785</v>
       </c>
@@ -18698,7 +18698,7 @@
       <c r="E403" s="10"/>
       <c r="F403" s="10"/>
       <c r="G403" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="404" spans="1:7" ht="50" customHeight="1">
@@ -18708,11 +18708,11 @@
       <c r="F404" s="10"/>
     </row>
     <row r="405" spans="1:7" ht="50" customHeight="1">
-      <c r="A405" s="39" t="s">
+      <c r="A405" s="41" t="s">
+        <v>912</v>
+      </c>
+      <c r="B405" s="41" t="s">
         <v>913</v>
-      </c>
-      <c r="B405" s="39" t="s">
-        <v>914</v>
       </c>
       <c r="C405" s="31" t="s">
         <v>787</v>
@@ -18721,12 +18721,12 @@
         <v>788</v>
       </c>
       <c r="G405" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="50" customHeight="1">
-      <c r="A406" s="40"/>
-      <c r="B406" s="40"/>
+      <c r="A406" s="42"/>
+      <c r="B406" s="42"/>
       <c r="C406" s="32" t="s">
         <v>789</v>
       </c>
@@ -18736,12 +18736,12 @@
       <c r="E406" s="10"/>
       <c r="F406" s="10"/>
       <c r="G406" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="50" customHeight="1">
-      <c r="A407" s="40"/>
-      <c r="B407" s="40"/>
+      <c r="A407" s="42"/>
+      <c r="B407" s="42"/>
       <c r="C407" s="32" t="s">
         <v>791</v>
       </c>
@@ -18751,12 +18751,12 @@
       <c r="E407" s="10"/>
       <c r="F407" s="10"/>
       <c r="G407" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="408" spans="1:7" ht="50" customHeight="1">
-      <c r="A408" s="40"/>
-      <c r="B408" s="41"/>
+      <c r="A408" s="42"/>
+      <c r="B408" s="43"/>
       <c r="C408" s="32" t="s">
         <v>793</v>
       </c>
@@ -18766,13 +18766,13 @@
       <c r="E408" s="10"/>
       <c r="F408" s="10"/>
       <c r="G408" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="409" spans="1:7" ht="50" customHeight="1">
-      <c r="A409" s="40"/>
-      <c r="B409" s="39" t="s">
-        <v>915</v>
+      <c r="A409" s="42"/>
+      <c r="B409" s="41" t="s">
+        <v>914</v>
       </c>
       <c r="C409" s="32" t="s">
         <v>795</v>
@@ -18783,12 +18783,12 @@
       <c r="E409" s="10"/>
       <c r="F409" s="10"/>
       <c r="G409" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="410" spans="1:7" ht="50" customHeight="1">
-      <c r="A410" s="40"/>
-      <c r="B410" s="40"/>
+      <c r="A410" s="42"/>
+      <c r="B410" s="42"/>
       <c r="C410" s="32" t="s">
         <v>797</v>
       </c>
@@ -18798,12 +18798,12 @@
       <c r="E410" s="10"/>
       <c r="F410" s="10"/>
       <c r="G410" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="50" customHeight="1">
-      <c r="A411" s="40"/>
-      <c r="B411" s="40"/>
+      <c r="A411" s="42"/>
+      <c r="B411" s="42"/>
       <c r="C411" s="32" t="s">
         <v>799</v>
       </c>
@@ -18815,12 +18815,12 @@
       </c>
       <c r="F411" s="30"/>
       <c r="G411" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="50" customHeight="1">
-      <c r="A412" s="40"/>
-      <c r="B412" s="40"/>
+      <c r="A412" s="42"/>
+      <c r="B412" s="42"/>
       <c r="C412" s="32" t="s">
         <v>801</v>
       </c>
@@ -18830,12 +18830,12 @@
       <c r="E412" s="10"/>
       <c r="F412" s="10"/>
       <c r="G412" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="50" customHeight="1">
-      <c r="A413" s="40"/>
-      <c r="B413" s="40"/>
+      <c r="A413" s="42"/>
+      <c r="B413" s="42"/>
       <c r="C413" s="32" t="s">
         <v>803</v>
       </c>
@@ -18845,12 +18845,12 @@
       <c r="E413" s="10"/>
       <c r="F413" s="10"/>
       <c r="G413" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="50" customHeight="1">
-      <c r="A414" s="40"/>
-      <c r="B414" s="40"/>
+      <c r="A414" s="42"/>
+      <c r="B414" s="42"/>
       <c r="C414" s="32" t="s">
         <v>805</v>
       </c>
@@ -18860,12 +18860,12 @@
       <c r="E414" s="10"/>
       <c r="F414" s="10"/>
       <c r="G414" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="415" spans="1:7" ht="50" customHeight="1">
-      <c r="A415" s="40"/>
-      <c r="B415" s="41"/>
+      <c r="A415" s="42"/>
+      <c r="B415" s="43"/>
       <c r="C415" s="32" t="s">
         <v>807</v>
       </c>
@@ -18875,13 +18875,13 @@
       <c r="E415" s="10"/>
       <c r="F415" s="10"/>
       <c r="G415" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="50" customHeight="1">
-      <c r="A416" s="40"/>
-      <c r="B416" s="39" t="s">
-        <v>916</v>
+      <c r="A416" s="42"/>
+      <c r="B416" s="41" t="s">
+        <v>915</v>
       </c>
       <c r="C416" s="31" t="s">
         <v>809</v>
@@ -18890,15 +18890,15 @@
         <v>810</v>
       </c>
       <c r="E416" s="15" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G416" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="50" customHeight="1">
-      <c r="A417" s="40"/>
-      <c r="B417" s="41"/>
+      <c r="A417" s="42"/>
+      <c r="B417" s="43"/>
       <c r="C417" s="32" t="s">
         <v>811</v>
       </c>
@@ -18906,16 +18906,16 @@
         <v>812</v>
       </c>
       <c r="E417" s="15" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G417" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="50" customHeight="1">
-      <c r="A418" s="40"/>
-      <c r="B418" s="39" t="s">
-        <v>917</v>
+      <c r="A418" s="42"/>
+      <c r="B418" s="41" t="s">
+        <v>916</v>
       </c>
       <c r="C418" s="31" t="s">
         <v>813</v>
@@ -18924,12 +18924,12 @@
         <v>814</v>
       </c>
       <c r="G418" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="419" spans="1:7" ht="50" customHeight="1">
-      <c r="A419" s="40"/>
-      <c r="B419" s="40"/>
+      <c r="A419" s="42"/>
+      <c r="B419" s="42"/>
       <c r="C419" s="31" t="s">
         <v>815</v>
       </c>
@@ -18937,12 +18937,12 @@
         <v>816</v>
       </c>
       <c r="G419" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="420" spans="1:7" ht="50" customHeight="1">
-      <c r="A420" s="40"/>
-      <c r="B420" s="40"/>
+      <c r="A420" s="42"/>
+      <c r="B420" s="42"/>
       <c r="C420" s="31" t="s">
         <v>817</v>
       </c>
@@ -18950,12 +18950,12 @@
         <v>818</v>
       </c>
       <c r="G420" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="421" spans="1:7" ht="50" customHeight="1">
-      <c r="A421" s="40"/>
-      <c r="B421" s="40"/>
+      <c r="A421" s="42"/>
+      <c r="B421" s="42"/>
       <c r="C421" s="31" t="s">
         <v>819</v>
       </c>
@@ -18963,12 +18963,12 @@
         <v>820</v>
       </c>
       <c r="G421" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="422" spans="1:7" ht="50" customHeight="1">
-      <c r="A422" s="41"/>
-      <c r="B422" s="41"/>
+      <c r="A422" s="43"/>
+      <c r="B422" s="43"/>
       <c r="C422" s="31" t="s">
         <v>821</v>
       </c>
@@ -18976,36 +18976,20 @@
         <v>822</v>
       </c>
       <c r="G422" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B56"/>
-    <mergeCell ref="A36:A56"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="A17:A34"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B17:B28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A58:A70"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A72:A113"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B97"/>
-    <mergeCell ref="B98:B107"/>
-    <mergeCell ref="B108:B113"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="A115:A124"/>
-    <mergeCell ref="B118:B124"/>
-    <mergeCell ref="A126:A149"/>
-    <mergeCell ref="B126:B140"/>
-    <mergeCell ref="B141:B149"/>
+    <mergeCell ref="B310:B312"/>
+    <mergeCell ref="B313:B315"/>
+    <mergeCell ref="B316:B325"/>
+    <mergeCell ref="B327:B331"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="B235:B269"/>
+    <mergeCell ref="B271:B274"/>
+    <mergeCell ref="B275:B307"/>
     <mergeCell ref="A151:A227"/>
     <mergeCell ref="A229:A331"/>
     <mergeCell ref="A333:A403"/>
@@ -19022,15 +19006,31 @@
     <mergeCell ref="B183:B188"/>
     <mergeCell ref="B189:B223"/>
     <mergeCell ref="B224:B227"/>
-    <mergeCell ref="B310:B312"/>
-    <mergeCell ref="B313:B315"/>
-    <mergeCell ref="B316:B325"/>
-    <mergeCell ref="B327:B331"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="B233:B234"/>
-    <mergeCell ref="B235:B269"/>
-    <mergeCell ref="B271:B274"/>
-    <mergeCell ref="B275:B307"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="A115:A124"/>
+    <mergeCell ref="B118:B124"/>
+    <mergeCell ref="A126:A149"/>
+    <mergeCell ref="B126:B140"/>
+    <mergeCell ref="B141:B149"/>
+    <mergeCell ref="A58:A70"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A72:A113"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B97"/>
+    <mergeCell ref="B98:B107"/>
+    <mergeCell ref="B108:B113"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B56"/>
+    <mergeCell ref="A36:A56"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A17:A34"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B17:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <conditionalFormatting sqref="E327:F327 E307:F308 E321:F325 E128:F128">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -19043,21 +19043,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F414E67DA4490F438DF7F839DDD88F54" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="968179862b391a59b7f67eb3e7667402">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fddf207-9565-4c1d-88a2-78ac3eb02019" xmlns:ns3="1750c493-bee6-4013-b7a9-faed7d1eacd9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fc6ea6213b4ec21afdfc08f0704f67a" ns2:_="" ns3:_="">
     <xsd:import namespace="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
@@ -19260,10 +19245,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E6096D8-1CD1-477D-852D-41029505002A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD5FE2FF-FFA2-4AC8-B9A7-6009CF780188}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
+    <ds:schemaRef ds:uri="1750c493-bee6-4013-b7a9-faed7d1eacd9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19286,20 +19297,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD5FE2FF-FFA2-4AC8-B9A7-6009CF780188}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E6096D8-1CD1-477D-852D-41029505002A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
-    <ds:schemaRef ds:uri="1750c493-bee6-4013-b7a9-faed7d1eacd9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Carto Icons/POI/PDS_Category_Assignment.xlsx
+++ b/Carto Icons/POI/PDS_Category_Assignment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lembke/Desktop/HERE/GIT/icons-by-here-technologies/Carto Icons/POI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hmcs-my.sharepoint.com/personal/alvaro_lauragarcia_here_com/Documents/GIT/icons-by-here-technologies/Carto Icons/POI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA93A1CC-B8CF-ED45-94D1-7E79B963AF98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{18D1B83F-F0BC-2A47-9648-5D055207C85A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{C64EB798-04F6-AE43-9DCC-0EA02E11247A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34660" windowHeight="27760" xr2:uid="{C64EB798-04F6-AE43-9DCC-0EA02E11247A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="987">
   <si>
     <t>PDS Category name</t>
   </si>
@@ -12034,6 +12034,106 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="188" name="Graphic 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BDC2BC-B4C8-9A48-829A-610B7AFD515C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId151">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId152"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18186400" y="256540000"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="191" name="Graphic 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A5460EB-34DF-B64C-A3F5-249DEBD85283}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId34"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18186400" y="36195000"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12336,8 +12436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693BBA9B-95F3-BD4A-928B-DD81DFE8C409}">
   <dimension ref="A1:I422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C86" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="C387" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="50" customHeight="1" outlineLevelCol="1"/>
@@ -13332,7 +13432,9 @@
       <c r="D58" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="10"/>
+      <c r="E58" s="10" t="s">
+        <v>985</v>
+      </c>
       <c r="F58" s="10"/>
       <c r="G58" s="23" t="s">
         <v>871</v>
@@ -14838,6 +14940,9 @@
         <v>980</v>
       </c>
       <c r="F151" s="10"/>
+      <c r="G151" s="34" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="152" spans="1:7" ht="50" customHeight="1">
       <c r="A152" s="42"/>
@@ -18719,6 +18824,9 @@
       </c>
       <c r="D405" s="29" t="s">
         <v>788</v>
+      </c>
+      <c r="E405" s="15" t="s">
+        <v>983</v>
       </c>
       <c r="G405" s="33" t="s">
         <v>917</v>
@@ -19282,16 +19390,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1765E8E-7B87-4E57-AE04-80D6CA061ADD}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1750c493-bee6-4013-b7a9-faed7d1eacd9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1750c493-bee6-4013-b7a9-faed7d1eacd9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Carto Icons/POI/PDS_Category_Assignment.xlsx
+++ b/Carto Icons/POI/PDS_Category_Assignment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hmcs-my.sharepoint.com/personal/alvaro_lauragarcia_here_com/Documents/GIT/icons-by-here-technologies/Carto Icons/POI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lembke/Desktop/HERE/GIT/icons-by-here-technologies/Carto Icons/POI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{18D1B83F-F0BC-2A47-9648-5D055207C85A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA600BB0-1C9E-404A-8124-19438FA3EA6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34660" windowHeight="27760" xr2:uid="{C64EB798-04F6-AE43-9DCC-0EA02E11247A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{C64EB798-04F6-AE43-9DCC-0EA02E11247A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="986">
   <si>
     <t>PDS Category name</t>
   </si>
@@ -2657,9 +2657,6 @@
   </si>
   <si>
     <t>#007650</t>
-  </si>
-  <si>
-    <t>#009196</t>
   </si>
   <si>
     <t>400 Transport</t>
@@ -3134,7 +3131,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3185,12 +3182,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF007650"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF009196"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3339,7 +3330,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3405,11 +3396,11 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3418,9 +3409,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3435,6 +3423,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3444,19 +3435,10 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3475,6 +3457,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12436,8 +12424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693BBA9B-95F3-BD4A-928B-DD81DFE8C409}">
   <dimension ref="A1:I422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C387" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="G333" sqref="G333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="50" customHeight="1" outlineLevelCol="1"/>
@@ -12494,10 +12482,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="50" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="45" t="s">
         <v>828</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="45" t="s">
         <v>837</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -12515,8 +12503,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="50" customHeight="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
@@ -12532,8 +12520,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="50" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
@@ -12549,8 +12537,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="50" customHeight="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -12566,8 +12554,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="50" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
@@ -12583,8 +12571,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="50" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
@@ -12600,8 +12588,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
@@ -12617,8 +12605,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="50" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
@@ -12634,8 +12622,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="50" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
@@ -12651,8 +12639,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="50" customHeight="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45" t="s">
         <v>838</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -12670,8 +12658,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="50" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
@@ -12687,8 +12675,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="50" customHeight="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="8" t="s">
         <v>25</v>
       </c>
@@ -12704,8 +12692,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="50" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
@@ -12730,10 +12718,10 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" ht="50" customHeight="1">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="44" t="s">
         <v>835</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="44" t="s">
         <v>840</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -12751,8 +12739,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="50" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="8" t="s">
         <v>31</v>
       </c>
@@ -12768,8 +12756,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="50" customHeight="1">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="8" t="s">
         <v>33</v>
       </c>
@@ -12785,8 +12773,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="50" customHeight="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="8" t="s">
         <v>35</v>
       </c>
@@ -12802,8 +12790,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="50" customHeight="1">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="8" t="s">
         <v>37</v>
       </c>
@@ -12819,8 +12807,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="50" customHeight="1">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="8" t="s">
         <v>39</v>
       </c>
@@ -12836,8 +12824,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="50" customHeight="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="8" t="s">
         <v>41</v>
       </c>
@@ -12853,8 +12841,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="50" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="8" t="s">
         <v>43</v>
       </c>
@@ -12870,8 +12858,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="50" customHeight="1">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="8" t="s">
         <v>45</v>
       </c>
@@ -12887,8 +12875,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="50" customHeight="1">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="15" t="s">
         <v>47</v>
       </c>
@@ -12896,15 +12884,15 @@
         <v>48</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="50" customHeight="1">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="8" t="s">
         <v>49</v>
       </c>
@@ -12920,8 +12908,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="50" customHeight="1">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="8" t="s">
         <v>51</v>
       </c>
@@ -12937,7 +12925,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="50" customHeight="1">
-      <c r="A29" s="39"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="16" t="s">
         <v>841</v>
       </c>
@@ -12956,8 +12944,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="50" customHeight="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44" t="s">
         <v>842</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -12975,8 +12963,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="50" customHeight="1">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="8" t="s">
         <v>57</v>
       </c>
@@ -12992,8 +12980,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="50" customHeight="1">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39" t="s">
+      <c r="A32" s="44"/>
+      <c r="B32" s="44" t="s">
         <v>843</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -13011,8 +12999,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="50" customHeight="1">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="8" t="s">
         <v>61</v>
       </c>
@@ -13028,8 +13016,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="50" customHeight="1">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="8" t="s">
         <v>63</v>
       </c>
@@ -13053,10 +13041,10 @@
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="50" customHeight="1">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="44" t="s">
         <v>839</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="44" t="s">
         <v>856</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -13074,8 +13062,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="50" customHeight="1">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="8" t="s">
         <v>67</v>
       </c>
@@ -13091,8 +13079,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="50" customHeight="1">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="8" t="s">
         <v>69</v>
       </c>
@@ -13108,8 +13096,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="50" customHeight="1">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="8" t="s">
         <v>71</v>
       </c>
@@ -13125,8 +13113,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="50" customHeight="1">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="8" t="s">
         <v>73</v>
       </c>
@@ -13140,8 +13128,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="50" customHeight="1">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="8" t="s">
         <v>75</v>
       </c>
@@ -13155,8 +13143,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="50" customHeight="1">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="8" t="s">
         <v>77</v>
       </c>
@@ -13170,8 +13158,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="50" customHeight="1">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="8" t="s">
         <v>79</v>
       </c>
@@ -13187,8 +13175,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="50" customHeight="1">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39" t="s">
+      <c r="A44" s="44"/>
+      <c r="B44" s="44" t="s">
         <v>857</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -13206,8 +13194,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="50" customHeight="1">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="8" t="s">
         <v>83</v>
       </c>
@@ -13223,8 +13211,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="50" customHeight="1">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="8" t="s">
         <v>85</v>
       </c>
@@ -13240,8 +13228,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="50" customHeight="1">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="8" t="s">
         <v>87</v>
       </c>
@@ -13257,8 +13245,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="50" customHeight="1">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="8" t="s">
         <v>89</v>
       </c>
@@ -13274,8 +13262,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="50" customHeight="1">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39" t="s">
+      <c r="A49" s="44"/>
+      <c r="B49" s="44" t="s">
         <v>858</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -13293,8 +13281,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="50" customHeight="1">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="8" t="s">
         <v>93</v>
       </c>
@@ -13310,8 +13298,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="50" customHeight="1">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="8" t="s">
         <v>95</v>
       </c>
@@ -13327,8 +13315,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="50" customHeight="1">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="8" t="s">
         <v>97</v>
       </c>
@@ -13344,8 +13332,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="50" customHeight="1">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="8" t="s">
         <v>99</v>
       </c>
@@ -13361,8 +13349,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="50" customHeight="1">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="8" t="s">
         <v>101</v>
       </c>
@@ -13378,8 +13366,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="50" customHeight="1">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="8" t="s">
         <v>103</v>
       </c>
@@ -13395,8 +13383,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="50" customHeight="1">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="8" t="s">
         <v>105</v>
       </c>
@@ -13420,10 +13408,10 @@
       <c r="F57" s="10"/>
     </row>
     <row r="58" spans="1:7" ht="50" customHeight="1">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="38" t="s">
         <v>859</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="38" t="s">
         <v>860</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -13433,16 +13421,16 @@
         <v>108</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F58" s="10"/>
-      <c r="G58" s="23" t="s">
-        <v>871</v>
+      <c r="G58" s="22" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="50" customHeight="1">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
       <c r="C59" s="8" t="s">
         <v>109</v>
       </c>
@@ -13451,13 +13439,13 @@
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="23" t="s">
-        <v>871</v>
+      <c r="G59" s="22" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="50" customHeight="1">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
       <c r="C60" s="8" t="s">
         <v>111</v>
       </c>
@@ -13466,13 +13454,13 @@
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="23" t="s">
-        <v>871</v>
+      <c r="G60" s="22" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="50" customHeight="1">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
       <c r="C61" s="8" t="s">
         <v>113</v>
       </c>
@@ -13480,16 +13468,16 @@
         <v>114</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F61" s="10"/>
-      <c r="G61" s="23" t="s">
-        <v>871</v>
+      <c r="G61" s="22" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="50" customHeight="1">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="8" t="s">
         <v>115</v>
       </c>
@@ -13498,13 +13486,13 @@
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="23" t="s">
-        <v>871</v>
+      <c r="G62" s="22" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="50" customHeight="1">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
       <c r="C63" s="8" t="s">
         <v>117</v>
       </c>
@@ -13513,13 +13501,13 @@
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="23" t="s">
-        <v>871</v>
+      <c r="G63" s="22" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="50" customHeight="1">
-      <c r="A64" s="42"/>
-      <c r="B64" s="43"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="40"/>
       <c r="C64" s="8" t="s">
         <v>119</v>
       </c>
@@ -13528,13 +13516,13 @@
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
-      <c r="G64" s="23" t="s">
-        <v>871</v>
+      <c r="G64" s="22" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="50" customHeight="1">
-      <c r="A65" s="42"/>
-      <c r="B65" s="41" t="s">
+      <c r="A65" s="39"/>
+      <c r="B65" s="38" t="s">
         <v>861</v>
       </c>
       <c r="C65" s="8" t="s">
@@ -13544,7 +13532,7 @@
         <v>122</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="22" t="s">
@@ -13552,8 +13540,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="50" customHeight="1">
-      <c r="A66" s="42"/>
-      <c r="B66" s="42"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
       <c r="C66" s="8" t="s">
         <v>123</v>
       </c>
@@ -13561,7 +13549,7 @@
         <v>124</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="22" t="s">
@@ -13569,8 +13557,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="50" customHeight="1">
-      <c r="A67" s="42"/>
-      <c r="B67" s="43"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="40"/>
       <c r="C67" s="8" t="s">
         <v>125</v>
       </c>
@@ -13578,7 +13566,7 @@
         <v>126</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="22" t="s">
@@ -13586,7 +13574,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="50" customHeight="1">
-      <c r="A68" s="42"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="16" t="s">
         <v>862</v>
       </c>
@@ -13598,12 +13586,12 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
-      <c r="G68" s="23" t="s">
-        <v>871</v>
+      <c r="G68" s="22" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="50" customHeight="1">
-      <c r="A69" s="42"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="16" t="s">
         <v>863</v>
       </c>
@@ -13614,7 +13602,7 @@
         <v>130</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="22" t="s">
@@ -13622,7 +13610,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="50" customHeight="1">
-      <c r="A70" s="43"/>
+      <c r="A70" s="40"/>
       <c r="B70" s="16" t="s">
         <v>864</v>
       </c>
@@ -13633,7 +13621,7 @@
         <v>132</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="22" t="s">
@@ -13649,11 +13637,11 @@
       <c r="F71" s="10"/>
     </row>
     <row r="72" spans="1:7" ht="50" customHeight="1">
-      <c r="A72" s="41" t="s">
-        <v>872</v>
-      </c>
-      <c r="B72" s="41" t="s">
-        <v>874</v>
+      <c r="A72" s="38" t="s">
+        <v>871</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>873</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>133</v>
@@ -13662,16 +13650,16 @@
         <v>134</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F72" s="10"/>
-      <c r="G72" s="26" t="s">
-        <v>882</v>
+      <c r="G72" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="50" customHeight="1">
-      <c r="A73" s="42"/>
-      <c r="B73" s="42"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
       <c r="C73" s="8" t="s">
         <v>135</v>
       </c>
@@ -13679,16 +13667,16 @@
         <v>136</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F73" s="10"/>
-      <c r="G73" s="26" t="s">
-        <v>882</v>
+      <c r="G73" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="50" customHeight="1">
-      <c r="A74" s="42"/>
-      <c r="B74" s="43"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="40"/>
       <c r="C74" s="8" t="s">
         <v>137</v>
       </c>
@@ -13696,17 +13684,17 @@
         <v>138</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F74" s="10"/>
-      <c r="G74" s="26" t="s">
-        <v>882</v>
+      <c r="G74" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="50" customHeight="1">
-      <c r="A75" s="42"/>
-      <c r="B75" s="41" t="s">
-        <v>873</v>
+      <c r="A75" s="39"/>
+      <c r="B75" s="38" t="s">
+        <v>872</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>139</v>
@@ -13715,16 +13703,16 @@
         <v>140</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F75" s="10"/>
-      <c r="G75" s="26" t="s">
-        <v>882</v>
+      <c r="G75" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="50" customHeight="1">
-      <c r="A76" s="42"/>
-      <c r="B76" s="42"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="8" t="s">
         <v>141</v>
       </c>
@@ -13732,16 +13720,16 @@
         <v>142</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F76" s="10"/>
-      <c r="G76" s="26" t="s">
-        <v>882</v>
+      <c r="G76" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="50" customHeight="1">
-      <c r="A77" s="42"/>
-      <c r="B77" s="42"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="8" t="s">
         <v>143</v>
       </c>
@@ -13749,16 +13737,16 @@
         <v>144</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F77" s="10"/>
-      <c r="G77" s="26" t="s">
-        <v>882</v>
+      <c r="G77" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="50" customHeight="1">
-      <c r="A78" s="42"/>
-      <c r="B78" s="42"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="8" t="s">
         <v>145</v>
       </c>
@@ -13766,16 +13754,16 @@
         <v>146</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F78" s="10"/>
-      <c r="G78" s="26" t="s">
-        <v>882</v>
+      <c r="G78" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="50" customHeight="1">
-      <c r="A79" s="42"/>
-      <c r="B79" s="42"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="8" t="s">
         <v>147</v>
       </c>
@@ -13783,16 +13771,16 @@
         <v>148</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F79" s="10"/>
-      <c r="G79" s="26" t="s">
-        <v>882</v>
+      <c r="G79" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="50" customHeight="1">
-      <c r="A80" s="42"/>
-      <c r="B80" s="42"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="8" t="s">
         <v>149</v>
       </c>
@@ -13801,13 +13789,13 @@
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
-      <c r="G80" s="26" t="s">
-        <v>882</v>
+      <c r="G80" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="50" customHeight="1">
-      <c r="A81" s="42"/>
-      <c r="B81" s="42"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="8" t="s">
         <v>151</v>
       </c>
@@ -13816,13 +13804,13 @@
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
-      <c r="G81" s="26" t="s">
-        <v>882</v>
+      <c r="G81" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="50" customHeight="1">
-      <c r="A82" s="42"/>
-      <c r="B82" s="42"/>
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
       <c r="C82" s="8" t="s">
         <v>153</v>
       </c>
@@ -13830,16 +13818,16 @@
         <v>154</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F82" s="10"/>
-      <c r="G82" s="26" t="s">
-        <v>882</v>
+      <c r="G82" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="50" customHeight="1">
-      <c r="A83" s="42"/>
-      <c r="B83" s="42"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="8" t="s">
         <v>155</v>
       </c>
@@ -13848,13 +13836,13 @@
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
-      <c r="G83" s="26" t="s">
-        <v>882</v>
+      <c r="G83" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="50" customHeight="1">
-      <c r="A84" s="42"/>
-      <c r="B84" s="42"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
       <c r="C84" s="8" t="s">
         <v>157</v>
       </c>
@@ -13862,16 +13850,16 @@
         <v>158</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F84" s="10"/>
-      <c r="G84" s="26" t="s">
-        <v>882</v>
+      <c r="G84" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="50" customHeight="1">
-      <c r="A85" s="42"/>
-      <c r="B85" s="42"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
       <c r="C85" s="8" t="s">
         <v>159</v>
       </c>
@@ -13879,16 +13867,16 @@
         <v>160</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F85" s="10"/>
-      <c r="G85" s="26" t="s">
-        <v>882</v>
+      <c r="G85" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="50" customHeight="1">
-      <c r="A86" s="42"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="8" t="s">
         <v>161</v>
       </c>
@@ -13896,16 +13884,16 @@
         <v>162</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F86" s="10"/>
-      <c r="G86" s="26" t="s">
-        <v>882</v>
+      <c r="G86" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="50" customHeight="1">
-      <c r="A87" s="42"/>
-      <c r="B87" s="42"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="39"/>
       <c r="C87" s="8" t="s">
         <v>163</v>
       </c>
@@ -13913,19 +13901,19 @@
         <v>164</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F87" s="10"/>
-      <c r="G87" s="26" t="s">
-        <v>882</v>
+      <c r="G87" s="25" t="s">
+        <v>881</v>
       </c>
       <c r="I87" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="50" customHeight="1">
-      <c r="A88" s="42"/>
-      <c r="B88" s="42"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
       <c r="C88" s="8" t="s">
         <v>165</v>
       </c>
@@ -13934,13 +13922,13 @@
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
-      <c r="G88" s="26" t="s">
-        <v>882</v>
+      <c r="G88" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="50" customHeight="1">
-      <c r="A89" s="42"/>
-      <c r="B89" s="42"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="8" t="s">
         <v>167</v>
       </c>
@@ -13948,16 +13936,16 @@
         <v>168</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F89" s="10"/>
-      <c r="G89" s="26" t="s">
-        <v>882</v>
+      <c r="G89" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="50" customHeight="1">
-      <c r="A90" s="42"/>
-      <c r="B90" s="42"/>
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
       <c r="C90" s="8" t="s">
         <v>169</v>
       </c>
@@ -13965,16 +13953,16 @@
         <v>170</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F90" s="10"/>
-      <c r="G90" s="26" t="s">
-        <v>882</v>
+      <c r="G90" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="50" customHeight="1">
-      <c r="A91" s="42"/>
-      <c r="B91" s="42"/>
+      <c r="A91" s="39"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="8" t="s">
         <v>171</v>
       </c>
@@ -13983,13 +13971,13 @@
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
-      <c r="G91" s="26" t="s">
-        <v>882</v>
+      <c r="G91" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="50" customHeight="1">
-      <c r="A92" s="42"/>
-      <c r="B92" s="42"/>
+      <c r="A92" s="39"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="8" t="s">
         <v>173</v>
       </c>
@@ -13997,16 +13985,16 @@
         <v>174</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F92" s="10"/>
-      <c r="G92" s="26" t="s">
-        <v>882</v>
+      <c r="G92" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="50" customHeight="1">
-      <c r="A93" s="42"/>
-      <c r="B93" s="42"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="39"/>
       <c r="C93" s="8" t="s">
         <v>175</v>
       </c>
@@ -14014,16 +14002,16 @@
         <v>176</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F93" s="10"/>
-      <c r="G93" s="26" t="s">
-        <v>882</v>
+      <c r="G93" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="50" customHeight="1">
-      <c r="A94" s="42"/>
-      <c r="B94" s="42"/>
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="8" t="s">
         <v>177</v>
       </c>
@@ -14032,13 +14020,13 @@
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
-      <c r="G94" s="26" t="s">
-        <v>882</v>
+      <c r="G94" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="50" customHeight="1">
-      <c r="A95" s="42"/>
-      <c r="B95" s="42"/>
+      <c r="A95" s="39"/>
+      <c r="B95" s="39"/>
       <c r="C95" s="8" t="s">
         <v>179</v>
       </c>
@@ -14046,16 +14034,16 @@
         <v>180</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F95" s="10"/>
-      <c r="G95" s="26" t="s">
-        <v>882</v>
+      <c r="G95" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="50" customHeight="1">
-      <c r="A96" s="42"/>
-      <c r="B96" s="42"/>
+      <c r="A96" s="39"/>
+      <c r="B96" s="39"/>
       <c r="C96" s="8" t="s">
         <v>181</v>
       </c>
@@ -14064,13 +14052,13 @@
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
-      <c r="G96" s="26" t="s">
-        <v>882</v>
+      <c r="G96" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="50" customHeight="1">
-      <c r="A97" s="42"/>
-      <c r="B97" s="43"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="40"/>
       <c r="C97" s="8" t="s">
         <v>183</v>
       </c>
@@ -14079,14 +14067,14 @@
       </c>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
-      <c r="G97" s="26" t="s">
-        <v>882</v>
+      <c r="G97" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="50" customHeight="1">
-      <c r="A98" s="42"/>
-      <c r="B98" s="41" t="s">
-        <v>875</v>
+      <c r="A98" s="39"/>
+      <c r="B98" s="38" t="s">
+        <v>874</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>185</v>
@@ -14096,13 +14084,13 @@
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
-      <c r="G98" s="26" t="s">
-        <v>882</v>
+      <c r="G98" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="50" customHeight="1">
-      <c r="A99" s="42"/>
-      <c r="B99" s="42"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="39"/>
       <c r="C99" s="8" t="s">
         <v>187</v>
       </c>
@@ -14111,13 +14099,13 @@
       </c>
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
-      <c r="G99" s="26" t="s">
-        <v>882</v>
+      <c r="G99" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="50" customHeight="1">
-      <c r="A100" s="42"/>
-      <c r="B100" s="42"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="39"/>
       <c r="C100" s="8" t="s">
         <v>189</v>
       </c>
@@ -14126,13 +14114,13 @@
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
-      <c r="G100" s="26" t="s">
-        <v>882</v>
+      <c r="G100" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="50" customHeight="1">
-      <c r="A101" s="42"/>
-      <c r="B101" s="42"/>
+      <c r="A101" s="39"/>
+      <c r="B101" s="39"/>
       <c r="C101" s="8" t="s">
         <v>191</v>
       </c>
@@ -14141,13 +14129,13 @@
       </c>
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
-      <c r="G101" s="26" t="s">
-        <v>882</v>
+      <c r="G101" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="50" customHeight="1">
-      <c r="A102" s="42"/>
-      <c r="B102" s="42"/>
+      <c r="A102" s="39"/>
+      <c r="B102" s="39"/>
       <c r="C102" s="8" t="s">
         <v>193</v>
       </c>
@@ -14156,13 +14144,13 @@
       </c>
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
-      <c r="G102" s="26" t="s">
-        <v>882</v>
+      <c r="G102" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="50" customHeight="1">
-      <c r="A103" s="42"/>
-      <c r="B103" s="42"/>
+      <c r="A103" s="39"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="8" t="s">
         <v>195</v>
       </c>
@@ -14171,13 +14159,13 @@
       </c>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
-      <c r="G103" s="26" t="s">
-        <v>882</v>
+      <c r="G103" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="50" customHeight="1">
-      <c r="A104" s="42"/>
-      <c r="B104" s="42"/>
+      <c r="A104" s="39"/>
+      <c r="B104" s="39"/>
       <c r="C104" s="8" t="s">
         <v>197</v>
       </c>
@@ -14186,13 +14174,13 @@
       </c>
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
-      <c r="G104" s="26" t="s">
-        <v>882</v>
+      <c r="G104" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="50" customHeight="1">
-      <c r="A105" s="42"/>
-      <c r="B105" s="42"/>
+      <c r="A105" s="39"/>
+      <c r="B105" s="39"/>
       <c r="C105" s="8" t="s">
         <v>199</v>
       </c>
@@ -14201,13 +14189,13 @@
       </c>
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
-      <c r="G105" s="26" t="s">
-        <v>882</v>
+      <c r="G105" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="50" customHeight="1">
-      <c r="A106" s="42"/>
-      <c r="B106" s="42"/>
+      <c r="A106" s="39"/>
+      <c r="B106" s="39"/>
       <c r="C106" s="8" t="s">
         <v>201</v>
       </c>
@@ -14216,13 +14204,13 @@
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
-      <c r="G106" s="26" t="s">
-        <v>882</v>
+      <c r="G106" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="50" customHeight="1">
-      <c r="A107" s="42"/>
-      <c r="B107" s="43"/>
+      <c r="A107" s="39"/>
+      <c r="B107" s="40"/>
       <c r="C107" s="8" t="s">
         <v>203</v>
       </c>
@@ -14231,14 +14219,14 @@
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
-      <c r="G107" s="26" t="s">
-        <v>882</v>
+      <c r="G107" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="50" customHeight="1">
-      <c r="A108" s="42"/>
-      <c r="B108" s="41" t="s">
-        <v>876</v>
+      <c r="A108" s="39"/>
+      <c r="B108" s="38" t="s">
+        <v>875</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>205</v>
@@ -14247,16 +14235,16 @@
         <v>206</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F108" s="10"/>
-      <c r="G108" s="25" t="s">
-        <v>881</v>
+      <c r="G108" s="24" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="50" customHeight="1">
-      <c r="A109" s="42"/>
-      <c r="B109" s="42"/>
+      <c r="A109" s="39"/>
+      <c r="B109" s="39"/>
       <c r="C109" s="8" t="s">
         <v>207</v>
       </c>
@@ -14264,16 +14252,16 @@
         <v>208</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F109" s="10"/>
-      <c r="G109" s="25" t="s">
-        <v>881</v>
+      <c r="G109" s="24" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="50" customHeight="1">
-      <c r="A110" s="42"/>
-      <c r="B110" s="42"/>
+      <c r="A110" s="39"/>
+      <c r="B110" s="39"/>
       <c r="C110" s="8" t="s">
         <v>209</v>
       </c>
@@ -14281,16 +14269,16 @@
         <v>210</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F110" s="10"/>
-      <c r="G110" s="25" t="s">
-        <v>881</v>
+      <c r="G110" s="24" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="50" customHeight="1">
-      <c r="A111" s="42"/>
-      <c r="B111" s="42"/>
+      <c r="A111" s="39"/>
+      <c r="B111" s="39"/>
       <c r="C111" s="8" t="s">
         <v>211</v>
       </c>
@@ -14298,16 +14286,16 @@
         <v>212</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F111" s="10"/>
-      <c r="G111" s="25" t="s">
-        <v>881</v>
+      <c r="G111" s="24" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="50" customHeight="1">
-      <c r="A112" s="42"/>
-      <c r="B112" s="42"/>
+      <c r="A112" s="39"/>
+      <c r="B112" s="39"/>
       <c r="C112" s="8" t="s">
         <v>213</v>
       </c>
@@ -14315,16 +14303,16 @@
         <v>214</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F112" s="10"/>
-      <c r="G112" s="25" t="s">
-        <v>881</v>
+      <c r="G112" s="24" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="50" customHeight="1">
-      <c r="A113" s="43"/>
-      <c r="B113" s="43"/>
+      <c r="A113" s="40"/>
+      <c r="B113" s="40"/>
       <c r="C113" s="8" t="s">
         <v>215</v>
       </c>
@@ -14332,26 +14320,26 @@
         <v>216</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F113" s="10"/>
-      <c r="G113" s="25" t="s">
-        <v>881</v>
+      <c r="G113" s="24" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="50" customHeight="1">
-      <c r="A114" s="24"/>
+      <c r="A114" s="23"/>
       <c r="C114" s="8"/>
       <c r="D114" s="9"/>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
     </row>
     <row r="115" spans="1:7" ht="50" customHeight="1">
-      <c r="A115" s="41" t="s">
+      <c r="A115" s="38" t="s">
+        <v>877</v>
+      </c>
+      <c r="B115" s="38" t="s">
         <v>878</v>
-      </c>
-      <c r="B115" s="41" t="s">
-        <v>879</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>217</v>
@@ -14360,16 +14348,16 @@
         <v>218</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F115" s="10"/>
-      <c r="G115" s="27" t="s">
-        <v>883</v>
+      <c r="G115" s="26" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="50" customHeight="1">
-      <c r="A116" s="42"/>
-      <c r="B116" s="42"/>
+      <c r="A116" s="39"/>
+      <c r="B116" s="39"/>
       <c r="C116" s="8" t="s">
         <v>219</v>
       </c>
@@ -14377,16 +14365,16 @@
         <v>220</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F116" s="10"/>
-      <c r="G116" s="27" t="s">
-        <v>883</v>
+      <c r="G116" s="26" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="50" customHeight="1">
-      <c r="A117" s="42"/>
-      <c r="B117" s="43"/>
+      <c r="A117" s="39"/>
+      <c r="B117" s="40"/>
       <c r="C117" s="8" t="s">
         <v>221</v>
       </c>
@@ -14394,17 +14382,17 @@
         <v>222</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F117" s="10"/>
-      <c r="G117" s="27" t="s">
-        <v>883</v>
+      <c r="G117" s="26" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="50" customHeight="1">
-      <c r="A118" s="42"/>
-      <c r="B118" s="41" t="s">
-        <v>880</v>
+      <c r="A118" s="39"/>
+      <c r="B118" s="38" t="s">
+        <v>879</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>223</v>
@@ -14413,16 +14401,16 @@
         <v>224</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F118" s="10"/>
-      <c r="G118" s="27" t="s">
-        <v>883</v>
+      <c r="G118" s="26" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="50" customHeight="1">
-      <c r="A119" s="42"/>
-      <c r="B119" s="42"/>
+      <c r="A119" s="39"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="8" t="s">
         <v>225</v>
       </c>
@@ -14430,16 +14418,16 @@
         <v>226</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F119" s="10"/>
-      <c r="G119" s="27" t="s">
-        <v>883</v>
+      <c r="G119" s="26" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="50" customHeight="1">
-      <c r="A120" s="42"/>
-      <c r="B120" s="42"/>
+      <c r="A120" s="39"/>
+      <c r="B120" s="39"/>
       <c r="C120" s="8" t="s">
         <v>227</v>
       </c>
@@ -14447,16 +14435,16 @@
         <v>228</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F120" s="10"/>
-      <c r="G120" s="27" t="s">
-        <v>883</v>
+      <c r="G120" s="26" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="50" customHeight="1">
-      <c r="A121" s="42"/>
-      <c r="B121" s="42"/>
+      <c r="A121" s="39"/>
+      <c r="B121" s="39"/>
       <c r="C121" s="8" t="s">
         <v>229</v>
       </c>
@@ -14464,16 +14452,16 @@
         <v>230</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F121" s="10"/>
-      <c r="G121" s="27" t="s">
-        <v>883</v>
+      <c r="G121" s="26" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="50" customHeight="1">
-      <c r="A122" s="42"/>
-      <c r="B122" s="42"/>
+      <c r="A122" s="39"/>
+      <c r="B122" s="39"/>
       <c r="C122" s="8" t="s">
         <v>231</v>
       </c>
@@ -14481,16 +14469,16 @@
         <v>232</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F122" s="10"/>
-      <c r="G122" s="27" t="s">
-        <v>883</v>
+      <c r="G122" s="26" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="50" customHeight="1">
-      <c r="A123" s="42"/>
-      <c r="B123" s="42"/>
+      <c r="A123" s="39"/>
+      <c r="B123" s="39"/>
       <c r="C123" s="8" t="s">
         <v>233</v>
       </c>
@@ -14498,16 +14486,16 @@
         <v>234</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F123" s="10"/>
-      <c r="G123" s="27" t="s">
-        <v>883</v>
+      <c r="G123" s="26" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="50" customHeight="1">
-      <c r="A124" s="42"/>
-      <c r="B124" s="42"/>
+      <c r="A124" s="39"/>
+      <c r="B124" s="39"/>
       <c r="C124" s="8" t="s">
         <v>235</v>
       </c>
@@ -14515,11 +14503,11 @@
         <v>236</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F124" s="10"/>
-      <c r="G124" s="27" t="s">
-        <v>883</v>
+      <c r="G124" s="26" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="50" customHeight="1">
@@ -14531,11 +14519,11 @@
       <c r="F125" s="10"/>
     </row>
     <row r="126" spans="1:7" ht="50" customHeight="1">
-      <c r="A126" s="42" t="s">
+      <c r="A126" s="39" t="s">
+        <v>900</v>
+      </c>
+      <c r="B126" s="39" t="s">
         <v>901</v>
-      </c>
-      <c r="B126" s="42" t="s">
-        <v>902</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>237</v>
@@ -14544,16 +14532,16 @@
         <v>238</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F126" s="10"/>
-      <c r="G126" s="28" t="s">
-        <v>905</v>
+      <c r="G126" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="50" customHeight="1">
-      <c r="A127" s="42"/>
-      <c r="B127" s="42"/>
+      <c r="A127" s="39"/>
+      <c r="B127" s="39"/>
       <c r="C127" s="8" t="s">
         <v>239</v>
       </c>
@@ -14561,16 +14549,16 @@
         <v>240</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F127" s="10"/>
-      <c r="G127" s="28" t="s">
-        <v>905</v>
+      <c r="G127" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="50" customHeight="1">
-      <c r="A128" s="42"/>
-      <c r="B128" s="42"/>
+      <c r="A128" s="39"/>
+      <c r="B128" s="39"/>
       <c r="C128" s="8" t="s">
         <v>241</v>
       </c>
@@ -14579,13 +14567,13 @@
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
-      <c r="G128" s="28" t="s">
-        <v>905</v>
+      <c r="G128" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="50" customHeight="1">
-      <c r="A129" s="42"/>
-      <c r="B129" s="42"/>
+      <c r="A129" s="39"/>
+      <c r="B129" s="39"/>
       <c r="C129" s="8" t="s">
         <v>243</v>
       </c>
@@ -14593,16 +14581,16 @@
         <v>244</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F129" s="10"/>
-      <c r="G129" s="28" t="s">
-        <v>905</v>
+      <c r="G129" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="50" customHeight="1">
-      <c r="A130" s="42"/>
-      <c r="B130" s="42"/>
+      <c r="A130" s="39"/>
+      <c r="B130" s="39"/>
       <c r="C130" s="8" t="s">
         <v>245</v>
       </c>
@@ -14610,16 +14598,16 @@
         <v>246</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F130" s="10"/>
-      <c r="G130" s="28" t="s">
-        <v>905</v>
+      <c r="G130" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="50" customHeight="1">
-      <c r="A131" s="42"/>
-      <c r="B131" s="42"/>
+      <c r="A131" s="39"/>
+      <c r="B131" s="39"/>
       <c r="C131" s="8" t="s">
         <v>247</v>
       </c>
@@ -14628,13 +14616,13 @@
       </c>
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
-      <c r="G131" s="28" t="s">
-        <v>905</v>
+      <c r="G131" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="50" customHeight="1">
-      <c r="A132" s="42"/>
-      <c r="B132" s="42"/>
+      <c r="A132" s="39"/>
+      <c r="B132" s="39"/>
       <c r="C132" s="8" t="s">
         <v>249</v>
       </c>
@@ -14643,13 +14631,13 @@
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
-      <c r="G132" s="28" t="s">
-        <v>905</v>
+      <c r="G132" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="50" customHeight="1">
-      <c r="A133" s="42"/>
-      <c r="B133" s="42"/>
+      <c r="A133" s="39"/>
+      <c r="B133" s="39"/>
       <c r="C133" s="8" t="s">
         <v>251</v>
       </c>
@@ -14657,16 +14645,16 @@
         <v>252</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F133" s="10"/>
-      <c r="G133" s="28" t="s">
-        <v>905</v>
+      <c r="G133" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="50" customHeight="1">
-      <c r="A134" s="42"/>
-      <c r="B134" s="42"/>
+      <c r="A134" s="39"/>
+      <c r="B134" s="39"/>
       <c r="C134" s="8" t="s">
         <v>253</v>
       </c>
@@ -14675,13 +14663,13 @@
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
-      <c r="G134" s="28" t="s">
-        <v>905</v>
+      <c r="G134" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="50" customHeight="1">
-      <c r="A135" s="42"/>
-      <c r="B135" s="42"/>
+      <c r="A135" s="39"/>
+      <c r="B135" s="39"/>
       <c r="C135" s="8" t="s">
         <v>255</v>
       </c>
@@ -14690,13 +14678,13 @@
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
-      <c r="G135" s="28" t="s">
-        <v>905</v>
+      <c r="G135" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="50" customHeight="1">
-      <c r="A136" s="42"/>
-      <c r="B136" s="42"/>
+      <c r="A136" s="39"/>
+      <c r="B136" s="39"/>
       <c r="C136" s="8" t="s">
         <v>257</v>
       </c>
@@ -14705,13 +14693,13 @@
       </c>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
-      <c r="G136" s="28" t="s">
-        <v>905</v>
+      <c r="G136" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="50" customHeight="1">
-      <c r="A137" s="42"/>
-      <c r="B137" s="42"/>
+      <c r="A137" s="39"/>
+      <c r="B137" s="39"/>
       <c r="C137" s="8" t="s">
         <v>259</v>
       </c>
@@ -14719,16 +14707,16 @@
         <v>260</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F137" s="10"/>
-      <c r="G137" s="28" t="s">
-        <v>905</v>
+      <c r="G137" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="50" customHeight="1">
-      <c r="A138" s="42"/>
-      <c r="B138" s="42"/>
+      <c r="A138" s="39"/>
+      <c r="B138" s="39"/>
       <c r="C138" s="8" t="s">
         <v>261</v>
       </c>
@@ -14737,13 +14725,13 @@
       </c>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
-      <c r="G138" s="28" t="s">
-        <v>905</v>
+      <c r="G138" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="50" customHeight="1">
-      <c r="A139" s="42"/>
-      <c r="B139" s="42"/>
+      <c r="A139" s="39"/>
+      <c r="B139" s="39"/>
       <c r="C139" s="8" t="s">
         <v>263</v>
       </c>
@@ -14752,13 +14740,13 @@
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
-      <c r="G139" s="28" t="s">
-        <v>905</v>
+      <c r="G139" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="50" customHeight="1">
-      <c r="A140" s="42"/>
-      <c r="B140" s="43"/>
+      <c r="A140" s="39"/>
+      <c r="B140" s="40"/>
       <c r="C140" s="8" t="s">
         <v>265</v>
       </c>
@@ -14767,14 +14755,14 @@
       </c>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
-      <c r="G140" s="28" t="s">
-        <v>905</v>
+      <c r="G140" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="50" customHeight="1">
-      <c r="A141" s="42"/>
-      <c r="B141" s="41" t="s">
-        <v>903</v>
+      <c r="A141" s="39"/>
+      <c r="B141" s="38" t="s">
+        <v>902</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>267</v>
@@ -14783,16 +14771,16 @@
         <v>268</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F141" s="10"/>
-      <c r="G141" s="28" t="s">
-        <v>905</v>
+      <c r="G141" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="50" customHeight="1">
-      <c r="A142" s="42"/>
-      <c r="B142" s="42"/>
+      <c r="A142" s="39"/>
+      <c r="B142" s="39"/>
       <c r="C142" s="8" t="s">
         <v>269</v>
       </c>
@@ -14800,16 +14788,16 @@
         <v>270</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F142" s="10"/>
-      <c r="G142" s="28" t="s">
-        <v>905</v>
+      <c r="G142" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="50" customHeight="1">
-      <c r="A143" s="42"/>
-      <c r="B143" s="42"/>
+      <c r="A143" s="39"/>
+      <c r="B143" s="39"/>
       <c r="C143" s="8" t="s">
         <v>271</v>
       </c>
@@ -14817,16 +14805,16 @@
         <v>272</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F143" s="10"/>
-      <c r="G143" s="28" t="s">
-        <v>905</v>
+      <c r="G143" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="50" customHeight="1">
-      <c r="A144" s="42"/>
-      <c r="B144" s="42"/>
+      <c r="A144" s="39"/>
+      <c r="B144" s="39"/>
       <c r="C144" s="8" t="s">
         <v>273</v>
       </c>
@@ -14835,13 +14823,13 @@
       </c>
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
-      <c r="G144" s="28" t="s">
-        <v>905</v>
+      <c r="G144" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="50" customHeight="1">
-      <c r="A145" s="42"/>
-      <c r="B145" s="42"/>
+      <c r="A145" s="39"/>
+      <c r="B145" s="39"/>
       <c r="C145" s="8" t="s">
         <v>275</v>
       </c>
@@ -14850,13 +14838,13 @@
       </c>
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
-      <c r="G145" s="28" t="s">
-        <v>905</v>
+      <c r="G145" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="50" customHeight="1">
-      <c r="A146" s="42"/>
-      <c r="B146" s="42"/>
+      <c r="A146" s="39"/>
+      <c r="B146" s="39"/>
       <c r="C146" s="8" t="s">
         <v>277</v>
       </c>
@@ -14865,13 +14853,13 @@
       </c>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
-      <c r="G146" s="28" t="s">
-        <v>905</v>
+      <c r="G146" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="50" customHeight="1">
-      <c r="A147" s="42"/>
-      <c r="B147" s="42"/>
+      <c r="A147" s="39"/>
+      <c r="B147" s="39"/>
       <c r="C147" s="8" t="s">
         <v>279</v>
       </c>
@@ -14879,16 +14867,16 @@
         <v>280</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F147" s="10"/>
-      <c r="G147" s="28" t="s">
-        <v>905</v>
+      <c r="G147" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="50" customHeight="1">
-      <c r="A148" s="42"/>
-      <c r="B148" s="42"/>
+      <c r="A148" s="39"/>
+      <c r="B148" s="39"/>
       <c r="C148" s="8" t="s">
         <v>281</v>
       </c>
@@ -14896,16 +14884,16 @@
         <v>282</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F148" s="10"/>
-      <c r="G148" s="28" t="s">
-        <v>905</v>
+      <c r="G148" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="50" customHeight="1">
-      <c r="A149" s="43"/>
-      <c r="B149" s="43"/>
+      <c r="A149" s="40"/>
+      <c r="B149" s="40"/>
       <c r="C149" s="8" t="s">
         <v>283</v>
       </c>
@@ -14913,8 +14901,8 @@
         <v>284</v>
       </c>
       <c r="E149" s="10"/>
-      <c r="G149" s="28" t="s">
-        <v>905</v>
+      <c r="G149" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="50" customHeight="1">
@@ -14924,11 +14912,11 @@
       <c r="F150" s="10"/>
     </row>
     <row r="151" spans="1:7" ht="50" customHeight="1">
-      <c r="A151" s="41" t="s">
-        <v>904</v>
+      <c r="A151" s="38" t="s">
+        <v>903</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>285</v>
@@ -14937,17 +14925,17 @@
         <v>286</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F151" s="10"/>
-      <c r="G151" s="34" t="s">
-        <v>918</v>
+      <c r="G151" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="50" customHeight="1">
-      <c r="A152" s="42"/>
+      <c r="A152" s="39"/>
       <c r="B152" s="16" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>287</v>
@@ -14956,17 +14944,17 @@
         <v>288</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F152" s="10"/>
-      <c r="G152" s="34" t="s">
-        <v>918</v>
+      <c r="G152" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="50" customHeight="1">
-      <c r="A153" s="42"/>
+      <c r="A153" s="39"/>
       <c r="B153" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>289</v>
@@ -14975,17 +14963,17 @@
         <v>290</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F153" s="10"/>
-      <c r="G153" s="34" t="s">
-        <v>918</v>
+      <c r="G153" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="50" customHeight="1">
-      <c r="A154" s="42"/>
-      <c r="B154" s="44" t="s">
-        <v>922</v>
+      <c r="A154" s="39"/>
+      <c r="B154" s="41" t="s">
+        <v>921</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>291</v>
@@ -14995,13 +14983,13 @@
       </c>
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
-      <c r="G154" s="34" t="s">
-        <v>918</v>
+      <c r="G154" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="50" customHeight="1">
-      <c r="A155" s="42"/>
-      <c r="B155" s="45"/>
+      <c r="A155" s="39"/>
+      <c r="B155" s="42"/>
       <c r="C155" s="8" t="s">
         <v>293</v>
       </c>
@@ -15009,16 +14997,16 @@
         <v>294</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F155" s="10"/>
-      <c r="G155" s="34" t="s">
-        <v>918</v>
+      <c r="G155" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="50" customHeight="1">
-      <c r="A156" s="42"/>
-      <c r="B156" s="45"/>
+      <c r="A156" s="39"/>
+      <c r="B156" s="42"/>
       <c r="C156" s="8" t="s">
         <v>295</v>
       </c>
@@ -15027,13 +15015,13 @@
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
-      <c r="G156" s="34" t="s">
-        <v>918</v>
+      <c r="G156" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="50" customHeight="1">
-      <c r="A157" s="42"/>
-      <c r="B157" s="45"/>
+      <c r="A157" s="39"/>
+      <c r="B157" s="42"/>
       <c r="C157" s="8" t="s">
         <v>297</v>
       </c>
@@ -15042,13 +15030,13 @@
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
-      <c r="G157" s="34" t="s">
-        <v>918</v>
+      <c r="G157" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="50" customHeight="1">
-      <c r="A158" s="42"/>
-      <c r="B158" s="45"/>
+      <c r="A158" s="39"/>
+      <c r="B158" s="42"/>
       <c r="C158" s="8" t="s">
         <v>299</v>
       </c>
@@ -15057,13 +15045,13 @@
       </c>
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
-      <c r="G158" s="34" t="s">
-        <v>918</v>
+      <c r="G158" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="50" customHeight="1">
-      <c r="A159" s="42"/>
-      <c r="B159" s="45"/>
+      <c r="A159" s="39"/>
+      <c r="B159" s="42"/>
       <c r="C159" s="8" t="s">
         <v>301</v>
       </c>
@@ -15072,13 +15060,13 @@
       </c>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
-      <c r="G159" s="34" t="s">
-        <v>918</v>
+      <c r="G159" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="50" customHeight="1">
-      <c r="A160" s="42"/>
-      <c r="B160" s="45"/>
+      <c r="A160" s="39"/>
+      <c r="B160" s="42"/>
       <c r="C160" s="8" t="s">
         <v>303</v>
       </c>
@@ -15087,13 +15075,13 @@
       </c>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
-      <c r="G160" s="34" t="s">
-        <v>918</v>
+      <c r="G160" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="50" customHeight="1">
-      <c r="A161" s="42"/>
-      <c r="B161" s="46"/>
+      <c r="A161" s="39"/>
+      <c r="B161" s="43"/>
       <c r="C161" s="8" t="s">
         <v>305</v>
       </c>
@@ -15101,17 +15089,17 @@
         <v>306</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F161" s="10"/>
-      <c r="G161" s="34" t="s">
-        <v>918</v>
+      <c r="G161" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="50" customHeight="1">
-      <c r="A162" s="42"/>
-      <c r="B162" s="41" t="s">
-        <v>923</v>
+      <c r="A162" s="39"/>
+      <c r="B162" s="38" t="s">
+        <v>922</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>307</v>
@@ -15120,16 +15108,16 @@
         <v>308</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F162" s="10"/>
-      <c r="G162" s="35" t="s">
-        <v>932</v>
+      <c r="G162" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="50" customHeight="1">
-      <c r="A163" s="42"/>
-      <c r="B163" s="42"/>
+      <c r="A163" s="39"/>
+      <c r="B163" s="39"/>
       <c r="C163" s="8" t="s">
         <v>309</v>
       </c>
@@ -15137,16 +15125,16 @@
         <v>310</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F163" s="10"/>
-      <c r="G163" s="35" t="s">
-        <v>932</v>
+      <c r="G163" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="50" customHeight="1">
-      <c r="A164" s="42"/>
-      <c r="B164" s="43"/>
+      <c r="A164" s="39"/>
+      <c r="B164" s="40"/>
       <c r="C164" s="8" t="s">
         <v>311</v>
       </c>
@@ -15154,17 +15142,17 @@
         <v>312</v>
       </c>
       <c r="E164" s="10" t="s">
+        <v>930</v>
+      </c>
+      <c r="F164" s="10"/>
+      <c r="G164" s="34" t="s">
         <v>931</v>
       </c>
-      <c r="F164" s="10"/>
-      <c r="G164" s="35" t="s">
-        <v>932</v>
-      </c>
     </row>
     <row r="165" spans="1:7" ht="50" customHeight="1">
-      <c r="A165" s="42"/>
-      <c r="B165" s="41" t="s">
-        <v>924</v>
+      <c r="A165" s="39"/>
+      <c r="B165" s="38" t="s">
+        <v>923</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>313</v>
@@ -15174,13 +15162,13 @@
       </c>
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
-      <c r="G165" s="34" t="s">
-        <v>918</v>
+      <c r="G165" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="50" customHeight="1">
-      <c r="A166" s="42"/>
-      <c r="B166" s="42"/>
+      <c r="A166" s="39"/>
+      <c r="B166" s="39"/>
       <c r="C166" s="8" t="s">
         <v>315</v>
       </c>
@@ -15189,13 +15177,13 @@
       </c>
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
-      <c r="G166" s="34" t="s">
-        <v>918</v>
+      <c r="G166" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="50" customHeight="1">
-      <c r="A167" s="42"/>
-      <c r="B167" s="42"/>
+      <c r="A167" s="39"/>
+      <c r="B167" s="39"/>
       <c r="C167" s="8" t="s">
         <v>317</v>
       </c>
@@ -15204,13 +15192,13 @@
       </c>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
-      <c r="G167" s="34" t="s">
-        <v>918</v>
+      <c r="G167" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="50" customHeight="1">
-      <c r="A168" s="42"/>
-      <c r="B168" s="42"/>
+      <c r="A168" s="39"/>
+      <c r="B168" s="39"/>
       <c r="C168" s="8" t="s">
         <v>319</v>
       </c>
@@ -15219,27 +15207,27 @@
       </c>
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
-      <c r="G168" s="34" t="s">
-        <v>918</v>
+      <c r="G168" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="50" customHeight="1">
-      <c r="A169" s="42"/>
-      <c r="B169" s="43"/>
+      <c r="A169" s="39"/>
+      <c r="B169" s="40"/>
       <c r="C169" s="15" t="s">
         <v>321</v>
       </c>
       <c r="D169" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="G169" s="34" t="s">
-        <v>918</v>
+      <c r="G169" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="50" customHeight="1">
-      <c r="A170" s="42"/>
-      <c r="B170" s="41" t="s">
-        <v>925</v>
+      <c r="A170" s="39"/>
+      <c r="B170" s="38" t="s">
+        <v>924</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>323</v>
@@ -15249,13 +15237,13 @@
       </c>
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
-      <c r="G170" s="34" t="s">
-        <v>918</v>
+      <c r="G170" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="50" customHeight="1">
-      <c r="A171" s="42"/>
-      <c r="B171" s="42"/>
+      <c r="A171" s="39"/>
+      <c r="B171" s="39"/>
       <c r="C171" s="8" t="s">
         <v>325</v>
       </c>
@@ -15264,13 +15252,13 @@
       </c>
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
-      <c r="G171" s="34" t="s">
-        <v>918</v>
+      <c r="G171" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="50" customHeight="1">
-      <c r="A172" s="42"/>
-      <c r="B172" s="42"/>
+      <c r="A172" s="39"/>
+      <c r="B172" s="39"/>
       <c r="C172" s="8" t="s">
         <v>327</v>
       </c>
@@ -15279,13 +15267,13 @@
       </c>
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
-      <c r="G172" s="34" t="s">
-        <v>918</v>
+      <c r="G172" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="50" customHeight="1">
-      <c r="A173" s="42"/>
-      <c r="B173" s="42"/>
+      <c r="A173" s="39"/>
+      <c r="B173" s="39"/>
       <c r="C173" s="8" t="s">
         <v>329</v>
       </c>
@@ -15294,13 +15282,13 @@
       </c>
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
-      <c r="G173" s="34" t="s">
-        <v>918</v>
+      <c r="G173" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="50" customHeight="1">
-      <c r="A174" s="42"/>
-      <c r="B174" s="42"/>
+      <c r="A174" s="39"/>
+      <c r="B174" s="39"/>
       <c r="C174" s="8" t="s">
         <v>331</v>
       </c>
@@ -15309,13 +15297,13 @@
       </c>
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
-      <c r="G174" s="34" t="s">
-        <v>918</v>
+      <c r="G174" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="50" customHeight="1">
-      <c r="A175" s="42"/>
-      <c r="B175" s="42"/>
+      <c r="A175" s="39"/>
+      <c r="B175" s="39"/>
       <c r="C175" s="8" t="s">
         <v>333</v>
       </c>
@@ -15324,13 +15312,13 @@
       </c>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
-      <c r="G175" s="34" t="s">
-        <v>918</v>
+      <c r="G175" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="50" customHeight="1">
-      <c r="A176" s="42"/>
-      <c r="B176" s="42"/>
+      <c r="A176" s="39"/>
+      <c r="B176" s="39"/>
       <c r="C176" s="8" t="s">
         <v>335</v>
       </c>
@@ -15339,13 +15327,13 @@
       </c>
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
-      <c r="G176" s="34" t="s">
-        <v>918</v>
+      <c r="G176" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="50" customHeight="1">
-      <c r="A177" s="42"/>
-      <c r="B177" s="42"/>
+      <c r="A177" s="39"/>
+      <c r="B177" s="39"/>
       <c r="C177" s="8" t="s">
         <v>337</v>
       </c>
@@ -15354,13 +15342,13 @@
       </c>
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
-      <c r="G177" s="34" t="s">
-        <v>918</v>
+      <c r="G177" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="50" customHeight="1">
-      <c r="A178" s="42"/>
-      <c r="B178" s="42"/>
+      <c r="A178" s="39"/>
+      <c r="B178" s="39"/>
       <c r="C178" s="8" t="s">
         <v>339</v>
       </c>
@@ -15369,13 +15357,13 @@
       </c>
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
-      <c r="G178" s="34" t="s">
-        <v>918</v>
+      <c r="G178" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="50" customHeight="1">
-      <c r="A179" s="42"/>
-      <c r="B179" s="42"/>
+      <c r="A179" s="39"/>
+      <c r="B179" s="39"/>
       <c r="C179" s="8" t="s">
         <v>341</v>
       </c>
@@ -15384,13 +15372,13 @@
       </c>
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
-      <c r="G179" s="34" t="s">
-        <v>918</v>
+      <c r="G179" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="50" customHeight="1">
-      <c r="A180" s="42"/>
-      <c r="B180" s="43"/>
+      <c r="A180" s="39"/>
+      <c r="B180" s="40"/>
       <c r="C180" s="8" t="s">
         <v>343</v>
       </c>
@@ -15399,14 +15387,14 @@
       </c>
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
-      <c r="G180" s="34" t="s">
-        <v>918</v>
+      <c r="G180" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="50" customHeight="1">
-      <c r="A181" s="42"/>
-      <c r="B181" s="41" t="s">
-        <v>926</v>
+      <c r="A181" s="39"/>
+      <c r="B181" s="38" t="s">
+        <v>925</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>345</v>
@@ -15415,16 +15403,16 @@
         <v>346</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F181" s="10"/>
-      <c r="G181" s="34" t="s">
-        <v>918</v>
+      <c r="G181" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="50" customHeight="1">
-      <c r="A182" s="42"/>
-      <c r="B182" s="43"/>
+      <c r="A182" s="39"/>
+      <c r="B182" s="40"/>
       <c r="C182" s="8" t="s">
         <v>347</v>
       </c>
@@ -15432,17 +15420,17 @@
         <v>348</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F182" s="10"/>
-      <c r="G182" s="34" t="s">
-        <v>918</v>
+      <c r="G182" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="50" customHeight="1">
-      <c r="A183" s="42"/>
-      <c r="B183" s="41" t="s">
-        <v>927</v>
+      <c r="A183" s="39"/>
+      <c r="B183" s="38" t="s">
+        <v>926</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>349</v>
@@ -15452,13 +15440,13 @@
       </c>
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
-      <c r="G183" s="34" t="s">
-        <v>918</v>
+      <c r="G183" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="50" customHeight="1">
-      <c r="A184" s="42"/>
-      <c r="B184" s="42"/>
+      <c r="A184" s="39"/>
+      <c r="B184" s="39"/>
       <c r="C184" s="8" t="s">
         <v>351</v>
       </c>
@@ -15467,13 +15455,13 @@
       </c>
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
-      <c r="G184" s="34" t="s">
-        <v>918</v>
+      <c r="G184" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="50" customHeight="1">
-      <c r="A185" s="42"/>
-      <c r="B185" s="42"/>
+      <c r="A185" s="39"/>
+      <c r="B185" s="39"/>
       <c r="C185" s="8" t="s">
         <v>353</v>
       </c>
@@ -15482,13 +15470,13 @@
       </c>
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
-      <c r="G185" s="34" t="s">
-        <v>918</v>
+      <c r="G185" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="50" customHeight="1">
-      <c r="A186" s="42"/>
-      <c r="B186" s="42"/>
+      <c r="A186" s="39"/>
+      <c r="B186" s="39"/>
       <c r="C186" s="8" t="s">
         <v>355</v>
       </c>
@@ -15497,13 +15485,13 @@
       </c>
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
-      <c r="G186" s="34" t="s">
-        <v>918</v>
+      <c r="G186" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="50" customHeight="1">
-      <c r="A187" s="42"/>
-      <c r="B187" s="42"/>
+      <c r="A187" s="39"/>
+      <c r="B187" s="39"/>
       <c r="C187" s="8" t="s">
         <v>357</v>
       </c>
@@ -15512,13 +15500,13 @@
       </c>
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
-      <c r="G187" s="34" t="s">
-        <v>918</v>
+      <c r="G187" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="50" customHeight="1">
-      <c r="A188" s="42"/>
-      <c r="B188" s="43"/>
+      <c r="A188" s="39"/>
+      <c r="B188" s="40"/>
       <c r="C188" s="8" t="s">
         <v>359</v>
       </c>
@@ -15527,14 +15515,14 @@
       </c>
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
-      <c r="G188" s="34" t="s">
-        <v>918</v>
+      <c r="G188" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="50" customHeight="1">
-      <c r="A189" s="42"/>
-      <c r="B189" s="41" t="s">
-        <v>928</v>
+      <c r="A189" s="39"/>
+      <c r="B189" s="38" t="s">
+        <v>927</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>361</v>
@@ -15542,17 +15530,17 @@
       <c r="D189" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="E189" s="37" t="s">
-        <v>980</v>
-      </c>
-      <c r="F189" s="38"/>
-      <c r="G189" s="34" t="s">
-        <v>918</v>
+      <c r="E189" s="36" t="s">
+        <v>979</v>
+      </c>
+      <c r="F189" s="37"/>
+      <c r="G189" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="50" customHeight="1">
-      <c r="A190" s="42"/>
-      <c r="B190" s="42"/>
+      <c r="A190" s="39"/>
+      <c r="B190" s="39"/>
       <c r="C190" s="8" t="s">
         <v>363</v>
       </c>
@@ -15561,47 +15549,47 @@
       </c>
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
-      <c r="G190" s="34" t="s">
-        <v>918</v>
+      <c r="G190" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="50" customHeight="1">
-      <c r="A191" s="42"/>
-      <c r="B191" s="42"/>
+      <c r="A191" s="39"/>
+      <c r="B191" s="39"/>
       <c r="C191" s="8" t="s">
         <v>365</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="E191" s="37" t="s">
-        <v>980</v>
-      </c>
-      <c r="F191" s="38"/>
-      <c r="G191" s="34" t="s">
-        <v>918</v>
+      <c r="E191" s="36" t="s">
+        <v>979</v>
+      </c>
+      <c r="F191" s="37"/>
+      <c r="G191" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="50" customHeight="1">
-      <c r="A192" s="42"/>
-      <c r="B192" s="42"/>
+      <c r="A192" s="39"/>
+      <c r="B192" s="39"/>
       <c r="C192" s="8" t="s">
         <v>367</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="E192" s="37" t="s">
-        <v>980</v>
-      </c>
-      <c r="F192" s="38"/>
-      <c r="G192" s="34" t="s">
-        <v>918</v>
+      <c r="E192" s="36" t="s">
+        <v>979</v>
+      </c>
+      <c r="F192" s="37"/>
+      <c r="G192" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="50" customHeight="1">
-      <c r="A193" s="42"/>
-      <c r="B193" s="42"/>
+      <c r="A193" s="39"/>
+      <c r="B193" s="39"/>
       <c r="C193" s="8" t="s">
         <v>369</v>
       </c>
@@ -15610,64 +15598,64 @@
       </c>
       <c r="E193" s="10"/>
       <c r="F193" s="10"/>
-      <c r="G193" s="34" t="s">
-        <v>918</v>
+      <c r="G193" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="50" customHeight="1">
-      <c r="A194" s="42"/>
-      <c r="B194" s="42"/>
+      <c r="A194" s="39"/>
+      <c r="B194" s="39"/>
       <c r="C194" s="8" t="s">
         <v>371</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="E194" s="37" t="s">
-        <v>980</v>
-      </c>
-      <c r="F194" s="38"/>
-      <c r="G194" s="34" t="s">
-        <v>918</v>
+      <c r="E194" s="36" t="s">
+        <v>979</v>
+      </c>
+      <c r="F194" s="37"/>
+      <c r="G194" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="50" customHeight="1">
-      <c r="A195" s="42"/>
-      <c r="B195" s="42"/>
+      <c r="A195" s="39"/>
+      <c r="B195" s="39"/>
       <c r="C195" s="8" t="s">
         <v>373</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="E195" s="37" t="s">
-        <v>980</v>
-      </c>
-      <c r="F195" s="38"/>
-      <c r="G195" s="34" t="s">
-        <v>918</v>
+      <c r="E195" s="36" t="s">
+        <v>979</v>
+      </c>
+      <c r="F195" s="37"/>
+      <c r="G195" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="50" customHeight="1">
-      <c r="A196" s="42"/>
-      <c r="B196" s="42"/>
+      <c r="A196" s="39"/>
+      <c r="B196" s="39"/>
       <c r="C196" s="8" t="s">
         <v>375</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="E196" s="37" t="s">
-        <v>980</v>
-      </c>
-      <c r="F196" s="38"/>
-      <c r="G196" s="34" t="s">
-        <v>918</v>
+      <c r="E196" s="36" t="s">
+        <v>979</v>
+      </c>
+      <c r="F196" s="37"/>
+      <c r="G196" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="50" customHeight="1">
-      <c r="A197" s="42"/>
-      <c r="B197" s="42"/>
+      <c r="A197" s="39"/>
+      <c r="B197" s="39"/>
       <c r="C197" s="8" t="s">
         <v>377</v>
       </c>
@@ -15676,30 +15664,30 @@
       </c>
       <c r="E197" s="10"/>
       <c r="F197" s="10"/>
-      <c r="G197" s="34" t="s">
-        <v>918</v>
+      <c r="G197" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="50" customHeight="1">
-      <c r="A198" s="42"/>
-      <c r="B198" s="42"/>
+      <c r="A198" s="39"/>
+      <c r="B198" s="39"/>
       <c r="C198" s="8" t="s">
         <v>379</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="E198" s="37" t="s">
-        <v>980</v>
-      </c>
-      <c r="F198" s="38"/>
-      <c r="G198" s="34" t="s">
-        <v>918</v>
+      <c r="E198" s="36" t="s">
+        <v>979</v>
+      </c>
+      <c r="F198" s="37"/>
+      <c r="G198" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="50" customHeight="1">
-      <c r="A199" s="42"/>
-      <c r="B199" s="42"/>
+      <c r="A199" s="39"/>
+      <c r="B199" s="39"/>
       <c r="C199" s="8" t="s">
         <v>381</v>
       </c>
@@ -15708,13 +15696,13 @@
       </c>
       <c r="E199" s="10"/>
       <c r="F199" s="10"/>
-      <c r="G199" s="34" t="s">
-        <v>918</v>
+      <c r="G199" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="50" customHeight="1">
-      <c r="A200" s="42"/>
-      <c r="B200" s="42"/>
+      <c r="A200" s="39"/>
+      <c r="B200" s="39"/>
       <c r="C200" s="8" t="s">
         <v>383</v>
       </c>
@@ -15723,13 +15711,13 @@
       </c>
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
-      <c r="G200" s="34" t="s">
-        <v>918</v>
+      <c r="G200" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="50" customHeight="1">
-      <c r="A201" s="42"/>
-      <c r="B201" s="42"/>
+      <c r="A201" s="39"/>
+      <c r="B201" s="39"/>
       <c r="C201" s="8" t="s">
         <v>385</v>
       </c>
@@ -15738,13 +15726,13 @@
       </c>
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
-      <c r="G201" s="34" t="s">
-        <v>918</v>
+      <c r="G201" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="50" customHeight="1">
-      <c r="A202" s="42"/>
-      <c r="B202" s="42"/>
+      <c r="A202" s="39"/>
+      <c r="B202" s="39"/>
       <c r="C202" s="8" t="s">
         <v>387</v>
       </c>
@@ -15753,30 +15741,30 @@
       </c>
       <c r="E202" s="10"/>
       <c r="F202" s="10"/>
-      <c r="G202" s="34" t="s">
-        <v>918</v>
+      <c r="G202" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="50" customHeight="1">
-      <c r="A203" s="42"/>
-      <c r="B203" s="42"/>
+      <c r="A203" s="39"/>
+      <c r="B203" s="39"/>
       <c r="C203" s="8" t="s">
         <v>389</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="E203" s="37" t="s">
-        <v>980</v>
-      </c>
-      <c r="F203" s="38"/>
-      <c r="G203" s="34" t="s">
-        <v>918</v>
+      <c r="E203" s="36" t="s">
+        <v>979</v>
+      </c>
+      <c r="F203" s="37"/>
+      <c r="G203" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="50" customHeight="1">
-      <c r="A204" s="42"/>
-      <c r="B204" s="42"/>
+      <c r="A204" s="39"/>
+      <c r="B204" s="39"/>
       <c r="C204" s="8" t="s">
         <v>391</v>
       </c>
@@ -15785,30 +15773,30 @@
       </c>
       <c r="E204" s="10"/>
       <c r="F204" s="10"/>
-      <c r="G204" s="34" t="s">
-        <v>918</v>
+      <c r="G204" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="50" customHeight="1">
-      <c r="A205" s="42"/>
-      <c r="B205" s="42"/>
+      <c r="A205" s="39"/>
+      <c r="B205" s="39"/>
       <c r="C205" s="8" t="s">
         <v>393</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="E205" s="37" t="s">
-        <v>980</v>
-      </c>
-      <c r="F205" s="38"/>
-      <c r="G205" s="34" t="s">
-        <v>918</v>
+      <c r="E205" s="36" t="s">
+        <v>979</v>
+      </c>
+      <c r="F205" s="37"/>
+      <c r="G205" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="50" customHeight="1">
-      <c r="A206" s="42"/>
-      <c r="B206" s="42"/>
+      <c r="A206" s="39"/>
+      <c r="B206" s="39"/>
       <c r="C206" s="8" t="s">
         <v>395</v>
       </c>
@@ -15817,13 +15805,13 @@
       </c>
       <c r="E206" s="10"/>
       <c r="F206" s="10"/>
-      <c r="G206" s="34" t="s">
-        <v>918</v>
+      <c r="G206" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="50" customHeight="1">
-      <c r="A207" s="42"/>
-      <c r="B207" s="42"/>
+      <c r="A207" s="39"/>
+      <c r="B207" s="39"/>
       <c r="C207" s="8" t="s">
         <v>397</v>
       </c>
@@ -15832,13 +15820,13 @@
       </c>
       <c r="E207" s="10"/>
       <c r="F207" s="10"/>
-      <c r="G207" s="34" t="s">
-        <v>918</v>
+      <c r="G207" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="50" customHeight="1">
-      <c r="A208" s="42"/>
-      <c r="B208" s="42"/>
+      <c r="A208" s="39"/>
+      <c r="B208" s="39"/>
       <c r="C208" s="8" t="s">
         <v>399</v>
       </c>
@@ -15847,13 +15835,13 @@
       </c>
       <c r="E208" s="10"/>
       <c r="F208" s="10"/>
-      <c r="G208" s="34" t="s">
-        <v>918</v>
+      <c r="G208" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="50" customHeight="1">
-      <c r="A209" s="42"/>
-      <c r="B209" s="42"/>
+      <c r="A209" s="39"/>
+      <c r="B209" s="39"/>
       <c r="C209" s="8" t="s">
         <v>401</v>
       </c>
@@ -15862,13 +15850,13 @@
       </c>
       <c r="E209" s="10"/>
       <c r="F209" s="10"/>
-      <c r="G209" s="34" t="s">
-        <v>918</v>
+      <c r="G209" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="50" customHeight="1">
-      <c r="A210" s="42"/>
-      <c r="B210" s="42"/>
+      <c r="A210" s="39"/>
+      <c r="B210" s="39"/>
       <c r="C210" s="8" t="s">
         <v>403</v>
       </c>
@@ -15877,13 +15865,13 @@
       </c>
       <c r="E210" s="10"/>
       <c r="F210" s="10"/>
-      <c r="G210" s="34" t="s">
-        <v>918</v>
+      <c r="G210" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="50" customHeight="1">
-      <c r="A211" s="42"/>
-      <c r="B211" s="42"/>
+      <c r="A211" s="39"/>
+      <c r="B211" s="39"/>
       <c r="C211" s="8" t="s">
         <v>405</v>
       </c>
@@ -15892,13 +15880,13 @@
       </c>
       <c r="E211" s="10"/>
       <c r="F211" s="10"/>
-      <c r="G211" s="34" t="s">
-        <v>918</v>
+      <c r="G211" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="50" customHeight="1">
-      <c r="A212" s="42"/>
-      <c r="B212" s="42"/>
+      <c r="A212" s="39"/>
+      <c r="B212" s="39"/>
       <c r="C212" s="8" t="s">
         <v>407</v>
       </c>
@@ -15907,13 +15895,13 @@
       </c>
       <c r="E212" s="10"/>
       <c r="F212" s="10"/>
-      <c r="G212" s="34" t="s">
-        <v>918</v>
+      <c r="G212" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="50" customHeight="1">
-      <c r="A213" s="42"/>
-      <c r="B213" s="42"/>
+      <c r="A213" s="39"/>
+      <c r="B213" s="39"/>
       <c r="C213" s="8" t="s">
         <v>409</v>
       </c>
@@ -15922,13 +15910,13 @@
       </c>
       <c r="E213" s="10"/>
       <c r="F213" s="10"/>
-      <c r="G213" s="34" t="s">
-        <v>918</v>
+      <c r="G213" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="50" customHeight="1">
-      <c r="A214" s="42"/>
-      <c r="B214" s="42"/>
+      <c r="A214" s="39"/>
+      <c r="B214" s="39"/>
       <c r="C214" s="8" t="s">
         <v>411</v>
       </c>
@@ -15937,13 +15925,13 @@
       </c>
       <c r="E214" s="10"/>
       <c r="F214" s="10"/>
-      <c r="G214" s="34" t="s">
-        <v>918</v>
+      <c r="G214" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="50" customHeight="1">
-      <c r="A215" s="42"/>
-      <c r="B215" s="42"/>
+      <c r="A215" s="39"/>
+      <c r="B215" s="39"/>
       <c r="C215" s="8" t="s">
         <v>413</v>
       </c>
@@ -15952,13 +15940,13 @@
       </c>
       <c r="E215" s="10"/>
       <c r="F215" s="10"/>
-      <c r="G215" s="34" t="s">
-        <v>918</v>
+      <c r="G215" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="50" customHeight="1">
-      <c r="A216" s="42"/>
-      <c r="B216" s="42"/>
+      <c r="A216" s="39"/>
+      <c r="B216" s="39"/>
       <c r="C216" s="8" t="s">
         <v>415</v>
       </c>
@@ -15967,13 +15955,13 @@
       </c>
       <c r="E216" s="10"/>
       <c r="F216" s="10"/>
-      <c r="G216" s="34" t="s">
-        <v>918</v>
+      <c r="G216" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="50" customHeight="1">
-      <c r="A217" s="42"/>
-      <c r="B217" s="42"/>
+      <c r="A217" s="39"/>
+      <c r="B217" s="39"/>
       <c r="C217" s="8" t="s">
         <v>417</v>
       </c>
@@ -15982,13 +15970,13 @@
       </c>
       <c r="E217" s="10"/>
       <c r="F217" s="10"/>
-      <c r="G217" s="34" t="s">
-        <v>918</v>
+      <c r="G217" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="50" customHeight="1">
-      <c r="A218" s="42"/>
-      <c r="B218" s="42"/>
+      <c r="A218" s="39"/>
+      <c r="B218" s="39"/>
       <c r="C218" s="8" t="s">
         <v>419</v>
       </c>
@@ -15997,13 +15985,13 @@
       </c>
       <c r="E218" s="10"/>
       <c r="F218" s="10"/>
-      <c r="G218" s="34" t="s">
-        <v>918</v>
+      <c r="G218" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="50" customHeight="1">
-      <c r="A219" s="42"/>
-      <c r="B219" s="42"/>
+      <c r="A219" s="39"/>
+      <c r="B219" s="39"/>
       <c r="C219" s="8" t="s">
         <v>421</v>
       </c>
@@ -16012,13 +16000,13 @@
       </c>
       <c r="E219" s="10"/>
       <c r="F219" s="10"/>
-      <c r="G219" s="34" t="s">
-        <v>918</v>
+      <c r="G219" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="50" customHeight="1">
-      <c r="A220" s="42"/>
-      <c r="B220" s="42"/>
+      <c r="A220" s="39"/>
+      <c r="B220" s="39"/>
       <c r="C220" s="8" t="s">
         <v>423</v>
       </c>
@@ -16027,13 +16015,13 @@
       </c>
       <c r="E220" s="10"/>
       <c r="F220" s="10"/>
-      <c r="G220" s="34" t="s">
-        <v>918</v>
+      <c r="G220" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="50" customHeight="1">
-      <c r="A221" s="42"/>
-      <c r="B221" s="42"/>
+      <c r="A221" s="39"/>
+      <c r="B221" s="39"/>
       <c r="C221" s="8" t="s">
         <v>425</v>
       </c>
@@ -16042,13 +16030,13 @@
       </c>
       <c r="E221" s="10"/>
       <c r="F221" s="10"/>
-      <c r="G221" s="34" t="s">
-        <v>918</v>
+      <c r="G221" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="50" customHeight="1">
-      <c r="A222" s="42"/>
-      <c r="B222" s="42"/>
+      <c r="A222" s="39"/>
+      <c r="B222" s="39"/>
       <c r="C222" s="8" t="s">
         <v>427</v>
       </c>
@@ -16057,13 +16045,13 @@
       </c>
       <c r="E222" s="10"/>
       <c r="F222" s="10"/>
-      <c r="G222" s="34" t="s">
-        <v>918</v>
+      <c r="G222" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="50" customHeight="1">
-      <c r="A223" s="42"/>
-      <c r="B223" s="43"/>
+      <c r="A223" s="39"/>
+      <c r="B223" s="40"/>
       <c r="C223" s="8" t="s">
         <v>429</v>
       </c>
@@ -16072,14 +16060,14 @@
       </c>
       <c r="E223" s="10"/>
       <c r="F223" s="10"/>
-      <c r="G223" s="34" t="s">
-        <v>918</v>
+      <c r="G223" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="50" customHeight="1">
-      <c r="A224" s="42"/>
-      <c r="B224" s="41" t="s">
-        <v>929</v>
+      <c r="A224" s="39"/>
+      <c r="B224" s="38" t="s">
+        <v>928</v>
       </c>
       <c r="C224" s="15" t="s">
         <v>431</v>
@@ -16087,13 +16075,13 @@
       <c r="D224" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="G224" s="34" t="s">
-        <v>918</v>
+      <c r="G224" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="50" customHeight="1">
-      <c r="A225" s="42"/>
-      <c r="B225" s="42"/>
+      <c r="A225" s="39"/>
+      <c r="B225" s="39"/>
       <c r="C225" s="15" t="s">
         <v>433</v>
       </c>
@@ -16103,42 +16091,42 @@
       <c r="E225" s="15" t="s">
         <v>825</v>
       </c>
-      <c r="G225" s="34" t="s">
-        <v>918</v>
+      <c r="G225" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="50" customHeight="1">
-      <c r="A226" s="42"/>
-      <c r="B226" s="42"/>
+      <c r="A226" s="39"/>
+      <c r="B226" s="39"/>
       <c r="C226" s="15" t="s">
         <v>435</v>
       </c>
       <c r="D226" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="G226" s="34" t="s">
-        <v>918</v>
+      <c r="G226" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="50" customHeight="1">
-      <c r="A227" s="43"/>
-      <c r="B227" s="43"/>
+      <c r="A227" s="40"/>
+      <c r="B227" s="40"/>
       <c r="C227" s="15" t="s">
         <v>437</v>
       </c>
       <c r="D227" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="G227" s="34" t="s">
-        <v>918</v>
+      <c r="G227" s="33" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="50" customHeight="1">
-      <c r="A229" s="41" t="s">
-        <v>910</v>
+      <c r="A229" s="38" t="s">
+        <v>909</v>
       </c>
       <c r="B229" s="16" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>439</v>
@@ -16147,17 +16135,17 @@
         <v>440</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F229" s="10"/>
-      <c r="G229" s="33" t="s">
-        <v>917</v>
+      <c r="G229" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="50" customHeight="1">
-      <c r="A230" s="42"/>
+      <c r="A230" s="39"/>
       <c r="B230" s="16" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>441</v>
@@ -16166,17 +16154,17 @@
         <v>442</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F230" s="10"/>
-      <c r="G230" s="33" t="s">
-        <v>917</v>
+      <c r="G230" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="50" customHeight="1">
-      <c r="A231" s="42"/>
-      <c r="B231" s="41" t="s">
-        <v>947</v>
+      <c r="A231" s="39"/>
+      <c r="B231" s="38" t="s">
+        <v>946</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>443</v>
@@ -16185,16 +16173,16 @@
         <v>444</v>
       </c>
       <c r="E231" s="10" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F231" s="10"/>
-      <c r="G231" s="33" t="s">
-        <v>917</v>
+      <c r="G231" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="50" customHeight="1">
-      <c r="A232" s="42"/>
-      <c r="B232" s="43"/>
+      <c r="A232" s="39"/>
+      <c r="B232" s="40"/>
       <c r="C232" s="8" t="s">
         <v>445</v>
       </c>
@@ -16202,17 +16190,17 @@
         <v>446</v>
       </c>
       <c r="E232" s="10" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F232" s="10"/>
-      <c r="G232" s="33" t="s">
-        <v>917</v>
+      <c r="G232" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="50" customHeight="1">
-      <c r="A233" s="42"/>
-      <c r="B233" s="41" t="s">
-        <v>948</v>
+      <c r="A233" s="39"/>
+      <c r="B233" s="38" t="s">
+        <v>947</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>447</v>
@@ -16222,13 +16210,13 @@
       </c>
       <c r="E233" s="10"/>
       <c r="F233" s="10"/>
-      <c r="G233" s="33" t="s">
-        <v>917</v>
+      <c r="G233" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="50" customHeight="1">
-      <c r="A234" s="42"/>
-      <c r="B234" s="43"/>
+      <c r="A234" s="39"/>
+      <c r="B234" s="40"/>
       <c r="C234" s="8" t="s">
         <v>449</v>
       </c>
@@ -16237,14 +16225,14 @@
       </c>
       <c r="E234" s="10"/>
       <c r="F234" s="10"/>
-      <c r="G234" s="33" t="s">
-        <v>917</v>
+      <c r="G234" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="50" customHeight="1">
-      <c r="A235" s="42"/>
-      <c r="B235" s="41" t="s">
-        <v>949</v>
+      <c r="A235" s="39"/>
+      <c r="B235" s="38" t="s">
+        <v>948</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>451</v>
@@ -16254,13 +16242,13 @@
       </c>
       <c r="E235" s="10"/>
       <c r="F235" s="10"/>
-      <c r="G235" s="33" t="s">
-        <v>917</v>
+      <c r="G235" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="50" customHeight="1">
-      <c r="A236" s="42"/>
-      <c r="B236" s="42"/>
+      <c r="A236" s="39"/>
+      <c r="B236" s="39"/>
       <c r="C236" s="8" t="s">
         <v>453</v>
       </c>
@@ -16269,13 +16257,13 @@
       </c>
       <c r="E236" s="10"/>
       <c r="F236" s="10"/>
-      <c r="G236" s="33" t="s">
-        <v>917</v>
+      <c r="G236" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="50" customHeight="1">
-      <c r="A237" s="42"/>
-      <c r="B237" s="42"/>
+      <c r="A237" s="39"/>
+      <c r="B237" s="39"/>
       <c r="C237" s="8" t="s">
         <v>455</v>
       </c>
@@ -16284,13 +16272,13 @@
       </c>
       <c r="E237" s="10"/>
       <c r="F237" s="10"/>
-      <c r="G237" s="33" t="s">
-        <v>917</v>
+      <c r="G237" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="50" customHeight="1">
-      <c r="A238" s="42"/>
-      <c r="B238" s="42"/>
+      <c r="A238" s="39"/>
+      <c r="B238" s="39"/>
       <c r="C238" s="8" t="s">
         <v>457</v>
       </c>
@@ -16299,13 +16287,13 @@
       </c>
       <c r="E238" s="10"/>
       <c r="F238" s="10"/>
-      <c r="G238" s="33" t="s">
-        <v>917</v>
+      <c r="G238" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="50" customHeight="1">
-      <c r="A239" s="42"/>
-      <c r="B239" s="42"/>
+      <c r="A239" s="39"/>
+      <c r="B239" s="39"/>
       <c r="C239" s="8" t="s">
         <v>459</v>
       </c>
@@ -16314,13 +16302,13 @@
       </c>
       <c r="E239" s="10"/>
       <c r="F239" s="10"/>
-      <c r="G239" s="33" t="s">
-        <v>917</v>
+      <c r="G239" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="50" customHeight="1">
-      <c r="A240" s="42"/>
-      <c r="B240" s="42"/>
+      <c r="A240" s="39"/>
+      <c r="B240" s="39"/>
       <c r="C240" s="8" t="s">
         <v>461</v>
       </c>
@@ -16329,13 +16317,13 @@
       </c>
       <c r="E240" s="10"/>
       <c r="F240" s="10"/>
-      <c r="G240" s="33" t="s">
-        <v>917</v>
+      <c r="G240" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="50" customHeight="1">
-      <c r="A241" s="42"/>
-      <c r="B241" s="42"/>
+      <c r="A241" s="39"/>
+      <c r="B241" s="39"/>
       <c r="C241" s="8" t="s">
         <v>463</v>
       </c>
@@ -16344,13 +16332,13 @@
       </c>
       <c r="E241" s="10"/>
       <c r="F241" s="10"/>
-      <c r="G241" s="33" t="s">
-        <v>917</v>
+      <c r="G241" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="50" customHeight="1">
-      <c r="A242" s="42"/>
-      <c r="B242" s="42"/>
+      <c r="A242" s="39"/>
+      <c r="B242" s="39"/>
       <c r="C242" s="8" t="s">
         <v>465</v>
       </c>
@@ -16359,13 +16347,13 @@
       </c>
       <c r="E242" s="10"/>
       <c r="F242" s="10"/>
-      <c r="G242" s="33" t="s">
-        <v>917</v>
+      <c r="G242" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="50" customHeight="1">
-      <c r="A243" s="42"/>
-      <c r="B243" s="42"/>
+      <c r="A243" s="39"/>
+      <c r="B243" s="39"/>
       <c r="C243" s="8" t="s">
         <v>467</v>
       </c>
@@ -16374,13 +16362,13 @@
       </c>
       <c r="E243" s="10"/>
       <c r="F243" s="10"/>
-      <c r="G243" s="33" t="s">
-        <v>917</v>
+      <c r="G243" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="50" customHeight="1">
-      <c r="A244" s="42"/>
-      <c r="B244" s="42"/>
+      <c r="A244" s="39"/>
+      <c r="B244" s="39"/>
       <c r="C244" s="8" t="s">
         <v>469</v>
       </c>
@@ -16389,13 +16377,13 @@
       </c>
       <c r="E244" s="10"/>
       <c r="F244" s="10"/>
-      <c r="G244" s="33" t="s">
-        <v>917</v>
+      <c r="G244" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="50" customHeight="1">
-      <c r="A245" s="42"/>
-      <c r="B245" s="42"/>
+      <c r="A245" s="39"/>
+      <c r="B245" s="39"/>
       <c r="C245" s="8" t="s">
         <v>471</v>
       </c>
@@ -16404,13 +16392,13 @@
       </c>
       <c r="E245" s="10"/>
       <c r="F245" s="10"/>
-      <c r="G245" s="33" t="s">
-        <v>917</v>
+      <c r="G245" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="50" customHeight="1">
-      <c r="A246" s="42"/>
-      <c r="B246" s="42"/>
+      <c r="A246" s="39"/>
+      <c r="B246" s="39"/>
       <c r="C246" s="8" t="s">
         <v>473</v>
       </c>
@@ -16419,13 +16407,13 @@
       </c>
       <c r="E246" s="10"/>
       <c r="F246" s="10"/>
-      <c r="G246" s="33" t="s">
-        <v>917</v>
+      <c r="G246" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="50" customHeight="1">
-      <c r="A247" s="42"/>
-      <c r="B247" s="42"/>
+      <c r="A247" s="39"/>
+      <c r="B247" s="39"/>
       <c r="C247" s="8" t="s">
         <v>475</v>
       </c>
@@ -16434,13 +16422,13 @@
       </c>
       <c r="E247" s="10"/>
       <c r="F247" s="10"/>
-      <c r="G247" s="33" t="s">
-        <v>917</v>
+      <c r="G247" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="50" customHeight="1">
-      <c r="A248" s="42"/>
-      <c r="B248" s="42"/>
+      <c r="A248" s="39"/>
+      <c r="B248" s="39"/>
       <c r="C248" s="8" t="s">
         <v>477</v>
       </c>
@@ -16449,13 +16437,13 @@
       </c>
       <c r="E248" s="10"/>
       <c r="F248" s="10"/>
-      <c r="G248" s="33" t="s">
-        <v>917</v>
+      <c r="G248" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="50" customHeight="1">
-      <c r="A249" s="42"/>
-      <c r="B249" s="42"/>
+      <c r="A249" s="39"/>
+      <c r="B249" s="39"/>
       <c r="C249" s="8" t="s">
         <v>479</v>
       </c>
@@ -16464,13 +16452,13 @@
       </c>
       <c r="E249" s="10"/>
       <c r="F249" s="10"/>
-      <c r="G249" s="33" t="s">
-        <v>917</v>
+      <c r="G249" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="50" customHeight="1">
-      <c r="A250" s="42"/>
-      <c r="B250" s="42"/>
+      <c r="A250" s="39"/>
+      <c r="B250" s="39"/>
       <c r="C250" s="8" t="s">
         <v>481</v>
       </c>
@@ -16479,13 +16467,13 @@
       </c>
       <c r="E250" s="10"/>
       <c r="F250" s="10"/>
-      <c r="G250" s="33" t="s">
-        <v>917</v>
+      <c r="G250" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="50" customHeight="1">
-      <c r="A251" s="42"/>
-      <c r="B251" s="42"/>
+      <c r="A251" s="39"/>
+      <c r="B251" s="39"/>
       <c r="C251" s="8" t="s">
         <v>483</v>
       </c>
@@ -16494,13 +16482,13 @@
       </c>
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
-      <c r="G251" s="33" t="s">
-        <v>917</v>
+      <c r="G251" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="50" customHeight="1">
-      <c r="A252" s="42"/>
-      <c r="B252" s="42"/>
+      <c r="A252" s="39"/>
+      <c r="B252" s="39"/>
       <c r="C252" s="8" t="s">
         <v>485</v>
       </c>
@@ -16509,13 +16497,13 @@
       </c>
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
-      <c r="G252" s="33" t="s">
-        <v>917</v>
+      <c r="G252" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="50" customHeight="1">
-      <c r="A253" s="42"/>
-      <c r="B253" s="42"/>
+      <c r="A253" s="39"/>
+      <c r="B253" s="39"/>
       <c r="C253" s="8" t="s">
         <v>487</v>
       </c>
@@ -16524,13 +16512,13 @@
       </c>
       <c r="E253" s="10"/>
       <c r="F253" s="10"/>
-      <c r="G253" s="33" t="s">
-        <v>917</v>
+      <c r="G253" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="50" customHeight="1">
-      <c r="A254" s="42"/>
-      <c r="B254" s="42"/>
+      <c r="A254" s="39"/>
+      <c r="B254" s="39"/>
       <c r="C254" s="8" t="s">
         <v>489</v>
       </c>
@@ -16539,13 +16527,13 @@
       </c>
       <c r="E254" s="10"/>
       <c r="F254" s="10"/>
-      <c r="G254" s="33" t="s">
-        <v>917</v>
+      <c r="G254" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="50" customHeight="1">
-      <c r="A255" s="42"/>
-      <c r="B255" s="42"/>
+      <c r="A255" s="39"/>
+      <c r="B255" s="39"/>
       <c r="C255" s="8" t="s">
         <v>491</v>
       </c>
@@ -16554,13 +16542,13 @@
       </c>
       <c r="E255" s="10"/>
       <c r="F255" s="10"/>
-      <c r="G255" s="33" t="s">
-        <v>917</v>
+      <c r="G255" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="50" customHeight="1">
-      <c r="A256" s="42"/>
-      <c r="B256" s="42"/>
+      <c r="A256" s="39"/>
+      <c r="B256" s="39"/>
       <c r="C256" s="8" t="s">
         <v>493</v>
       </c>
@@ -16569,13 +16557,13 @@
       </c>
       <c r="E256" s="10"/>
       <c r="F256" s="10"/>
-      <c r="G256" s="33" t="s">
-        <v>917</v>
+      <c r="G256" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="50" customHeight="1">
-      <c r="A257" s="42"/>
-      <c r="B257" s="42"/>
+      <c r="A257" s="39"/>
+      <c r="B257" s="39"/>
       <c r="C257" s="8" t="s">
         <v>495</v>
       </c>
@@ -16584,13 +16572,13 @@
       </c>
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
-      <c r="G257" s="33" t="s">
-        <v>917</v>
+      <c r="G257" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="50" customHeight="1">
-      <c r="A258" s="42"/>
-      <c r="B258" s="42"/>
+      <c r="A258" s="39"/>
+      <c r="B258" s="39"/>
       <c r="C258" s="8" t="s">
         <v>497</v>
       </c>
@@ -16599,13 +16587,13 @@
       </c>
       <c r="E258" s="10"/>
       <c r="F258" s="10"/>
-      <c r="G258" s="33" t="s">
-        <v>917</v>
+      <c r="G258" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="50" customHeight="1">
-      <c r="A259" s="42"/>
-      <c r="B259" s="42"/>
+      <c r="A259" s="39"/>
+      <c r="B259" s="39"/>
       <c r="C259" s="8" t="s">
         <v>499</v>
       </c>
@@ -16614,13 +16602,13 @@
       </c>
       <c r="E259" s="10"/>
       <c r="F259" s="10"/>
-      <c r="G259" s="33" t="s">
-        <v>917</v>
+      <c r="G259" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="50" customHeight="1">
-      <c r="A260" s="42"/>
-      <c r="B260" s="42"/>
+      <c r="A260" s="39"/>
+      <c r="B260" s="39"/>
       <c r="C260" s="8" t="s">
         <v>501</v>
       </c>
@@ -16629,13 +16617,13 @@
       </c>
       <c r="E260" s="10"/>
       <c r="F260" s="10"/>
-      <c r="G260" s="33" t="s">
-        <v>917</v>
+      <c r="G260" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="50" customHeight="1">
-      <c r="A261" s="42"/>
-      <c r="B261" s="42"/>
+      <c r="A261" s="39"/>
+      <c r="B261" s="39"/>
       <c r="C261" s="8" t="s">
         <v>503</v>
       </c>
@@ -16644,13 +16632,13 @@
       </c>
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
-      <c r="G261" s="33" t="s">
-        <v>917</v>
+      <c r="G261" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="50" customHeight="1">
-      <c r="A262" s="42"/>
-      <c r="B262" s="42"/>
+      <c r="A262" s="39"/>
+      <c r="B262" s="39"/>
       <c r="C262" s="8" t="s">
         <v>505</v>
       </c>
@@ -16659,13 +16647,13 @@
       </c>
       <c r="E262" s="10"/>
       <c r="F262" s="10"/>
-      <c r="G262" s="33" t="s">
-        <v>917</v>
+      <c r="G262" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="50" customHeight="1">
-      <c r="A263" s="42"/>
-      <c r="B263" s="42"/>
+      <c r="A263" s="39"/>
+      <c r="B263" s="39"/>
       <c r="C263" s="8" t="s">
         <v>507</v>
       </c>
@@ -16674,13 +16662,13 @@
       </c>
       <c r="E263" s="10"/>
       <c r="F263" s="10"/>
-      <c r="G263" s="33" t="s">
-        <v>917</v>
+      <c r="G263" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="50" customHeight="1">
-      <c r="A264" s="42"/>
-      <c r="B264" s="42"/>
+      <c r="A264" s="39"/>
+      <c r="B264" s="39"/>
       <c r="C264" s="8" t="s">
         <v>509</v>
       </c>
@@ -16689,13 +16677,13 @@
       </c>
       <c r="E264" s="10"/>
       <c r="F264" s="10"/>
-      <c r="G264" s="33" t="s">
-        <v>917</v>
+      <c r="G264" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="50" customHeight="1">
-      <c r="A265" s="42"/>
-      <c r="B265" s="42"/>
+      <c r="A265" s="39"/>
+      <c r="B265" s="39"/>
       <c r="C265" s="8" t="s">
         <v>511</v>
       </c>
@@ -16704,13 +16692,13 @@
       </c>
       <c r="E265" s="10"/>
       <c r="F265" s="10"/>
-      <c r="G265" s="33" t="s">
-        <v>917</v>
+      <c r="G265" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="50" customHeight="1">
-      <c r="A266" s="42"/>
-      <c r="B266" s="42"/>
+      <c r="A266" s="39"/>
+      <c r="B266" s="39"/>
       <c r="C266" s="8" t="s">
         <v>513</v>
       </c>
@@ -16719,13 +16707,13 @@
       </c>
       <c r="E266" s="10"/>
       <c r="F266" s="10"/>
-      <c r="G266" s="33" t="s">
-        <v>917</v>
+      <c r="G266" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="50" customHeight="1">
-      <c r="A267" s="42"/>
-      <c r="B267" s="42"/>
+      <c r="A267" s="39"/>
+      <c r="B267" s="39"/>
       <c r="C267" s="8" t="s">
         <v>515</v>
       </c>
@@ -16734,13 +16722,13 @@
       </c>
       <c r="E267" s="10"/>
       <c r="F267" s="10"/>
-      <c r="G267" s="33" t="s">
-        <v>917</v>
+      <c r="G267" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="50" customHeight="1">
-      <c r="A268" s="42"/>
-      <c r="B268" s="42"/>
+      <c r="A268" s="39"/>
+      <c r="B268" s="39"/>
       <c r="C268" s="8" t="s">
         <v>517</v>
       </c>
@@ -16749,13 +16737,13 @@
       </c>
       <c r="E268" s="10"/>
       <c r="F268" s="10"/>
-      <c r="G268" s="33" t="s">
-        <v>917</v>
+      <c r="G268" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="50" customHeight="1">
-      <c r="A269" s="42"/>
-      <c r="B269" s="43"/>
+      <c r="A269" s="39"/>
+      <c r="B269" s="40"/>
       <c r="C269" s="8" t="s">
         <v>519</v>
       </c>
@@ -16764,14 +16752,14 @@
       </c>
       <c r="E269" s="10"/>
       <c r="F269" s="10"/>
-      <c r="G269" s="33" t="s">
-        <v>917</v>
+      <c r="G269" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="50" customHeight="1">
-      <c r="A270" s="42"/>
+      <c r="A270" s="39"/>
       <c r="B270" s="16" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C270" s="8" t="s">
         <v>521</v>
@@ -16781,14 +16769,14 @@
       </c>
       <c r="E270" s="10"/>
       <c r="F270" s="10"/>
-      <c r="G270" s="33" t="s">
-        <v>917</v>
+      <c r="G270" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="50" customHeight="1">
-      <c r="A271" s="42"/>
-      <c r="B271" s="41" t="s">
-        <v>951</v>
+      <c r="A271" s="39"/>
+      <c r="B271" s="38" t="s">
+        <v>950</v>
       </c>
       <c r="C271" s="8" t="s">
         <v>523</v>
@@ -16797,16 +16785,16 @@
         <v>524</v>
       </c>
       <c r="E271" s="10" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F271" s="10"/>
-      <c r="G271" s="35" t="s">
-        <v>932</v>
+      <c r="G271" s="34" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="50" customHeight="1">
-      <c r="A272" s="42"/>
-      <c r="B272" s="42"/>
+      <c r="A272" s="39"/>
+      <c r="B272" s="39"/>
       <c r="C272" s="8" t="s">
         <v>525</v>
       </c>
@@ -16815,13 +16803,13 @@
       </c>
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
-      <c r="G272" s="35" t="s">
-        <v>932</v>
+      <c r="G272" s="34" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="50" customHeight="1">
-      <c r="A273" s="42"/>
-      <c r="B273" s="42"/>
+      <c r="A273" s="39"/>
+      <c r="B273" s="39"/>
       <c r="C273" s="8" t="s">
         <v>527</v>
       </c>
@@ -16830,13 +16818,13 @@
       </c>
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
-      <c r="G273" s="35" t="s">
-        <v>932</v>
+      <c r="G273" s="34" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="50" customHeight="1">
-      <c r="A274" s="42"/>
-      <c r="B274" s="43"/>
+      <c r="A274" s="39"/>
+      <c r="B274" s="40"/>
       <c r="C274" s="8" t="s">
         <v>529</v>
       </c>
@@ -16845,14 +16833,14 @@
       </c>
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
-      <c r="G274" s="35" t="s">
-        <v>932</v>
+      <c r="G274" s="34" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="50" customHeight="1">
-      <c r="A275" s="42"/>
-      <c r="B275" s="41" t="s">
-        <v>952</v>
+      <c r="A275" s="39"/>
+      <c r="B275" s="38" t="s">
+        <v>951</v>
       </c>
       <c r="C275" s="8" t="s">
         <v>531</v>
@@ -16862,13 +16850,13 @@
       </c>
       <c r="E275" s="10"/>
       <c r="F275" s="10"/>
-      <c r="G275" s="33" t="s">
-        <v>917</v>
+      <c r="G275" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="50" customHeight="1">
-      <c r="A276" s="42"/>
-      <c r="B276" s="42"/>
+      <c r="A276" s="39"/>
+      <c r="B276" s="39"/>
       <c r="C276" s="8" t="s">
         <v>533</v>
       </c>
@@ -16877,13 +16865,13 @@
       </c>
       <c r="E276" s="10"/>
       <c r="F276" s="10"/>
-      <c r="G276" s="33" t="s">
-        <v>917</v>
+      <c r="G276" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="50" customHeight="1">
-      <c r="A277" s="42"/>
-      <c r="B277" s="42"/>
+      <c r="A277" s="39"/>
+      <c r="B277" s="39"/>
       <c r="C277" s="8" t="s">
         <v>535</v>
       </c>
@@ -16891,16 +16879,16 @@
         <v>536</v>
       </c>
       <c r="E277" s="10" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F277" s="10"/>
-      <c r="G277" s="33" t="s">
-        <v>917</v>
+      <c r="G277" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="50" customHeight="1">
-      <c r="A278" s="42"/>
-      <c r="B278" s="42"/>
+      <c r="A278" s="39"/>
+      <c r="B278" s="39"/>
       <c r="C278" s="8" t="s">
         <v>537</v>
       </c>
@@ -16909,13 +16897,13 @@
       </c>
       <c r="E278" s="10"/>
       <c r="F278" s="10"/>
-      <c r="G278" s="33" t="s">
-        <v>917</v>
+      <c r="G278" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="50" customHeight="1">
-      <c r="A279" s="42"/>
-      <c r="B279" s="42"/>
+      <c r="A279" s="39"/>
+      <c r="B279" s="39"/>
       <c r="C279" s="8" t="s">
         <v>539</v>
       </c>
@@ -16924,13 +16912,13 @@
       </c>
       <c r="E279" s="10"/>
       <c r="F279" s="10"/>
-      <c r="G279" s="33" t="s">
-        <v>917</v>
+      <c r="G279" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="50" customHeight="1">
-      <c r="A280" s="42"/>
-      <c r="B280" s="42"/>
+      <c r="A280" s="39"/>
+      <c r="B280" s="39"/>
       <c r="C280" s="8" t="s">
         <v>541</v>
       </c>
@@ -16938,16 +16926,16 @@
         <v>542</v>
       </c>
       <c r="E280" s="10" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F280" s="10"/>
-      <c r="G280" s="33" t="s">
-        <v>917</v>
+      <c r="G280" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="50" customHeight="1">
-      <c r="A281" s="42"/>
-      <c r="B281" s="42"/>
+      <c r="A281" s="39"/>
+      <c r="B281" s="39"/>
       <c r="C281" s="8" t="s">
         <v>543</v>
       </c>
@@ -16956,13 +16944,13 @@
       </c>
       <c r="E281" s="10"/>
       <c r="F281" s="10"/>
-      <c r="G281" s="33" t="s">
-        <v>917</v>
+      <c r="G281" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="50" customHeight="1">
-      <c r="A282" s="42"/>
-      <c r="B282" s="42"/>
+      <c r="A282" s="39"/>
+      <c r="B282" s="39"/>
       <c r="C282" s="8" t="s">
         <v>545</v>
       </c>
@@ -16971,13 +16959,13 @@
       </c>
       <c r="E282" s="10"/>
       <c r="F282" s="10"/>
-      <c r="G282" s="33" t="s">
-        <v>917</v>
+      <c r="G282" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="50" customHeight="1">
-      <c r="A283" s="42"/>
-      <c r="B283" s="42"/>
+      <c r="A283" s="39"/>
+      <c r="B283" s="39"/>
       <c r="C283" s="8" t="s">
         <v>547</v>
       </c>
@@ -16986,13 +16974,13 @@
       </c>
       <c r="E283" s="10"/>
       <c r="F283" s="10"/>
-      <c r="G283" s="33" t="s">
-        <v>917</v>
+      <c r="G283" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="50" customHeight="1">
-      <c r="A284" s="42"/>
-      <c r="B284" s="42"/>
+      <c r="A284" s="39"/>
+      <c r="B284" s="39"/>
       <c r="C284" s="8" t="s">
         <v>549</v>
       </c>
@@ -17001,13 +16989,13 @@
       </c>
       <c r="E284" s="10"/>
       <c r="F284" s="10"/>
-      <c r="G284" s="33" t="s">
-        <v>917</v>
+      <c r="G284" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="50" customHeight="1">
-      <c r="A285" s="42"/>
-      <c r="B285" s="42"/>
+      <c r="A285" s="39"/>
+      <c r="B285" s="39"/>
       <c r="C285" s="8" t="s">
         <v>551</v>
       </c>
@@ -17016,13 +17004,13 @@
       </c>
       <c r="E285" s="10"/>
       <c r="F285" s="10"/>
-      <c r="G285" s="33" t="s">
-        <v>917</v>
+      <c r="G285" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="50" customHeight="1">
-      <c r="A286" s="42"/>
-      <c r="B286" s="42"/>
+      <c r="A286" s="39"/>
+      <c r="B286" s="39"/>
       <c r="C286" s="8" t="s">
         <v>553</v>
       </c>
@@ -17031,13 +17019,13 @@
       </c>
       <c r="E286" s="10"/>
       <c r="F286" s="10"/>
-      <c r="G286" s="33" t="s">
-        <v>917</v>
+      <c r="G286" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="50" customHeight="1">
-      <c r="A287" s="42"/>
-      <c r="B287" s="42"/>
+      <c r="A287" s="39"/>
+      <c r="B287" s="39"/>
       <c r="C287" s="8" t="s">
         <v>555</v>
       </c>
@@ -17046,13 +17034,13 @@
       </c>
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
-      <c r="G287" s="33" t="s">
-        <v>917</v>
+      <c r="G287" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="50" customHeight="1">
-      <c r="A288" s="42"/>
-      <c r="B288" s="42"/>
+      <c r="A288" s="39"/>
+      <c r="B288" s="39"/>
       <c r="C288" s="8" t="s">
         <v>557</v>
       </c>
@@ -17061,13 +17049,13 @@
       </c>
       <c r="E288" s="10"/>
       <c r="F288" s="10"/>
-      <c r="G288" s="33" t="s">
-        <v>917</v>
+      <c r="G288" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="50" customHeight="1">
-      <c r="A289" s="42"/>
-      <c r="B289" s="42"/>
+      <c r="A289" s="39"/>
+      <c r="B289" s="39"/>
       <c r="C289" s="8" t="s">
         <v>559</v>
       </c>
@@ -17076,13 +17064,13 @@
       </c>
       <c r="E289" s="10"/>
       <c r="F289" s="10"/>
-      <c r="G289" s="33" t="s">
-        <v>917</v>
+      <c r="G289" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="50" customHeight="1">
-      <c r="A290" s="42"/>
-      <c r="B290" s="42"/>
+      <c r="A290" s="39"/>
+      <c r="B290" s="39"/>
       <c r="C290" s="8" t="s">
         <v>561</v>
       </c>
@@ -17091,13 +17079,13 @@
       </c>
       <c r="E290" s="10"/>
       <c r="F290" s="10"/>
-      <c r="G290" s="33" t="s">
-        <v>917</v>
+      <c r="G290" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="50" customHeight="1">
-      <c r="A291" s="42"/>
-      <c r="B291" s="42"/>
+      <c r="A291" s="39"/>
+      <c r="B291" s="39"/>
       <c r="C291" s="8" t="s">
         <v>563</v>
       </c>
@@ -17106,13 +17094,13 @@
       </c>
       <c r="E291" s="10"/>
       <c r="F291" s="10"/>
-      <c r="G291" s="33" t="s">
-        <v>917</v>
+      <c r="G291" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="50" customHeight="1">
-      <c r="A292" s="42"/>
-      <c r="B292" s="42"/>
+      <c r="A292" s="39"/>
+      <c r="B292" s="39"/>
       <c r="C292" s="8" t="s">
         <v>565</v>
       </c>
@@ -17121,13 +17109,13 @@
       </c>
       <c r="E292" s="10"/>
       <c r="F292" s="10"/>
-      <c r="G292" s="33" t="s">
-        <v>917</v>
+      <c r="G292" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="50" customHeight="1">
-      <c r="A293" s="42"/>
-      <c r="B293" s="42"/>
+      <c r="A293" s="39"/>
+      <c r="B293" s="39"/>
       <c r="C293" s="8" t="s">
         <v>567</v>
       </c>
@@ -17136,13 +17124,13 @@
       </c>
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
-      <c r="G293" s="33" t="s">
-        <v>917</v>
+      <c r="G293" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="50" customHeight="1">
-      <c r="A294" s="42"/>
-      <c r="B294" s="42"/>
+      <c r="A294" s="39"/>
+      <c r="B294" s="39"/>
       <c r="C294" s="8" t="s">
         <v>569</v>
       </c>
@@ -17151,13 +17139,13 @@
       </c>
       <c r="E294" s="10"/>
       <c r="F294" s="10"/>
-      <c r="G294" s="33" t="s">
-        <v>917</v>
+      <c r="G294" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="50" customHeight="1">
-      <c r="A295" s="42"/>
-      <c r="B295" s="42"/>
+      <c r="A295" s="39"/>
+      <c r="B295" s="39"/>
       <c r="C295" s="8" t="s">
         <v>571</v>
       </c>
@@ -17166,13 +17154,13 @@
       </c>
       <c r="E295" s="10"/>
       <c r="F295" s="10"/>
-      <c r="G295" s="33" t="s">
-        <v>917</v>
+      <c r="G295" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="50" customHeight="1">
-      <c r="A296" s="42"/>
-      <c r="B296" s="42"/>
+      <c r="A296" s="39"/>
+      <c r="B296" s="39"/>
       <c r="C296" s="8" t="s">
         <v>573</v>
       </c>
@@ -17181,13 +17169,13 @@
       </c>
       <c r="E296" s="10"/>
       <c r="F296" s="10"/>
-      <c r="G296" s="33" t="s">
-        <v>917</v>
+      <c r="G296" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="50" customHeight="1">
-      <c r="A297" s="42"/>
-      <c r="B297" s="42"/>
+      <c r="A297" s="39"/>
+      <c r="B297" s="39"/>
       <c r="C297" s="8" t="s">
         <v>575</v>
       </c>
@@ -17196,13 +17184,13 @@
       </c>
       <c r="E297" s="10"/>
       <c r="F297" s="10"/>
-      <c r="G297" s="33" t="s">
-        <v>917</v>
+      <c r="G297" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="50" customHeight="1">
-      <c r="A298" s="42"/>
-      <c r="B298" s="42"/>
+      <c r="A298" s="39"/>
+      <c r="B298" s="39"/>
       <c r="C298" s="8" t="s">
         <v>577</v>
       </c>
@@ -17211,13 +17199,13 @@
       </c>
       <c r="E298" s="10"/>
       <c r="F298" s="10"/>
-      <c r="G298" s="33" t="s">
-        <v>917</v>
+      <c r="G298" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="50" customHeight="1">
-      <c r="A299" s="42"/>
-      <c r="B299" s="42"/>
+      <c r="A299" s="39"/>
+      <c r="B299" s="39"/>
       <c r="C299" s="8" t="s">
         <v>579</v>
       </c>
@@ -17226,13 +17214,13 @@
       </c>
       <c r="E299" s="10"/>
       <c r="F299" s="10"/>
-      <c r="G299" s="33" t="s">
-        <v>917</v>
+      <c r="G299" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="50" customHeight="1">
-      <c r="A300" s="42"/>
-      <c r="B300" s="42"/>
+      <c r="A300" s="39"/>
+      <c r="B300" s="39"/>
       <c r="C300" s="8" t="s">
         <v>581</v>
       </c>
@@ -17241,13 +17229,13 @@
       </c>
       <c r="E300" s="10"/>
       <c r="F300" s="10"/>
-      <c r="G300" s="33" t="s">
-        <v>917</v>
+      <c r="G300" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="50" customHeight="1">
-      <c r="A301" s="42"/>
-      <c r="B301" s="42"/>
+      <c r="A301" s="39"/>
+      <c r="B301" s="39"/>
       <c r="C301" s="8" t="s">
         <v>583</v>
       </c>
@@ -17256,13 +17244,13 @@
       </c>
       <c r="E301" s="10"/>
       <c r="F301" s="10"/>
-      <c r="G301" s="33" t="s">
-        <v>917</v>
+      <c r="G301" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="50" customHeight="1">
-      <c r="A302" s="42"/>
-      <c r="B302" s="42"/>
+      <c r="A302" s="39"/>
+      <c r="B302" s="39"/>
       <c r="C302" s="8" t="s">
         <v>585</v>
       </c>
@@ -17271,13 +17259,13 @@
       </c>
       <c r="E302" s="10"/>
       <c r="F302" s="10"/>
-      <c r="G302" s="33" t="s">
-        <v>917</v>
+      <c r="G302" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="50" customHeight="1">
-      <c r="A303" s="42"/>
-      <c r="B303" s="42"/>
+      <c r="A303" s="39"/>
+      <c r="B303" s="39"/>
       <c r="C303" s="8" t="s">
         <v>587</v>
       </c>
@@ -17286,13 +17274,13 @@
       </c>
       <c r="E303" s="10"/>
       <c r="F303" s="10"/>
-      <c r="G303" s="33" t="s">
-        <v>917</v>
+      <c r="G303" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="50" customHeight="1">
-      <c r="A304" s="42"/>
-      <c r="B304" s="42"/>
+      <c r="A304" s="39"/>
+      <c r="B304" s="39"/>
       <c r="C304" s="8" t="s">
         <v>589</v>
       </c>
@@ -17301,13 +17289,13 @@
       </c>
       <c r="E304" s="10"/>
       <c r="F304" s="10"/>
-      <c r="G304" s="33" t="s">
-        <v>917</v>
+      <c r="G304" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="50" customHeight="1">
-      <c r="A305" s="42"/>
-      <c r="B305" s="42"/>
+      <c r="A305" s="39"/>
+      <c r="B305" s="39"/>
       <c r="C305" s="8" t="s">
         <v>591</v>
       </c>
@@ -17316,13 +17304,13 @@
       </c>
       <c r="E305" s="10"/>
       <c r="F305" s="10"/>
-      <c r="G305" s="33" t="s">
-        <v>917</v>
+      <c r="G305" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="50" customHeight="1">
-      <c r="A306" s="42"/>
-      <c r="B306" s="42"/>
+      <c r="A306" s="39"/>
+      <c r="B306" s="39"/>
       <c r="C306" s="8" t="s">
         <v>593</v>
       </c>
@@ -17331,13 +17319,13 @@
       </c>
       <c r="E306" s="10"/>
       <c r="F306" s="10"/>
-      <c r="G306" s="33" t="s">
-        <v>917</v>
+      <c r="G306" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="50" customHeight="1">
-      <c r="A307" s="42"/>
-      <c r="B307" s="43"/>
+      <c r="A307" s="39"/>
+      <c r="B307" s="40"/>
       <c r="C307" s="8" t="s">
         <v>595</v>
       </c>
@@ -17346,14 +17334,14 @@
       </c>
       <c r="E307" s="10"/>
       <c r="F307" s="10"/>
-      <c r="G307" s="33" t="s">
-        <v>917</v>
+      <c r="G307" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="50" customHeight="1">
-      <c r="A308" s="42"/>
+      <c r="A308" s="39"/>
       <c r="B308" s="16" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C308" s="8" t="s">
         <v>597</v>
@@ -17362,17 +17350,17 @@
         <v>598</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F308" s="10"/>
-      <c r="G308" s="33" t="s">
-        <v>917</v>
+      <c r="G308" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="50" customHeight="1">
-      <c r="A309" s="42"/>
+      <c r="A309" s="39"/>
       <c r="B309" s="16" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C309" s="8" t="s">
         <v>599</v>
@@ -17381,17 +17369,17 @@
         <v>600</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F309" s="10"/>
-      <c r="G309" s="33" t="s">
-        <v>917</v>
+      <c r="G309" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="50" customHeight="1">
-      <c r="A310" s="42"/>
-      <c r="B310" s="41" t="s">
-        <v>955</v>
+      <c r="A310" s="39"/>
+      <c r="B310" s="38" t="s">
+        <v>954</v>
       </c>
       <c r="C310" s="8" t="s">
         <v>601</v>
@@ -17400,16 +17388,16 @@
         <v>602</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F310" s="10"/>
-      <c r="G310" s="26" t="s">
-        <v>882</v>
+      <c r="G310" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="50" customHeight="1">
-      <c r="A311" s="42"/>
-      <c r="B311" s="42"/>
+      <c r="A311" s="39"/>
+      <c r="B311" s="39"/>
       <c r="C311" s="8" t="s">
         <v>603</v>
       </c>
@@ -17417,16 +17405,16 @@
         <v>604</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F311" s="10"/>
-      <c r="G311" s="26" t="s">
-        <v>882</v>
+      <c r="G311" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="50" customHeight="1">
-      <c r="A312" s="42"/>
-      <c r="B312" s="43"/>
+      <c r="A312" s="39"/>
+      <c r="B312" s="40"/>
       <c r="C312" s="8" t="s">
         <v>605</v>
       </c>
@@ -17434,17 +17422,17 @@
         <v>606</v>
       </c>
       <c r="E312" s="10" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F312" s="10"/>
-      <c r="G312" s="26" t="s">
-        <v>882</v>
+      <c r="G312" s="25" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="50" customHeight="1">
-      <c r="A313" s="42"/>
-      <c r="B313" s="41" t="s">
-        <v>956</v>
+      <c r="A313" s="39"/>
+      <c r="B313" s="38" t="s">
+        <v>955</v>
       </c>
       <c r="C313" s="8" t="s">
         <v>607</v>
@@ -17453,16 +17441,16 @@
         <v>608</v>
       </c>
       <c r="E313" s="18" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F313" s="18"/>
-      <c r="G313" s="33" t="s">
-        <v>917</v>
+      <c r="G313" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="50" customHeight="1">
-      <c r="A314" s="42"/>
-      <c r="B314" s="42"/>
+      <c r="A314" s="39"/>
+      <c r="B314" s="39"/>
       <c r="C314" s="8" t="s">
         <v>609</v>
       </c>
@@ -17470,16 +17458,16 @@
         <v>610</v>
       </c>
       <c r="E314" s="18" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F314" s="18"/>
-      <c r="G314" s="33" t="s">
-        <v>917</v>
+      <c r="G314" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="50" customHeight="1">
-      <c r="A315" s="42"/>
-      <c r="B315" s="43"/>
+      <c r="A315" s="39"/>
+      <c r="B315" s="40"/>
       <c r="C315" s="8" t="s">
         <v>611</v>
       </c>
@@ -17488,14 +17476,14 @@
       </c>
       <c r="E315" s="10"/>
       <c r="F315" s="10"/>
-      <c r="G315" s="33" t="s">
-        <v>917</v>
+      <c r="G315" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="50" customHeight="1">
-      <c r="A316" s="42"/>
-      <c r="B316" s="41" t="s">
-        <v>957</v>
+      <c r="A316" s="39"/>
+      <c r="B316" s="38" t="s">
+        <v>956</v>
       </c>
       <c r="C316" s="8" t="s">
         <v>613</v>
@@ -17504,16 +17492,16 @@
         <v>614</v>
       </c>
       <c r="E316" s="10" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F316" s="10"/>
-      <c r="G316" s="33" t="s">
-        <v>917</v>
+      <c r="G316" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="50" customHeight="1">
-      <c r="A317" s="42"/>
-      <c r="B317" s="42"/>
+      <c r="A317" s="39"/>
+      <c r="B317" s="39"/>
       <c r="C317" s="8" t="s">
         <v>615</v>
       </c>
@@ -17521,16 +17509,16 @@
         <v>616</v>
       </c>
       <c r="E317" s="10" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F317" s="10"/>
-      <c r="G317" s="33" t="s">
-        <v>917</v>
+      <c r="G317" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="50" customHeight="1">
-      <c r="A318" s="42"/>
-      <c r="B318" s="42"/>
+      <c r="A318" s="39"/>
+      <c r="B318" s="39"/>
       <c r="C318" s="8" t="s">
         <v>617</v>
       </c>
@@ -17538,16 +17526,16 @@
         <v>618</v>
       </c>
       <c r="E318" s="10" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F318" s="10"/>
-      <c r="G318" s="33" t="s">
-        <v>917</v>
+      <c r="G318" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="50" customHeight="1">
-      <c r="A319" s="42"/>
-      <c r="B319" s="42"/>
+      <c r="A319" s="39"/>
+      <c r="B319" s="39"/>
       <c r="C319" s="8" t="s">
         <v>619</v>
       </c>
@@ -17556,13 +17544,13 @@
       </c>
       <c r="E319" s="10"/>
       <c r="F319" s="10"/>
-      <c r="G319" s="33" t="s">
-        <v>917</v>
+      <c r="G319" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="50" customHeight="1">
-      <c r="A320" s="42"/>
-      <c r="B320" s="42"/>
+      <c r="A320" s="39"/>
+      <c r="B320" s="39"/>
       <c r="C320" s="8" t="s">
         <v>621</v>
       </c>
@@ -17571,13 +17559,13 @@
       </c>
       <c r="E320" s="10"/>
       <c r="F320" s="10"/>
-      <c r="G320" s="33" t="s">
-        <v>917</v>
+      <c r="G320" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="50" customHeight="1">
-      <c r="A321" s="42"/>
-      <c r="B321" s="42"/>
+      <c r="A321" s="39"/>
+      <c r="B321" s="39"/>
       <c r="C321" s="8" t="s">
         <v>623</v>
       </c>
@@ -17586,13 +17574,13 @@
       </c>
       <c r="E321" s="10"/>
       <c r="F321" s="10"/>
-      <c r="G321" s="33" t="s">
-        <v>917</v>
+      <c r="G321" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="50" customHeight="1">
-      <c r="A322" s="42"/>
-      <c r="B322" s="42"/>
+      <c r="A322" s="39"/>
+      <c r="B322" s="39"/>
       <c r="C322" s="8" t="s">
         <v>625</v>
       </c>
@@ -17601,13 +17589,13 @@
       </c>
       <c r="E322" s="10"/>
       <c r="F322" s="10"/>
-      <c r="G322" s="33" t="s">
-        <v>917</v>
+      <c r="G322" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="50" customHeight="1">
-      <c r="A323" s="42"/>
-      <c r="B323" s="42"/>
+      <c r="A323" s="39"/>
+      <c r="B323" s="39"/>
       <c r="C323" s="8" t="s">
         <v>627</v>
       </c>
@@ -17616,13 +17604,13 @@
       </c>
       <c r="E323" s="10"/>
       <c r="F323" s="10"/>
-      <c r="G323" s="33" t="s">
-        <v>917</v>
+      <c r="G323" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="50" customHeight="1">
-      <c r="A324" s="42"/>
-      <c r="B324" s="42"/>
+      <c r="A324" s="39"/>
+      <c r="B324" s="39"/>
       <c r="C324" s="8" t="s">
         <v>629</v>
       </c>
@@ -17631,13 +17619,13 @@
       </c>
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
-      <c r="G324" s="33" t="s">
-        <v>917</v>
+      <c r="G324" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="50" customHeight="1">
-      <c r="A325" s="42"/>
-      <c r="B325" s="43"/>
+      <c r="A325" s="39"/>
+      <c r="B325" s="40"/>
       <c r="C325" s="8" t="s">
         <v>631</v>
       </c>
@@ -17646,14 +17634,14 @@
       </c>
       <c r="E325" s="10"/>
       <c r="F325" s="10"/>
-      <c r="G325" s="33" t="s">
-        <v>917</v>
+      <c r="G325" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="50" customHeight="1">
-      <c r="A326" s="42"/>
+      <c r="A326" s="39"/>
       <c r="B326" s="16" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C326" s="8" t="s">
         <v>633</v>
@@ -17662,17 +17650,17 @@
         <v>634</v>
       </c>
       <c r="E326" s="10" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F326" s="10"/>
-      <c r="G326" s="33" t="s">
-        <v>917</v>
+      <c r="G326" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="50" customHeight="1">
-      <c r="A327" s="42"/>
-      <c r="B327" s="41" t="s">
-        <v>959</v>
+      <c r="A327" s="39"/>
+      <c r="B327" s="38" t="s">
+        <v>958</v>
       </c>
       <c r="C327" s="8" t="s">
         <v>635</v>
@@ -17682,13 +17670,13 @@
       </c>
       <c r="E327" s="18"/>
       <c r="F327" s="18"/>
-      <c r="G327" s="33" t="s">
-        <v>917</v>
+      <c r="G327" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="50" customHeight="1">
-      <c r="A328" s="42"/>
-      <c r="B328" s="42"/>
+      <c r="A328" s="39"/>
+      <c r="B328" s="39"/>
       <c r="C328" s="8" t="s">
         <v>637</v>
       </c>
@@ -17697,13 +17685,13 @@
       </c>
       <c r="E328" s="18"/>
       <c r="F328" s="18"/>
-      <c r="G328" s="33" t="s">
-        <v>917</v>
+      <c r="G328" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="50" customHeight="1">
-      <c r="A329" s="42"/>
-      <c r="B329" s="42"/>
+      <c r="A329" s="39"/>
+      <c r="B329" s="39"/>
       <c r="C329" s="8" t="s">
         <v>639</v>
       </c>
@@ -17712,13 +17700,13 @@
       </c>
       <c r="E329" s="18"/>
       <c r="F329" s="18"/>
-      <c r="G329" s="33" t="s">
-        <v>917</v>
+      <c r="G329" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="50" customHeight="1">
-      <c r="A330" s="42"/>
-      <c r="B330" s="42"/>
+      <c r="A330" s="39"/>
+      <c r="B330" s="39"/>
       <c r="C330" s="8" t="s">
         <v>641</v>
       </c>
@@ -17727,13 +17715,13 @@
       </c>
       <c r="E330" s="18"/>
       <c r="F330" s="18"/>
-      <c r="G330" s="33" t="s">
-        <v>917</v>
+      <c r="G330" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="50" customHeight="1">
-      <c r="A331" s="43"/>
-      <c r="B331" s="43"/>
+      <c r="A331" s="40"/>
+      <c r="B331" s="40"/>
       <c r="C331" s="8" t="s">
         <v>643</v>
       </c>
@@ -17742,8 +17730,8 @@
       </c>
       <c r="E331" s="18"/>
       <c r="F331" s="18"/>
-      <c r="G331" s="33" t="s">
-        <v>917</v>
+      <c r="G331" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="50" customHeight="1">
@@ -17753,8 +17741,8 @@
       <c r="F332" s="18"/>
     </row>
     <row r="333" spans="1:7" ht="50" customHeight="1">
-      <c r="A333" s="41" t="s">
-        <v>911</v>
+      <c r="A333" s="38" t="s">
+        <v>910</v>
       </c>
       <c r="C333" s="8" t="s">
         <v>645</v>
@@ -17763,15 +17751,15 @@
         <v>646</v>
       </c>
       <c r="E333" s="10" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F333" s="10"/>
       <c r="G333" s="35" t="s">
-        <v>932</v>
+        <v>959</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="50" customHeight="1">
-      <c r="A334" s="42"/>
+      <c r="A334" s="39"/>
       <c r="C334" s="8" t="s">
         <v>647</v>
       </c>
@@ -17780,12 +17768,12 @@
       </c>
       <c r="E334" s="18"/>
       <c r="F334" s="18"/>
-      <c r="G334" s="36" t="s">
-        <v>960</v>
+      <c r="G334" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="50" customHeight="1">
-      <c r="A335" s="42"/>
+      <c r="A335" s="39"/>
       <c r="C335" s="8" t="s">
         <v>649</v>
       </c>
@@ -17794,12 +17782,12 @@
       </c>
       <c r="E335" s="10"/>
       <c r="F335" s="10"/>
-      <c r="G335" s="36" t="s">
-        <v>960</v>
+      <c r="G335" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="50" customHeight="1">
-      <c r="A336" s="42"/>
+      <c r="A336" s="39"/>
       <c r="C336" s="8" t="s">
         <v>651</v>
       </c>
@@ -17808,12 +17796,12 @@
       </c>
       <c r="E336" s="10"/>
       <c r="F336" s="10"/>
-      <c r="G336" s="36" t="s">
-        <v>960</v>
+      <c r="G336" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="50" customHeight="1">
-      <c r="A337" s="42"/>
+      <c r="A337" s="39"/>
       <c r="C337" s="8" t="s">
         <v>653</v>
       </c>
@@ -17822,12 +17810,12 @@
       </c>
       <c r="E337" s="10"/>
       <c r="F337" s="10"/>
-      <c r="G337" s="36" t="s">
-        <v>960</v>
+      <c r="G337" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="50" customHeight="1">
-      <c r="A338" s="42"/>
+      <c r="A338" s="39"/>
       <c r="C338" s="8" t="s">
         <v>655</v>
       </c>
@@ -17836,12 +17824,12 @@
       </c>
       <c r="E338" s="10"/>
       <c r="F338" s="10"/>
-      <c r="G338" s="36" t="s">
-        <v>960</v>
+      <c r="G338" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="50" customHeight="1">
-      <c r="A339" s="42"/>
+      <c r="A339" s="39"/>
       <c r="C339" s="8" t="s">
         <v>657</v>
       </c>
@@ -17849,15 +17837,15 @@
         <v>658</v>
       </c>
       <c r="E339" s="10" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F339" s="10"/>
-      <c r="G339" s="35" t="s">
-        <v>932</v>
+      <c r="G339" s="34" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="50" customHeight="1">
-      <c r="A340" s="42"/>
+      <c r="A340" s="39"/>
       <c r="C340" s="8" t="s">
         <v>659</v>
       </c>
@@ -17866,12 +17854,12 @@
       </c>
       <c r="E340" s="10"/>
       <c r="F340" s="10"/>
-      <c r="G340" s="36" t="s">
-        <v>960</v>
+      <c r="G340" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="50" customHeight="1">
-      <c r="A341" s="42"/>
+      <c r="A341" s="39"/>
       <c r="C341" s="8" t="s">
         <v>661</v>
       </c>
@@ -17880,12 +17868,12 @@
       </c>
       <c r="E341" s="10"/>
       <c r="F341" s="10"/>
-      <c r="G341" s="36" t="s">
-        <v>960</v>
+      <c r="G341" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="50" customHeight="1">
-      <c r="A342" s="42"/>
+      <c r="A342" s="39"/>
       <c r="C342" s="8" t="s">
         <v>663</v>
       </c>
@@ -17893,15 +17881,15 @@
         <v>664</v>
       </c>
       <c r="E342" s="10" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F342" s="10"/>
-      <c r="G342" s="35" t="s">
-        <v>932</v>
+      <c r="G342" s="34" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="50" customHeight="1">
-      <c r="A343" s="42"/>
+      <c r="A343" s="39"/>
       <c r="C343" s="8" t="s">
         <v>665</v>
       </c>
@@ -17910,12 +17898,12 @@
       </c>
       <c r="E343" s="10"/>
       <c r="F343" s="10"/>
-      <c r="G343" s="36" t="s">
-        <v>960</v>
+      <c r="G343" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="50" customHeight="1">
-      <c r="A344" s="42"/>
+      <c r="A344" s="39"/>
       <c r="C344" s="8" t="s">
         <v>667</v>
       </c>
@@ -17924,12 +17912,12 @@
       </c>
       <c r="E344" s="10"/>
       <c r="F344" s="10"/>
-      <c r="G344" s="36" t="s">
-        <v>960</v>
+      <c r="G344" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="50" customHeight="1">
-      <c r="A345" s="42"/>
+      <c r="A345" s="39"/>
       <c r="C345" s="8" t="s">
         <v>669</v>
       </c>
@@ -17938,12 +17926,12 @@
       </c>
       <c r="E345" s="10"/>
       <c r="F345" s="10"/>
-      <c r="G345" s="36" t="s">
-        <v>960</v>
+      <c r="G345" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="50" customHeight="1">
-      <c r="A346" s="42"/>
+      <c r="A346" s="39"/>
       <c r="C346" s="8" t="s">
         <v>671</v>
       </c>
@@ -17951,15 +17939,15 @@
         <v>672</v>
       </c>
       <c r="E346" s="10" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F346" s="10"/>
-      <c r="G346" s="36" t="s">
-        <v>960</v>
+      <c r="G346" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="50" customHeight="1">
-      <c r="A347" s="42"/>
+      <c r="A347" s="39"/>
       <c r="C347" s="8" t="s">
         <v>673</v>
       </c>
@@ -17967,15 +17955,15 @@
         <v>674</v>
       </c>
       <c r="E347" s="10" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F347" s="10"/>
-      <c r="G347" s="36" t="s">
-        <v>960</v>
+      <c r="G347" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="50" customHeight="1">
-      <c r="A348" s="42"/>
+      <c r="A348" s="39"/>
       <c r="C348" s="8" t="s">
         <v>675</v>
       </c>
@@ -17984,12 +17972,12 @@
       </c>
       <c r="E348" s="10"/>
       <c r="F348" s="10"/>
-      <c r="G348" s="36" t="s">
-        <v>960</v>
+      <c r="G348" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="50" customHeight="1">
-      <c r="A349" s="42"/>
+      <c r="A349" s="39"/>
       <c r="C349" s="8" t="s">
         <v>677</v>
       </c>
@@ -17998,12 +17986,12 @@
       </c>
       <c r="E349" s="10"/>
       <c r="F349" s="10"/>
-      <c r="G349" s="36" t="s">
-        <v>960</v>
+      <c r="G349" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="50" customHeight="1">
-      <c r="A350" s="42"/>
+      <c r="A350" s="39"/>
       <c r="C350" s="8" t="s">
         <v>679</v>
       </c>
@@ -18011,15 +17999,15 @@
         <v>680</v>
       </c>
       <c r="E350" s="10" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F350" s="10"/>
-      <c r="G350" s="36" t="s">
-        <v>960</v>
+      <c r="G350" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="50" customHeight="1">
-      <c r="A351" s="42"/>
+      <c r="A351" s="39"/>
       <c r="C351" s="8" t="s">
         <v>681</v>
       </c>
@@ -18028,12 +18016,12 @@
       </c>
       <c r="E351" s="10"/>
       <c r="F351" s="10"/>
-      <c r="G351" s="36" t="s">
-        <v>960</v>
+      <c r="G351" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="50" customHeight="1">
-      <c r="A352" s="42"/>
+      <c r="A352" s="39"/>
       <c r="C352" s="8" t="s">
         <v>683</v>
       </c>
@@ -18041,15 +18029,15 @@
         <v>684</v>
       </c>
       <c r="E352" s="10" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F352" s="10"/>
-      <c r="G352" s="36" t="s">
-        <v>960</v>
+      <c r="G352" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="50" customHeight="1">
-      <c r="A353" s="42"/>
+      <c r="A353" s="39"/>
       <c r="C353" s="8" t="s">
         <v>685</v>
       </c>
@@ -18058,12 +18046,12 @@
       </c>
       <c r="E353" s="10"/>
       <c r="F353" s="10"/>
-      <c r="G353" s="36" t="s">
-        <v>960</v>
+      <c r="G353" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="50" customHeight="1">
-      <c r="A354" s="42"/>
+      <c r="A354" s="39"/>
       <c r="C354" s="8" t="s">
         <v>687</v>
       </c>
@@ -18071,15 +18059,15 @@
         <v>688</v>
       </c>
       <c r="E354" s="10" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F354" s="10"/>
-      <c r="G354" s="36" t="s">
-        <v>960</v>
+      <c r="G354" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="50" customHeight="1">
-      <c r="A355" s="42"/>
+      <c r="A355" s="39"/>
       <c r="C355" s="8" t="s">
         <v>689</v>
       </c>
@@ -18087,15 +18075,15 @@
         <v>690</v>
       </c>
       <c r="E355" s="10" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F355" s="10"/>
-      <c r="G355" s="36" t="s">
-        <v>960</v>
+      <c r="G355" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="50" customHeight="1">
-      <c r="A356" s="42"/>
+      <c r="A356" s="39"/>
       <c r="C356" s="8" t="s">
         <v>691</v>
       </c>
@@ -18103,15 +18091,15 @@
         <v>692</v>
       </c>
       <c r="E356" s="10" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F356" s="10"/>
-      <c r="G356" s="36" t="s">
-        <v>960</v>
+      <c r="G356" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="50" customHeight="1">
-      <c r="A357" s="42"/>
+      <c r="A357" s="39"/>
       <c r="C357" s="8" t="s">
         <v>693</v>
       </c>
@@ -18119,15 +18107,15 @@
         <v>694</v>
       </c>
       <c r="E357" s="10" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F357" s="10"/>
-      <c r="G357" s="36" t="s">
-        <v>960</v>
+      <c r="G357" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="50" customHeight="1">
-      <c r="A358" s="42"/>
+      <c r="A358" s="39"/>
       <c r="C358" s="8" t="s">
         <v>695</v>
       </c>
@@ -18136,12 +18124,12 @@
       </c>
       <c r="E358" s="10"/>
       <c r="F358" s="10"/>
-      <c r="G358" s="36" t="s">
-        <v>960</v>
+      <c r="G358" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="50" customHeight="1">
-      <c r="A359" s="42"/>
+      <c r="A359" s="39"/>
       <c r="C359" s="8" t="s">
         <v>697</v>
       </c>
@@ -18150,12 +18138,12 @@
       </c>
       <c r="E359" s="10"/>
       <c r="F359" s="10"/>
-      <c r="G359" s="36" t="s">
-        <v>960</v>
+      <c r="G359" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="50" customHeight="1">
-      <c r="A360" s="42"/>
+      <c r="A360" s="39"/>
       <c r="C360" s="8" t="s">
         <v>699</v>
       </c>
@@ -18164,12 +18152,12 @@
       </c>
       <c r="E360" s="10"/>
       <c r="F360" s="10"/>
-      <c r="G360" s="36" t="s">
-        <v>960</v>
+      <c r="G360" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="50" customHeight="1">
-      <c r="A361" s="42"/>
+      <c r="A361" s="39"/>
       <c r="C361" s="8" t="s">
         <v>701</v>
       </c>
@@ -18178,12 +18166,12 @@
       </c>
       <c r="E361" s="10"/>
       <c r="F361" s="10"/>
-      <c r="G361" s="36" t="s">
-        <v>960</v>
+      <c r="G361" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="50" customHeight="1">
-      <c r="A362" s="42"/>
+      <c r="A362" s="39"/>
       <c r="C362" s="8" t="s">
         <v>703</v>
       </c>
@@ -18192,12 +18180,12 @@
       </c>
       <c r="E362" s="10"/>
       <c r="F362" s="10"/>
-      <c r="G362" s="36" t="s">
-        <v>960</v>
+      <c r="G362" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="50" customHeight="1">
-      <c r="A363" s="42"/>
+      <c r="A363" s="39"/>
       <c r="C363" s="8" t="s">
         <v>705</v>
       </c>
@@ -18205,15 +18193,15 @@
         <v>706</v>
       </c>
       <c r="E363" s="10" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F363" s="10"/>
-      <c r="G363" s="36" t="s">
-        <v>960</v>
+      <c r="G363" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="50" customHeight="1">
-      <c r="A364" s="42"/>
+      <c r="A364" s="39"/>
       <c r="C364" s="8" t="s">
         <v>707</v>
       </c>
@@ -18221,15 +18209,15 @@
         <v>708</v>
       </c>
       <c r="E364" s="10" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F364" s="10"/>
-      <c r="G364" s="36" t="s">
-        <v>960</v>
+      <c r="G364" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="50" customHeight="1">
-      <c r="A365" s="42"/>
+      <c r="A365" s="39"/>
       <c r="C365" s="8" t="s">
         <v>709</v>
       </c>
@@ -18238,12 +18226,12 @@
       </c>
       <c r="E365" s="10"/>
       <c r="F365" s="10"/>
-      <c r="G365" s="36" t="s">
-        <v>960</v>
+      <c r="G365" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="50" customHeight="1">
-      <c r="A366" s="42"/>
+      <c r="A366" s="39"/>
       <c r="C366" s="8" t="s">
         <v>711</v>
       </c>
@@ -18251,15 +18239,15 @@
         <v>712</v>
       </c>
       <c r="E366" s="10" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F366" s="10"/>
-      <c r="G366" s="36" t="s">
-        <v>960</v>
+      <c r="G366" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="50" customHeight="1">
-      <c r="A367" s="42"/>
+      <c r="A367" s="39"/>
       <c r="C367" s="8" t="s">
         <v>713</v>
       </c>
@@ -18267,15 +18255,15 @@
         <v>714</v>
       </c>
       <c r="E367" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F367" s="10"/>
-      <c r="G367" s="36" t="s">
-        <v>960</v>
+      <c r="G367" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="50" customHeight="1">
-      <c r="A368" s="42"/>
+      <c r="A368" s="39"/>
       <c r="C368" s="8" t="s">
         <v>715</v>
       </c>
@@ -18283,15 +18271,15 @@
         <v>716</v>
       </c>
       <c r="E368" s="10" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F368" s="10"/>
-      <c r="G368" s="36" t="s">
-        <v>960</v>
+      <c r="G368" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="50" customHeight="1">
-      <c r="A369" s="42"/>
+      <c r="A369" s="39"/>
       <c r="C369" s="8" t="s">
         <v>717</v>
       </c>
@@ -18299,15 +18287,15 @@
         <v>718</v>
       </c>
       <c r="E369" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F369" s="10"/>
-      <c r="G369" s="36" t="s">
-        <v>960</v>
+      <c r="G369" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="50" customHeight="1">
-      <c r="A370" s="42"/>
+      <c r="A370" s="39"/>
       <c r="C370" s="8" t="s">
         <v>719</v>
       </c>
@@ -18315,15 +18303,15 @@
         <v>720</v>
       </c>
       <c r="E370" s="10" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F370" s="10"/>
-      <c r="G370" s="36" t="s">
-        <v>960</v>
+      <c r="G370" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="371" spans="1:7" ht="50" customHeight="1">
-      <c r="A371" s="42"/>
+      <c r="A371" s="39"/>
       <c r="C371" s="8" t="s">
         <v>721</v>
       </c>
@@ -18331,15 +18319,15 @@
         <v>722</v>
       </c>
       <c r="E371" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F371" s="10"/>
-      <c r="G371" s="36" t="s">
-        <v>960</v>
+      <c r="G371" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="50" customHeight="1">
-      <c r="A372" s="42"/>
+      <c r="A372" s="39"/>
       <c r="C372" s="8" t="s">
         <v>723</v>
       </c>
@@ -18347,15 +18335,15 @@
         <v>724</v>
       </c>
       <c r="E372" s="10" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F372" s="10"/>
-      <c r="G372" s="36" t="s">
-        <v>960</v>
+      <c r="G372" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="50" customHeight="1">
-      <c r="A373" s="42"/>
+      <c r="A373" s="39"/>
       <c r="C373" s="8" t="s">
         <v>725</v>
       </c>
@@ -18363,15 +18351,15 @@
         <v>726</v>
       </c>
       <c r="E373" s="10" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F373" s="10"/>
-      <c r="G373" s="36" t="s">
-        <v>960</v>
+      <c r="G373" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="50" customHeight="1">
-      <c r="A374" s="42"/>
+      <c r="A374" s="39"/>
       <c r="C374" s="8" t="s">
         <v>727</v>
       </c>
@@ -18379,15 +18367,15 @@
         <v>728</v>
       </c>
       <c r="E374" s="10" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F374" s="10"/>
-      <c r="G374" s="36" t="s">
-        <v>960</v>
+      <c r="G374" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="50" customHeight="1">
-      <c r="A375" s="42"/>
+      <c r="A375" s="39"/>
       <c r="C375" s="8" t="s">
         <v>729</v>
       </c>
@@ -18395,15 +18383,15 @@
         <v>730</v>
       </c>
       <c r="E375" s="10" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F375" s="10"/>
-      <c r="G375" s="36" t="s">
-        <v>960</v>
+      <c r="G375" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="50" customHeight="1">
-      <c r="A376" s="42"/>
+      <c r="A376" s="39"/>
       <c r="C376" s="8" t="s">
         <v>731</v>
       </c>
@@ -18412,12 +18400,12 @@
       </c>
       <c r="E376" s="10"/>
       <c r="F376" s="10"/>
-      <c r="G376" s="36" t="s">
-        <v>960</v>
+      <c r="G376" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="50" customHeight="1">
-      <c r="A377" s="42"/>
+      <c r="A377" s="39"/>
       <c r="C377" s="8" t="s">
         <v>733</v>
       </c>
@@ -18425,15 +18413,15 @@
         <v>734</v>
       </c>
       <c r="E377" s="10" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F377" s="10"/>
-      <c r="G377" s="36" t="s">
-        <v>960</v>
+      <c r="G377" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="378" spans="1:7" ht="50" customHeight="1">
-      <c r="A378" s="42"/>
+      <c r="A378" s="39"/>
       <c r="C378" s="8" t="s">
         <v>735</v>
       </c>
@@ -18442,12 +18430,12 @@
       </c>
       <c r="E378" s="10"/>
       <c r="F378" s="10"/>
-      <c r="G378" s="36" t="s">
-        <v>960</v>
+      <c r="G378" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="50" customHeight="1">
-      <c r="A379" s="42"/>
+      <c r="A379" s="39"/>
       <c r="C379" s="8" t="s">
         <v>737</v>
       </c>
@@ -18456,12 +18444,12 @@
       </c>
       <c r="E379" s="10"/>
       <c r="F379" s="10"/>
-      <c r="G379" s="36" t="s">
-        <v>960</v>
+      <c r="G379" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="50" customHeight="1">
-      <c r="A380" s="42"/>
+      <c r="A380" s="39"/>
       <c r="C380" s="8" t="s">
         <v>739</v>
       </c>
@@ -18470,12 +18458,12 @@
       </c>
       <c r="E380" s="10"/>
       <c r="F380" s="10"/>
-      <c r="G380" s="36" t="s">
-        <v>960</v>
+      <c r="G380" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="50" customHeight="1">
-      <c r="A381" s="42"/>
+      <c r="A381" s="39"/>
       <c r="C381" s="8" t="s">
         <v>741</v>
       </c>
@@ -18484,12 +18472,12 @@
       </c>
       <c r="E381" s="10"/>
       <c r="F381" s="10"/>
-      <c r="G381" s="36" t="s">
-        <v>960</v>
+      <c r="G381" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="50" customHeight="1">
-      <c r="A382" s="42"/>
+      <c r="A382" s="39"/>
       <c r="C382" s="8" t="s">
         <v>743</v>
       </c>
@@ -18498,12 +18486,12 @@
       </c>
       <c r="E382" s="10"/>
       <c r="F382" s="10"/>
-      <c r="G382" s="36" t="s">
-        <v>960</v>
+      <c r="G382" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="50" customHeight="1">
-      <c r="A383" s="42"/>
+      <c r="A383" s="39"/>
       <c r="C383" s="8" t="s">
         <v>745</v>
       </c>
@@ -18512,12 +18500,12 @@
       </c>
       <c r="E383" s="10"/>
       <c r="F383" s="10"/>
-      <c r="G383" s="36" t="s">
-        <v>960</v>
+      <c r="G383" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="50" customHeight="1">
-      <c r="A384" s="42"/>
+      <c r="A384" s="39"/>
       <c r="C384" s="8" t="s">
         <v>747</v>
       </c>
@@ -18525,15 +18513,15 @@
         <v>748</v>
       </c>
       <c r="E384" s="10" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F384" s="10"/>
-      <c r="G384" s="36" t="s">
-        <v>960</v>
+      <c r="G384" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="385" spans="1:7" ht="50" customHeight="1">
-      <c r="A385" s="42"/>
+      <c r="A385" s="39"/>
       <c r="C385" s="8" t="s">
         <v>749</v>
       </c>
@@ -18542,12 +18530,12 @@
       </c>
       <c r="E385" s="10"/>
       <c r="F385" s="10"/>
-      <c r="G385" s="36" t="s">
-        <v>960</v>
+      <c r="G385" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="50" customHeight="1">
-      <c r="A386" s="42"/>
+      <c r="A386" s="39"/>
       <c r="C386" s="8" t="s">
         <v>751</v>
       </c>
@@ -18555,15 +18543,15 @@
         <v>752</v>
       </c>
       <c r="E386" s="10" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F386" s="10"/>
-      <c r="G386" s="36" t="s">
-        <v>960</v>
+      <c r="G386" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="50" customHeight="1">
-      <c r="A387" s="42"/>
+      <c r="A387" s="39"/>
       <c r="C387" s="8" t="s">
         <v>753</v>
       </c>
@@ -18572,12 +18560,12 @@
       </c>
       <c r="E387" s="10"/>
       <c r="F387" s="10"/>
-      <c r="G387" s="36" t="s">
-        <v>960</v>
+      <c r="G387" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="50" customHeight="1">
-      <c r="A388" s="42"/>
+      <c r="A388" s="39"/>
       <c r="C388" s="8" t="s">
         <v>755</v>
       </c>
@@ -18586,12 +18574,12 @@
       </c>
       <c r="E388" s="10"/>
       <c r="F388" s="10"/>
-      <c r="G388" s="36" t="s">
-        <v>960</v>
+      <c r="G388" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="50" customHeight="1">
-      <c r="A389" s="42"/>
+      <c r="A389" s="39"/>
       <c r="C389" s="8" t="s">
         <v>757</v>
       </c>
@@ -18600,12 +18588,12 @@
       </c>
       <c r="E389" s="10"/>
       <c r="F389" s="10"/>
-      <c r="G389" s="36" t="s">
-        <v>960</v>
+      <c r="G389" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="50" customHeight="1">
-      <c r="A390" s="42"/>
+      <c r="A390" s="39"/>
       <c r="C390" s="8" t="s">
         <v>759</v>
       </c>
@@ -18614,12 +18602,12 @@
       </c>
       <c r="E390" s="10"/>
       <c r="F390" s="10"/>
-      <c r="G390" s="36" t="s">
-        <v>960</v>
+      <c r="G390" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="50" customHeight="1">
-      <c r="A391" s="42"/>
+      <c r="A391" s="39"/>
       <c r="C391" s="8" t="s">
         <v>761</v>
       </c>
@@ -18628,12 +18616,12 @@
       </c>
       <c r="E391" s="10"/>
       <c r="F391" s="10"/>
-      <c r="G391" s="36" t="s">
-        <v>960</v>
+      <c r="G391" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="392" spans="1:7" ht="50" customHeight="1">
-      <c r="A392" s="42"/>
+      <c r="A392" s="39"/>
       <c r="C392" s="8" t="s">
         <v>763</v>
       </c>
@@ -18642,12 +18630,12 @@
       </c>
       <c r="E392" s="10"/>
       <c r="F392" s="10"/>
-      <c r="G392" s="36" t="s">
-        <v>960</v>
+      <c r="G392" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="393" spans="1:7" ht="50" customHeight="1">
-      <c r="A393" s="42"/>
+      <c r="A393" s="39"/>
       <c r="C393" s="8" t="s">
         <v>765</v>
       </c>
@@ -18656,12 +18644,12 @@
       </c>
       <c r="E393" s="10"/>
       <c r="F393" s="10"/>
-      <c r="G393" s="36" t="s">
-        <v>960</v>
+      <c r="G393" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="394" spans="1:7" ht="50" customHeight="1">
-      <c r="A394" s="42"/>
+      <c r="A394" s="39"/>
       <c r="C394" s="8" t="s">
         <v>767</v>
       </c>
@@ -18670,12 +18658,12 @@
       </c>
       <c r="E394" s="10"/>
       <c r="F394" s="10"/>
-      <c r="G394" s="36" t="s">
-        <v>960</v>
+      <c r="G394" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="395" spans="1:7" ht="50" customHeight="1">
-      <c r="A395" s="42"/>
+      <c r="A395" s="39"/>
       <c r="C395" s="8" t="s">
         <v>769</v>
       </c>
@@ -18683,15 +18671,15 @@
         <v>770</v>
       </c>
       <c r="E395" s="10" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F395" s="10"/>
-      <c r="G395" s="36" t="s">
-        <v>960</v>
+      <c r="G395" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="396" spans="1:7" ht="50" customHeight="1">
-      <c r="A396" s="42"/>
+      <c r="A396" s="39"/>
       <c r="C396" s="8" t="s">
         <v>771</v>
       </c>
@@ -18700,12 +18688,12 @@
       </c>
       <c r="E396" s="10"/>
       <c r="F396" s="10"/>
-      <c r="G396" s="36" t="s">
-        <v>960</v>
+      <c r="G396" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="50" customHeight="1">
-      <c r="A397" s="42"/>
+      <c r="A397" s="39"/>
       <c r="C397" s="8" t="s">
         <v>773</v>
       </c>
@@ -18714,12 +18702,12 @@
       </c>
       <c r="E397" s="10"/>
       <c r="F397" s="10"/>
-      <c r="G397" s="36" t="s">
-        <v>960</v>
+      <c r="G397" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="50" customHeight="1">
-      <c r="A398" s="42"/>
+      <c r="A398" s="39"/>
       <c r="C398" s="8" t="s">
         <v>775</v>
       </c>
@@ -18728,12 +18716,12 @@
       </c>
       <c r="E398" s="10"/>
       <c r="F398" s="10"/>
-      <c r="G398" s="36" t="s">
-        <v>960</v>
+      <c r="G398" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="399" spans="1:7" ht="50" customHeight="1">
-      <c r="A399" s="42"/>
+      <c r="A399" s="39"/>
       <c r="C399" s="8" t="s">
         <v>777</v>
       </c>
@@ -18741,15 +18729,15 @@
         <v>778</v>
       </c>
       <c r="E399" s="10" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F399" s="10"/>
-      <c r="G399" s="36" t="s">
-        <v>960</v>
+      <c r="G399" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="50" customHeight="1">
-      <c r="A400" s="42"/>
+      <c r="A400" s="39"/>
       <c r="C400" s="8" t="s">
         <v>779</v>
       </c>
@@ -18758,12 +18746,12 @@
       </c>
       <c r="E400" s="10"/>
       <c r="F400" s="10"/>
-      <c r="G400" s="36" t="s">
-        <v>960</v>
+      <c r="G400" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="401" spans="1:7" ht="50" customHeight="1">
-      <c r="A401" s="42"/>
+      <c r="A401" s="39"/>
       <c r="C401" s="8" t="s">
         <v>781</v>
       </c>
@@ -18771,15 +18759,15 @@
         <v>782</v>
       </c>
       <c r="E401" s="10" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F401" s="10"/>
-      <c r="G401" s="36" t="s">
-        <v>960</v>
+      <c r="G401" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="50" customHeight="1">
-      <c r="A402" s="42"/>
+      <c r="A402" s="39"/>
       <c r="C402" s="8" t="s">
         <v>783</v>
       </c>
@@ -18788,12 +18776,12 @@
       </c>
       <c r="E402" s="10"/>
       <c r="F402" s="10"/>
-      <c r="G402" s="36" t="s">
-        <v>960</v>
+      <c r="G402" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="50" customHeight="1">
-      <c r="A403" s="43"/>
+      <c r="A403" s="40"/>
       <c r="C403" s="8" t="s">
         <v>785</v>
       </c>
@@ -18802,8 +18790,8 @@
       </c>
       <c r="E403" s="10"/>
       <c r="F403" s="10"/>
-      <c r="G403" s="36" t="s">
-        <v>960</v>
+      <c r="G403" s="35" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="404" spans="1:7" ht="50" customHeight="1">
@@ -18813,29 +18801,29 @@
       <c r="F404" s="10"/>
     </row>
     <row r="405" spans="1:7" ht="50" customHeight="1">
-      <c r="A405" s="41" t="s">
+      <c r="A405" s="38" t="s">
+        <v>911</v>
+      </c>
+      <c r="B405" s="38" t="s">
         <v>912</v>
       </c>
-      <c r="B405" s="41" t="s">
-        <v>913</v>
-      </c>
-      <c r="C405" s="31" t="s">
+      <c r="C405" s="30" t="s">
         <v>787</v>
       </c>
-      <c r="D405" s="29" t="s">
+      <c r="D405" s="28" t="s">
         <v>788</v>
       </c>
       <c r="E405" s="15" t="s">
-        <v>983</v>
-      </c>
-      <c r="G405" s="33" t="s">
-        <v>917</v>
+        <v>982</v>
+      </c>
+      <c r="G405" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="50" customHeight="1">
-      <c r="A406" s="42"/>
-      <c r="B406" s="42"/>
-      <c r="C406" s="32" t="s">
+      <c r="A406" s="39"/>
+      <c r="B406" s="39"/>
+      <c r="C406" s="31" t="s">
         <v>789</v>
       </c>
       <c r="D406" s="9" t="s">
@@ -18843,14 +18831,14 @@
       </c>
       <c r="E406" s="10"/>
       <c r="F406" s="10"/>
-      <c r="G406" s="33" t="s">
-        <v>917</v>
+      <c r="G406" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="50" customHeight="1">
-      <c r="A407" s="42"/>
-      <c r="B407" s="42"/>
-      <c r="C407" s="32" t="s">
+      <c r="A407" s="39"/>
+      <c r="B407" s="39"/>
+      <c r="C407" s="31" t="s">
         <v>791</v>
       </c>
       <c r="D407" s="9" t="s">
@@ -18858,14 +18846,14 @@
       </c>
       <c r="E407" s="10"/>
       <c r="F407" s="10"/>
-      <c r="G407" s="33" t="s">
-        <v>917</v>
+      <c r="G407" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="408" spans="1:7" ht="50" customHeight="1">
-      <c r="A408" s="42"/>
-      <c r="B408" s="43"/>
-      <c r="C408" s="32" t="s">
+      <c r="A408" s="39"/>
+      <c r="B408" s="40"/>
+      <c r="C408" s="31" t="s">
         <v>793</v>
       </c>
       <c r="D408" s="9" t="s">
@@ -18873,16 +18861,16 @@
       </c>
       <c r="E408" s="10"/>
       <c r="F408" s="10"/>
-      <c r="G408" s="33" t="s">
-        <v>917</v>
+      <c r="G408" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="409" spans="1:7" ht="50" customHeight="1">
-      <c r="A409" s="42"/>
-      <c r="B409" s="41" t="s">
-        <v>914</v>
-      </c>
-      <c r="C409" s="32" t="s">
+      <c r="A409" s="39"/>
+      <c r="B409" s="38" t="s">
+        <v>913</v>
+      </c>
+      <c r="C409" s="31" t="s">
         <v>795</v>
       </c>
       <c r="D409" s="9" t="s">
@@ -18890,14 +18878,14 @@
       </c>
       <c r="E409" s="10"/>
       <c r="F409" s="10"/>
-      <c r="G409" s="33" t="s">
-        <v>917</v>
+      <c r="G409" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="410" spans="1:7" ht="50" customHeight="1">
-      <c r="A410" s="42"/>
-      <c r="B410" s="42"/>
-      <c r="C410" s="32" t="s">
+      <c r="A410" s="39"/>
+      <c r="B410" s="39"/>
+      <c r="C410" s="31" t="s">
         <v>797</v>
       </c>
       <c r="D410" s="9" t="s">
@@ -18905,31 +18893,31 @@
       </c>
       <c r="E410" s="10"/>
       <c r="F410" s="10"/>
-      <c r="G410" s="33" t="s">
-        <v>917</v>
+      <c r="G410" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="50" customHeight="1">
-      <c r="A411" s="42"/>
-      <c r="B411" s="42"/>
-      <c r="C411" s="32" t="s">
+      <c r="A411" s="39"/>
+      <c r="B411" s="39"/>
+      <c r="C411" s="31" t="s">
         <v>799</v>
       </c>
       <c r="D411" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="E411" s="30" t="s">
-        <v>877</v>
-      </c>
-      <c r="F411" s="30"/>
-      <c r="G411" s="33" t="s">
-        <v>917</v>
+      <c r="E411" s="29" t="s">
+        <v>876</v>
+      </c>
+      <c r="F411" s="29"/>
+      <c r="G411" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="50" customHeight="1">
-      <c r="A412" s="42"/>
-      <c r="B412" s="42"/>
-      <c r="C412" s="32" t="s">
+      <c r="A412" s="39"/>
+      <c r="B412" s="39"/>
+      <c r="C412" s="31" t="s">
         <v>801</v>
       </c>
       <c r="D412" s="9" t="s">
@@ -18937,14 +18925,14 @@
       </c>
       <c r="E412" s="10"/>
       <c r="F412" s="10"/>
-      <c r="G412" s="33" t="s">
-        <v>917</v>
+      <c r="G412" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="50" customHeight="1">
-      <c r="A413" s="42"/>
-      <c r="B413" s="42"/>
-      <c r="C413" s="32" t="s">
+      <c r="A413" s="39"/>
+      <c r="B413" s="39"/>
+      <c r="C413" s="31" t="s">
         <v>803</v>
       </c>
       <c r="D413" s="9" t="s">
@@ -18952,14 +18940,14 @@
       </c>
       <c r="E413" s="10"/>
       <c r="F413" s="10"/>
-      <c r="G413" s="33" t="s">
-        <v>917</v>
+      <c r="G413" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="50" customHeight="1">
-      <c r="A414" s="42"/>
-      <c r="B414" s="42"/>
-      <c r="C414" s="32" t="s">
+      <c r="A414" s="39"/>
+      <c r="B414" s="39"/>
+      <c r="C414" s="31" t="s">
         <v>805</v>
       </c>
       <c r="D414" s="9" t="s">
@@ -18967,14 +18955,14 @@
       </c>
       <c r="E414" s="10"/>
       <c r="F414" s="10"/>
-      <c r="G414" s="33" t="s">
-        <v>917</v>
+      <c r="G414" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="415" spans="1:7" ht="50" customHeight="1">
-      <c r="A415" s="42"/>
-      <c r="B415" s="43"/>
-      <c r="C415" s="32" t="s">
+      <c r="A415" s="39"/>
+      <c r="B415" s="40"/>
+      <c r="C415" s="31" t="s">
         <v>807</v>
       </c>
       <c r="D415" s="9" t="s">
@@ -18982,122 +18970,138 @@
       </c>
       <c r="E415" s="10"/>
       <c r="F415" s="10"/>
-      <c r="G415" s="33" t="s">
-        <v>917</v>
+      <c r="G415" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="50" customHeight="1">
-      <c r="A416" s="42"/>
-      <c r="B416" s="41" t="s">
-        <v>915</v>
-      </c>
-      <c r="C416" s="31" t="s">
+      <c r="A416" s="39"/>
+      <c r="B416" s="38" t="s">
+        <v>914</v>
+      </c>
+      <c r="C416" s="30" t="s">
         <v>809</v>
       </c>
       <c r="D416" s="15" t="s">
         <v>810</v>
       </c>
       <c r="E416" s="15" t="s">
-        <v>983</v>
-      </c>
-      <c r="G416" s="33" t="s">
-        <v>917</v>
+        <v>982</v>
+      </c>
+      <c r="G416" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="50" customHeight="1">
-      <c r="A417" s="42"/>
-      <c r="B417" s="43"/>
-      <c r="C417" s="32" t="s">
+      <c r="A417" s="39"/>
+      <c r="B417" s="40"/>
+      <c r="C417" s="31" t="s">
         <v>811</v>
       </c>
       <c r="D417" s="9" t="s">
         <v>812</v>
       </c>
       <c r="E417" s="15" t="s">
-        <v>983</v>
-      </c>
-      <c r="G417" s="33" t="s">
-        <v>917</v>
+        <v>982</v>
+      </c>
+      <c r="G417" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="50" customHeight="1">
-      <c r="A418" s="42"/>
-      <c r="B418" s="41" t="s">
-        <v>916</v>
-      </c>
-      <c r="C418" s="31" t="s">
+      <c r="A418" s="39"/>
+      <c r="B418" s="38" t="s">
+        <v>915</v>
+      </c>
+      <c r="C418" s="30" t="s">
         <v>813</v>
       </c>
       <c r="D418" s="15" t="s">
         <v>814</v>
       </c>
-      <c r="G418" s="33" t="s">
-        <v>917</v>
+      <c r="G418" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="419" spans="1:7" ht="50" customHeight="1">
-      <c r="A419" s="42"/>
-      <c r="B419" s="42"/>
-      <c r="C419" s="31" t="s">
+      <c r="A419" s="39"/>
+      <c r="B419" s="39"/>
+      <c r="C419" s="30" t="s">
         <v>815</v>
       </c>
       <c r="D419" s="15" t="s">
         <v>816</v>
       </c>
-      <c r="G419" s="33" t="s">
-        <v>917</v>
+      <c r="G419" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="420" spans="1:7" ht="50" customHeight="1">
-      <c r="A420" s="42"/>
-      <c r="B420" s="42"/>
-      <c r="C420" s="31" t="s">
+      <c r="A420" s="39"/>
+      <c r="B420" s="39"/>
+      <c r="C420" s="30" t="s">
         <v>817</v>
       </c>
       <c r="D420" s="15" t="s">
         <v>818</v>
       </c>
-      <c r="G420" s="33" t="s">
-        <v>917</v>
+      <c r="G420" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="421" spans="1:7" ht="50" customHeight="1">
-      <c r="A421" s="42"/>
-      <c r="B421" s="42"/>
-      <c r="C421" s="31" t="s">
+      <c r="A421" s="39"/>
+      <c r="B421" s="39"/>
+      <c r="C421" s="30" t="s">
         <v>819</v>
       </c>
       <c r="D421" s="15" t="s">
         <v>820</v>
       </c>
-      <c r="G421" s="33" t="s">
-        <v>917</v>
+      <c r="G421" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="422" spans="1:7" ht="50" customHeight="1">
-      <c r="A422" s="43"/>
-      <c r="B422" s="43"/>
-      <c r="C422" s="31" t="s">
+      <c r="A422" s="40"/>
+      <c r="B422" s="40"/>
+      <c r="C422" s="30" t="s">
         <v>821</v>
       </c>
       <c r="D422" s="15" t="s">
         <v>822</v>
       </c>
-      <c r="G422" s="33" t="s">
-        <v>917</v>
+      <c r="G422" s="32" t="s">
+        <v>916</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B310:B312"/>
-    <mergeCell ref="B313:B315"/>
-    <mergeCell ref="B316:B325"/>
-    <mergeCell ref="B327:B331"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="B233:B234"/>
-    <mergeCell ref="B235:B269"/>
-    <mergeCell ref="B271:B274"/>
-    <mergeCell ref="B275:B307"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B56"/>
+    <mergeCell ref="A36:A56"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A17:A34"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B17:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A58:A70"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A72:A113"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B97"/>
+    <mergeCell ref="B98:B107"/>
+    <mergeCell ref="B108:B113"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="A115:A124"/>
+    <mergeCell ref="B118:B124"/>
+    <mergeCell ref="A126:A149"/>
+    <mergeCell ref="B126:B140"/>
+    <mergeCell ref="B141:B149"/>
     <mergeCell ref="A151:A227"/>
     <mergeCell ref="A229:A331"/>
     <mergeCell ref="A333:A403"/>
@@ -19114,31 +19118,15 @@
     <mergeCell ref="B183:B188"/>
     <mergeCell ref="B189:B223"/>
     <mergeCell ref="B224:B227"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="A115:A124"/>
-    <mergeCell ref="B118:B124"/>
-    <mergeCell ref="A126:A149"/>
-    <mergeCell ref="B126:B140"/>
-    <mergeCell ref="B141:B149"/>
-    <mergeCell ref="A58:A70"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A72:A113"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B97"/>
-    <mergeCell ref="B98:B107"/>
-    <mergeCell ref="B108:B113"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B49:B56"/>
-    <mergeCell ref="A36:A56"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="A17:A34"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B17:B28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B310:B312"/>
+    <mergeCell ref="B313:B315"/>
+    <mergeCell ref="B316:B325"/>
+    <mergeCell ref="B327:B331"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="B235:B269"/>
+    <mergeCell ref="B271:B274"/>
+    <mergeCell ref="B275:B307"/>
   </mergeCells>
   <conditionalFormatting sqref="E327:F327 E307:F308 E321:F325 E128:F128">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -19146,11 +19134,18 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F414E67DA4490F438DF7F839DDD88F54" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="968179862b391a59b7f67eb3e7667402">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fddf207-9565-4c1d-88a2-78ac3eb02019" xmlns:ns3="1750c493-bee6-4013-b7a9-faed7d1eacd9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fc6ea6213b4ec21afdfc08f0704f67a" ns2:_="" ns3:_="">
     <xsd:import namespace="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
@@ -19353,12 +19348,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -19369,6 +19358,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1765E8E-7B87-4E57-AE04-80D6CA061ADD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1750c493-bee6-4013-b7a9-faed7d1eacd9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD5FE2FF-FFA2-4AC8-B9A7-6009CF780188}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19387,23 +19393,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1765E8E-7B87-4E57-AE04-80D6CA061ADD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1750c493-bee6-4013-b7a9-faed7d1eacd9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E6096D8-1CD1-477D-852D-41029505002A}">
   <ds:schemaRefs>

--- a/Carto Icons/POI/PDS_Category_Assignment.xlsx
+++ b/Carto Icons/POI/PDS_Category_Assignment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lembke/Desktop/HERE/GIT/icons-by-here-technologies/Carto Icons/POI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauragar/icons-by-here-technologies/Carto Icons/POI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647384A-FCB8-CE42-8FDF-8FB9691A25F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A1A668-4BAA-1741-B78A-F9930C2910C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{C64EB798-04F6-AE43-9DCC-0EA02E11247A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27760" xr2:uid="{C64EB798-04F6-AE43-9DCC-0EA02E11247A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2508,9 +2506,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 100-1100-0000_coffee-tea.svg</t>
   </si>
   <si>
     <t>PDS Main Category ID</t>
@@ -2535,12 +2530,6 @@
     </r>
   </si>
   <si>
-    <t>100-1000-0009_fast-food.svg</t>
-  </si>
-  <si>
-    <t>100-1000-0000_restaurant.svg</t>
-  </si>
-  <si>
     <t>#HEX</t>
   </si>
   <si>
@@ -2583,36 +2572,9 @@
     <t>Second Level Category ID</t>
   </si>
   <si>
-    <t>200-2200-0000_theatre-music-culture.svg</t>
-  </si>
-  <si>
-    <t>200-2000-0012_night-club.svg</t>
-  </si>
-  <si>
     <t>#E460A2</t>
   </si>
   <si>
-    <t>200-2000-0011_bar-pub.svg</t>
-  </si>
-  <si>
-    <t>200-2000-0014_karaoke.svg</t>
-  </si>
-  <si>
-    <t>200-2000-0016_billiards-pool-hall.svg</t>
-  </si>
-  <si>
-    <t>200-2000-0017_video-arcade-game-room.svg</t>
-  </si>
-  <si>
-    <t>200-2100-0019_cinema.svg</t>
-  </si>
-  <si>
-    <t>200-2300-0000_gambling-lottery-betting.svg</t>
-  </si>
-  <si>
-    <t>700-7400-0133_travel-agent-ticketing.svg</t>
-  </si>
-  <si>
     <t>3000 Landmark-Attraction</t>
   </si>
   <si>
@@ -2643,18 +2605,6 @@
     <t>#B744CB</t>
   </si>
   <si>
-    <t>300-3000-0000_landmark-attraction.svg</t>
-  </si>
-  <si>
-    <t>300-3000-0024_gallery.svg</t>
-  </si>
-  <si>
-    <t>300-3100-0000_museum.svg</t>
-  </si>
-  <si>
-    <t>300-3200-0000_religious-place.svg</t>
-  </si>
-  <si>
     <t>#007650</t>
   </si>
   <si>
@@ -2673,9 +2623,6 @@
     <t>4300 Rest Area</t>
   </si>
   <si>
-    <t>900-9200-0219_marina.svg</t>
-  </si>
-  <si>
     <t>500 Accomodations</t>
   </si>
   <si>
@@ -2694,57 +2641,6 @@
     <t>#174AB9</t>
   </si>
   <si>
-    <t>500-5000-0000_hotel-motel.svg</t>
-  </si>
-  <si>
-    <t>500-5000-0053_hotel.svg</t>
-  </si>
-  <si>
-    <t>500-5100-0000_lodging.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 400-4000-4581_airport.svg</t>
-  </si>
-  <si>
-    <t>400-4100-0035_train-station.svg</t>
-  </si>
-  <si>
-    <t>400-4100-0036_bus-station.svg</t>
-  </si>
-  <si>
-    <t>400-4100-0037_underground-train-subway.svg</t>
-  </si>
-  <si>
-    <t>400-4100-0038_commuter-rail-station.svg</t>
-  </si>
-  <si>
-    <t>400-4100-0044_ferry.svg</t>
-  </si>
-  <si>
-    <t>400-4100-0047_taxi.svg</t>
-  </si>
-  <si>
-    <t>400-4100-0337_lightrail.svg</t>
-  </si>
-  <si>
-    <t>400-4100-0339_monorail.svg</t>
-  </si>
-  <si>
-    <t>400-4100-0326_tollbooth.svg</t>
-  </si>
-  <si>
-    <t>400-4100-0340_aerial-tramway.svg</t>
-  </si>
-  <si>
-    <t>400-4300-0000_rest-area.svg</t>
-  </si>
-  <si>
-    <t>800-8500-0000_parking.svg</t>
-  </si>
-  <si>
-    <t>400-4300-0308_scenic-overlook-rest-area.svg</t>
-  </si>
-  <si>
     <t>550 Leisure and Outdoor</t>
   </si>
   <si>
@@ -2760,18 +2656,6 @@
     <t>#00A167</t>
   </si>
   <si>
-    <t>550-5510-0000_outdoor-recreation.svg</t>
-  </si>
-  <si>
-    <t>550-5520-0208_zoo.svg</t>
-  </si>
-  <si>
-    <t>550-5520-0000_amusement.svg</t>
-  </si>
-  <si>
-    <t>550-5520-0212_ski-resort.svg</t>
-  </si>
-  <si>
     <t>700 Business and Services</t>
   </si>
   <si>
@@ -2832,51 +2716,9 @@
     <t>6950 Hair and Beauty</t>
   </si>
   <si>
-    <t>600-6700-0000_bookstore.svg</t>
-  </si>
-  <si>
-    <t>600-6400-0000_drugstore-pharmacy.svg</t>
-  </si>
-  <si>
     <t>#FB0425</t>
   </si>
   <si>
-    <t>700-7010-0108_atm.svg</t>
-  </si>
-  <si>
-    <t>700-7000-0107_bank.svg</t>
-  </si>
-  <si>
-    <t>700-7300-0111_police-fire-emergency.svg</t>
-  </si>
-  <si>
-    <t>700-7400-0137_laundry.svg</t>
-  </si>
-  <si>
-    <t>700-7450-0114_post.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 700-7460-0115_tourist-information.svg</t>
-  </si>
-  <si>
-    <t>700-7600-0000_fueling-station.svg</t>
-  </si>
-  <si>
-    <t>700-7600-0322_ev-charging-station.svg</t>
-  </si>
-  <si>
-    <t>700-7851-0117_car-rental-agency.svg</t>
-  </si>
-  <si>
-    <t>700-7800-0118_car-sales.svg</t>
-  </si>
-  <si>
-    <t>700-7850-0000_car-repair-service.svg</t>
-  </si>
-  <si>
-    <t>700-7850-0121_car-wash-detailing.svg</t>
-  </si>
-  <si>
     <t>7000 Banking</t>
   </si>
   <si>
@@ -2925,84 +2767,6 @@
     <t>#C18000</t>
   </si>
   <si>
-    <t>800-8000-0000_hospital-health-care-facility.svg</t>
-  </si>
-  <si>
-    <t>800-8100-0000_government-community-facility.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 800-8100-0000_government-community-facility.svg</t>
-  </si>
-  <si>
-    <t>800-8100-0172_border-crossing.svg</t>
-  </si>
-  <si>
-    <t>800-8200-0000_education-facility.svg</t>
-  </si>
-  <si>
-    <t>800-8300-0175_library.svg</t>
-  </si>
-  <si>
-    <t>800-8400-0000_event-spaces.svg</t>
-  </si>
-  <si>
-    <t>800-8500-0177_parking-garage.svg</t>
-  </si>
-  <si>
-    <t>800-8500-0179_park-ride.svg</t>
-  </si>
-  <si>
-    <t>800-8600-0000_sports-facility-venue.svg</t>
-  </si>
-  <si>
-    <t>800-8600-0182_swimming-pool.svg</t>
-  </si>
-  <si>
-    <t>800-8600-0184_bowling-center.svg</t>
-  </si>
-  <si>
-    <t>800-8600-0191_fitness-health-club.svg</t>
-  </si>
-  <si>
-    <t>800-8600-0193_golf-course.svg</t>
-  </si>
-  <si>
-    <t>800-8700-0166_cemetry.svg</t>
-  </si>
-  <si>
-    <t>800-8700-0198_public-restroom-toilets.svg</t>
-  </si>
-  <si>
-    <t>200-2000-0019_beer-garden.svg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 550-5510-0202_park-recreation-area.svg</t>
-  </si>
-  <si>
-    <t>350-3550-0336_natural-geographical.svg</t>
-  </si>
-  <si>
-    <t>600-6100-0062_shopping-mall.svg</t>
-  </si>
-  <si>
-    <t>800-8600-0376_bike-park.svg</t>
-  </si>
-  <si>
-    <t>800-8000-0325_hospital-emergency-room.svg</t>
-  </si>
-  <si>
-    <t>900-9300-0000_building.svg</t>
-  </si>
-  <si>
-    <t>700-7400-0141_business-service.svg</t>
-  </si>
-  <si>
-    <t>000-0000-0000_generic.svg</t>
-  </si>
-  <si>
-    <t>400-4100-0342_inclined-rail.svg</t>
-  </si>
-  <si>
     <t>700-7600-0325</t>
   </si>
   <si>
@@ -3061,6 +2825,240 @@
   </si>
   <si>
     <t>Home Improvement</t>
+  </si>
+  <si>
+    <t>restaurant.svg</t>
+  </si>
+  <si>
+    <t>fast-food.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> coffee-tea.svg</t>
+  </si>
+  <si>
+    <t>coffee-tea.svg</t>
+  </si>
+  <si>
+    <t>night-club.svg</t>
+  </si>
+  <si>
+    <t>bar-pub.svg</t>
+  </si>
+  <si>
+    <t>karaoke.svg</t>
+  </si>
+  <si>
+    <t>billiards-pool-hall.svg</t>
+  </si>
+  <si>
+    <t>video-arcade-game-room.svg</t>
+  </si>
+  <si>
+    <t>beer-garden.svg</t>
+  </si>
+  <si>
+    <t>cinema.svg</t>
+  </si>
+  <si>
+    <t>theatre-music-culture.svg</t>
+  </si>
+  <si>
+    <t>gambling-lottery-betting.svg</t>
+  </si>
+  <si>
+    <t>travel-agent-ticketing.svg</t>
+  </si>
+  <si>
+    <t>landmark-attraction.svg</t>
+  </si>
+  <si>
+    <t>gallery.svg</t>
+  </si>
+  <si>
+    <t>museum.svg</t>
+  </si>
+  <si>
+    <t>religious-place.svg</t>
+  </si>
+  <si>
+    <t>generic.svg</t>
+  </si>
+  <si>
+    <t>marina.svg</t>
+  </si>
+  <si>
+    <t>natural-geographical.svg</t>
+  </si>
+  <si>
+    <t>airport.svg</t>
+  </si>
+  <si>
+    <t>train-station.svg</t>
+  </si>
+  <si>
+    <t>bus-station.svg</t>
+  </si>
+  <si>
+    <t>underground-train-subway.svg</t>
+  </si>
+  <si>
+    <t>commuter-rail-station.svg</t>
+  </si>
+  <si>
+    <t>ferry.svg</t>
+  </si>
+  <si>
+    <t>taxi.svg</t>
+  </si>
+  <si>
+    <t>tollbooth.svg</t>
+  </si>
+  <si>
+    <t>lightrail.svg</t>
+  </si>
+  <si>
+    <t>monorail.svg</t>
+  </si>
+  <si>
+    <t>aerial-tramway.svg</t>
+  </si>
+  <si>
+    <t>inclined-rail.svg</t>
+  </si>
+  <si>
+    <t>rest-area.svg</t>
+  </si>
+  <si>
+    <t>parking.svg</t>
+  </si>
+  <si>
+    <t>scenic-overlook-rest-area.svg</t>
+  </si>
+  <si>
+    <t>hotel-motel.svg</t>
+  </si>
+  <si>
+    <t>hotel.svg</t>
+  </si>
+  <si>
+    <t>lodging.svg</t>
+  </si>
+  <si>
+    <t>outdoor-recreation.svg</t>
+  </si>
+  <si>
+    <t>park-recreation-area.svg</t>
+  </si>
+  <si>
+    <t>amusement.svg</t>
+  </si>
+  <si>
+    <t>zoo.svg</t>
+  </si>
+  <si>
+    <t>ski-resort.svg</t>
+  </si>
+  <si>
+    <t>shopping-mall.svg</t>
+  </si>
+  <si>
+    <t>drugstore-pharmacy.svg</t>
+  </si>
+  <si>
+    <t>bookstore.svg</t>
+  </si>
+  <si>
+    <t>bank.svg</t>
+  </si>
+  <si>
+    <t>atm.svg</t>
+  </si>
+  <si>
+    <t>police-fire-emergency.svg</t>
+  </si>
+  <si>
+    <t>laundry.svg</t>
+  </si>
+  <si>
+    <t>business-service.svg</t>
+  </si>
+  <si>
+    <t>post.svg</t>
+  </si>
+  <si>
+    <t>tourist-information.svg</t>
+  </si>
+  <si>
+    <t>fueling-station.svg</t>
+  </si>
+  <si>
+    <t>ev-charging-station.svg</t>
+  </si>
+  <si>
+    <t>car-sales.svg</t>
+  </si>
+  <si>
+    <t>car-repair-service.svg</t>
+  </si>
+  <si>
+    <t>car-wash-detailing.svg</t>
+  </si>
+  <si>
+    <t>car-rental-agency.svg</t>
+  </si>
+  <si>
+    <t>hospital-health-care-facility.svg</t>
+  </si>
+  <si>
+    <t>hospital-emergency-room.svg</t>
+  </si>
+  <si>
+    <t>government-community-facility.svg</t>
+  </si>
+  <si>
+    <t>border-crossing.svg</t>
+  </si>
+  <si>
+    <t>education-facility.svg</t>
+  </si>
+  <si>
+    <t>library.svg</t>
+  </si>
+  <si>
+    <t>event-spaces.svg</t>
+  </si>
+  <si>
+    <t>parking-garage.svg</t>
+  </si>
+  <si>
+    <t>park-ride.svg</t>
+  </si>
+  <si>
+    <t>sports-facility-venue.svg</t>
+  </si>
+  <si>
+    <t>swimming-pool.svg</t>
+  </si>
+  <si>
+    <t>bowling-center.svg</t>
+  </si>
+  <si>
+    <t>fitness-health-club.svg</t>
+  </si>
+  <si>
+    <t>golf-course.svg</t>
+  </si>
+  <si>
+    <t>bike-park.svg</t>
+  </si>
+  <si>
+    <t>cemetry.svg</t>
+  </si>
+  <si>
+    <t>public-restroom-toilets.svg</t>
+  </si>
+  <si>
+    <t>building.svg</t>
   </si>
 </sst>
 </file>
@@ -3546,6 +3544,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3555,28 +3571,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12538,8 +12536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693BBA9B-95F3-BD4A-928B-DD81DFE8C409}">
   <dimension ref="A1:XFD422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D157" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E420" sqref="E420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="50" customHeight="1" outlineLevelCol="1"/>
@@ -12555,13 +12553,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="50" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -12571,15 +12569,15 @@
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="50" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -12592,15 +12590,15 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="50" customHeight="1">
-      <c r="A3" s="45" t="s">
-        <v>827</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>836</v>
+      <c r="A3" s="48" t="s">
+        <v>826</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>833</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>3</v>
@@ -12609,16 +12607,16 @@
         <v>4</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>830</v>
+        <v>927</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="11" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="50" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
@@ -12626,16 +12624,16 @@
         <v>6</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>830</v>
+        <v>927</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="50" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
@@ -12643,16 +12641,16 @@
         <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>830</v>
+        <v>927</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="11" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="50" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -12660,16 +12658,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>830</v>
+        <v>927</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="50" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
@@ -12677,16 +12675,16 @@
         <v>12</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>830</v>
+        <v>927</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="11" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="50" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
@@ -12694,16 +12692,16 @@
         <v>14</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>830</v>
+        <v>927</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="11" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="50" customHeight="1">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
@@ -12711,16 +12709,16 @@
         <v>16</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>830</v>
+        <v>927</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="11" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="50" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
@@ -12728,16 +12726,16 @@
         <v>18</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>830</v>
+        <v>927</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="11" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="50" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
@@ -12745,17 +12743,17 @@
         <v>20</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>830</v>
+        <v>927</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="11" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="50" customHeight="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45" t="s">
-        <v>837</v>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48" t="s">
+        <v>834</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>21</v>
@@ -12764,16 +12762,16 @@
         <v>22</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>829</v>
+        <v>928</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="11" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="50" customHeight="1">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
@@ -12781,16 +12779,16 @@
         <v>24</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>825</v>
+        <v>929</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="11" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="50" customHeight="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="8" t="s">
         <v>25</v>
       </c>
@@ -12798,16 +12796,16 @@
         <v>26</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>825</v>
+        <v>930</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="11" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="50" customHeight="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
@@ -12815,19 +12813,19 @@
         <v>28</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>825</v>
+        <v>929</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="11" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="50" customHeight="1">
-      <c r="A16" s="44" t="s">
-        <v>834</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>839</v>
+      <c r="A16" s="47" t="s">
+        <v>831</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>836</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>29</v>
@@ -12836,16 +12834,16 @@
         <v>30</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>846</v>
+        <v>931</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="50" customHeight="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="8" t="s">
         <v>31</v>
       </c>
@@ -12853,16 +12851,16 @@
         <v>32</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>848</v>
+        <v>932</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="50" customHeight="1">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="8" t="s">
         <v>33</v>
       </c>
@@ -12870,16 +12868,16 @@
         <v>34</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>846</v>
+        <v>931</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="50" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="8" t="s">
         <v>35</v>
       </c>
@@ -12887,16 +12885,16 @@
         <v>36</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>846</v>
+        <v>931</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="50" customHeight="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="8" t="s">
         <v>37</v>
       </c>
@@ -12904,16 +12902,16 @@
         <v>38</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>849</v>
+        <v>933</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="50" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="8" t="s">
         <v>39</v>
       </c>
@@ -12921,16 +12919,16 @@
         <v>40</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>846</v>
+        <v>931</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="50" customHeight="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="8" t="s">
         <v>41</v>
       </c>
@@ -12938,16 +12936,16 @@
         <v>42</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>850</v>
+        <v>934</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="50" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="8" t="s">
         <v>43</v>
       </c>
@@ -12955,16 +12953,16 @@
         <v>44</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>851</v>
+        <v>935</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="50" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="8" t="s">
         <v>45</v>
       </c>
@@ -12972,16 +12970,16 @@
         <v>46</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>846</v>
+        <v>931</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="50" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="13" t="s">
         <v>47</v>
       </c>
@@ -12989,15 +12987,15 @@
         <v>48</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>975</v>
+        <v>936</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="50" customHeight="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="8" t="s">
         <v>49</v>
       </c>
@@ -13005,16 +13003,16 @@
         <v>50</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>846</v>
+        <v>931</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="50" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="8" t="s">
         <v>51</v>
       </c>
@@ -13022,17 +13020,17 @@
         <v>52</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>848</v>
+        <v>932</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="50" customHeight="1">
-      <c r="A28" s="44"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="14" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>53</v>
@@ -13041,17 +13039,17 @@
         <v>54</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>852</v>
+        <v>937</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="50" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44" t="s">
-        <v>841</v>
+      <c r="A29" s="47"/>
+      <c r="B29" s="47" t="s">
+        <v>838</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>55</v>
@@ -13060,16 +13058,16 @@
         <v>56</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>845</v>
+        <v>938</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="50" customHeight="1">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="8" t="s">
         <v>57</v>
       </c>
@@ -13077,17 +13075,17 @@
         <v>58</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>845</v>
+        <v>938</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="50" customHeight="1">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44" t="s">
-        <v>842</v>
+      <c r="A31" s="47"/>
+      <c r="B31" s="47" t="s">
+        <v>839</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>59</v>
@@ -13096,16 +13094,16 @@
         <v>60</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>853</v>
+        <v>939</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="50" customHeight="1">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="8" t="s">
         <v>61</v>
       </c>
@@ -13113,16 +13111,16 @@
         <v>62</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>853</v>
+        <v>939</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="50" customHeight="1">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="8" t="s">
         <v>63</v>
       </c>
@@ -13130,19 +13128,19 @@
         <v>64</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>854</v>
+        <v>940</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="12" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="50" customHeight="1">
-      <c r="A34" s="41" t="s">
-        <v>838</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>855</v>
+      <c r="A34" s="38" t="s">
+        <v>835</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>843</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>65</v>
@@ -13151,16 +13149,16 @@
         <v>66</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>865</v>
+        <v>941</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="50" customHeight="1">
-      <c r="A35" s="42"/>
-      <c r="B35" s="44"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="8" t="s">
         <v>67</v>
       </c>
@@ -13168,16 +13166,16 @@
         <v>68</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>865</v>
+        <v>941</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="50" customHeight="1">
-      <c r="A36" s="42"/>
-      <c r="B36" s="44"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="8" t="s">
         <v>69</v>
       </c>
@@ -13185,16 +13183,16 @@
         <v>70</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>866</v>
+        <v>942</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="50" customHeight="1">
-      <c r="A37" s="42"/>
-      <c r="B37" s="44"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="8" t="s">
         <v>71</v>
       </c>
@@ -13202,16 +13200,16 @@
         <v>72</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>865</v>
+        <v>941</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="50" customHeight="1">
-      <c r="A38" s="42"/>
-      <c r="B38" s="44"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="8" t="s">
         <v>73</v>
       </c>
@@ -13221,12 +13219,12 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="50" customHeight="1">
-      <c r="A39" s="42"/>
-      <c r="B39" s="44"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="8" t="s">
         <v>75</v>
       </c>
@@ -13236,12 +13234,12 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="50" customHeight="1">
-      <c r="A40" s="42"/>
-      <c r="B40" s="44"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="8" t="s">
         <v>77</v>
       </c>
@@ -13251,12 +13249,12 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="50" customHeight="1">
-      <c r="A41" s="42"/>
-      <c r="B41" s="44"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="8" t="s">
         <v>79</v>
       </c>
@@ -13264,17 +13262,17 @@
         <v>80</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>865</v>
+        <v>941</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="50" customHeight="1">
-      <c r="A42" s="42"/>
-      <c r="B42" s="44" t="s">
-        <v>856</v>
+      <c r="A42" s="39"/>
+      <c r="B42" s="47" t="s">
+        <v>844</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>81</v>
@@ -13283,16 +13281,16 @@
         <v>82</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>867</v>
+        <v>943</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="50" customHeight="1">
-      <c r="A43" s="42"/>
-      <c r="B43" s="44"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="8" t="s">
         <v>83</v>
       </c>
@@ -13300,16 +13298,16 @@
         <v>84</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>867</v>
+        <v>943</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="50" customHeight="1">
-      <c r="A44" s="42"/>
-      <c r="B44" s="44"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="8" t="s">
         <v>85</v>
       </c>
@@ -13317,16 +13315,16 @@
         <v>86</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>867</v>
+        <v>943</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="50" customHeight="1">
-      <c r="A45" s="42"/>
-      <c r="B45" s="44"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="8" t="s">
         <v>87</v>
       </c>
@@ -13334,16 +13332,16 @@
         <v>88</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>867</v>
+        <v>943</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="50" customHeight="1">
-      <c r="A46" s="42"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="8" t="s">
         <v>89</v>
       </c>
@@ -13351,17 +13349,17 @@
         <v>90</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>867</v>
+        <v>943</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="50" customHeight="1">
-      <c r="A47" s="42"/>
-      <c r="B47" s="38" t="s">
-        <v>857</v>
+      <c r="A47" s="39"/>
+      <c r="B47" s="44" t="s">
+        <v>845</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>91</v>
@@ -13370,16 +13368,16 @@
         <v>92</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>868</v>
+        <v>944</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="50" customHeight="1">
-      <c r="A48" s="42"/>
-      <c r="B48" s="39"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="8" t="s">
         <v>93</v>
       </c>
@@ -13387,16 +13385,16 @@
         <v>94</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>868</v>
+        <v>944</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="49" spans="1:16384" ht="50" customHeight="1">
-      <c r="A49" s="42"/>
-      <c r="B49" s="39"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="8" t="s">
         <v>95</v>
       </c>
@@ -13404,16 +13402,16 @@
         <v>96</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>868</v>
+        <v>944</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="50" spans="1:16384" ht="50" customHeight="1">
-      <c r="A50" s="42"/>
-      <c r="B50" s="39"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="8" t="s">
         <v>97</v>
       </c>
@@ -13421,16 +13419,16 @@
         <v>98</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>868</v>
+        <v>944</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="51" spans="1:16384" ht="50" customHeight="1">
-      <c r="A51" s="42"/>
-      <c r="B51" s="39"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="8" t="s">
         <v>99</v>
       </c>
@@ -13438,16 +13436,16 @@
         <v>100</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>868</v>
+        <v>944</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="52" spans="1:16384" ht="50" customHeight="1">
-      <c r="A52" s="42"/>
-      <c r="B52" s="39"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="8" t="s">
         <v>101</v>
       </c>
@@ -13455,26 +13453,26 @@
         <v>102</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>868</v>
+        <v>944</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="53" spans="1:16384" ht="50" customHeight="1">
-      <c r="A53" s="42"/>
-      <c r="B53" s="39"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>997</v>
+        <v>919</v>
       </c>
       <c r="E53" s="34"/>
       <c r="F53" s="34"/>
       <c r="G53" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="H53" s="34"/>
       <c r="I53" s="34"/>
@@ -29855,8 +29853,8 @@
       <c r="XFD53" s="34"/>
     </row>
     <row r="54" spans="1:16384" ht="50" customHeight="1">
-      <c r="A54" s="42"/>
-      <c r="B54" s="39"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="8" t="s">
         <v>103</v>
       </c>
@@ -29864,16 +29862,16 @@
         <v>104</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>868</v>
+        <v>944</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="55" spans="1:16384" ht="50" customHeight="1">
-      <c r="A55" s="42"/>
-      <c r="B55" s="39"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="8" t="s">
         <v>105</v>
       </c>
@@ -29881,34 +29879,34 @@
         <v>106</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>868</v>
+        <v>944</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="56" spans="1:16384" ht="50" customHeight="1">
-      <c r="A56" s="43"/>
-      <c r="B56" s="40"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="35" t="s">
-        <v>998</v>
+        <v>920</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>999</v>
+        <v>921</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="18" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
     </row>
     <row r="57" spans="1:16384" ht="50" customHeight="1">
-      <c r="A57" s="41" t="s">
-        <v>858</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>859</v>
+      <c r="A57" s="38" t="s">
+        <v>846</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>847</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>107</v>
@@ -29917,16 +29915,16 @@
         <v>108</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>983</v>
+        <v>945</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="19" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
     <row r="58" spans="1:16384" ht="50" customHeight="1">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="8" t="s">
         <v>109</v>
       </c>
@@ -29936,12 +29934,12 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="19" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
     <row r="59" spans="1:16384" ht="50" customHeight="1">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
       <c r="C59" s="8" t="s">
         <v>111</v>
       </c>
@@ -29951,12 +29949,12 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="19" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
     <row r="60" spans="1:16384" ht="50" customHeight="1">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
       <c r="C60" s="8" t="s">
         <v>113</v>
       </c>
@@ -29964,16 +29962,16 @@
         <v>114</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>875</v>
+        <v>946</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="19" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
     <row r="61" spans="1:16384" ht="50" customHeight="1">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
       <c r="C61" s="8" t="s">
         <v>115</v>
       </c>
@@ -29983,12 +29981,12 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="19" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
     <row r="62" spans="1:16384" ht="50" customHeight="1">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="8" t="s">
         <v>117</v>
       </c>
@@ -29998,12 +29996,12 @@
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="19" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
     <row r="63" spans="1:16384" ht="50" customHeight="1">
-      <c r="A63" s="42"/>
-      <c r="B63" s="43"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="8" t="s">
         <v>119</v>
       </c>
@@ -30013,13 +30011,13 @@
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="19" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
     <row r="64" spans="1:16384" ht="50" customHeight="1">
-      <c r="A64" s="42"/>
-      <c r="B64" s="41" t="s">
-        <v>860</v>
+      <c r="A64" s="39"/>
+      <c r="B64" s="38" t="s">
+        <v>848</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>121</v>
@@ -30028,16 +30026,16 @@
         <v>122</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>977</v>
+        <v>947</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="19" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="50" customHeight="1">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="8" t="s">
         <v>123</v>
       </c>
@@ -30045,16 +30043,16 @@
         <v>124</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>983</v>
+        <v>945</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="19" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="50" customHeight="1">
-      <c r="A66" s="42"/>
-      <c r="B66" s="43"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="8" t="s">
         <v>125</v>
       </c>
@@ -30062,17 +30060,17 @@
         <v>126</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>977</v>
+        <v>947</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="19" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="50" customHeight="1">
-      <c r="A67" s="42"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="14" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>127</v>
@@ -30083,13 +30081,13 @@
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
       <c r="G67" s="19" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="50" customHeight="1">
-      <c r="A68" s="42"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="14" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>129</v>
@@ -30098,17 +30096,17 @@
         <v>130</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>977</v>
+        <v>947</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="19" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="50" customHeight="1">
-      <c r="A69" s="43"/>
+      <c r="A69" s="40"/>
       <c r="B69" s="14" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>131</v>
@@ -30117,19 +30115,19 @@
         <v>132</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>977</v>
+        <v>947</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="19" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="50" customHeight="1">
-      <c r="A70" s="41" t="s">
-        <v>870</v>
-      </c>
-      <c r="B70" s="41" t="s">
-        <v>872</v>
+      <c r="A70" s="38" t="s">
+        <v>854</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>856</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>133</v>
@@ -30138,16 +30136,16 @@
         <v>134</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>885</v>
+        <v>948</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="50" customHeight="1">
-      <c r="A71" s="42"/>
-      <c r="B71" s="42"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="8" t="s">
         <v>135</v>
       </c>
@@ -30155,16 +30153,16 @@
         <v>136</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>885</v>
+        <v>948</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="50" customHeight="1">
-      <c r="A72" s="42"/>
-      <c r="B72" s="43"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="8" t="s">
         <v>137</v>
       </c>
@@ -30172,17 +30170,17 @@
         <v>138</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>885</v>
+        <v>948</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="50" customHeight="1">
-      <c r="A73" s="42"/>
-      <c r="B73" s="41" t="s">
-        <v>871</v>
+      <c r="A73" s="39"/>
+      <c r="B73" s="38" t="s">
+        <v>855</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>139</v>
@@ -30191,16 +30189,16 @@
         <v>140</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>886</v>
+        <v>949</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="50" customHeight="1">
-      <c r="A74" s="42"/>
-      <c r="B74" s="42"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
       <c r="C74" s="8" t="s">
         <v>141</v>
       </c>
@@ -30208,16 +30206,16 @@
         <v>142</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>887</v>
+        <v>950</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="50" customHeight="1">
-      <c r="A75" s="42"/>
-      <c r="B75" s="42"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="8" t="s">
         <v>143</v>
       </c>
@@ -30225,16 +30223,16 @@
         <v>144</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>888</v>
+        <v>951</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="50" customHeight="1">
-      <c r="A76" s="42"/>
-      <c r="B76" s="42"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="8" t="s">
         <v>145</v>
       </c>
@@ -30242,16 +30240,16 @@
         <v>146</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>889</v>
+        <v>952</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="50" customHeight="1">
-      <c r="A77" s="42"/>
-      <c r="B77" s="42"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="8" t="s">
         <v>147</v>
       </c>
@@ -30259,16 +30257,16 @@
         <v>148</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>889</v>
+        <v>952</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="50" customHeight="1">
-      <c r="A78" s="42"/>
-      <c r="B78" s="42"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="8" t="s">
         <v>149</v>
       </c>
@@ -30278,12 +30276,12 @@
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
       <c r="G78" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="50" customHeight="1">
-      <c r="A79" s="42"/>
-      <c r="B79" s="42"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="8" t="s">
         <v>151</v>
       </c>
@@ -30293,12 +30291,12 @@
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
       <c r="G79" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="50" customHeight="1">
-      <c r="A80" s="42"/>
-      <c r="B80" s="42"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="8" t="s">
         <v>153</v>
       </c>
@@ -30306,16 +30304,16 @@
         <v>154</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>887</v>
+        <v>950</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="50" customHeight="1">
-      <c r="A81" s="42"/>
-      <c r="B81" s="42"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="8" t="s">
         <v>155</v>
       </c>
@@ -30325,12 +30323,12 @@
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="50" customHeight="1">
-      <c r="A82" s="42"/>
-      <c r="B82" s="42"/>
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
       <c r="C82" s="8" t="s">
         <v>157</v>
       </c>
@@ -30338,16 +30336,16 @@
         <v>158</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>890</v>
+        <v>953</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="50" customHeight="1">
-      <c r="A83" s="42"/>
-      <c r="B83" s="42"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="8" t="s">
         <v>159</v>
       </c>
@@ -30355,16 +30353,16 @@
         <v>160</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>890</v>
+        <v>953</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="50" customHeight="1">
-      <c r="A84" s="42"/>
-      <c r="B84" s="42"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
       <c r="C84" s="8" t="s">
         <v>161</v>
       </c>
@@ -30372,16 +30370,16 @@
         <v>162</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>890</v>
+        <v>953</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="50" customHeight="1">
-      <c r="A85" s="42"/>
-      <c r="B85" s="42"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
       <c r="C85" s="8" t="s">
         <v>163</v>
       </c>
@@ -30389,19 +30387,19 @@
         <v>164</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>891</v>
+        <v>954</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
       <c r="I85" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="50" customHeight="1">
-      <c r="A86" s="42"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="8" t="s">
         <v>165</v>
       </c>
@@ -30411,12 +30409,12 @@
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
       <c r="G86" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="50" customHeight="1">
-      <c r="A87" s="42"/>
-      <c r="B87" s="42"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="39"/>
       <c r="C87" s="8" t="s">
         <v>167</v>
       </c>
@@ -30424,16 +30422,16 @@
         <v>168</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>894</v>
+        <v>955</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="50" customHeight="1">
-      <c r="A88" s="42"/>
-      <c r="B88" s="42"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
       <c r="C88" s="8" t="s">
         <v>169</v>
       </c>
@@ -30441,16 +30439,16 @@
         <v>170</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>892</v>
+        <v>956</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="50" customHeight="1">
-      <c r="A89" s="42"/>
-      <c r="B89" s="42"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="8" t="s">
         <v>171</v>
       </c>
@@ -30460,12 +30458,12 @@
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
       <c r="G89" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="50" customHeight="1">
-      <c r="A90" s="42"/>
-      <c r="B90" s="42"/>
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
       <c r="C90" s="8" t="s">
         <v>173</v>
       </c>
@@ -30473,16 +30471,16 @@
         <v>174</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>893</v>
+        <v>957</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="50" customHeight="1">
-      <c r="A91" s="42"/>
-      <c r="B91" s="42"/>
+      <c r="A91" s="39"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="8" t="s">
         <v>175</v>
       </c>
@@ -30490,16 +30488,16 @@
         <v>176</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>895</v>
+        <v>958</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="50" customHeight="1">
-      <c r="A92" s="42"/>
-      <c r="B92" s="42"/>
+      <c r="A92" s="39"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="8" t="s">
         <v>177</v>
       </c>
@@ -30509,12 +30507,12 @@
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
       <c r="G92" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="50" customHeight="1">
-      <c r="A93" s="42"/>
-      <c r="B93" s="42"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="39"/>
       <c r="C93" s="8" t="s">
         <v>179</v>
       </c>
@@ -30522,16 +30520,16 @@
         <v>180</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>984</v>
+        <v>959</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="50" customHeight="1">
-      <c r="A94" s="42"/>
-      <c r="B94" s="42"/>
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="8" t="s">
         <v>181</v>
       </c>
@@ -30541,12 +30539,12 @@
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
       <c r="G94" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="50" customHeight="1">
-      <c r="A95" s="42"/>
-      <c r="B95" s="43"/>
+      <c r="A95" s="39"/>
+      <c r="B95" s="40"/>
       <c r="C95" s="8" t="s">
         <v>183</v>
       </c>
@@ -30556,13 +30554,13 @@
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
       <c r="G95" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="50" customHeight="1">
-      <c r="A96" s="42"/>
-      <c r="B96" s="41" t="s">
-        <v>873</v>
+      <c r="A96" s="39"/>
+      <c r="B96" s="38" t="s">
+        <v>857</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>185</v>
@@ -30573,12 +30571,12 @@
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
       <c r="G96" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="50" customHeight="1">
-      <c r="A97" s="42"/>
-      <c r="B97" s="42"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
       <c r="C97" s="8" t="s">
         <v>187</v>
       </c>
@@ -30588,12 +30586,12 @@
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
       <c r="G97" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="50" customHeight="1">
-      <c r="A98" s="42"/>
-      <c r="B98" s="42"/>
+      <c r="A98" s="39"/>
+      <c r="B98" s="39"/>
       <c r="C98" s="8" t="s">
         <v>189</v>
       </c>
@@ -30603,12 +30601,12 @@
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
       <c r="G98" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="50" customHeight="1">
-      <c r="A99" s="42"/>
-      <c r="B99" s="42"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="39"/>
       <c r="C99" s="8" t="s">
         <v>191</v>
       </c>
@@ -30618,12 +30616,12 @@
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
       <c r="G99" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="50" customHeight="1">
-      <c r="A100" s="42"/>
-      <c r="B100" s="42"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="39"/>
       <c r="C100" s="8" t="s">
         <v>193</v>
       </c>
@@ -30633,12 +30631,12 @@
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
       <c r="G100" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="50" customHeight="1">
-      <c r="A101" s="42"/>
-      <c r="B101" s="42"/>
+      <c r="A101" s="39"/>
+      <c r="B101" s="39"/>
       <c r="C101" s="8" t="s">
         <v>195</v>
       </c>
@@ -30648,12 +30646,12 @@
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
       <c r="G101" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="50" customHeight="1">
-      <c r="A102" s="42"/>
-      <c r="B102" s="42"/>
+      <c r="A102" s="39"/>
+      <c r="B102" s="39"/>
       <c r="C102" s="8" t="s">
         <v>197</v>
       </c>
@@ -30663,12 +30661,12 @@
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
       <c r="G102" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="50" customHeight="1">
-      <c r="A103" s="42"/>
-      <c r="B103" s="42"/>
+      <c r="A103" s="39"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="8" t="s">
         <v>199</v>
       </c>
@@ -30678,12 +30676,12 @@
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
       <c r="G103" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="50" customHeight="1">
-      <c r="A104" s="42"/>
-      <c r="B104" s="42"/>
+      <c r="A104" s="39"/>
+      <c r="B104" s="39"/>
       <c r="C104" s="8" t="s">
         <v>201</v>
       </c>
@@ -30693,12 +30691,12 @@
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
       <c r="G104" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="50" customHeight="1">
-      <c r="A105" s="42"/>
-      <c r="B105" s="43"/>
+      <c r="A105" s="39"/>
+      <c r="B105" s="40"/>
       <c r="C105" s="8" t="s">
         <v>203</v>
       </c>
@@ -30708,13 +30706,13 @@
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
       <c r="G105" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="50" customHeight="1">
-      <c r="A106" s="42"/>
-      <c r="B106" s="41" t="s">
-        <v>874</v>
+      <c r="A106" s="39"/>
+      <c r="B106" s="38" t="s">
+        <v>858</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>205</v>
@@ -30723,16 +30721,16 @@
         <v>206</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>896</v>
+        <v>960</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="20" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="50" customHeight="1">
-      <c r="A107" s="42"/>
-      <c r="B107" s="42"/>
+      <c r="A107" s="39"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="8" t="s">
         <v>207</v>
       </c>
@@ -30740,16 +30738,16 @@
         <v>208</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>896</v>
+        <v>960</v>
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="20" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="50" customHeight="1">
-      <c r="A108" s="42"/>
-      <c r="B108" s="42"/>
+      <c r="A108" s="39"/>
+      <c r="B108" s="39"/>
       <c r="C108" s="8" t="s">
         <v>209</v>
       </c>
@@ -30757,16 +30755,16 @@
         <v>210</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>896</v>
+        <v>960</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="20" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="50" customHeight="1">
-      <c r="A109" s="42"/>
-      <c r="B109" s="42"/>
+      <c r="A109" s="39"/>
+      <c r="B109" s="39"/>
       <c r="C109" s="8" t="s">
         <v>211</v>
       </c>
@@ -30774,16 +30772,16 @@
         <v>212</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>897</v>
+        <v>961</v>
       </c>
       <c r="F109" s="10"/>
       <c r="G109" s="20" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="50" customHeight="1">
-      <c r="A110" s="42"/>
-      <c r="B110" s="42"/>
+      <c r="A110" s="39"/>
+      <c r="B110" s="39"/>
       <c r="C110" s="8" t="s">
         <v>213</v>
       </c>
@@ -30791,16 +30789,16 @@
         <v>214</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>896</v>
+        <v>960</v>
       </c>
       <c r="F110" s="10"/>
       <c r="G110" s="20" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="50" customHeight="1">
-      <c r="A111" s="43"/>
-      <c r="B111" s="43"/>
+      <c r="A111" s="40"/>
+      <c r="B111" s="40"/>
       <c r="C111" s="8" t="s">
         <v>215</v>
       </c>
@@ -30808,19 +30806,19 @@
         <v>216</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>898</v>
+        <v>962</v>
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="20" t="s">
-        <v>879</v>
+        <v>862</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="50" customHeight="1">
-      <c r="A112" s="41" t="s">
-        <v>876</v>
-      </c>
-      <c r="B112" s="41" t="s">
-        <v>877</v>
+      <c r="A112" s="38" t="s">
+        <v>859</v>
+      </c>
+      <c r="B112" s="38" t="s">
+        <v>860</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>217</v>
@@ -30829,16 +30827,16 @@
         <v>218</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>882</v>
+        <v>963</v>
       </c>
       <c r="F112" s="10"/>
       <c r="G112" s="22" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="50" customHeight="1">
-      <c r="A113" s="42"/>
-      <c r="B113" s="42"/>
+      <c r="A113" s="39"/>
+      <c r="B113" s="39"/>
       <c r="C113" s="8" t="s">
         <v>219</v>
       </c>
@@ -30846,16 +30844,16 @@
         <v>220</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>883</v>
+        <v>964</v>
       </c>
       <c r="F113" s="10"/>
       <c r="G113" s="22" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="50" customHeight="1">
-      <c r="A114" s="42"/>
-      <c r="B114" s="43"/>
+      <c r="A114" s="39"/>
+      <c r="B114" s="40"/>
       <c r="C114" s="8" t="s">
         <v>221</v>
       </c>
@@ -30863,17 +30861,17 @@
         <v>222</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>882</v>
+        <v>963</v>
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="22" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="50" customHeight="1">
-      <c r="A115" s="42"/>
-      <c r="B115" s="38" t="s">
-        <v>878</v>
+      <c r="A115" s="39"/>
+      <c r="B115" s="44" t="s">
+        <v>861</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>223</v>
@@ -30882,16 +30880,16 @@
         <v>224</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>884</v>
+        <v>965</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="22" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="50" customHeight="1">
-      <c r="A116" s="42"/>
-      <c r="B116" s="39"/>
+      <c r="A116" s="39"/>
+      <c r="B116" s="45"/>
       <c r="C116" s="8" t="s">
         <v>225</v>
       </c>
@@ -30899,16 +30897,16 @@
         <v>226</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>882</v>
+        <v>963</v>
       </c>
       <c r="F116" s="10"/>
       <c r="G116" s="22" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="50" customHeight="1">
-      <c r="A117" s="42"/>
-      <c r="B117" s="39"/>
+      <c r="A117" s="39"/>
+      <c r="B117" s="45"/>
       <c r="C117" s="8" t="s">
         <v>227</v>
       </c>
@@ -30916,16 +30914,16 @@
         <v>228</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>884</v>
+        <v>965</v>
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="22" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="50" customHeight="1">
-      <c r="A118" s="42"/>
-      <c r="B118" s="39"/>
+      <c r="A118" s="39"/>
+      <c r="B118" s="45"/>
       <c r="C118" s="8" t="s">
         <v>229</v>
       </c>
@@ -30933,16 +30931,16 @@
         <v>230</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>882</v>
+        <v>963</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="22" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="50" customHeight="1">
-      <c r="A119" s="42"/>
-      <c r="B119" s="39"/>
+      <c r="A119" s="39"/>
+      <c r="B119" s="45"/>
       <c r="C119" s="8" t="s">
         <v>231</v>
       </c>
@@ -30950,16 +30948,16 @@
         <v>232</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>882</v>
+        <v>963</v>
       </c>
       <c r="F119" s="10"/>
       <c r="G119" s="22" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="50" customHeight="1">
-      <c r="A120" s="42"/>
-      <c r="B120" s="39"/>
+      <c r="A120" s="39"/>
+      <c r="B120" s="45"/>
       <c r="C120" s="8" t="s">
         <v>233</v>
       </c>
@@ -30967,16 +30965,16 @@
         <v>234</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>884</v>
+        <v>965</v>
       </c>
       <c r="F120" s="10"/>
       <c r="G120" s="22" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="50" customHeight="1">
-      <c r="A121" s="42"/>
-      <c r="B121" s="39"/>
+      <c r="A121" s="39"/>
+      <c r="B121" s="45"/>
       <c r="C121" s="8" t="s">
         <v>235</v>
       </c>
@@ -30984,34 +30982,34 @@
         <v>236</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>882</v>
+        <v>963</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="22" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="50" customHeight="1">
       <c r="A122" s="17"/>
-      <c r="B122" s="39"/>
+      <c r="B122" s="45"/>
       <c r="C122" s="35" t="s">
-        <v>995</v>
+        <v>917</v>
       </c>
       <c r="D122" s="36" t="s">
-        <v>996</v>
+        <v>918</v>
       </c>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
       <c r="G122" s="22" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="50" customHeight="1">
-      <c r="A123" s="42" t="s">
-        <v>899</v>
-      </c>
-      <c r="B123" s="42" t="s">
-        <v>900</v>
+      <c r="A123" s="39" t="s">
+        <v>865</v>
+      </c>
+      <c r="B123" s="39" t="s">
+        <v>866</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>237</v>
@@ -31020,16 +31018,16 @@
         <v>238</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>904</v>
+        <v>966</v>
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="50" customHeight="1">
-      <c r="A124" s="42"/>
-      <c r="B124" s="42"/>
+      <c r="A124" s="39"/>
+      <c r="B124" s="39"/>
       <c r="C124" s="8" t="s">
         <v>239</v>
       </c>
@@ -31037,16 +31035,16 @@
         <v>240</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="50" customHeight="1">
-      <c r="A125" s="42"/>
-      <c r="B125" s="42"/>
+      <c r="A125" s="39"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="8" t="s">
         <v>241</v>
       </c>
@@ -31056,12 +31054,12 @@
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
       <c r="G125" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="50" customHeight="1">
-      <c r="A126" s="42"/>
-      <c r="B126" s="42"/>
+      <c r="A126" s="39"/>
+      <c r="B126" s="39"/>
       <c r="C126" s="8" t="s">
         <v>243</v>
       </c>
@@ -31069,16 +31067,16 @@
         <v>244</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>904</v>
+        <v>966</v>
       </c>
       <c r="F126" s="10"/>
       <c r="G126" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="50" customHeight="1">
-      <c r="A127" s="42"/>
-      <c r="B127" s="42"/>
+      <c r="A127" s="39"/>
+      <c r="B127" s="39"/>
       <c r="C127" s="8" t="s">
         <v>245</v>
       </c>
@@ -31086,16 +31084,16 @@
         <v>246</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>904</v>
+        <v>966</v>
       </c>
       <c r="F127" s="10"/>
       <c r="G127" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="50" customHeight="1">
-      <c r="A128" s="42"/>
-      <c r="B128" s="42"/>
+      <c r="A128" s="39"/>
+      <c r="B128" s="39"/>
       <c r="C128" s="8" t="s">
         <v>247</v>
       </c>
@@ -31105,12 +31103,12 @@
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
       <c r="G128" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="50" customHeight="1">
-      <c r="A129" s="42"/>
-      <c r="B129" s="42"/>
+      <c r="A129" s="39"/>
+      <c r="B129" s="39"/>
       <c r="C129" s="8" t="s">
         <v>249</v>
       </c>
@@ -31120,12 +31118,12 @@
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
       <c r="G129" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="50" customHeight="1">
-      <c r="A130" s="42"/>
-      <c r="B130" s="42"/>
+      <c r="A130" s="39"/>
+      <c r="B130" s="39"/>
       <c r="C130" s="8" t="s">
         <v>251</v>
       </c>
@@ -31133,16 +31131,16 @@
         <v>252</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>898</v>
+        <v>962</v>
       </c>
       <c r="F130" s="10"/>
       <c r="G130" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="50" customHeight="1">
-      <c r="A131" s="42"/>
-      <c r="B131" s="42"/>
+      <c r="A131" s="39"/>
+      <c r="B131" s="39"/>
       <c r="C131" s="8" t="s">
         <v>253</v>
       </c>
@@ -31152,12 +31150,12 @@
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
       <c r="G131" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="50" customHeight="1">
-      <c r="A132" s="42"/>
-      <c r="B132" s="42"/>
+      <c r="A132" s="39"/>
+      <c r="B132" s="39"/>
       <c r="C132" s="8" t="s">
         <v>255</v>
       </c>
@@ -31167,12 +31165,12 @@
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
       <c r="G132" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="50" customHeight="1">
-      <c r="A133" s="42"/>
-      <c r="B133" s="42"/>
+      <c r="A133" s="39"/>
+      <c r="B133" s="39"/>
       <c r="C133" s="8" t="s">
         <v>257</v>
       </c>
@@ -31182,12 +31180,12 @@
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
       <c r="G133" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="50" customHeight="1">
-      <c r="A134" s="42"/>
-      <c r="B134" s="42"/>
+      <c r="A134" s="39"/>
+      <c r="B134" s="39"/>
       <c r="C134" s="8" t="s">
         <v>259</v>
       </c>
@@ -31195,16 +31193,16 @@
         <v>260</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>884</v>
+        <v>965</v>
       </c>
       <c r="F134" s="10"/>
       <c r="G134" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="50" customHeight="1">
-      <c r="A135" s="42"/>
-      <c r="B135" s="42"/>
+      <c r="A135" s="39"/>
+      <c r="B135" s="39"/>
       <c r="C135" s="8" t="s">
         <v>261</v>
       </c>
@@ -31214,12 +31212,12 @@
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
       <c r="G135" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="50" customHeight="1">
-      <c r="A136" s="42"/>
-      <c r="B136" s="42"/>
+      <c r="A136" s="39"/>
+      <c r="B136" s="39"/>
       <c r="C136" s="8" t="s">
         <v>263</v>
       </c>
@@ -31229,12 +31227,12 @@
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
       <c r="G136" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="50" customHeight="1">
-      <c r="A137" s="42"/>
-      <c r="B137" s="43"/>
+      <c r="A137" s="39"/>
+      <c r="B137" s="40"/>
       <c r="C137" s="8" t="s">
         <v>265</v>
       </c>
@@ -31244,13 +31242,13 @@
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
       <c r="G137" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="50" customHeight="1">
-      <c r="A138" s="42"/>
-      <c r="B138" s="41" t="s">
-        <v>901</v>
+      <c r="A138" s="39"/>
+      <c r="B138" s="38" t="s">
+        <v>867</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>267</v>
@@ -31259,16 +31257,16 @@
         <v>268</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>906</v>
+        <v>968</v>
       </c>
       <c r="F138" s="10"/>
       <c r="G138" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="50" customHeight="1">
-      <c r="A139" s="42"/>
-      <c r="B139" s="42"/>
+      <c r="A139" s="39"/>
+      <c r="B139" s="39"/>
       <c r="C139" s="8" t="s">
         <v>269</v>
       </c>
@@ -31276,16 +31274,16 @@
         <v>270</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>906</v>
+        <v>968</v>
       </c>
       <c r="F139" s="10"/>
       <c r="G139" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="50" customHeight="1">
-      <c r="A140" s="42"/>
-      <c r="B140" s="42"/>
+      <c r="A140" s="39"/>
+      <c r="B140" s="39"/>
       <c r="C140" s="8" t="s">
         <v>271</v>
       </c>
@@ -31293,16 +31291,16 @@
         <v>272</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>905</v>
+        <v>969</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="50" customHeight="1">
-      <c r="A141" s="42"/>
-      <c r="B141" s="42"/>
+      <c r="A141" s="39"/>
+      <c r="B141" s="39"/>
       <c r="C141" s="8" t="s">
         <v>273</v>
       </c>
@@ -31312,12 +31310,12 @@
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
       <c r="G141" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="50" customHeight="1">
-      <c r="A142" s="42"/>
-      <c r="B142" s="42"/>
+      <c r="A142" s="39"/>
+      <c r="B142" s="39"/>
       <c r="C142" s="8" t="s">
         <v>275</v>
       </c>
@@ -31327,12 +31325,12 @@
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
       <c r="G142" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="50" customHeight="1">
-      <c r="A143" s="42"/>
-      <c r="B143" s="42"/>
+      <c r="A143" s="39"/>
+      <c r="B143" s="39"/>
       <c r="C143" s="8" t="s">
         <v>277</v>
       </c>
@@ -31342,12 +31340,12 @@
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
       <c r="G143" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="50" customHeight="1">
-      <c r="A144" s="42"/>
-      <c r="B144" s="42"/>
+      <c r="A144" s="39"/>
+      <c r="B144" s="39"/>
       <c r="C144" s="8" t="s">
         <v>279</v>
       </c>
@@ -31355,16 +31353,16 @@
         <v>280</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>907</v>
+        <v>970</v>
       </c>
       <c r="F144" s="10"/>
       <c r="G144" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="50" customHeight="1">
-      <c r="A145" s="42"/>
-      <c r="B145" s="42"/>
+      <c r="A145" s="39"/>
+      <c r="B145" s="39"/>
       <c r="C145" s="8" t="s">
         <v>281</v>
       </c>
@@ -31372,16 +31370,16 @@
         <v>282</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>905</v>
+        <v>969</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="50" customHeight="1">
-      <c r="A146" s="43"/>
-      <c r="B146" s="43"/>
+      <c r="A146" s="40"/>
+      <c r="B146" s="40"/>
       <c r="C146" s="8" t="s">
         <v>283</v>
       </c>
@@ -31390,15 +31388,15 @@
       </c>
       <c r="E146" s="10"/>
       <c r="G146" s="23" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="50" customHeight="1">
-      <c r="A147" s="41" t="s">
-        <v>902</v>
+      <c r="A147" s="38" t="s">
+        <v>868</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>917</v>
+        <v>879</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>285</v>
@@ -31407,17 +31405,17 @@
         <v>286</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="F147" s="10"/>
       <c r="G147" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="50" customHeight="1">
-      <c r="A148" s="42"/>
+      <c r="A148" s="39"/>
       <c r="B148" s="14" t="s">
-        <v>918</v>
+        <v>880</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>287</v>
@@ -31426,17 +31424,17 @@
         <v>288</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="F148" s="10"/>
       <c r="G148" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="50" customHeight="1">
-      <c r="A149" s="42"/>
+      <c r="A149" s="39"/>
       <c r="B149" s="14" t="s">
-        <v>919</v>
+        <v>881</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>289</v>
@@ -31445,17 +31443,17 @@
         <v>290</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="F149" s="10"/>
       <c r="G149" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="50" customHeight="1">
-      <c r="A150" s="42"/>
-      <c r="B150" s="46" t="s">
-        <v>920</v>
+      <c r="A150" s="39"/>
+      <c r="B150" s="41" t="s">
+        <v>882</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>291</v>
@@ -31466,12 +31464,12 @@
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
       <c r="G150" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="50" customHeight="1">
-      <c r="A151" s="42"/>
-      <c r="B151" s="47"/>
+      <c r="A151" s="39"/>
+      <c r="B151" s="42"/>
       <c r="C151" s="8" t="s">
         <v>293</v>
       </c>
@@ -31479,16 +31477,16 @@
         <v>294</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="F151" s="10"/>
       <c r="G151" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="50" customHeight="1">
-      <c r="A152" s="42"/>
-      <c r="B152" s="47"/>
+      <c r="A152" s="39"/>
+      <c r="B152" s="42"/>
       <c r="C152" s="8" t="s">
         <v>295</v>
       </c>
@@ -31498,12 +31496,12 @@
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
       <c r="G152" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="50" customHeight="1">
-      <c r="A153" s="42"/>
-      <c r="B153" s="47"/>
+      <c r="A153" s="39"/>
+      <c r="B153" s="42"/>
       <c r="C153" s="8" t="s">
         <v>297</v>
       </c>
@@ -31513,12 +31511,12 @@
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
       <c r="G153" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="50" customHeight="1">
-      <c r="A154" s="42"/>
-      <c r="B154" s="47"/>
+      <c r="A154" s="39"/>
+      <c r="B154" s="42"/>
       <c r="C154" s="8" t="s">
         <v>299</v>
       </c>
@@ -31528,12 +31526,12 @@
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
       <c r="G154" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="50" customHeight="1">
-      <c r="A155" s="42"/>
-      <c r="B155" s="47"/>
+      <c r="A155" s="39"/>
+      <c r="B155" s="42"/>
       <c r="C155" s="8" t="s">
         <v>301</v>
       </c>
@@ -31543,27 +31541,27 @@
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
       <c r="G155" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="50" customHeight="1">
-      <c r="A156" s="42"/>
-      <c r="B156" s="47"/>
+      <c r="A156" s="39"/>
+      <c r="B156" s="42"/>
       <c r="C156" s="35" t="s">
-        <v>993</v>
+        <v>915</v>
       </c>
       <c r="D156" s="36" t="s">
-        <v>994</v>
+        <v>916</v>
       </c>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
       <c r="G156" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="50" customHeight="1">
-      <c r="A157" s="42"/>
-      <c r="B157" s="47"/>
+      <c r="A157" s="39"/>
+      <c r="B157" s="42"/>
       <c r="C157" s="8" t="s">
         <v>303</v>
       </c>
@@ -31573,12 +31571,12 @@
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
       <c r="G157" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="50" customHeight="1">
-      <c r="A158" s="42"/>
-      <c r="B158" s="48"/>
+      <c r="A158" s="39"/>
+      <c r="B158" s="43"/>
       <c r="C158" s="8" t="s">
         <v>305</v>
       </c>
@@ -31586,17 +31584,17 @@
         <v>306</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="50" customHeight="1">
-      <c r="A159" s="42"/>
-      <c r="B159" s="41" t="s">
-        <v>921</v>
+      <c r="A159" s="39"/>
+      <c r="B159" s="38" t="s">
+        <v>883</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>307</v>
@@ -31605,16 +31603,16 @@
         <v>308</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>929</v>
+        <v>972</v>
       </c>
       <c r="F159" s="10"/>
       <c r="G159" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="50" customHeight="1">
-      <c r="A160" s="42"/>
-      <c r="B160" s="42"/>
+      <c r="A160" s="39"/>
+      <c r="B160" s="39"/>
       <c r="C160" s="8" t="s">
         <v>309</v>
       </c>
@@ -31622,16 +31620,16 @@
         <v>310</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>929</v>
+        <v>972</v>
       </c>
       <c r="F160" s="10"/>
       <c r="G160" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="50" customHeight="1">
-      <c r="A161" s="42"/>
-      <c r="B161" s="43"/>
+      <c r="A161" s="39"/>
+      <c r="B161" s="40"/>
       <c r="C161" s="8" t="s">
         <v>311</v>
       </c>
@@ -31639,17 +31637,17 @@
         <v>312</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>929</v>
+        <v>972</v>
       </c>
       <c r="F161" s="10"/>
       <c r="G161" s="30" t="s">
-        <v>930</v>
+        <v>890</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="50" customHeight="1">
-      <c r="A162" s="42"/>
-      <c r="B162" s="41" t="s">
-        <v>922</v>
+      <c r="A162" s="39"/>
+      <c r="B162" s="38" t="s">
+        <v>884</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>313</v>
@@ -31660,12 +31658,12 @@
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
       <c r="G162" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="50" customHeight="1">
-      <c r="A163" s="42"/>
-      <c r="B163" s="42"/>
+      <c r="A163" s="39"/>
+      <c r="B163" s="39"/>
       <c r="C163" s="8" t="s">
         <v>315</v>
       </c>
@@ -31675,12 +31673,12 @@
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
       <c r="G163" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="50" customHeight="1">
-      <c r="A164" s="42"/>
-      <c r="B164" s="42"/>
+      <c r="A164" s="39"/>
+      <c r="B164" s="39"/>
       <c r="C164" s="8" t="s">
         <v>317</v>
       </c>
@@ -31690,12 +31688,12 @@
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
       <c r="G164" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="50" customHeight="1">
-      <c r="A165" s="42"/>
-      <c r="B165" s="42"/>
+      <c r="A165" s="39"/>
+      <c r="B165" s="39"/>
       <c r="C165" s="8" t="s">
         <v>319</v>
       </c>
@@ -31705,12 +31703,12 @@
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
       <c r="G165" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="50" customHeight="1">
-      <c r="A166" s="42"/>
-      <c r="B166" s="43"/>
+      <c r="A166" s="39"/>
+      <c r="B166" s="40"/>
       <c r="C166" s="13" t="s">
         <v>321</v>
       </c>
@@ -31718,13 +31716,13 @@
         <v>322</v>
       </c>
       <c r="G166" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="50" customHeight="1">
-      <c r="A167" s="42"/>
-      <c r="B167" s="41" t="s">
-        <v>923</v>
+      <c r="A167" s="39"/>
+      <c r="B167" s="38" t="s">
+        <v>885</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>323</v>
@@ -31735,27 +31733,27 @@
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
       <c r="G167" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="50" customHeight="1">
-      <c r="A168" s="42"/>
-      <c r="B168" s="42"/>
+      <c r="A168" s="39"/>
+      <c r="B168" s="39"/>
       <c r="C168" s="8" t="s">
         <v>325</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>1004</v>
+        <v>926</v>
       </c>
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
       <c r="G168" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="50" customHeight="1">
-      <c r="A169" s="42"/>
-      <c r="B169" s="42"/>
+      <c r="A169" s="39"/>
+      <c r="B169" s="39"/>
       <c r="C169" s="8" t="s">
         <v>326</v>
       </c>
@@ -31765,12 +31763,12 @@
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
       <c r="G169" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="50" customHeight="1">
-      <c r="A170" s="42"/>
-      <c r="B170" s="42"/>
+      <c r="A170" s="39"/>
+      <c r="B170" s="39"/>
       <c r="C170" s="8" t="s">
         <v>328</v>
       </c>
@@ -31780,12 +31778,12 @@
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
       <c r="G170" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="50" customHeight="1">
-      <c r="A171" s="42"/>
-      <c r="B171" s="42"/>
+      <c r="A171" s="39"/>
+      <c r="B171" s="39"/>
       <c r="C171" s="8" t="s">
         <v>330</v>
       </c>
@@ -31795,12 +31793,12 @@
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
       <c r="G171" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="50" customHeight="1">
-      <c r="A172" s="42"/>
-      <c r="B172" s="42"/>
+      <c r="A172" s="39"/>
+      <c r="B172" s="39"/>
       <c r="C172" s="8" t="s">
         <v>332</v>
       </c>
@@ -31810,12 +31808,12 @@
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
       <c r="G172" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="50" customHeight="1">
-      <c r="A173" s="42"/>
-      <c r="B173" s="42"/>
+      <c r="A173" s="39"/>
+      <c r="B173" s="39"/>
       <c r="C173" s="8" t="s">
         <v>334</v>
       </c>
@@ -31825,12 +31823,12 @@
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
       <c r="G173" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="50" customHeight="1">
-      <c r="A174" s="42"/>
-      <c r="B174" s="42"/>
+      <c r="A174" s="39"/>
+      <c r="B174" s="39"/>
       <c r="C174" s="8" t="s">
         <v>336</v>
       </c>
@@ -31840,12 +31838,12 @@
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
       <c r="G174" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="50" customHeight="1">
-      <c r="A175" s="42"/>
-      <c r="B175" s="42"/>
+      <c r="A175" s="39"/>
+      <c r="B175" s="39"/>
       <c r="C175" s="8" t="s">
         <v>338</v>
       </c>
@@ -31855,12 +31853,12 @@
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
       <c r="G175" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="50" customHeight="1">
-      <c r="A176" s="42"/>
-      <c r="B176" s="42"/>
+      <c r="A176" s="39"/>
+      <c r="B176" s="39"/>
       <c r="C176" s="8" t="s">
         <v>340</v>
       </c>
@@ -31870,12 +31868,12 @@
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
       <c r="G176" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="50" customHeight="1">
-      <c r="A177" s="42"/>
-      <c r="B177" s="43"/>
+      <c r="A177" s="39"/>
+      <c r="B177" s="40"/>
       <c r="C177" s="8" t="s">
         <v>342</v>
       </c>
@@ -31885,13 +31883,13 @@
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
       <c r="G177" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="50" customHeight="1">
-      <c r="A178" s="42"/>
-      <c r="B178" s="41" t="s">
-        <v>924</v>
+      <c r="A178" s="39"/>
+      <c r="B178" s="38" t="s">
+        <v>886</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>344</v>
@@ -31900,16 +31898,16 @@
         <v>345</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>928</v>
+        <v>973</v>
       </c>
       <c r="F178" s="10"/>
       <c r="G178" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="50" customHeight="1">
-      <c r="A179" s="42"/>
-      <c r="B179" s="43"/>
+      <c r="A179" s="39"/>
+      <c r="B179" s="40"/>
       <c r="C179" s="8" t="s">
         <v>346</v>
       </c>
@@ -31917,17 +31915,17 @@
         <v>347</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>928</v>
+        <v>973</v>
       </c>
       <c r="F179" s="10"/>
       <c r="G179" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="50" customHeight="1">
-      <c r="A180" s="42"/>
-      <c r="B180" s="41" t="s">
-        <v>925</v>
+      <c r="A180" s="39"/>
+      <c r="B180" s="38" t="s">
+        <v>887</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>348</v>
@@ -31938,12 +31936,12 @@
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
       <c r="G180" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="50" customHeight="1">
-      <c r="A181" s="42"/>
-      <c r="B181" s="42"/>
+      <c r="A181" s="39"/>
+      <c r="B181" s="39"/>
       <c r="C181" s="8" t="s">
         <v>350</v>
       </c>
@@ -31953,12 +31951,12 @@
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
       <c r="G181" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="50" customHeight="1">
-      <c r="A182" s="42"/>
-      <c r="B182" s="42"/>
+      <c r="A182" s="39"/>
+      <c r="B182" s="39"/>
       <c r="C182" s="8" t="s">
         <v>352</v>
       </c>
@@ -31968,12 +31966,12 @@
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
       <c r="G182" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="50" customHeight="1">
-      <c r="A183" s="42"/>
-      <c r="B183" s="42"/>
+      <c r="A183" s="39"/>
+      <c r="B183" s="39"/>
       <c r="C183" s="8" t="s">
         <v>354</v>
       </c>
@@ -31983,12 +31981,12 @@
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
       <c r="G183" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="50" customHeight="1">
-      <c r="A184" s="42"/>
-      <c r="B184" s="42"/>
+      <c r="A184" s="39"/>
+      <c r="B184" s="39"/>
       <c r="C184" s="8" t="s">
         <v>356</v>
       </c>
@@ -31998,12 +31996,12 @@
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
       <c r="G184" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="50" customHeight="1">
-      <c r="A185" s="42"/>
-      <c r="B185" s="43"/>
+      <c r="A185" s="39"/>
+      <c r="B185" s="40"/>
       <c r="C185" s="8" t="s">
         <v>358</v>
       </c>
@@ -32013,13 +32011,13 @@
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
       <c r="G185" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="50" customHeight="1">
-      <c r="A186" s="42"/>
-      <c r="B186" s="41" t="s">
-        <v>926</v>
+      <c r="A186" s="39"/>
+      <c r="B186" s="38" t="s">
+        <v>888</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>360</v>
@@ -32028,16 +32026,16 @@
         <v>361</v>
       </c>
       <c r="E186" s="32" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="F186" s="33"/>
       <c r="G186" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="50" customHeight="1">
-      <c r="A187" s="42"/>
-      <c r="B187" s="42"/>
+      <c r="A187" s="39"/>
+      <c r="B187" s="39"/>
       <c r="C187" s="8" t="s">
         <v>362</v>
       </c>
@@ -32047,12 +32045,12 @@
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
       <c r="G187" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="50" customHeight="1">
-      <c r="A188" s="42"/>
-      <c r="B188" s="42"/>
+      <c r="A188" s="39"/>
+      <c r="B188" s="39"/>
       <c r="C188" s="8" t="s">
         <v>364</v>
       </c>
@@ -32060,16 +32058,16 @@
         <v>365</v>
       </c>
       <c r="E188" s="32" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="50" customHeight="1">
-      <c r="A189" s="42"/>
-      <c r="B189" s="42"/>
+      <c r="A189" s="39"/>
+      <c r="B189" s="39"/>
       <c r="C189" s="8" t="s">
         <v>366</v>
       </c>
@@ -32077,16 +32075,16 @@
         <v>367</v>
       </c>
       <c r="E189" s="32" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="50" customHeight="1">
-      <c r="A190" s="42"/>
-      <c r="B190" s="42"/>
+      <c r="A190" s="39"/>
+      <c r="B190" s="39"/>
       <c r="C190" s="8" t="s">
         <v>368</v>
       </c>
@@ -32096,12 +32094,12 @@
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
       <c r="G190" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="50" customHeight="1">
-      <c r="A191" s="42"/>
-      <c r="B191" s="42"/>
+      <c r="A191" s="39"/>
+      <c r="B191" s="39"/>
       <c r="C191" s="8" t="s">
         <v>370</v>
       </c>
@@ -32109,16 +32107,16 @@
         <v>371</v>
       </c>
       <c r="E191" s="32" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="50" customHeight="1">
-      <c r="A192" s="42"/>
-      <c r="B192" s="42"/>
+      <c r="A192" s="39"/>
+      <c r="B192" s="39"/>
       <c r="C192" s="8" t="s">
         <v>372</v>
       </c>
@@ -32126,16 +32124,16 @@
         <v>373</v>
       </c>
       <c r="E192" s="32" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="193" spans="1:16384" ht="50" customHeight="1">
-      <c r="A193" s="42"/>
-      <c r="B193" s="42"/>
+      <c r="A193" s="39"/>
+      <c r="B193" s="39"/>
       <c r="C193" s="8" t="s">
         <v>374</v>
       </c>
@@ -32143,16 +32141,16 @@
         <v>375</v>
       </c>
       <c r="E193" s="32" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="F193" s="33"/>
       <c r="G193" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="194" spans="1:16384" ht="50" customHeight="1">
-      <c r="A194" s="42"/>
-      <c r="B194" s="42"/>
+      <c r="A194" s="39"/>
+      <c r="B194" s="39"/>
       <c r="C194" s="8" t="s">
         <v>376</v>
       </c>
@@ -32162,12 +32160,12 @@
       <c r="E194" s="10"/>
       <c r="F194" s="10"/>
       <c r="G194" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="195" spans="1:16384" ht="50" customHeight="1">
-      <c r="A195" s="42"/>
-      <c r="B195" s="42"/>
+      <c r="A195" s="39"/>
+      <c r="B195" s="39"/>
       <c r="C195" s="8" t="s">
         <v>378</v>
       </c>
@@ -32175,16 +32173,16 @@
         <v>379</v>
       </c>
       <c r="E195" s="32" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="F195" s="33"/>
       <c r="G195" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="196" spans="1:16384" ht="50" customHeight="1">
-      <c r="A196" s="42"/>
-      <c r="B196" s="42"/>
+      <c r="A196" s="39"/>
+      <c r="B196" s="39"/>
       <c r="C196" s="8" t="s">
         <v>380</v>
       </c>
@@ -32194,12 +32192,12 @@
       <c r="E196" s="10"/>
       <c r="F196" s="10"/>
       <c r="G196" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="197" spans="1:16384" ht="50" customHeight="1">
-      <c r="A197" s="42"/>
-      <c r="B197" s="42"/>
+      <c r="A197" s="39"/>
+      <c r="B197" s="39"/>
       <c r="C197" s="8" t="s">
         <v>382</v>
       </c>
@@ -32209,12 +32207,12 @@
       <c r="E197" s="10"/>
       <c r="F197" s="10"/>
       <c r="G197" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="198" spans="1:16384" ht="50" customHeight="1">
-      <c r="A198" s="42"/>
-      <c r="B198" s="42"/>
+      <c r="A198" s="39"/>
+      <c r="B198" s="39"/>
       <c r="C198" s="8" t="s">
         <v>384</v>
       </c>
@@ -32224,37 +32222,37 @@
       <c r="E198" s="10"/>
       <c r="F198" s="10"/>
       <c r="G198" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="199" spans="1:16384" ht="50" customHeight="1">
-      <c r="A199" s="42"/>
-      <c r="B199" s="42"/>
+      <c r="A199" s="39"/>
+      <c r="B199" s="39"/>
       <c r="C199" s="35" t="s">
-        <v>989</v>
+        <v>911</v>
       </c>
       <c r="D199" s="36" t="s">
-        <v>990</v>
+        <v>912</v>
       </c>
       <c r="E199" s="37"/>
       <c r="F199" s="37"/>
       <c r="G199" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="200" spans="1:16384" ht="50" customHeight="1">
-      <c r="A200" s="42"/>
-      <c r="B200" s="42"/>
+      <c r="A200" s="39"/>
+      <c r="B200" s="39"/>
       <c r="C200" s="35" t="s">
-        <v>991</v>
+        <v>913</v>
       </c>
       <c r="D200" s="36" t="s">
-        <v>992</v>
+        <v>914</v>
       </c>
       <c r="E200" s="35"/>
       <c r="F200" s="35"/>
       <c r="G200" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
       <c r="H200" s="35"/>
       <c r="I200" s="35"/>
@@ -48635,8 +48633,8 @@
       <c r="XFD200" s="35"/>
     </row>
     <row r="201" spans="1:16384" ht="50" customHeight="1">
-      <c r="A201" s="42"/>
-      <c r="B201" s="42"/>
+      <c r="A201" s="39"/>
+      <c r="B201" s="39"/>
       <c r="C201" s="8" t="s">
         <v>386</v>
       </c>
@@ -48646,12 +48644,12 @@
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
       <c r="G201" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="202" spans="1:16384" ht="50" customHeight="1">
-      <c r="A202" s="42"/>
-      <c r="B202" s="42"/>
+      <c r="A202" s="39"/>
+      <c r="B202" s="39"/>
       <c r="C202" s="8" t="s">
         <v>388</v>
       </c>
@@ -48659,16 +48657,16 @@
         <v>389</v>
       </c>
       <c r="E202" s="32" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="F202" s="33"/>
       <c r="G202" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="203" spans="1:16384" ht="50" customHeight="1">
-      <c r="A203" s="42"/>
-      <c r="B203" s="42"/>
+      <c r="A203" s="39"/>
+      <c r="B203" s="39"/>
       <c r="C203" s="8" t="s">
         <v>390</v>
       </c>
@@ -48678,12 +48676,12 @@
       <c r="E203" s="10"/>
       <c r="F203" s="10"/>
       <c r="G203" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="204" spans="1:16384" ht="50" customHeight="1">
-      <c r="A204" s="42"/>
-      <c r="B204" s="42"/>
+      <c r="A204" s="39"/>
+      <c r="B204" s="39"/>
       <c r="C204" s="8" t="s">
         <v>392</v>
       </c>
@@ -48691,16 +48689,16 @@
         <v>393</v>
       </c>
       <c r="E204" s="32" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="F204" s="33"/>
       <c r="G204" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="205" spans="1:16384" ht="50" customHeight="1">
-      <c r="A205" s="42"/>
-      <c r="B205" s="42"/>
+      <c r="A205" s="39"/>
+      <c r="B205" s="39"/>
       <c r="C205" s="8" t="s">
         <v>394</v>
       </c>
@@ -48710,12 +48708,12 @@
       <c r="E205" s="10"/>
       <c r="F205" s="10"/>
       <c r="G205" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="206" spans="1:16384" ht="50" customHeight="1">
-      <c r="A206" s="42"/>
-      <c r="B206" s="42"/>
+      <c r="A206" s="39"/>
+      <c r="B206" s="39"/>
       <c r="C206" s="8" t="s">
         <v>396</v>
       </c>
@@ -48725,12 +48723,12 @@
       <c r="E206" s="10"/>
       <c r="F206" s="10"/>
       <c r="G206" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="207" spans="1:16384" ht="50" customHeight="1">
-      <c r="A207" s="42"/>
-      <c r="B207" s="42"/>
+      <c r="A207" s="39"/>
+      <c r="B207" s="39"/>
       <c r="C207" s="8" t="s">
         <v>398</v>
       </c>
@@ -48740,12 +48738,12 @@
       <c r="E207" s="10"/>
       <c r="F207" s="10"/>
       <c r="G207" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="208" spans="1:16384" ht="50" customHeight="1">
-      <c r="A208" s="42"/>
-      <c r="B208" s="42"/>
+      <c r="A208" s="39"/>
+      <c r="B208" s="39"/>
       <c r="C208" s="8" t="s">
         <v>400</v>
       </c>
@@ -48755,12 +48753,12 @@
       <c r="E208" s="10"/>
       <c r="F208" s="10"/>
       <c r="G208" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="50" customHeight="1">
-      <c r="A209" s="42"/>
-      <c r="B209" s="42"/>
+      <c r="A209" s="39"/>
+      <c r="B209" s="39"/>
       <c r="C209" s="8" t="s">
         <v>402</v>
       </c>
@@ -48770,12 +48768,12 @@
       <c r="E209" s="10"/>
       <c r="F209" s="10"/>
       <c r="G209" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="50" customHeight="1">
-      <c r="A210" s="42"/>
-      <c r="B210" s="42"/>
+      <c r="A210" s="39"/>
+      <c r="B210" s="39"/>
       <c r="C210" s="8" t="s">
         <v>404</v>
       </c>
@@ -48785,12 +48783,12 @@
       <c r="E210" s="10"/>
       <c r="F210" s="10"/>
       <c r="G210" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="50" customHeight="1">
-      <c r="A211" s="42"/>
-      <c r="B211" s="42"/>
+      <c r="A211" s="39"/>
+      <c r="B211" s="39"/>
       <c r="C211" s="8" t="s">
         <v>406</v>
       </c>
@@ -48800,12 +48798,12 @@
       <c r="E211" s="10"/>
       <c r="F211" s="10"/>
       <c r="G211" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="50" customHeight="1">
-      <c r="A212" s="42"/>
-      <c r="B212" s="42"/>
+      <c r="A212" s="39"/>
+      <c r="B212" s="39"/>
       <c r="C212" s="8" t="s">
         <v>408</v>
       </c>
@@ -48815,12 +48813,12 @@
       <c r="E212" s="10"/>
       <c r="F212" s="10"/>
       <c r="G212" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="50" customHeight="1">
-      <c r="A213" s="42"/>
-      <c r="B213" s="42"/>
+      <c r="A213" s="39"/>
+      <c r="B213" s="39"/>
       <c r="C213" s="8" t="s">
         <v>410</v>
       </c>
@@ -48830,12 +48828,12 @@
       <c r="E213" s="10"/>
       <c r="F213" s="10"/>
       <c r="G213" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="50" customHeight="1">
-      <c r="A214" s="42"/>
-      <c r="B214" s="42"/>
+      <c r="A214" s="39"/>
+      <c r="B214" s="39"/>
       <c r="C214" s="8" t="s">
         <v>412</v>
       </c>
@@ -48845,12 +48843,12 @@
       <c r="E214" s="10"/>
       <c r="F214" s="10"/>
       <c r="G214" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="50" customHeight="1">
-      <c r="A215" s="42"/>
-      <c r="B215" s="42"/>
+      <c r="A215" s="39"/>
+      <c r="B215" s="39"/>
       <c r="C215" s="8" t="s">
         <v>414</v>
       </c>
@@ -48860,12 +48858,12 @@
       <c r="E215" s="10"/>
       <c r="F215" s="10"/>
       <c r="G215" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="50" customHeight="1">
-      <c r="A216" s="42"/>
-      <c r="B216" s="42"/>
+      <c r="A216" s="39"/>
+      <c r="B216" s="39"/>
       <c r="C216" s="8" t="s">
         <v>416</v>
       </c>
@@ -48875,12 +48873,12 @@
       <c r="E216" s="10"/>
       <c r="F216" s="10"/>
       <c r="G216" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="50" customHeight="1">
-      <c r="A217" s="42"/>
-      <c r="B217" s="42"/>
+      <c r="A217" s="39"/>
+      <c r="B217" s="39"/>
       <c r="C217" s="8" t="s">
         <v>418</v>
       </c>
@@ -48890,12 +48888,12 @@
       <c r="E217" s="10"/>
       <c r="F217" s="10"/>
       <c r="G217" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="50" customHeight="1">
-      <c r="A218" s="42"/>
-      <c r="B218" s="42"/>
+      <c r="A218" s="39"/>
+      <c r="B218" s="39"/>
       <c r="C218" s="8" t="s">
         <v>420</v>
       </c>
@@ -48905,12 +48903,12 @@
       <c r="E218" s="10"/>
       <c r="F218" s="10"/>
       <c r="G218" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="50" customHeight="1">
-      <c r="A219" s="42"/>
-      <c r="B219" s="42"/>
+      <c r="A219" s="39"/>
+      <c r="B219" s="39"/>
       <c r="C219" s="8" t="s">
         <v>422</v>
       </c>
@@ -48920,12 +48918,12 @@
       <c r="E219" s="10"/>
       <c r="F219" s="10"/>
       <c r="G219" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="50" customHeight="1">
-      <c r="A220" s="42"/>
-      <c r="B220" s="42"/>
+      <c r="A220" s="39"/>
+      <c r="B220" s="39"/>
       <c r="C220" s="8" t="s">
         <v>424</v>
       </c>
@@ -48935,12 +48933,12 @@
       <c r="E220" s="10"/>
       <c r="F220" s="10"/>
       <c r="G220" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="50" customHeight="1">
-      <c r="A221" s="42"/>
-      <c r="B221" s="42"/>
+      <c r="A221" s="39"/>
+      <c r="B221" s="39"/>
       <c r="C221" s="8" t="s">
         <v>426</v>
       </c>
@@ -48950,12 +48948,12 @@
       <c r="E221" s="10"/>
       <c r="F221" s="10"/>
       <c r="G221" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="50" customHeight="1">
-      <c r="A222" s="42"/>
-      <c r="B222" s="43"/>
+      <c r="A222" s="39"/>
+      <c r="B222" s="40"/>
       <c r="C222" s="8" t="s">
         <v>428</v>
       </c>
@@ -48965,13 +48963,13 @@
       <c r="E222" s="10"/>
       <c r="F222" s="10"/>
       <c r="G222" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="50" customHeight="1">
-      <c r="A223" s="42"/>
-      <c r="B223" s="41" t="s">
-        <v>927</v>
+      <c r="A223" s="39"/>
+      <c r="B223" s="38" t="s">
+        <v>889</v>
       </c>
       <c r="C223" s="13" t="s">
         <v>430</v>
@@ -48980,12 +48978,12 @@
         <v>431</v>
       </c>
       <c r="G223" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="50" customHeight="1">
-      <c r="A224" s="42"/>
-      <c r="B224" s="42"/>
+      <c r="A224" s="39"/>
+      <c r="B224" s="39"/>
       <c r="C224" s="13" t="s">
         <v>432</v>
       </c>
@@ -48996,12 +48994,12 @@
         <v>824</v>
       </c>
       <c r="G224" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="50" customHeight="1">
-      <c r="A225" s="42"/>
-      <c r="B225" s="42"/>
+      <c r="A225" s="39"/>
+      <c r="B225" s="39"/>
       <c r="C225" s="13" t="s">
         <v>434</v>
       </c>
@@ -49009,12 +49007,12 @@
         <v>435</v>
       </c>
       <c r="G225" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="50" customHeight="1">
-      <c r="A226" s="43"/>
-      <c r="B226" s="43"/>
+      <c r="A226" s="40"/>
+      <c r="B226" s="40"/>
       <c r="C226" s="13" t="s">
         <v>436</v>
       </c>
@@ -49022,15 +49020,15 @@
         <v>437</v>
       </c>
       <c r="G226" s="29" t="s">
-        <v>916</v>
+        <v>878</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="50" customHeight="1">
-      <c r="A227" s="41" t="s">
-        <v>908</v>
+      <c r="A227" s="38" t="s">
+        <v>870</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>943</v>
+        <v>891</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>438</v>
@@ -49039,17 +49037,17 @@
         <v>439</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>932</v>
+        <v>974</v>
       </c>
       <c r="F227" s="10"/>
       <c r="G227" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="50" customHeight="1">
-      <c r="A228" s="42"/>
+      <c r="A228" s="39"/>
       <c r="B228" s="14" t="s">
-        <v>944</v>
+        <v>892</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>440</v>
@@ -49058,17 +49056,17 @@
         <v>441</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>931</v>
+        <v>975</v>
       </c>
       <c r="F228" s="10"/>
       <c r="G228" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="50" customHeight="1">
-      <c r="A229" s="42"/>
-      <c r="B229" s="41" t="s">
-        <v>945</v>
+      <c r="A229" s="39"/>
+      <c r="B229" s="38" t="s">
+        <v>893</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>442</v>
@@ -49077,16 +49075,16 @@
         <v>443</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>932</v>
+        <v>974</v>
       </c>
       <c r="F229" s="10"/>
       <c r="G229" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="50" customHeight="1">
-      <c r="A230" s="42"/>
-      <c r="B230" s="43"/>
+      <c r="A230" s="39"/>
+      <c r="B230" s="40"/>
       <c r="C230" s="8" t="s">
         <v>444</v>
       </c>
@@ -49094,17 +49092,17 @@
         <v>445</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>931</v>
+        <v>975</v>
       </c>
       <c r="F230" s="10"/>
       <c r="G230" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="50" customHeight="1">
-      <c r="A231" s="42"/>
-      <c r="B231" s="41" t="s">
-        <v>946</v>
+      <c r="A231" s="39"/>
+      <c r="B231" s="38" t="s">
+        <v>894</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>446</v>
@@ -49115,12 +49113,12 @@
       <c r="E231" s="10"/>
       <c r="F231" s="10"/>
       <c r="G231" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="50" customHeight="1">
-      <c r="A232" s="42"/>
-      <c r="B232" s="43"/>
+      <c r="A232" s="39"/>
+      <c r="B232" s="40"/>
       <c r="C232" s="8" t="s">
         <v>448</v>
       </c>
@@ -49130,13 +49128,13 @@
       <c r="E232" s="10"/>
       <c r="F232" s="10"/>
       <c r="G232" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="50" customHeight="1">
-      <c r="A233" s="42"/>
-      <c r="B233" s="41" t="s">
-        <v>947</v>
+      <c r="A233" s="39"/>
+      <c r="B233" s="38" t="s">
+        <v>895</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>450</v>
@@ -49147,12 +49145,12 @@
       <c r="E233" s="10"/>
       <c r="F233" s="10"/>
       <c r="G233" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="50" customHeight="1">
-      <c r="A234" s="42"/>
-      <c r="B234" s="42"/>
+      <c r="A234" s="39"/>
+      <c r="B234" s="39"/>
       <c r="C234" s="8" t="s">
         <v>452</v>
       </c>
@@ -49162,12 +49160,12 @@
       <c r="E234" s="10"/>
       <c r="F234" s="10"/>
       <c r="G234" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="50" customHeight="1">
-      <c r="A235" s="42"/>
-      <c r="B235" s="42"/>
+      <c r="A235" s="39"/>
+      <c r="B235" s="39"/>
       <c r="C235" s="8" t="s">
         <v>454</v>
       </c>
@@ -49177,12 +49175,12 @@
       <c r="E235" s="10"/>
       <c r="F235" s="10"/>
       <c r="G235" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="50" customHeight="1">
-      <c r="A236" s="42"/>
-      <c r="B236" s="42"/>
+      <c r="A236" s="39"/>
+      <c r="B236" s="39"/>
       <c r="C236" s="8" t="s">
         <v>456</v>
       </c>
@@ -49192,12 +49190,12 @@
       <c r="E236" s="10"/>
       <c r="F236" s="10"/>
       <c r="G236" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="50" customHeight="1">
-      <c r="A237" s="42"/>
-      <c r="B237" s="42"/>
+      <c r="A237" s="39"/>
+      <c r="B237" s="39"/>
       <c r="C237" s="8" t="s">
         <v>458</v>
       </c>
@@ -49207,12 +49205,12 @@
       <c r="E237" s="10"/>
       <c r="F237" s="10"/>
       <c r="G237" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="50" customHeight="1">
-      <c r="A238" s="42"/>
-      <c r="B238" s="42"/>
+      <c r="A238" s="39"/>
+      <c r="B238" s="39"/>
       <c r="C238" s="8" t="s">
         <v>460</v>
       </c>
@@ -49222,12 +49220,12 @@
       <c r="E238" s="10"/>
       <c r="F238" s="10"/>
       <c r="G238" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="50" customHeight="1">
-      <c r="A239" s="42"/>
-      <c r="B239" s="42"/>
+      <c r="A239" s="39"/>
+      <c r="B239" s="39"/>
       <c r="C239" s="8" t="s">
         <v>462</v>
       </c>
@@ -49237,12 +49235,12 @@
       <c r="E239" s="10"/>
       <c r="F239" s="10"/>
       <c r="G239" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="50" customHeight="1">
-      <c r="A240" s="42"/>
-      <c r="B240" s="42"/>
+      <c r="A240" s="39"/>
+      <c r="B240" s="39"/>
       <c r="C240" s="8" t="s">
         <v>464</v>
       </c>
@@ -49252,12 +49250,12 @@
       <c r="E240" s="10"/>
       <c r="F240" s="10"/>
       <c r="G240" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="50" customHeight="1">
-      <c r="A241" s="42"/>
-      <c r="B241" s="42"/>
+      <c r="A241" s="39"/>
+      <c r="B241" s="39"/>
       <c r="C241" s="8" t="s">
         <v>466</v>
       </c>
@@ -49267,12 +49265,12 @@
       <c r="E241" s="10"/>
       <c r="F241" s="10"/>
       <c r="G241" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="50" customHeight="1">
-      <c r="A242" s="42"/>
-      <c r="B242" s="42"/>
+      <c r="A242" s="39"/>
+      <c r="B242" s="39"/>
       <c r="C242" s="8" t="s">
         <v>468</v>
       </c>
@@ -49282,12 +49280,12 @@
       <c r="E242" s="10"/>
       <c r="F242" s="10"/>
       <c r="G242" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="50" customHeight="1">
-      <c r="A243" s="42"/>
-      <c r="B243" s="42"/>
+      <c r="A243" s="39"/>
+      <c r="B243" s="39"/>
       <c r="C243" s="8" t="s">
         <v>470</v>
       </c>
@@ -49297,12 +49295,12 @@
       <c r="E243" s="10"/>
       <c r="F243" s="10"/>
       <c r="G243" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="50" customHeight="1">
-      <c r="A244" s="42"/>
-      <c r="B244" s="42"/>
+      <c r="A244" s="39"/>
+      <c r="B244" s="39"/>
       <c r="C244" s="8" t="s">
         <v>472</v>
       </c>
@@ -49312,12 +49310,12 @@
       <c r="E244" s="10"/>
       <c r="F244" s="10"/>
       <c r="G244" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="50" customHeight="1">
-      <c r="A245" s="42"/>
-      <c r="B245" s="42"/>
+      <c r="A245" s="39"/>
+      <c r="B245" s="39"/>
       <c r="C245" s="8" t="s">
         <v>474</v>
       </c>
@@ -49327,12 +49325,12 @@
       <c r="E245" s="10"/>
       <c r="F245" s="10"/>
       <c r="G245" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="50" customHeight="1">
-      <c r="A246" s="42"/>
-      <c r="B246" s="42"/>
+      <c r="A246" s="39"/>
+      <c r="B246" s="39"/>
       <c r="C246" s="8" t="s">
         <v>476</v>
       </c>
@@ -49342,12 +49340,12 @@
       <c r="E246" s="10"/>
       <c r="F246" s="10"/>
       <c r="G246" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="50" customHeight="1">
-      <c r="A247" s="42"/>
-      <c r="B247" s="42"/>
+      <c r="A247" s="39"/>
+      <c r="B247" s="39"/>
       <c r="C247" s="8" t="s">
         <v>478</v>
       </c>
@@ -49357,12 +49355,12 @@
       <c r="E247" s="10"/>
       <c r="F247" s="10"/>
       <c r="G247" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="50" customHeight="1">
-      <c r="A248" s="42"/>
-      <c r="B248" s="42"/>
+      <c r="A248" s="39"/>
+      <c r="B248" s="39"/>
       <c r="C248" s="8" t="s">
         <v>480</v>
       </c>
@@ -49372,12 +49370,12 @@
       <c r="E248" s="10"/>
       <c r="F248" s="10"/>
       <c r="G248" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="50" customHeight="1">
-      <c r="A249" s="42"/>
-      <c r="B249" s="42"/>
+      <c r="A249" s="39"/>
+      <c r="B249" s="39"/>
       <c r="C249" s="8" t="s">
         <v>482</v>
       </c>
@@ -49387,12 +49385,12 @@
       <c r="E249" s="10"/>
       <c r="F249" s="10"/>
       <c r="G249" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="50" customHeight="1">
-      <c r="A250" s="42"/>
-      <c r="B250" s="42"/>
+      <c r="A250" s="39"/>
+      <c r="B250" s="39"/>
       <c r="C250" s="8" t="s">
         <v>484</v>
       </c>
@@ -49402,12 +49400,12 @@
       <c r="E250" s="10"/>
       <c r="F250" s="10"/>
       <c r="G250" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="50" customHeight="1">
-      <c r="A251" s="42"/>
-      <c r="B251" s="42"/>
+      <c r="A251" s="39"/>
+      <c r="B251" s="39"/>
       <c r="C251" s="8" t="s">
         <v>486</v>
       </c>
@@ -49417,12 +49415,12 @@
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
       <c r="G251" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="50" customHeight="1">
-      <c r="A252" s="42"/>
-      <c r="B252" s="42"/>
+      <c r="A252" s="39"/>
+      <c r="B252" s="39"/>
       <c r="C252" s="8" t="s">
         <v>488</v>
       </c>
@@ -49432,12 +49430,12 @@
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
       <c r="G252" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="50" customHeight="1">
-      <c r="A253" s="42"/>
-      <c r="B253" s="42"/>
+      <c r="A253" s="39"/>
+      <c r="B253" s="39"/>
       <c r="C253" s="8" t="s">
         <v>490</v>
       </c>
@@ -49447,12 +49445,12 @@
       <c r="E253" s="10"/>
       <c r="F253" s="10"/>
       <c r="G253" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="50" customHeight="1">
-      <c r="A254" s="42"/>
-      <c r="B254" s="42"/>
+      <c r="A254" s="39"/>
+      <c r="B254" s="39"/>
       <c r="C254" s="8" t="s">
         <v>492</v>
       </c>
@@ -49462,12 +49460,12 @@
       <c r="E254" s="10"/>
       <c r="F254" s="10"/>
       <c r="G254" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="50" customHeight="1">
-      <c r="A255" s="42"/>
-      <c r="B255" s="42"/>
+      <c r="A255" s="39"/>
+      <c r="B255" s="39"/>
       <c r="C255" s="8" t="s">
         <v>494</v>
       </c>
@@ -49477,12 +49475,12 @@
       <c r="E255" s="10"/>
       <c r="F255" s="10"/>
       <c r="G255" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="50" customHeight="1">
-      <c r="A256" s="42"/>
-      <c r="B256" s="42"/>
+      <c r="A256" s="39"/>
+      <c r="B256" s="39"/>
       <c r="C256" s="8" t="s">
         <v>496</v>
       </c>
@@ -49492,12 +49490,12 @@
       <c r="E256" s="10"/>
       <c r="F256" s="10"/>
       <c r="G256" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="50" customHeight="1">
-      <c r="A257" s="42"/>
-      <c r="B257" s="42"/>
+      <c r="A257" s="39"/>
+      <c r="B257" s="39"/>
       <c r="C257" s="8" t="s">
         <v>498</v>
       </c>
@@ -49507,12 +49505,12 @@
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
       <c r="G257" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="50" customHeight="1">
-      <c r="A258" s="42"/>
-      <c r="B258" s="42"/>
+      <c r="A258" s="39"/>
+      <c r="B258" s="39"/>
       <c r="C258" s="8" t="s">
         <v>500</v>
       </c>
@@ -49522,12 +49520,12 @@
       <c r="E258" s="10"/>
       <c r="F258" s="10"/>
       <c r="G258" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="50" customHeight="1">
-      <c r="A259" s="42"/>
-      <c r="B259" s="42"/>
+      <c r="A259" s="39"/>
+      <c r="B259" s="39"/>
       <c r="C259" s="8" t="s">
         <v>502</v>
       </c>
@@ -49537,12 +49535,12 @@
       <c r="E259" s="10"/>
       <c r="F259" s="10"/>
       <c r="G259" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="50" customHeight="1">
-      <c r="A260" s="42"/>
-      <c r="B260" s="42"/>
+      <c r="A260" s="39"/>
+      <c r="B260" s="39"/>
       <c r="C260" s="8" t="s">
         <v>504</v>
       </c>
@@ -49552,12 +49550,12 @@
       <c r="E260" s="10"/>
       <c r="F260" s="10"/>
       <c r="G260" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="50" customHeight="1">
-      <c r="A261" s="42"/>
-      <c r="B261" s="42"/>
+      <c r="A261" s="39"/>
+      <c r="B261" s="39"/>
       <c r="C261" s="8" t="s">
         <v>506</v>
       </c>
@@ -49567,12 +49565,12 @@
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
       <c r="G261" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="50" customHeight="1">
-      <c r="A262" s="42"/>
-      <c r="B262" s="42"/>
+      <c r="A262" s="39"/>
+      <c r="B262" s="39"/>
       <c r="C262" s="8" t="s">
         <v>508</v>
       </c>
@@ -49582,12 +49580,12 @@
       <c r="E262" s="10"/>
       <c r="F262" s="10"/>
       <c r="G262" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="50" customHeight="1">
-      <c r="A263" s="42"/>
-      <c r="B263" s="42"/>
+      <c r="A263" s="39"/>
+      <c r="B263" s="39"/>
       <c r="C263" s="8" t="s">
         <v>510</v>
       </c>
@@ -49597,12 +49595,12 @@
       <c r="E263" s="10"/>
       <c r="F263" s="10"/>
       <c r="G263" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="50" customHeight="1">
-      <c r="A264" s="42"/>
-      <c r="B264" s="42"/>
+      <c r="A264" s="39"/>
+      <c r="B264" s="39"/>
       <c r="C264" s="8" t="s">
         <v>512</v>
       </c>
@@ -49612,12 +49610,12 @@
       <c r="E264" s="10"/>
       <c r="F264" s="10"/>
       <c r="G264" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="50" customHeight="1">
-      <c r="A265" s="42"/>
-      <c r="B265" s="42"/>
+      <c r="A265" s="39"/>
+      <c r="B265" s="39"/>
       <c r="C265" s="8" t="s">
         <v>514</v>
       </c>
@@ -49627,12 +49625,12 @@
       <c r="E265" s="10"/>
       <c r="F265" s="10"/>
       <c r="G265" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="50" customHeight="1">
-      <c r="A266" s="42"/>
-      <c r="B266" s="42"/>
+      <c r="A266" s="39"/>
+      <c r="B266" s="39"/>
       <c r="C266" s="8" t="s">
         <v>516</v>
       </c>
@@ -49642,12 +49640,12 @@
       <c r="E266" s="10"/>
       <c r="F266" s="10"/>
       <c r="G266" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="50" customHeight="1">
-      <c r="A267" s="42"/>
-      <c r="B267" s="43"/>
+      <c r="A267" s="39"/>
+      <c r="B267" s="40"/>
       <c r="C267" s="8" t="s">
         <v>518</v>
       </c>
@@ -49657,13 +49655,13 @@
       <c r="E267" s="10"/>
       <c r="F267" s="10"/>
       <c r="G267" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="50" customHeight="1">
-      <c r="A268" s="42"/>
+      <c r="A268" s="39"/>
       <c r="B268" s="14" t="s">
-        <v>948</v>
+        <v>896</v>
       </c>
       <c r="C268" s="8" t="s">
         <v>520</v>
@@ -49674,29 +49672,29 @@
       <c r="E268" s="10"/>
       <c r="F268" s="10"/>
       <c r="G268" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="50" customHeight="1">
-      <c r="A269" s="42"/>
-      <c r="B269" s="41" t="s">
-        <v>949</v>
+      <c r="A269" s="39"/>
+      <c r="B269" s="38" t="s">
+        <v>897</v>
       </c>
       <c r="C269" s="35" t="s">
-        <v>1001</v>
+        <v>923</v>
       </c>
       <c r="D269" s="36" t="s">
-        <v>1000</v>
+        <v>922</v>
       </c>
       <c r="E269" s="10"/>
       <c r="F269" s="10"/>
       <c r="G269" s="30" t="s">
-        <v>930</v>
+        <v>890</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="50" customHeight="1">
-      <c r="A270" s="42"/>
-      <c r="B270" s="42"/>
+      <c r="A270" s="39"/>
+      <c r="B270" s="39"/>
       <c r="C270" s="8" t="s">
         <v>522</v>
       </c>
@@ -49704,16 +49702,16 @@
         <v>523</v>
       </c>
       <c r="E270" s="10" t="s">
-        <v>933</v>
+        <v>976</v>
       </c>
       <c r="F270" s="10"/>
       <c r="G270" s="30" t="s">
-        <v>930</v>
+        <v>890</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="50" customHeight="1">
-      <c r="A271" s="42"/>
-      <c r="B271" s="42"/>
+      <c r="A271" s="39"/>
+      <c r="B271" s="39"/>
       <c r="C271" s="8" t="s">
         <v>524</v>
       </c>
@@ -49723,12 +49721,12 @@
       <c r="E271" s="10"/>
       <c r="F271" s="10"/>
       <c r="G271" s="30" t="s">
-        <v>930</v>
+        <v>890</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="50" customHeight="1">
-      <c r="A272" s="42"/>
-      <c r="B272" s="42"/>
+      <c r="A272" s="39"/>
+      <c r="B272" s="39"/>
       <c r="C272" s="8" t="s">
         <v>526</v>
       </c>
@@ -49738,12 +49736,12 @@
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
       <c r="G272" s="30" t="s">
-        <v>930</v>
+        <v>890</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="50" customHeight="1">
-      <c r="A273" s="42"/>
-      <c r="B273" s="43"/>
+      <c r="A273" s="39"/>
+      <c r="B273" s="40"/>
       <c r="C273" s="8" t="s">
         <v>528</v>
       </c>
@@ -49753,13 +49751,13 @@
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
       <c r="G273" s="30" t="s">
-        <v>930</v>
+        <v>890</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="50" customHeight="1">
-      <c r="A274" s="42"/>
-      <c r="B274" s="41" t="s">
-        <v>950</v>
+      <c r="A274" s="39"/>
+      <c r="B274" s="38" t="s">
+        <v>898</v>
       </c>
       <c r="C274" s="8" t="s">
         <v>530</v>
@@ -49770,12 +49768,12 @@
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
       <c r="G274" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="50" customHeight="1">
-      <c r="A275" s="42"/>
-      <c r="B275" s="42"/>
+      <c r="A275" s="39"/>
+      <c r="B275" s="39"/>
       <c r="C275" s="8" t="s">
         <v>532</v>
       </c>
@@ -49785,12 +49783,12 @@
       <c r="E275" s="10"/>
       <c r="F275" s="10"/>
       <c r="G275" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="50" customHeight="1">
-      <c r="A276" s="42"/>
-      <c r="B276" s="42"/>
+      <c r="A276" s="39"/>
+      <c r="B276" s="39"/>
       <c r="C276" s="8" t="s">
         <v>534</v>
       </c>
@@ -49798,16 +49796,16 @@
         <v>535</v>
       </c>
       <c r="E276" s="10" t="s">
-        <v>934</v>
+        <v>977</v>
       </c>
       <c r="F276" s="10"/>
       <c r="G276" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="50" customHeight="1">
-      <c r="A277" s="42"/>
-      <c r="B277" s="42"/>
+      <c r="A277" s="39"/>
+      <c r="B277" s="39"/>
       <c r="C277" s="8" t="s">
         <v>536</v>
       </c>
@@ -49817,12 +49815,12 @@
       <c r="E277" s="10"/>
       <c r="F277" s="10"/>
       <c r="G277" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="50" customHeight="1">
-      <c r="A278" s="42"/>
-      <c r="B278" s="42"/>
+      <c r="A278" s="39"/>
+      <c r="B278" s="39"/>
       <c r="C278" s="8" t="s">
         <v>538</v>
       </c>
@@ -49832,12 +49830,12 @@
       <c r="E278" s="10"/>
       <c r="F278" s="10"/>
       <c r="G278" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="50" customHeight="1">
-      <c r="A279" s="42"/>
-      <c r="B279" s="42"/>
+      <c r="A279" s="39"/>
+      <c r="B279" s="39"/>
       <c r="C279" s="8" t="s">
         <v>540</v>
       </c>
@@ -49845,16 +49843,16 @@
         <v>541</v>
       </c>
       <c r="E279" s="10" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="F279" s="10"/>
       <c r="G279" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="50" customHeight="1">
-      <c r="A280" s="42"/>
-      <c r="B280" s="42"/>
+      <c r="A280" s="39"/>
+      <c r="B280" s="39"/>
       <c r="C280" s="8" t="s">
         <v>542</v>
       </c>
@@ -49864,12 +49862,12 @@
       <c r="E280" s="10"/>
       <c r="F280" s="10"/>
       <c r="G280" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="50" customHeight="1">
-      <c r="A281" s="42"/>
-      <c r="B281" s="42"/>
+      <c r="A281" s="39"/>
+      <c r="B281" s="39"/>
       <c r="C281" s="8" t="s">
         <v>544</v>
       </c>
@@ -49879,12 +49877,12 @@
       <c r="E281" s="10"/>
       <c r="F281" s="10"/>
       <c r="G281" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="50" customHeight="1">
-      <c r="A282" s="42"/>
-      <c r="B282" s="42"/>
+      <c r="A282" s="39"/>
+      <c r="B282" s="39"/>
       <c r="C282" s="8" t="s">
         <v>546</v>
       </c>
@@ -49894,12 +49892,12 @@
       <c r="E282" s="10"/>
       <c r="F282" s="10"/>
       <c r="G282" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="50" customHeight="1">
-      <c r="A283" s="42"/>
-      <c r="B283" s="42"/>
+      <c r="A283" s="39"/>
+      <c r="B283" s="39"/>
       <c r="C283" s="8" t="s">
         <v>548</v>
       </c>
@@ -49909,12 +49907,12 @@
       <c r="E283" s="10"/>
       <c r="F283" s="10"/>
       <c r="G283" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="50" customHeight="1">
-      <c r="A284" s="42"/>
-      <c r="B284" s="42"/>
+      <c r="A284" s="39"/>
+      <c r="B284" s="39"/>
       <c r="C284" s="8" t="s">
         <v>550</v>
       </c>
@@ -49924,12 +49922,12 @@
       <c r="E284" s="10"/>
       <c r="F284" s="10"/>
       <c r="G284" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="50" customHeight="1">
-      <c r="A285" s="42"/>
-      <c r="B285" s="42"/>
+      <c r="A285" s="39"/>
+      <c r="B285" s="39"/>
       <c r="C285" s="8" t="s">
         <v>552</v>
       </c>
@@ -49939,12 +49937,12 @@
       <c r="E285" s="10"/>
       <c r="F285" s="10"/>
       <c r="G285" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="50" customHeight="1">
-      <c r="A286" s="42"/>
-      <c r="B286" s="42"/>
+      <c r="A286" s="39"/>
+      <c r="B286" s="39"/>
       <c r="C286" s="8" t="s">
         <v>554</v>
       </c>
@@ -49954,12 +49952,12 @@
       <c r="E286" s="10"/>
       <c r="F286" s="10"/>
       <c r="G286" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="50" customHeight="1">
-      <c r="A287" s="42"/>
-      <c r="B287" s="42"/>
+      <c r="A287" s="39"/>
+      <c r="B287" s="39"/>
       <c r="C287" s="8" t="s">
         <v>556</v>
       </c>
@@ -49969,12 +49967,12 @@
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
       <c r="G287" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="50" customHeight="1">
-      <c r="A288" s="42"/>
-      <c r="B288" s="42"/>
+      <c r="A288" s="39"/>
+      <c r="B288" s="39"/>
       <c r="C288" s="8" t="s">
         <v>558</v>
       </c>
@@ -49984,12 +49982,12 @@
       <c r="E288" s="10"/>
       <c r="F288" s="10"/>
       <c r="G288" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="50" customHeight="1">
-      <c r="A289" s="42"/>
-      <c r="B289" s="42"/>
+      <c r="A289" s="39"/>
+      <c r="B289" s="39"/>
       <c r="C289" s="8" t="s">
         <v>560</v>
       </c>
@@ -49999,12 +49997,12 @@
       <c r="E289" s="10"/>
       <c r="F289" s="10"/>
       <c r="G289" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="50" customHeight="1">
-      <c r="A290" s="42"/>
-      <c r="B290" s="42"/>
+      <c r="A290" s="39"/>
+      <c r="B290" s="39"/>
       <c r="C290" s="8" t="s">
         <v>562</v>
       </c>
@@ -50014,12 +50012,12 @@
       <c r="E290" s="10"/>
       <c r="F290" s="10"/>
       <c r="G290" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="50" customHeight="1">
-      <c r="A291" s="42"/>
-      <c r="B291" s="42"/>
+      <c r="A291" s="39"/>
+      <c r="B291" s="39"/>
       <c r="C291" s="8" t="s">
         <v>564</v>
       </c>
@@ -50029,12 +50027,12 @@
       <c r="E291" s="10"/>
       <c r="F291" s="10"/>
       <c r="G291" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="50" customHeight="1">
-      <c r="A292" s="42"/>
-      <c r="B292" s="42"/>
+      <c r="A292" s="39"/>
+      <c r="B292" s="39"/>
       <c r="C292" s="8" t="s">
         <v>566</v>
       </c>
@@ -50044,12 +50042,12 @@
       <c r="E292" s="10"/>
       <c r="F292" s="10"/>
       <c r="G292" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="293" spans="1:7" ht="50" customHeight="1">
-      <c r="A293" s="42"/>
-      <c r="B293" s="42"/>
+      <c r="A293" s="39"/>
+      <c r="B293" s="39"/>
       <c r="C293" s="8" t="s">
         <v>568</v>
       </c>
@@ -50059,12 +50057,12 @@
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
       <c r="G293" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="50" customHeight="1">
-      <c r="A294" s="42"/>
-      <c r="B294" s="42"/>
+      <c r="A294" s="39"/>
+      <c r="B294" s="39"/>
       <c r="C294" s="8" t="s">
         <v>570</v>
       </c>
@@ -50074,12 +50072,12 @@
       <c r="E294" s="10"/>
       <c r="F294" s="10"/>
       <c r="G294" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="50" customHeight="1">
-      <c r="A295" s="42"/>
-      <c r="B295" s="42"/>
+      <c r="A295" s="39"/>
+      <c r="B295" s="39"/>
       <c r="C295" s="8" t="s">
         <v>572</v>
       </c>
@@ -50089,12 +50087,12 @@
       <c r="E295" s="10"/>
       <c r="F295" s="10"/>
       <c r="G295" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="50" customHeight="1">
-      <c r="A296" s="42"/>
-      <c r="B296" s="42"/>
+      <c r="A296" s="39"/>
+      <c r="B296" s="39"/>
       <c r="C296" s="8" t="s">
         <v>574</v>
       </c>
@@ -50104,12 +50102,12 @@
       <c r="E296" s="10"/>
       <c r="F296" s="10"/>
       <c r="G296" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="50" customHeight="1">
-      <c r="A297" s="42"/>
-      <c r="B297" s="42"/>
+      <c r="A297" s="39"/>
+      <c r="B297" s="39"/>
       <c r="C297" s="8" t="s">
         <v>576</v>
       </c>
@@ -50119,12 +50117,12 @@
       <c r="E297" s="10"/>
       <c r="F297" s="10"/>
       <c r="G297" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="50" customHeight="1">
-      <c r="A298" s="42"/>
-      <c r="B298" s="42"/>
+      <c r="A298" s="39"/>
+      <c r="B298" s="39"/>
       <c r="C298" s="8" t="s">
         <v>578</v>
       </c>
@@ -50134,12 +50132,12 @@
       <c r="E298" s="10"/>
       <c r="F298" s="10"/>
       <c r="G298" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="50" customHeight="1">
-      <c r="A299" s="42"/>
-      <c r="B299" s="42"/>
+      <c r="A299" s="39"/>
+      <c r="B299" s="39"/>
       <c r="C299" s="8" t="s">
         <v>580</v>
       </c>
@@ -50149,12 +50147,12 @@
       <c r="E299" s="10"/>
       <c r="F299" s="10"/>
       <c r="G299" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="50" customHeight="1">
-      <c r="A300" s="42"/>
-      <c r="B300" s="42"/>
+      <c r="A300" s="39"/>
+      <c r="B300" s="39"/>
       <c r="C300" s="8" t="s">
         <v>582</v>
       </c>
@@ -50164,12 +50162,12 @@
       <c r="E300" s="10"/>
       <c r="F300" s="10"/>
       <c r="G300" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="50" customHeight="1">
-      <c r="A301" s="42"/>
-      <c r="B301" s="42"/>
+      <c r="A301" s="39"/>
+      <c r="B301" s="39"/>
       <c r="C301" s="8" t="s">
         <v>584</v>
       </c>
@@ -50179,12 +50177,12 @@
       <c r="E301" s="10"/>
       <c r="F301" s="10"/>
       <c r="G301" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="50" customHeight="1">
-      <c r="A302" s="42"/>
-      <c r="B302" s="42"/>
+      <c r="A302" s="39"/>
+      <c r="B302" s="39"/>
       <c r="C302" s="8" t="s">
         <v>586</v>
       </c>
@@ -50194,12 +50192,12 @@
       <c r="E302" s="10"/>
       <c r="F302" s="10"/>
       <c r="G302" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="50" customHeight="1">
-      <c r="A303" s="42"/>
-      <c r="B303" s="42"/>
+      <c r="A303" s="39"/>
+      <c r="B303" s="39"/>
       <c r="C303" s="8" t="s">
         <v>588</v>
       </c>
@@ -50209,12 +50207,12 @@
       <c r="E303" s="10"/>
       <c r="F303" s="10"/>
       <c r="G303" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="50" customHeight="1">
-      <c r="A304" s="42"/>
-      <c r="B304" s="42"/>
+      <c r="A304" s="39"/>
+      <c r="B304" s="39"/>
       <c r="C304" s="8" t="s">
         <v>590</v>
       </c>
@@ -50224,12 +50222,12 @@
       <c r="E304" s="10"/>
       <c r="F304" s="10"/>
       <c r="G304" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="50" customHeight="1">
-      <c r="A305" s="42"/>
-      <c r="B305" s="42"/>
+      <c r="A305" s="39"/>
+      <c r="B305" s="39"/>
       <c r="C305" s="8" t="s">
         <v>592</v>
       </c>
@@ -50239,12 +50237,12 @@
       <c r="E305" s="10"/>
       <c r="F305" s="10"/>
       <c r="G305" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="50" customHeight="1">
-      <c r="A306" s="42"/>
-      <c r="B306" s="43"/>
+      <c r="A306" s="39"/>
+      <c r="B306" s="40"/>
       <c r="C306" s="8" t="s">
         <v>594</v>
       </c>
@@ -50254,13 +50252,13 @@
       <c r="E306" s="10"/>
       <c r="F306" s="10"/>
       <c r="G306" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="50" customHeight="1">
-      <c r="A307" s="42"/>
+      <c r="A307" s="39"/>
       <c r="B307" s="14" t="s">
-        <v>951</v>
+        <v>899</v>
       </c>
       <c r="C307" s="8" t="s">
         <v>596</v>
@@ -50269,17 +50267,17 @@
         <v>597</v>
       </c>
       <c r="E307" s="10" t="s">
-        <v>935</v>
+        <v>979</v>
       </c>
       <c r="F307" s="10"/>
       <c r="G307" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="50" customHeight="1">
-      <c r="A308" s="42"/>
+      <c r="A308" s="39"/>
       <c r="B308" s="14" t="s">
-        <v>952</v>
+        <v>900</v>
       </c>
       <c r="C308" s="8" t="s">
         <v>598</v>
@@ -50288,17 +50286,17 @@
         <v>599</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>936</v>
+        <v>980</v>
       </c>
       <c r="F308" s="10"/>
       <c r="G308" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="50" customHeight="1">
-      <c r="A309" s="42"/>
-      <c r="B309" s="41" t="s">
-        <v>953</v>
+      <c r="A309" s="39"/>
+      <c r="B309" s="38" t="s">
+        <v>901</v>
       </c>
       <c r="C309" s="8" t="s">
         <v>600</v>
@@ -50307,16 +50305,16 @@
         <v>601</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>937</v>
+        <v>981</v>
       </c>
       <c r="F309" s="10"/>
       <c r="G309" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="50" customHeight="1">
-      <c r="A310" s="42"/>
-      <c r="B310" s="42"/>
+      <c r="A310" s="39"/>
+      <c r="B310" s="39"/>
       <c r="C310" s="8" t="s">
         <v>602</v>
       </c>
@@ -50324,16 +50322,16 @@
         <v>603</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>937</v>
+        <v>981</v>
       </c>
       <c r="F310" s="10"/>
       <c r="G310" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="50" customHeight="1">
-      <c r="A311" s="42"/>
-      <c r="B311" s="42"/>
+      <c r="A311" s="39"/>
+      <c r="B311" s="39"/>
       <c r="C311" s="8" t="s">
         <v>604</v>
       </c>
@@ -50341,47 +50339,47 @@
         <v>605</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>938</v>
+        <v>982</v>
       </c>
       <c r="F311" s="10"/>
       <c r="G311" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="50" customHeight="1">
-      <c r="A312" s="42"/>
-      <c r="B312" s="42"/>
+      <c r="A312" s="39"/>
+      <c r="B312" s="39"/>
       <c r="C312" s="35" t="s">
-        <v>985</v>
+        <v>907</v>
       </c>
       <c r="D312" s="36" t="s">
-        <v>986</v>
+        <v>908</v>
       </c>
       <c r="E312" s="10"/>
       <c r="F312" s="10"/>
       <c r="G312" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="50" customHeight="1">
-      <c r="A313" s="42"/>
-      <c r="B313" s="43"/>
+      <c r="A313" s="39"/>
+      <c r="B313" s="40"/>
       <c r="C313" s="35" t="s">
-        <v>987</v>
+        <v>909</v>
       </c>
       <c r="D313" s="36" t="s">
-        <v>988</v>
+        <v>910</v>
       </c>
       <c r="E313" s="10"/>
       <c r="F313" s="10"/>
       <c r="G313" s="21" t="s">
-        <v>880</v>
+        <v>863</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="50" customHeight="1">
-      <c r="A314" s="42"/>
-      <c r="B314" s="41" t="s">
-        <v>954</v>
+      <c r="A314" s="39"/>
+      <c r="B314" s="38" t="s">
+        <v>902</v>
       </c>
       <c r="C314" s="8" t="s">
         <v>606</v>
@@ -50390,16 +50388,16 @@
         <v>607</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>940</v>
+        <v>983</v>
       </c>
       <c r="F314" s="16"/>
       <c r="G314" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="50" customHeight="1">
-      <c r="A315" s="42"/>
-      <c r="B315" s="42"/>
+      <c r="A315" s="39"/>
+      <c r="B315" s="39"/>
       <c r="C315" s="8" t="s">
         <v>608</v>
       </c>
@@ -50407,16 +50405,16 @@
         <v>609</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>940</v>
+        <v>983</v>
       </c>
       <c r="F315" s="16"/>
       <c r="G315" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="50" customHeight="1">
-      <c r="A316" s="42"/>
-      <c r="B316" s="43"/>
+      <c r="A316" s="39"/>
+      <c r="B316" s="40"/>
       <c r="C316" s="8" t="s">
         <v>610</v>
       </c>
@@ -50426,13 +50424,13 @@
       <c r="E316" s="10"/>
       <c r="F316" s="10"/>
       <c r="G316" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="50" customHeight="1">
-      <c r="A317" s="42"/>
-      <c r="B317" s="41" t="s">
-        <v>955</v>
+      <c r="A317" s="39"/>
+      <c r="B317" s="38" t="s">
+        <v>903</v>
       </c>
       <c r="C317" s="8" t="s">
         <v>612</v>
@@ -50441,16 +50439,16 @@
         <v>613</v>
       </c>
       <c r="E317" s="10" t="s">
-        <v>941</v>
+        <v>984</v>
       </c>
       <c r="F317" s="10"/>
       <c r="G317" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="50" customHeight="1">
-      <c r="A318" s="42"/>
-      <c r="B318" s="42"/>
+      <c r="A318" s="39"/>
+      <c r="B318" s="39"/>
       <c r="C318" s="8" t="s">
         <v>614</v>
       </c>
@@ -50458,16 +50456,16 @@
         <v>615</v>
       </c>
       <c r="E318" s="10" t="s">
-        <v>942</v>
+        <v>985</v>
       </c>
       <c r="F318" s="10"/>
       <c r="G318" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="50" customHeight="1">
-      <c r="A319" s="42"/>
-      <c r="B319" s="42"/>
+      <c r="A319" s="39"/>
+      <c r="B319" s="39"/>
       <c r="C319" s="8" t="s">
         <v>616</v>
       </c>
@@ -50475,16 +50473,16 @@
         <v>617</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>941</v>
+        <v>984</v>
       </c>
       <c r="F319" s="10"/>
       <c r="G319" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="50" customHeight="1">
-      <c r="A320" s="42"/>
-      <c r="B320" s="42"/>
+      <c r="A320" s="39"/>
+      <c r="B320" s="39"/>
       <c r="C320" s="8" t="s">
         <v>618</v>
       </c>
@@ -50494,12 +50492,12 @@
       <c r="E320" s="10"/>
       <c r="F320" s="10"/>
       <c r="G320" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="50" customHeight="1">
-      <c r="A321" s="42"/>
-      <c r="B321" s="42"/>
+      <c r="A321" s="39"/>
+      <c r="B321" s="39"/>
       <c r="C321" s="8" t="s">
         <v>620</v>
       </c>
@@ -50509,12 +50507,12 @@
       <c r="E321" s="10"/>
       <c r="F321" s="10"/>
       <c r="G321" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="50" customHeight="1">
-      <c r="A322" s="42"/>
-      <c r="B322" s="42"/>
+      <c r="A322" s="39"/>
+      <c r="B322" s="39"/>
       <c r="C322" s="8" t="s">
         <v>622</v>
       </c>
@@ -50524,12 +50522,12 @@
       <c r="E322" s="10"/>
       <c r="F322" s="10"/>
       <c r="G322" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="50" customHeight="1">
-      <c r="A323" s="42"/>
-      <c r="B323" s="42"/>
+      <c r="A323" s="39"/>
+      <c r="B323" s="39"/>
       <c r="C323" s="8" t="s">
         <v>624</v>
       </c>
@@ -50539,12 +50537,12 @@
       <c r="E323" s="10"/>
       <c r="F323" s="10"/>
       <c r="G323" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="50" customHeight="1">
-      <c r="A324" s="42"/>
-      <c r="B324" s="42"/>
+      <c r="A324" s="39"/>
+      <c r="B324" s="39"/>
       <c r="C324" s="8" t="s">
         <v>626</v>
       </c>
@@ -50554,12 +50552,12 @@
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
       <c r="G324" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="50" customHeight="1">
-      <c r="A325" s="42"/>
-      <c r="B325" s="42"/>
+      <c r="A325" s="39"/>
+      <c r="B325" s="39"/>
       <c r="C325" s="8" t="s">
         <v>628</v>
       </c>
@@ -50569,12 +50567,12 @@
       <c r="E325" s="10"/>
       <c r="F325" s="10"/>
       <c r="G325" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="50" customHeight="1">
-      <c r="A326" s="42"/>
-      <c r="B326" s="43"/>
+      <c r="A326" s="39"/>
+      <c r="B326" s="40"/>
       <c r="C326" s="8" t="s">
         <v>630</v>
       </c>
@@ -50584,13 +50582,13 @@
       <c r="E326" s="10"/>
       <c r="F326" s="10"/>
       <c r="G326" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="50" customHeight="1">
-      <c r="A327" s="42"/>
+      <c r="A327" s="39"/>
       <c r="B327" s="14" t="s">
-        <v>956</v>
+        <v>904</v>
       </c>
       <c r="C327" s="8" t="s">
         <v>632</v>
@@ -50599,17 +50597,17 @@
         <v>633</v>
       </c>
       <c r="E327" s="10" t="s">
-        <v>939</v>
+        <v>986</v>
       </c>
       <c r="F327" s="10"/>
       <c r="G327" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="50" customHeight="1">
-      <c r="A328" s="42"/>
-      <c r="B328" s="41" t="s">
-        <v>957</v>
+      <c r="A328" s="39"/>
+      <c r="B328" s="38" t="s">
+        <v>905</v>
       </c>
       <c r="C328" s="8" t="s">
         <v>634</v>
@@ -50620,12 +50618,12 @@
       <c r="E328" s="16"/>
       <c r="F328" s="16"/>
       <c r="G328" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="50" customHeight="1">
-      <c r="A329" s="42"/>
-      <c r="B329" s="42"/>
+      <c r="A329" s="39"/>
+      <c r="B329" s="39"/>
       <c r="C329" s="8" t="s">
         <v>636</v>
       </c>
@@ -50635,12 +50633,12 @@
       <c r="E329" s="16"/>
       <c r="F329" s="16"/>
       <c r="G329" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="50" customHeight="1">
-      <c r="A330" s="42"/>
-      <c r="B330" s="42"/>
+      <c r="A330" s="39"/>
+      <c r="B330" s="39"/>
       <c r="C330" s="8" t="s">
         <v>638</v>
       </c>
@@ -50650,12 +50648,12 @@
       <c r="E330" s="16"/>
       <c r="F330" s="16"/>
       <c r="G330" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="50" customHeight="1">
-      <c r="A331" s="42"/>
-      <c r="B331" s="42"/>
+      <c r="A331" s="39"/>
+      <c r="B331" s="39"/>
       <c r="C331" s="8" t="s">
         <v>640</v>
       </c>
@@ -50665,12 +50663,12 @@
       <c r="E331" s="16"/>
       <c r="F331" s="16"/>
       <c r="G331" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="50" customHeight="1">
-      <c r="A332" s="43"/>
-      <c r="B332" s="43"/>
+      <c r="A332" s="40"/>
+      <c r="B332" s="40"/>
       <c r="C332" s="8" t="s">
         <v>642</v>
       </c>
@@ -50680,12 +50678,12 @@
       <c r="E332" s="16"/>
       <c r="F332" s="16"/>
       <c r="G332" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="50" customHeight="1">
-      <c r="A333" s="41" t="s">
-        <v>909</v>
+      <c r="A333" s="38" t="s">
+        <v>871</v>
       </c>
       <c r="C333" s="8" t="s">
         <v>644</v>
@@ -50694,15 +50692,15 @@
         <v>645</v>
       </c>
       <c r="E333" s="10" t="s">
-        <v>959</v>
+        <v>987</v>
       </c>
       <c r="F333" s="10"/>
       <c r="G333" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="50" customHeight="1">
-      <c r="A334" s="42"/>
+      <c r="A334" s="39"/>
       <c r="C334" s="8" t="s">
         <v>646</v>
       </c>
@@ -50712,11 +50710,11 @@
       <c r="E334" s="16"/>
       <c r="F334" s="16"/>
       <c r="G334" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="50" customHeight="1">
-      <c r="A335" s="42"/>
+      <c r="A335" s="39"/>
       <c r="C335" s="8" t="s">
         <v>648</v>
       </c>
@@ -50726,11 +50724,11 @@
       <c r="E335" s="10"/>
       <c r="F335" s="10"/>
       <c r="G335" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="50" customHeight="1">
-      <c r="A336" s="42"/>
+      <c r="A336" s="39"/>
       <c r="C336" s="8" t="s">
         <v>650</v>
       </c>
@@ -50740,11 +50738,11 @@
       <c r="E336" s="10"/>
       <c r="F336" s="10"/>
       <c r="G336" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="50" customHeight="1">
-      <c r="A337" s="42"/>
+      <c r="A337" s="39"/>
       <c r="C337" s="8" t="s">
         <v>652</v>
       </c>
@@ -50754,11 +50752,11 @@
       <c r="E337" s="10"/>
       <c r="F337" s="10"/>
       <c r="G337" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="50" customHeight="1">
-      <c r="A338" s="42"/>
+      <c r="A338" s="39"/>
       <c r="C338" s="8" t="s">
         <v>654</v>
       </c>
@@ -50768,11 +50766,11 @@
       <c r="E338" s="10"/>
       <c r="F338" s="10"/>
       <c r="G338" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="50" customHeight="1">
-      <c r="A339" s="42"/>
+      <c r="A339" s="39"/>
       <c r="C339" s="8" t="s">
         <v>656</v>
       </c>
@@ -50780,15 +50778,15 @@
         <v>657</v>
       </c>
       <c r="E339" s="10" t="s">
-        <v>959</v>
+        <v>987</v>
       </c>
       <c r="F339" s="10"/>
       <c r="G339" s="30" t="s">
-        <v>930</v>
+        <v>890</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="50" customHeight="1">
-      <c r="A340" s="42"/>
+      <c r="A340" s="39"/>
       <c r="C340" s="8" t="s">
         <v>658</v>
       </c>
@@ -50798,11 +50796,11 @@
       <c r="E340" s="10"/>
       <c r="F340" s="10"/>
       <c r="G340" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="50" customHeight="1">
-      <c r="A341" s="42"/>
+      <c r="A341" s="39"/>
       <c r="C341" s="8" t="s">
         <v>660</v>
       </c>
@@ -50812,11 +50810,11 @@
       <c r="E341" s="10"/>
       <c r="F341" s="10"/>
       <c r="G341" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="50" customHeight="1">
-      <c r="A342" s="42"/>
+      <c r="A342" s="39"/>
       <c r="C342" s="8" t="s">
         <v>662</v>
       </c>
@@ -50824,15 +50822,15 @@
         <v>663</v>
       </c>
       <c r="E342" s="10" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
       <c r="F342" s="10"/>
       <c r="G342" s="30" t="s">
-        <v>930</v>
+        <v>890</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="50" customHeight="1">
-      <c r="A343" s="42"/>
+      <c r="A343" s="39"/>
       <c r="C343" s="8" t="s">
         <v>664</v>
       </c>
@@ -50842,11 +50840,11 @@
       <c r="E343" s="10"/>
       <c r="F343" s="10"/>
       <c r="G343" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="50" customHeight="1">
-      <c r="A344" s="42"/>
+      <c r="A344" s="39"/>
       <c r="C344" s="8" t="s">
         <v>666</v>
       </c>
@@ -50856,11 +50854,11 @@
       <c r="E344" s="10"/>
       <c r="F344" s="10"/>
       <c r="G344" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="50" customHeight="1">
-      <c r="A345" s="42"/>
+      <c r="A345" s="39"/>
       <c r="C345" s="8" t="s">
         <v>668</v>
       </c>
@@ -50870,25 +50868,25 @@
       <c r="E345" s="10"/>
       <c r="F345" s="10"/>
       <c r="G345" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="50" customHeight="1">
-      <c r="A346" s="42"/>
+      <c r="A346" s="39"/>
       <c r="C346" s="35" t="s">
-        <v>1002</v>
+        <v>924</v>
       </c>
       <c r="D346" s="36" t="s">
-        <v>1003</v>
+        <v>925</v>
       </c>
       <c r="E346" s="10"/>
       <c r="F346" s="10"/>
       <c r="G346" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="50" customHeight="1">
-      <c r="A347" s="42"/>
+      <c r="A347" s="39"/>
       <c r="C347" s="8" t="s">
         <v>670</v>
       </c>
@@ -50896,15 +50894,15 @@
         <v>671</v>
       </c>
       <c r="E347" s="10" t="s">
-        <v>960</v>
+        <v>989</v>
       </c>
       <c r="F347" s="10"/>
       <c r="G347" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="50" customHeight="1">
-      <c r="A348" s="42"/>
+      <c r="A348" s="39"/>
       <c r="C348" s="8" t="s">
         <v>672</v>
       </c>
@@ -50912,15 +50910,15 @@
         <v>673</v>
       </c>
       <c r="E348" s="10" t="s">
-        <v>961</v>
+        <v>989</v>
       </c>
       <c r="F348" s="10"/>
       <c r="G348" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="50" customHeight="1">
-      <c r="A349" s="42"/>
+      <c r="A349" s="39"/>
       <c r="C349" s="8" t="s">
         <v>674</v>
       </c>
@@ -50930,11 +50928,11 @@
       <c r="E349" s="10"/>
       <c r="F349" s="10"/>
       <c r="G349" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="50" customHeight="1">
-      <c r="A350" s="42"/>
+      <c r="A350" s="39"/>
       <c r="C350" s="8" t="s">
         <v>676</v>
       </c>
@@ -50944,11 +50942,11 @@
       <c r="E350" s="10"/>
       <c r="F350" s="10"/>
       <c r="G350" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="50" customHeight="1">
-      <c r="A351" s="42"/>
+      <c r="A351" s="39"/>
       <c r="C351" s="8" t="s">
         <v>678</v>
       </c>
@@ -50956,15 +50954,15 @@
         <v>679</v>
       </c>
       <c r="E351" s="10" t="s">
-        <v>961</v>
+        <v>989</v>
       </c>
       <c r="F351" s="10"/>
       <c r="G351" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="50" customHeight="1">
-      <c r="A352" s="42"/>
+      <c r="A352" s="39"/>
       <c r="C352" s="8" t="s">
         <v>680</v>
       </c>
@@ -50974,11 +50972,11 @@
       <c r="E352" s="10"/>
       <c r="F352" s="10"/>
       <c r="G352" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="50" customHeight="1">
-      <c r="A353" s="42"/>
+      <c r="A353" s="39"/>
       <c r="C353" s="8" t="s">
         <v>682</v>
       </c>
@@ -50986,15 +50984,15 @@
         <v>683</v>
       </c>
       <c r="E353" s="10" t="s">
-        <v>961</v>
+        <v>989</v>
       </c>
       <c r="F353" s="10"/>
       <c r="G353" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="50" customHeight="1">
-      <c r="A354" s="42"/>
+      <c r="A354" s="39"/>
       <c r="C354" s="8" t="s">
         <v>684</v>
       </c>
@@ -51004,11 +51002,11 @@
       <c r="E354" s="10"/>
       <c r="F354" s="10"/>
       <c r="G354" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="50" customHeight="1">
-      <c r="A355" s="42"/>
+      <c r="A355" s="39"/>
       <c r="C355" s="8" t="s">
         <v>686</v>
       </c>
@@ -51016,15 +51014,15 @@
         <v>687</v>
       </c>
       <c r="E355" s="10" t="s">
-        <v>962</v>
+        <v>990</v>
       </c>
       <c r="F355" s="10"/>
       <c r="G355" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="50" customHeight="1">
-      <c r="A356" s="42"/>
+      <c r="A356" s="39"/>
       <c r="C356" s="8" t="s">
         <v>688</v>
       </c>
@@ -51032,15 +51030,15 @@
         <v>689</v>
       </c>
       <c r="E356" s="10" t="s">
-        <v>963</v>
+        <v>991</v>
       </c>
       <c r="F356" s="10"/>
       <c r="G356" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="50" customHeight="1">
-      <c r="A357" s="42"/>
+      <c r="A357" s="39"/>
       <c r="C357" s="8" t="s">
         <v>690</v>
       </c>
@@ -51048,15 +51046,15 @@
         <v>691</v>
       </c>
       <c r="E357" s="10" t="s">
-        <v>963</v>
+        <v>991</v>
       </c>
       <c r="F357" s="10"/>
       <c r="G357" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="50" customHeight="1">
-      <c r="A358" s="42"/>
+      <c r="A358" s="39"/>
       <c r="C358" s="8" t="s">
         <v>692</v>
       </c>
@@ -51064,15 +51062,15 @@
         <v>693</v>
       </c>
       <c r="E358" s="10" t="s">
-        <v>963</v>
+        <v>991</v>
       </c>
       <c r="F358" s="10"/>
       <c r="G358" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="50" customHeight="1">
-      <c r="A359" s="42"/>
+      <c r="A359" s="39"/>
       <c r="C359" s="8" t="s">
         <v>694</v>
       </c>
@@ -51082,11 +51080,11 @@
       <c r="E359" s="10"/>
       <c r="F359" s="10"/>
       <c r="G359" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="50" customHeight="1">
-      <c r="A360" s="42"/>
+      <c r="A360" s="39"/>
       <c r="C360" s="8" t="s">
         <v>696</v>
       </c>
@@ -51096,11 +51094,11 @@
       <c r="E360" s="10"/>
       <c r="F360" s="10"/>
       <c r="G360" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="50" customHeight="1">
-      <c r="A361" s="42"/>
+      <c r="A361" s="39"/>
       <c r="C361" s="8" t="s">
         <v>698</v>
       </c>
@@ -51110,11 +51108,11 @@
       <c r="E361" s="10"/>
       <c r="F361" s="10"/>
       <c r="G361" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="50" customHeight="1">
-      <c r="A362" s="42"/>
+      <c r="A362" s="39"/>
       <c r="C362" s="8" t="s">
         <v>700</v>
       </c>
@@ -51124,11 +51122,11 @@
       <c r="E362" s="10"/>
       <c r="F362" s="10"/>
       <c r="G362" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="50" customHeight="1">
-      <c r="A363" s="42"/>
+      <c r="A363" s="39"/>
       <c r="C363" s="8" t="s">
         <v>702</v>
       </c>
@@ -51138,11 +51136,11 @@
       <c r="E363" s="10"/>
       <c r="F363" s="10"/>
       <c r="G363" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="50" customHeight="1">
-      <c r="A364" s="42"/>
+      <c r="A364" s="39"/>
       <c r="C364" s="8" t="s">
         <v>704</v>
       </c>
@@ -51150,15 +51148,15 @@
         <v>705</v>
       </c>
       <c r="E364" s="10" t="s">
-        <v>964</v>
+        <v>992</v>
       </c>
       <c r="F364" s="10"/>
       <c r="G364" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="50" customHeight="1">
-      <c r="A365" s="42"/>
+      <c r="A365" s="39"/>
       <c r="C365" s="8" t="s">
         <v>706</v>
       </c>
@@ -51166,15 +51164,15 @@
         <v>707</v>
       </c>
       <c r="E365" s="10" t="s">
-        <v>965</v>
+        <v>993</v>
       </c>
       <c r="F365" s="10"/>
       <c r="G365" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="50" customHeight="1">
-      <c r="A366" s="42"/>
+      <c r="A366" s="39"/>
       <c r="C366" s="8" t="s">
         <v>708</v>
       </c>
@@ -51184,11 +51182,11 @@
       <c r="E366" s="10"/>
       <c r="F366" s="10"/>
       <c r="G366" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="50" customHeight="1">
-      <c r="A367" s="42"/>
+      <c r="A367" s="39"/>
       <c r="C367" s="8" t="s">
         <v>710</v>
       </c>
@@ -51196,15 +51194,15 @@
         <v>711</v>
       </c>
       <c r="E367" s="10" t="s">
-        <v>965</v>
+        <v>993</v>
       </c>
       <c r="F367" s="10"/>
       <c r="G367" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="50" customHeight="1">
-      <c r="A368" s="42"/>
+      <c r="A368" s="39"/>
       <c r="C368" s="8" t="s">
         <v>712</v>
       </c>
@@ -51212,15 +51210,15 @@
         <v>713</v>
       </c>
       <c r="E368" s="10" t="s">
-        <v>897</v>
+        <v>961</v>
       </c>
       <c r="F368" s="10"/>
       <c r="G368" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="50" customHeight="1">
-      <c r="A369" s="42"/>
+      <c r="A369" s="39"/>
       <c r="C369" s="8" t="s">
         <v>714</v>
       </c>
@@ -51228,15 +51226,15 @@
         <v>715</v>
       </c>
       <c r="E369" s="10" t="s">
-        <v>966</v>
+        <v>994</v>
       </c>
       <c r="F369" s="10"/>
       <c r="G369" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="50" customHeight="1">
-      <c r="A370" s="42"/>
+      <c r="A370" s="39"/>
       <c r="C370" s="8" t="s">
         <v>716</v>
       </c>
@@ -51244,15 +51242,15 @@
         <v>717</v>
       </c>
       <c r="E370" s="10" t="s">
-        <v>897</v>
+        <v>961</v>
       </c>
       <c r="F370" s="10"/>
       <c r="G370" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="371" spans="1:7" ht="50" customHeight="1">
-      <c r="A371" s="42"/>
+      <c r="A371" s="39"/>
       <c r="C371" s="8" t="s">
         <v>718</v>
       </c>
@@ -51260,15 +51258,15 @@
         <v>719</v>
       </c>
       <c r="E371" s="10" t="s">
-        <v>967</v>
+        <v>995</v>
       </c>
       <c r="F371" s="10"/>
       <c r="G371" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="50" customHeight="1">
-      <c r="A372" s="42"/>
+      <c r="A372" s="39"/>
       <c r="C372" s="8" t="s">
         <v>720</v>
       </c>
@@ -51276,15 +51274,15 @@
         <v>721</v>
       </c>
       <c r="E372" s="10" t="s">
-        <v>897</v>
+        <v>961</v>
       </c>
       <c r="F372" s="10"/>
       <c r="G372" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="50" customHeight="1">
-      <c r="A373" s="42"/>
+      <c r="A373" s="39"/>
       <c r="C373" s="8" t="s">
         <v>722</v>
       </c>
@@ -51292,15 +51290,15 @@
         <v>723</v>
       </c>
       <c r="E373" s="10" t="s">
-        <v>968</v>
+        <v>996</v>
       </c>
       <c r="F373" s="10"/>
       <c r="G373" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="50" customHeight="1">
-      <c r="A374" s="42"/>
+      <c r="A374" s="39"/>
       <c r="C374" s="8" t="s">
         <v>724</v>
       </c>
@@ -51308,15 +51306,15 @@
         <v>725</v>
       </c>
       <c r="E374" s="10" t="s">
-        <v>968</v>
+        <v>996</v>
       </c>
       <c r="F374" s="10"/>
       <c r="G374" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="50" customHeight="1">
-      <c r="A375" s="42"/>
+      <c r="A375" s="39"/>
       <c r="C375" s="8" t="s">
         <v>726</v>
       </c>
@@ -51324,15 +51322,15 @@
         <v>727</v>
       </c>
       <c r="E375" s="10" t="s">
-        <v>968</v>
+        <v>996</v>
       </c>
       <c r="F375" s="10"/>
       <c r="G375" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="50" customHeight="1">
-      <c r="A376" s="42"/>
+      <c r="A376" s="39"/>
       <c r="C376" s="8" t="s">
         <v>728</v>
       </c>
@@ -51340,15 +51338,15 @@
         <v>729</v>
       </c>
       <c r="E376" s="10" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="F376" s="10"/>
       <c r="G376" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="50" customHeight="1">
-      <c r="A377" s="42"/>
+      <c r="A377" s="39"/>
       <c r="C377" s="8" t="s">
         <v>730</v>
       </c>
@@ -51358,11 +51356,11 @@
       <c r="E377" s="10"/>
       <c r="F377" s="10"/>
       <c r="G377" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="378" spans="1:7" ht="50" customHeight="1">
-      <c r="A378" s="42"/>
+      <c r="A378" s="39"/>
       <c r="C378" s="8" t="s">
         <v>732</v>
       </c>
@@ -51370,15 +51368,15 @@
         <v>733</v>
       </c>
       <c r="E378" s="10" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="F378" s="10"/>
       <c r="G378" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="50" customHeight="1">
-      <c r="A379" s="42"/>
+      <c r="A379" s="39"/>
       <c r="C379" s="8" t="s">
         <v>734</v>
       </c>
@@ -51388,11 +51386,11 @@
       <c r="E379" s="10"/>
       <c r="F379" s="10"/>
       <c r="G379" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="50" customHeight="1">
-      <c r="A380" s="42"/>
+      <c r="A380" s="39"/>
       <c r="C380" s="8" t="s">
         <v>736</v>
       </c>
@@ -51402,11 +51400,11 @@
       <c r="E380" s="10"/>
       <c r="F380" s="10"/>
       <c r="G380" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="50" customHeight="1">
-      <c r="A381" s="42"/>
+      <c r="A381" s="39"/>
       <c r="C381" s="8" t="s">
         <v>738</v>
       </c>
@@ -51416,11 +51414,11 @@
       <c r="E381" s="10"/>
       <c r="F381" s="10"/>
       <c r="G381" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="50" customHeight="1">
-      <c r="A382" s="42"/>
+      <c r="A382" s="39"/>
       <c r="C382" s="8" t="s">
         <v>740</v>
       </c>
@@ -51430,11 +51428,11 @@
       <c r="E382" s="10"/>
       <c r="F382" s="10"/>
       <c r="G382" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="50" customHeight="1">
-      <c r="A383" s="42"/>
+      <c r="A383" s="39"/>
       <c r="C383" s="8" t="s">
         <v>742</v>
       </c>
@@ -51444,11 +51442,11 @@
       <c r="E383" s="10"/>
       <c r="F383" s="10"/>
       <c r="G383" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="50" customHeight="1">
-      <c r="A384" s="42"/>
+      <c r="A384" s="39"/>
       <c r="C384" s="8" t="s">
         <v>744</v>
       </c>
@@ -51458,11 +51456,11 @@
       <c r="E384" s="10"/>
       <c r="F384" s="10"/>
       <c r="G384" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="385" spans="1:7" ht="50" customHeight="1">
-      <c r="A385" s="42"/>
+      <c r="A385" s="39"/>
       <c r="C385" s="8" t="s">
         <v>746</v>
       </c>
@@ -51470,15 +51468,15 @@
         <v>747</v>
       </c>
       <c r="E385" s="10" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="F385" s="10"/>
       <c r="G385" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="50" customHeight="1">
-      <c r="A386" s="42"/>
+      <c r="A386" s="39"/>
       <c r="C386" s="8" t="s">
         <v>748</v>
       </c>
@@ -51488,11 +51486,11 @@
       <c r="E386" s="10"/>
       <c r="F386" s="10"/>
       <c r="G386" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="50" customHeight="1">
-      <c r="A387" s="42"/>
+      <c r="A387" s="39"/>
       <c r="C387" s="8" t="s">
         <v>750</v>
       </c>
@@ -51500,15 +51498,15 @@
         <v>751</v>
       </c>
       <c r="E387" s="10" t="s">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="F387" s="10"/>
       <c r="G387" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="50" customHeight="1">
-      <c r="A388" s="42"/>
+      <c r="A388" s="39"/>
       <c r="C388" s="8" t="s">
         <v>752</v>
       </c>
@@ -51518,11 +51516,11 @@
       <c r="E388" s="10"/>
       <c r="F388" s="10"/>
       <c r="G388" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="50" customHeight="1">
-      <c r="A389" s="42"/>
+      <c r="A389" s="39"/>
       <c r="C389" s="8" t="s">
         <v>754</v>
       </c>
@@ -51532,11 +51530,11 @@
       <c r="E389" s="10"/>
       <c r="F389" s="10"/>
       <c r="G389" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="50" customHeight="1">
-      <c r="A390" s="42"/>
+      <c r="A390" s="39"/>
       <c r="C390" s="8" t="s">
         <v>756</v>
       </c>
@@ -51546,11 +51544,11 @@
       <c r="E390" s="10"/>
       <c r="F390" s="10"/>
       <c r="G390" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="50" customHeight="1">
-      <c r="A391" s="42"/>
+      <c r="A391" s="39"/>
       <c r="C391" s="8" t="s">
         <v>758</v>
       </c>
@@ -51560,11 +51558,11 @@
       <c r="E391" s="10"/>
       <c r="F391" s="10"/>
       <c r="G391" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="392" spans="1:7" ht="50" customHeight="1">
-      <c r="A392" s="42"/>
+      <c r="A392" s="39"/>
       <c r="C392" s="8" t="s">
         <v>760</v>
       </c>
@@ -51574,11 +51572,11 @@
       <c r="E392" s="10"/>
       <c r="F392" s="10"/>
       <c r="G392" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="393" spans="1:7" ht="50" customHeight="1">
-      <c r="A393" s="42"/>
+      <c r="A393" s="39"/>
       <c r="C393" s="8" t="s">
         <v>762</v>
       </c>
@@ -51588,11 +51586,11 @@
       <c r="E393" s="10"/>
       <c r="F393" s="10"/>
       <c r="G393" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="394" spans="1:7" ht="50" customHeight="1">
-      <c r="A394" s="42"/>
+      <c r="A394" s="39"/>
       <c r="C394" s="8" t="s">
         <v>764</v>
       </c>
@@ -51602,11 +51600,11 @@
       <c r="E394" s="10"/>
       <c r="F394" s="10"/>
       <c r="G394" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="395" spans="1:7" ht="50" customHeight="1">
-      <c r="A395" s="42"/>
+      <c r="A395" s="39"/>
       <c r="C395" s="8" t="s">
         <v>766</v>
       </c>
@@ -51616,11 +51614,11 @@
       <c r="E395" s="10"/>
       <c r="F395" s="10"/>
       <c r="G395" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="396" spans="1:7" ht="50" customHeight="1">
-      <c r="A396" s="42"/>
+      <c r="A396" s="39"/>
       <c r="C396" s="8" t="s">
         <v>768</v>
       </c>
@@ -51628,15 +51626,15 @@
         <v>769</v>
       </c>
       <c r="E396" s="10" t="s">
-        <v>979</v>
+        <v>1001</v>
       </c>
       <c r="F396" s="10"/>
       <c r="G396" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="50" customHeight="1">
-      <c r="A397" s="42"/>
+      <c r="A397" s="39"/>
       <c r="C397" s="8" t="s">
         <v>770</v>
       </c>
@@ -51646,11 +51644,11 @@
       <c r="E397" s="10"/>
       <c r="F397" s="10"/>
       <c r="G397" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="50" customHeight="1">
-      <c r="A398" s="42"/>
+      <c r="A398" s="39"/>
       <c r="C398" s="8" t="s">
         <v>772</v>
       </c>
@@ -51660,11 +51658,11 @@
       <c r="E398" s="10"/>
       <c r="F398" s="10"/>
       <c r="G398" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="399" spans="1:7" ht="50" customHeight="1">
-      <c r="A399" s="42"/>
+      <c r="A399" s="39"/>
       <c r="C399" s="8" t="s">
         <v>774</v>
       </c>
@@ -51674,11 +51672,11 @@
       <c r="E399" s="10"/>
       <c r="F399" s="10"/>
       <c r="G399" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="50" customHeight="1">
-      <c r="A400" s="42"/>
+      <c r="A400" s="39"/>
       <c r="C400" s="8" t="s">
         <v>776</v>
       </c>
@@ -51686,15 +51684,15 @@
         <v>777</v>
       </c>
       <c r="E400" s="10" t="s">
-        <v>973</v>
+        <v>1002</v>
       </c>
       <c r="F400" s="10"/>
       <c r="G400" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="401" spans="1:7" ht="50" customHeight="1">
-      <c r="A401" s="42"/>
+      <c r="A401" s="39"/>
       <c r="C401" s="8" t="s">
         <v>778</v>
       </c>
@@ -51704,11 +51702,11 @@
       <c r="E401" s="10"/>
       <c r="F401" s="10"/>
       <c r="G401" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="50" customHeight="1">
-      <c r="A402" s="42"/>
+      <c r="A402" s="39"/>
       <c r="C402" s="8" t="s">
         <v>780</v>
       </c>
@@ -51716,15 +51714,15 @@
         <v>781</v>
       </c>
       <c r="E402" s="10" t="s">
-        <v>974</v>
+        <v>1003</v>
       </c>
       <c r="F402" s="10"/>
       <c r="G402" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="403" spans="1:7" ht="50" customHeight="1">
-      <c r="A403" s="42"/>
+      <c r="A403" s="39"/>
       <c r="C403" s="8" t="s">
         <v>782</v>
       </c>
@@ -51734,11 +51732,11 @@
       <c r="E403" s="10"/>
       <c r="F403" s="10"/>
       <c r="G403" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="404" spans="1:7" ht="50" customHeight="1">
-      <c r="A404" s="43"/>
+      <c r="A404" s="40"/>
       <c r="C404" s="8" t="s">
         <v>784</v>
       </c>
@@ -51748,15 +51746,15 @@
       <c r="E404" s="10"/>
       <c r="F404" s="10"/>
       <c r="G404" s="31" t="s">
-        <v>958</v>
+        <v>906</v>
       </c>
     </row>
     <row r="405" spans="1:7" ht="50" customHeight="1">
-      <c r="A405" s="41" t="s">
-        <v>910</v>
-      </c>
-      <c r="B405" s="41" t="s">
-        <v>911</v>
+      <c r="A405" s="38" t="s">
+        <v>872</v>
+      </c>
+      <c r="B405" s="38" t="s">
+        <v>873</v>
       </c>
       <c r="C405" s="26" t="s">
         <v>786</v>
@@ -51765,15 +51763,15 @@
         <v>787</v>
       </c>
       <c r="E405" s="13" t="s">
-        <v>981</v>
+        <v>1004</v>
       </c>
       <c r="G405" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="50" customHeight="1">
-      <c r="A406" s="42"/>
-      <c r="B406" s="42"/>
+      <c r="A406" s="39"/>
+      <c r="B406" s="39"/>
       <c r="C406" s="27" t="s">
         <v>788</v>
       </c>
@@ -51783,12 +51781,12 @@
       <c r="E406" s="10"/>
       <c r="F406" s="10"/>
       <c r="G406" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="50" customHeight="1">
-      <c r="A407" s="42"/>
-      <c r="B407" s="42"/>
+      <c r="A407" s="39"/>
+      <c r="B407" s="39"/>
       <c r="C407" s="27" t="s">
         <v>790</v>
       </c>
@@ -51798,12 +51796,12 @@
       <c r="E407" s="10"/>
       <c r="F407" s="10"/>
       <c r="G407" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="408" spans="1:7" ht="50" customHeight="1">
-      <c r="A408" s="42"/>
-      <c r="B408" s="43"/>
+      <c r="A408" s="39"/>
+      <c r="B408" s="40"/>
       <c r="C408" s="27" t="s">
         <v>792</v>
       </c>
@@ -51813,13 +51811,13 @@
       <c r="E408" s="10"/>
       <c r="F408" s="10"/>
       <c r="G408" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="409" spans="1:7" ht="50" customHeight="1">
-      <c r="A409" s="42"/>
-      <c r="B409" s="41" t="s">
-        <v>912</v>
+      <c r="A409" s="39"/>
+      <c r="B409" s="38" t="s">
+        <v>874</v>
       </c>
       <c r="C409" s="27" t="s">
         <v>794</v>
@@ -51830,12 +51828,12 @@
       <c r="E409" s="10"/>
       <c r="F409" s="10"/>
       <c r="G409" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="410" spans="1:7" ht="50" customHeight="1">
-      <c r="A410" s="42"/>
-      <c r="B410" s="42"/>
+      <c r="A410" s="39"/>
+      <c r="B410" s="39"/>
       <c r="C410" s="27" t="s">
         <v>796</v>
       </c>
@@ -51845,12 +51843,12 @@
       <c r="E410" s="10"/>
       <c r="F410" s="10"/>
       <c r="G410" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="411" spans="1:7" ht="50" customHeight="1">
-      <c r="A411" s="42"/>
-      <c r="B411" s="42"/>
+      <c r="A411" s="39"/>
+      <c r="B411" s="39"/>
       <c r="C411" s="27" t="s">
         <v>798</v>
       </c>
@@ -51858,16 +51856,16 @@
         <v>799</v>
       </c>
       <c r="E411" s="25" t="s">
-        <v>875</v>
+        <v>946</v>
       </c>
       <c r="F411" s="25"/>
       <c r="G411" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="50" customHeight="1">
-      <c r="A412" s="42"/>
-      <c r="B412" s="42"/>
+      <c r="A412" s="39"/>
+      <c r="B412" s="39"/>
       <c r="C412" s="27" t="s">
         <v>800</v>
       </c>
@@ -51877,12 +51875,12 @@
       <c r="E412" s="10"/>
       <c r="F412" s="10"/>
       <c r="G412" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="50" customHeight="1">
-      <c r="A413" s="42"/>
-      <c r="B413" s="42"/>
+      <c r="A413" s="39"/>
+      <c r="B413" s="39"/>
       <c r="C413" s="27" t="s">
         <v>802</v>
       </c>
@@ -51892,12 +51890,12 @@
       <c r="E413" s="10"/>
       <c r="F413" s="10"/>
       <c r="G413" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="414" spans="1:7" ht="50" customHeight="1">
-      <c r="A414" s="42"/>
-      <c r="B414" s="42"/>
+      <c r="A414" s="39"/>
+      <c r="B414" s="39"/>
       <c r="C414" s="27" t="s">
         <v>804</v>
       </c>
@@ -51907,12 +51905,12 @@
       <c r="E414" s="10"/>
       <c r="F414" s="10"/>
       <c r="G414" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="415" spans="1:7" ht="50" customHeight="1">
-      <c r="A415" s="42"/>
-      <c r="B415" s="43"/>
+      <c r="A415" s="39"/>
+      <c r="B415" s="40"/>
       <c r="C415" s="27" t="s">
         <v>806</v>
       </c>
@@ -51922,13 +51920,13 @@
       <c r="E415" s="10"/>
       <c r="F415" s="10"/>
       <c r="G415" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="50" customHeight="1">
-      <c r="A416" s="42"/>
-      <c r="B416" s="41" t="s">
-        <v>913</v>
+      <c r="A416" s="39"/>
+      <c r="B416" s="38" t="s">
+        <v>875</v>
       </c>
       <c r="C416" s="26" t="s">
         <v>808</v>
@@ -51937,15 +51935,15 @@
         <v>809</v>
       </c>
       <c r="E416" s="13" t="s">
-        <v>981</v>
+        <v>1004</v>
       </c>
       <c r="G416" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="50" customHeight="1">
-      <c r="A417" s="42"/>
-      <c r="B417" s="43"/>
+      <c r="A417" s="39"/>
+      <c r="B417" s="40"/>
       <c r="C417" s="27" t="s">
         <v>810</v>
       </c>
@@ -51953,16 +51951,16 @@
         <v>811</v>
       </c>
       <c r="E417" s="13" t="s">
-        <v>981</v>
+        <v>1004</v>
       </c>
       <c r="G417" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="50" customHeight="1">
-      <c r="A418" s="42"/>
-      <c r="B418" s="41" t="s">
-        <v>914</v>
+      <c r="A418" s="39"/>
+      <c r="B418" s="38" t="s">
+        <v>876</v>
       </c>
       <c r="C418" s="26" t="s">
         <v>812</v>
@@ -51971,12 +51969,12 @@
         <v>813</v>
       </c>
       <c r="G418" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="419" spans="1:7" ht="50" customHeight="1">
-      <c r="A419" s="42"/>
-      <c r="B419" s="42"/>
+      <c r="A419" s="39"/>
+      <c r="B419" s="39"/>
       <c r="C419" s="26" t="s">
         <v>814</v>
       </c>
@@ -51984,12 +51982,12 @@
         <v>815</v>
       </c>
       <c r="G419" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="420" spans="1:7" ht="50" customHeight="1">
-      <c r="A420" s="42"/>
-      <c r="B420" s="42"/>
+      <c r="A420" s="39"/>
+      <c r="B420" s="39"/>
       <c r="C420" s="26" t="s">
         <v>816</v>
       </c>
@@ -51997,12 +51995,12 @@
         <v>817</v>
       </c>
       <c r="G420" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="421" spans="1:7" ht="50" customHeight="1">
-      <c r="A421" s="42"/>
-      <c r="B421" s="42"/>
+      <c r="A421" s="39"/>
+      <c r="B421" s="39"/>
       <c r="C421" s="26" t="s">
         <v>818</v>
       </c>
@@ -52010,12 +52008,12 @@
         <v>819</v>
       </c>
       <c r="G421" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
     <row r="422" spans="1:7" ht="50" customHeight="1">
-      <c r="A422" s="43"/>
-      <c r="B422" s="43"/>
+      <c r="A422" s="40"/>
+      <c r="B422" s="40"/>
       <c r="C422" s="26" t="s">
         <v>820</v>
       </c>
@@ -52023,20 +52021,36 @@
         <v>821</v>
       </c>
       <c r="G422" s="28" t="s">
-        <v>915</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B314:B316"/>
-    <mergeCell ref="B317:B326"/>
-    <mergeCell ref="B328:B332"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="B233:B267"/>
-    <mergeCell ref="B274:B306"/>
-    <mergeCell ref="B309:B313"/>
-    <mergeCell ref="B269:B273"/>
+    <mergeCell ref="B47:B56"/>
+    <mergeCell ref="A34:A56"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="A16:A33"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A57:A69"/>
+    <mergeCell ref="B57:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="A70:A111"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B95"/>
+    <mergeCell ref="B96:B105"/>
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="A112:A121"/>
+    <mergeCell ref="A123:A146"/>
+    <mergeCell ref="B123:B137"/>
+    <mergeCell ref="B138:B146"/>
+    <mergeCell ref="B115:B122"/>
     <mergeCell ref="A147:A226"/>
     <mergeCell ref="A227:A332"/>
     <mergeCell ref="A333:A404"/>
@@ -52053,31 +52067,15 @@
     <mergeCell ref="B180:B185"/>
     <mergeCell ref="B186:B222"/>
     <mergeCell ref="B223:B226"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="A112:A121"/>
-    <mergeCell ref="A123:A146"/>
-    <mergeCell ref="B123:B137"/>
-    <mergeCell ref="B138:B146"/>
-    <mergeCell ref="B115:B122"/>
-    <mergeCell ref="A57:A69"/>
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="A70:A111"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B73:B95"/>
-    <mergeCell ref="B96:B105"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B47:B56"/>
-    <mergeCell ref="A34:A56"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A3:A15"/>
-    <mergeCell ref="A16:A33"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B314:B316"/>
+    <mergeCell ref="B317:B326"/>
+    <mergeCell ref="B328:B332"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="B233:B267"/>
+    <mergeCell ref="B274:B306"/>
+    <mergeCell ref="B309:B313"/>
+    <mergeCell ref="B269:B273"/>
   </mergeCells>
   <conditionalFormatting sqref="E328:F328 E306:F307 E322:F326 E125:F125">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -52091,6 +52089,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F414E67DA4490F438DF7F839DDD88F54" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="968179862b391a59b7f67eb3e7667402">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fddf207-9565-4c1d-88a2-78ac3eb02019" xmlns:ns3="1750c493-bee6-4013-b7a9-faed7d1eacd9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fc6ea6213b4ec21afdfc08f0704f67a" ns2:_="" ns3:_="">
     <xsd:import namespace="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
@@ -52293,36 +52306,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD5FE2FF-FFA2-4AC8-B9A7-6009CF780188}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E6096D8-1CD1-477D-852D-41029505002A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
-    <ds:schemaRef ds:uri="1750c493-bee6-4013-b7a9-faed7d1eacd9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -52345,9 +52332,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E6096D8-1CD1-477D-852D-41029505002A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD5FE2FF-FFA2-4AC8-B9A7-6009CF780188}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0fddf207-9565-4c1d-88a2-78ac3eb02019"/>
+    <ds:schemaRef ds:uri="1750c493-bee6-4013-b7a9-faed7d1eacd9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>